--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/OhioUniversity/PhD/NLDD/data_sets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B4CBFB-F9D9-B645-B6B3-C873E00822AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5746031E-33C6-A345-8833-71A1EC8B3F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -2450,9 +2450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L114" sqref="L114"/>
+      <selection pane="topRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3930,7 +3930,7 @@
         <v>47</v>
       </c>
       <c r="E33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>7</v>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5746031E-33C6-A345-8833-71A1EC8B3F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670F703-2D12-C14E-B3E9-205D1501C262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="-200" yWindow="2340" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -2450,9 +2450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I40" sqref="I40"/>
+      <selection pane="topRight" activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670F703-2D12-C14E-B3E9-205D1501C262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F38E5C-0777-604F-BD30-20F44414EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="2340" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F38E5C-0777-604F-BD30-20F44414EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2CFAB-2705-6740-AD39-2360AD2600EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -799,9 +799,6 @@
     <t>44Sc</t>
   </si>
   <si>
-    <t>He3,(a,g)</t>
-  </si>
-  <si>
     <t>A.V. Voinov et al. PRC 77, 034613 (2008)</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
     <t>47Ti</t>
   </si>
   <si>
-    <t>He3,p</t>
-  </si>
-  <si>
     <t>47V</t>
   </si>
   <si>
@@ -934,9 +928,6 @@
     <t>Accepted/NLD_26_57_7.csv</t>
   </si>
   <si>
-    <t>Li6,a</t>
-  </si>
-  <si>
     <t>Accepted/NLD_26_57_1.csv</t>
   </si>
   <si>
@@ -1060,9 +1051,6 @@
     <t>60Zn</t>
   </si>
   <si>
-    <t>He3,n</t>
-  </si>
-  <si>
     <t>D. Soltesz et al. PRC In Press (2020)</t>
   </si>
   <si>
@@ -1994,6 +1982,18 @@
   </si>
   <si>
     <t>Probation/NLD_94_243_1.csv</t>
+  </si>
+  <si>
+    <t>3He,(a,g)</t>
+  </si>
+  <si>
+    <t>3He,p</t>
+  </si>
+  <si>
+    <t>6Li,a</t>
+  </si>
+  <si>
+    <t>3He,n</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2136,9 @@
     <tableColumn id="4" xr3:uid="{B55140AC-61FA-2E45-B30E-9E190302A114}" name="A"/>
     <tableColumn id="5" xr3:uid="{F3A7690B-C509-B243-B0CB-08B7DBFB915C}" name="Emin"/>
     <tableColumn id="6" xr3:uid="{222C2658-F3FB-014B-8E7F-7A71A25F917B}" name="Emax"/>
-    <tableColumn id="7" xr3:uid="{0106047C-D2B8-EF41-9D22-7F3A6F762C86}" name="Exrange"/>
+    <tableColumn id="7" xr3:uid="{0106047C-D2B8-EF41-9D22-7F3A6F762C86}" name="Exrange">
+      <calculatedColumnFormula>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{34D6A9CF-A1A2-E94B-9C66-DFF11623E449}" name="Method"/>
     <tableColumn id="9" xr3:uid="{5ACD0DF8-1B95-D349-8C78-89B2EA3C58C0}" name="Reaction"/>
     <tableColumn id="10" xr3:uid="{3D178859-A39A-EA4F-BA6C-AA39D549D0CC}" name="Deformation"/>
@@ -2450,9 +2452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H266" sqref="H266"/>
+      <selection pane="topRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2478,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -2487,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -2505,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>7</v>
@@ -2543,6 +2545,7 @@
         <v>20</v>
       </c>
       <c r="G2">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H2" t="s">
@@ -2552,13 +2555,13 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N2" t="s">
         <v>16</v>
@@ -2590,6 +2593,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="G3">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="H3" t="s">
@@ -2599,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L3" t="s">
         <v>228</v>
@@ -2642,13 +2646,13 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -2677,6 +2681,7 @@
         <v>18</v>
       </c>
       <c r="G5">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H5" t="s">
@@ -2686,13 +2691,13 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N5" t="s">
         <v>18</v>
@@ -2721,6 +2726,7 @@
         <v>19.05</v>
       </c>
       <c r="G6">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="H6" t="s">
@@ -2730,7 +2736,7 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L6" t="s">
         <v>231</v>
@@ -2763,6 +2769,7 @@
         <v>20</v>
       </c>
       <c r="G7">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -2772,13 +2779,13 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
@@ -2807,6 +2814,7 @@
         <v>22</v>
       </c>
       <c r="G8">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>19</v>
       </c>
       <c r="H8" t="s">
@@ -2816,7 +2824,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L8" t="s">
         <v>233</v>
@@ -2849,6 +2857,7 @@
         <v>21</v>
       </c>
       <c r="G9">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8.5</v>
       </c>
       <c r="H9" t="s">
@@ -2858,13 +2867,13 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N9" t="s">
         <v>18</v>
@@ -2893,6 +2902,7 @@
         <v>17</v>
       </c>
       <c r="G10">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.5</v>
       </c>
       <c r="H10" t="s">
@@ -2902,13 +2912,13 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -2937,6 +2947,7 @@
         <v>19</v>
       </c>
       <c r="G11">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H11" t="s">
@@ -2946,13 +2957,13 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="N11" t="s">
         <v>16</v>
@@ -2981,6 +2992,7 @@
         <v>17.5</v>
       </c>
       <c r="G12">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8.5</v>
       </c>
       <c r="H12" t="s">
@@ -2990,13 +3002,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N12" t="s">
         <v>21</v>
@@ -3025,6 +3037,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="G13">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="H13" t="s">
@@ -3034,7 +3047,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L13" t="s">
         <v>228</v>
@@ -3067,6 +3080,7 @@
         <v>22</v>
       </c>
       <c r="G14">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="H14" t="s">
@@ -3076,7 +3090,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L14" t="s">
         <v>237</v>
@@ -3109,6 +3123,7 @@
         <v>12</v>
       </c>
       <c r="G15">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.25</v>
       </c>
       <c r="H15" t="s">
@@ -3118,16 +3133,16 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N15" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3153,6 +3168,7 @@
         <v>12</v>
       </c>
       <c r="G16">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.25</v>
       </c>
       <c r="H16" t="s">
@@ -3162,16 +3178,16 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3197,6 +3213,7 @@
         <v>12</v>
       </c>
       <c r="G17">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.25</v>
       </c>
       <c r="H17" t="s">
@@ -3206,16 +3223,16 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3241,7 +3258,8 @@
         <v>11.97</v>
       </c>
       <c r="G18">
-        <v>0.2</v>
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
         <v>241</v>
@@ -3250,7 +3268,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L18" t="s">
         <v>242</v>
@@ -3283,16 +3301,17 @@
         <v>19</v>
       </c>
       <c r="G19">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L19" t="s">
         <v>243</v>
@@ -3325,6 +3344,7 @@
         <v>21.5</v>
       </c>
       <c r="G20">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9</v>
       </c>
       <c r="H20" t="s">
@@ -3334,16 +3354,16 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N20" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3369,25 +3389,26 @@
         <v>5</v>
       </c>
       <c r="G21">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L21" t="s">
         <v>247</v>
       </c>
       <c r="M21" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N21" t="s">
         <v>30</v>
@@ -3419,25 +3440,26 @@
         <v>8</v>
       </c>
       <c r="G22">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
       </c>
       <c r="I22" t="s">
+        <v>644</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>447</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s">
-        <v>451</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="N22" t="s">
         <v>250</v>
-      </c>
-      <c r="N22" t="s">
-        <v>251</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
@@ -3466,25 +3488,26 @@
         <v>7.2</v>
       </c>
       <c r="G23">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N23" t="s">
         <v>30</v>
@@ -3498,7 +3521,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3516,25 +3539,26 @@
         <v>7.8</v>
       </c>
       <c r="G24">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.7</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N24" t="s">
         <v>30</v>
@@ -3566,6 +3590,7 @@
         <v>9.5</v>
       </c>
       <c r="G25">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>1.5</v>
       </c>
       <c r="H25" t="s">
@@ -3575,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
@@ -3590,7 +3615,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3608,26 +3633,27 @@
         <v>7.8</v>
       </c>
       <c r="G26">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.8</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3635,7 +3661,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3653,25 +3679,26 @@
         <v>8</v>
       </c>
       <c r="G27">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N27" t="s">
         <v>30</v>
@@ -3685,7 +3712,7 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3703,6 +3730,7 @@
         <v>15.55</v>
       </c>
       <c r="G28">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="H28" t="s">
@@ -3712,7 +3740,7 @@
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L28" t="s">
         <v>231</v>
@@ -3727,7 +3755,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3745,25 +3773,26 @@
         <v>8</v>
       </c>
       <c r="G29">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N29" t="s">
         <v>30</v>
@@ -3777,7 +3806,7 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3795,28 +3824,29 @@
         <v>13</v>
       </c>
       <c r="G30">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>645</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N30" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
@@ -3845,28 +3875,29 @@
         <v>5</v>
       </c>
       <c r="G31">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I31" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N31" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -3892,25 +3923,26 @@
         <v>5</v>
       </c>
       <c r="G32">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N32" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -3918,7 +3950,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -3935,9 +3967,9 @@
       <c r="F33">
         <v>7</v>
       </c>
-      <c r="G33" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G33">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
@@ -3946,13 +3978,13 @@
         <v>111</v>
       </c>
       <c r="K33" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N33" t="s">
         <v>67</v>
@@ -3966,7 +3998,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -3983,9 +4015,9 @@
       <c r="F34">
         <v>6</v>
       </c>
-      <c r="G34" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G34">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>3.5</v>
       </c>
       <c r="H34" t="s">
         <v>32</v>
@@ -3994,13 +4026,13 @@
         <v>111</v>
       </c>
       <c r="K34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N34" t="s">
         <v>67</v>
@@ -4014,7 +4046,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4031,9 +4063,9 @@
       <c r="F35">
         <v>9.5</v>
       </c>
-      <c r="G35" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G35">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>8</v>
       </c>
       <c r="H35" t="s">
         <v>32</v>
@@ -4042,13 +4074,13 @@
         <v>111</v>
       </c>
       <c r="K35" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N35" t="s">
         <v>67</v>
@@ -4062,7 +4094,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4080,25 +4112,26 @@
         <v>7.6</v>
       </c>
       <c r="G36">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.3999999999999995</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L36" t="s">
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N36" t="s">
         <v>30</v>
@@ -4130,25 +4163,26 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G37">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9.1000000000000014</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L37" t="s">
         <v>29</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N37" t="s">
         <v>30</v>
@@ -4162,7 +4196,7 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4179,24 +4213,24 @@
       <c r="F38">
         <v>18</v>
       </c>
-      <c r="G38" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G38">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
         <v>32</v>
       </c>
       <c r="I38" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>453</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="K38" t="s">
-        <v>457</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="N38" t="s">
         <v>67</v>
@@ -4210,7 +4244,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4228,6 +4262,7 @@
         <v>13.55</v>
       </c>
       <c r="G39">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="H39" t="s">
@@ -4237,7 +4272,7 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L39" t="s">
         <v>231</v>
@@ -4269,9 +4304,9 @@
       <c r="F40">
         <v>7.5</v>
       </c>
-      <c r="G40" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G40">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
@@ -4280,7 +4315,7 @@
         <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>34</v>
@@ -4300,7 +4335,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4317,27 +4352,27 @@
       <c r="F41">
         <v>6.5</v>
       </c>
-      <c r="G41" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G41">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
       </c>
       <c r="I41" t="s">
+        <v>274</v>
+      </c>
+      <c r="K41" t="s">
+        <v>455</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="K41" t="s">
-        <v>459</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="N41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
@@ -4348,7 +4383,7 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4365,24 +4400,24 @@
       <c r="F42">
         <v>9</v>
       </c>
-      <c r="G42" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G42">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>6</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N42" t="s">
         <v>67</v>
@@ -4396,7 +4431,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4413,27 +4448,27 @@
       <c r="F43">
         <v>6.5</v>
       </c>
-      <c r="G43" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G43">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>3.75</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K43" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N43" t="s">
         <v>277</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N43" t="s">
-        <v>279</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4444,7 +4479,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4461,9 +4496,9 @@
       <c r="F44">
         <v>8.5</v>
       </c>
-      <c r="G44" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G44">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>6.5</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -4472,16 +4507,16 @@
         <v>111</v>
       </c>
       <c r="K44" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4510,6 +4545,7 @@
         <v>16</v>
       </c>
       <c r="G45">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>14</v>
       </c>
       <c r="H45" t="s">
@@ -4519,14 +4555,14 @@
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L45" t="s">
         <v>40</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4534,7 +4570,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4552,25 +4588,26 @@
         <v>24</v>
       </c>
       <c r="G46">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>22</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
@@ -4581,7 +4618,7 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4599,25 +4636,26 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G47">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="H47" t="s">
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s">
         <v>118</v>
       </c>
       <c r="M47" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N47" t="s">
         <v>30</v>
@@ -4631,7 +4669,7 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4649,6 +4687,7 @@
         <v>22</v>
       </c>
       <c r="G48">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H48" t="s">
@@ -4658,7 +4697,7 @@
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s">
         <v>237</v>
@@ -4673,7 +4712,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4691,6 +4730,7 @@
         <v>10</v>
       </c>
       <c r="G49">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>1.5</v>
       </c>
       <c r="H49" t="s">
@@ -4700,14 +4740,14 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s">
         <v>20</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4715,7 +4755,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4732,27 +4772,27 @@
       <c r="F50">
         <v>12</v>
       </c>
-      <c r="G50" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G50">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>6.25</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K50" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N50" t="s">
         <v>277</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N50" t="s">
-        <v>279</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4763,7 +4803,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4780,27 +4820,27 @@
       <c r="F51">
         <v>11</v>
       </c>
-      <c r="G51" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G51">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K51" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N51" t="s">
         <v>277</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="N51" t="s">
-        <v>279</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4811,7 +4851,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -4829,25 +4869,26 @@
         <v>17</v>
       </c>
       <c r="G52">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H52" t="s">
         <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>294</v>
+        <v>646</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
@@ -4858,7 +4899,7 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -4875,24 +4916,24 @@
       <c r="F53">
         <v>10</v>
       </c>
-      <c r="G53" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G53">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5.75</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K53" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>43</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N53" t="s">
         <v>67</v>
@@ -4906,7 +4947,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -4924,25 +4965,26 @@
         <v>6.7</v>
       </c>
       <c r="G54">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.7</v>
       </c>
       <c r="H54" t="s">
         <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s">
         <v>118</v>
       </c>
       <c r="M54" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N54" t="s">
         <v>30</v>
@@ -4956,7 +4998,7 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -4973,9 +5015,9 @@
       <c r="F55">
         <v>7.5</v>
       </c>
-      <c r="G55" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G55">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
@@ -4984,16 +5026,16 @@
         <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5004,7 +5046,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5022,25 +5064,26 @@
         <v>8</v>
       </c>
       <c r="G56">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
@@ -5051,7 +5094,7 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5069,6 +5112,7 @@
         <v>5.5</v>
       </c>
       <c r="G57">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H57" t="s">
@@ -5081,13 +5125,13 @@
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>112</v>
       </c>
       <c r="N57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
@@ -5098,7 +5142,7 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5116,25 +5160,26 @@
         <v>10</v>
       </c>
       <c r="G58">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N58" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
@@ -5145,7 +5190,7 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5163,6 +5208,7 @@
         <v>9</v>
       </c>
       <c r="G59">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H59" t="s">
@@ -5175,13 +5221,13 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>112</v>
       </c>
       <c r="N59" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5189,7 +5235,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5207,6 +5253,7 @@
         <v>7</v>
       </c>
       <c r="G60">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H60" t="s">
@@ -5219,13 +5266,13 @@
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>115</v>
       </c>
       <c r="N60" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
@@ -5236,7 +5283,7 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5253,9 +5300,9 @@
       <c r="F61">
         <v>21</v>
       </c>
-      <c r="G61" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G61">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -5267,16 +5314,16 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N61" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
@@ -5287,7 +5334,7 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5305,6 +5352,7 @@
         <v>8</v>
       </c>
       <c r="G62">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H62" t="s">
@@ -5317,13 +5365,13 @@
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>185</v>
       </c>
       <c r="N62" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
@@ -5334,7 +5382,7 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5351,27 +5399,27 @@
       <c r="F63">
         <v>11</v>
       </c>
-      <c r="G63" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G63">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
         <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>56</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N63" t="s">
         <v>69</v>
@@ -5402,9 +5450,9 @@
       <c r="F64">
         <v>10.5</v>
       </c>
-      <c r="G64" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G64">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>8</v>
       </c>
       <c r="H64" t="s">
         <v>32</v>
@@ -5413,7 +5461,7 @@
         <v>42</v>
       </c>
       <c r="K64" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>43</v>
@@ -5451,6 +5499,7 @@
         <v>9.75</v>
       </c>
       <c r="G65">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>1.4499999999999993</v>
       </c>
       <c r="H65" t="s">
@@ -5460,13 +5509,13 @@
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L65" t="s">
         <v>20</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="N65" t="s">
         <v>23</v>
@@ -5495,6 +5544,7 @@
         <v>17</v>
       </c>
       <c r="G66">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>11</v>
       </c>
       <c r="H66" t="s">
@@ -5507,13 +5557,13 @@
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>46</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="N66" t="s">
         <v>47</v>
@@ -5545,6 +5595,7 @@
         <v>16</v>
       </c>
       <c r="G67">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8.5</v>
       </c>
       <c r="H67" t="s">
@@ -5557,7 +5608,7 @@
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>50</v>
@@ -5575,7 +5626,7 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5593,19 +5644,20 @@
         <v>14</v>
       </c>
       <c r="G68">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
@@ -5617,7 +5669,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5635,6 +5687,7 @@
         <v>16</v>
       </c>
       <c r="G69">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>10</v>
       </c>
       <c r="H69" t="s">
@@ -5647,13 +5700,13 @@
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
@@ -5664,7 +5717,7 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5682,6 +5735,7 @@
         <v>13.05</v>
       </c>
       <c r="G70">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="H70" t="s">
@@ -5691,7 +5745,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L70" t="s">
         <v>231</v>
@@ -5706,7 +5760,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5724,6 +5778,7 @@
         <v>22</v>
       </c>
       <c r="G71">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H71" t="s">
@@ -5733,7 +5788,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L71" t="s">
         <v>237</v>
@@ -5748,7 +5803,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5765,9 +5820,9 @@
       <c r="F72">
         <v>14</v>
       </c>
-      <c r="G72" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G72">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>10</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -5776,16 +5831,16 @@
         <v>42</v>
       </c>
       <c r="K72" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N72" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -5796,7 +5851,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -5813,9 +5868,9 @@
       <c r="F73">
         <v>7</v>
       </c>
-      <c r="G73" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G73">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
         <v>32</v>
@@ -5824,16 +5879,16 @@
         <v>111</v>
       </c>
       <c r="K73" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N73" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -5844,7 +5899,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -5862,28 +5917,29 @@
         <v>23</v>
       </c>
       <c r="G74">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>22</v>
       </c>
       <c r="H74" t="s">
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
@@ -5894,7 +5950,7 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -5911,9 +5967,9 @@
       <c r="F75">
         <v>16</v>
       </c>
-      <c r="G75" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G75">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
@@ -5925,16 +5981,16 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N75" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -5945,7 +6001,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -5962,27 +6018,27 @@
       <c r="F76">
         <v>11.5</v>
       </c>
-      <c r="G76" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G76">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N76" t="s">
         <v>67</v>
@@ -5996,7 +6052,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6013,9 +6069,9 @@
       <c r="F77">
         <v>13</v>
       </c>
-      <c r="G77" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G77">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
@@ -6027,16 +6083,16 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N77" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
@@ -6047,7 +6103,7 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6064,27 +6120,27 @@
       <c r="F78">
         <v>18</v>
       </c>
-      <c r="G78" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G78">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>9</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>294</v>
+        <v>646</v>
       </c>
       <c r="K78" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6112,9 +6168,9 @@
       <c r="F79">
         <v>18</v>
       </c>
-      <c r="G79" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G79">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
         <v>32</v>
@@ -6126,7 +6182,7 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>53</v>
@@ -6163,9 +6219,9 @@
       <c r="F80">
         <v>13</v>
       </c>
-      <c r="G80" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G80">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
@@ -6174,7 +6230,7 @@
         <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>53</v>
@@ -6211,9 +6267,9 @@
       <c r="F81">
         <v>22</v>
       </c>
-      <c r="G81" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G81">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
         <v>32</v>
@@ -6222,7 +6278,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>46</v>
@@ -6259,9 +6315,9 @@
       <c r="F82">
         <v>16</v>
       </c>
-      <c r="G82" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G82">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>9</v>
       </c>
       <c r="H82" t="s">
         <v>32</v>
@@ -6273,7 +6329,7 @@
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
@@ -6310,9 +6366,9 @@
       <c r="F83">
         <v>19</v>
       </c>
-      <c r="G83" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G83">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>9</v>
       </c>
       <c r="H83" t="s">
         <v>32</v>
@@ -6324,7 +6380,7 @@
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>50</v>
@@ -6362,6 +6418,7 @@
         <v>6</v>
       </c>
       <c r="G84">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H84" t="s">
@@ -6374,13 +6431,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N84" t="s">
         <v>57</v>
@@ -6412,6 +6469,7 @@
         <v>7</v>
       </c>
       <c r="G85">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H85" t="s">
@@ -6421,14 +6479,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L85" t="s">
         <v>68</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6454,16 +6512,17 @@
         <v>3</v>
       </c>
       <c r="G86">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L86" t="s">
         <v>71</v>
@@ -6496,16 +6555,17 @@
         <v>7</v>
       </c>
       <c r="G87">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L87" t="s">
         <v>73</v>
@@ -6520,7 +6580,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6538,6 +6598,7 @@
         <v>10</v>
       </c>
       <c r="G88">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H88" t="s">
@@ -6547,13 +6608,13 @@
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>77</v>
       </c>
       <c r="N88" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
@@ -6564,7 +6625,7 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6582,6 +6643,7 @@
         <v>17</v>
       </c>
       <c r="G89">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9.5</v>
       </c>
       <c r="H89" t="s">
@@ -6591,16 +6653,16 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N89" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
@@ -6611,7 +6673,7 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6628,9 +6690,9 @@
       <c r="F90">
         <v>18</v>
       </c>
-      <c r="G90" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G90">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>10</v>
       </c>
       <c r="H90" t="s">
         <v>32</v>
@@ -6639,16 +6701,16 @@
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N90" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
@@ -6659,7 +6721,7 @@
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6676,30 +6738,30 @@
       <c r="F91">
         <v>10</v>
       </c>
-      <c r="G91" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G91">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>10</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N91" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
@@ -6728,6 +6790,7 @@
         <v>17</v>
       </c>
       <c r="G92">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>17</v>
       </c>
       <c r="H92" t="s">
@@ -6740,7 +6803,7 @@
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>56</v>
@@ -6776,6 +6839,7 @@
         <v>10</v>
       </c>
       <c r="G93">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H93" t="s">
@@ -6788,7 +6852,7 @@
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>77</v>
@@ -6806,7 +6870,7 @@
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -6823,30 +6887,30 @@
       <c r="F94">
         <v>9</v>
       </c>
-      <c r="G94" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G94">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>9</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>336</v>
+        <v>647</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N94" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
@@ -6857,7 +6921,7 @@
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -6874,30 +6938,30 @@
       <c r="F95">
         <v>10</v>
       </c>
-      <c r="G95" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G95">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N95" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -6908,7 +6972,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -6925,9 +6989,9 @@
       <c r="F96">
         <v>18</v>
       </c>
-      <c r="G96" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G96">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>6</v>
       </c>
       <c r="H96" t="s">
         <v>32</v>
@@ -6936,16 +7000,16 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N96" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -6956,7 +7020,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -6973,30 +7037,30 @@
       <c r="F97">
         <v>11</v>
       </c>
-      <c r="G97" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G97">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>6.75</v>
       </c>
       <c r="H97" t="s">
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N97" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7025,16 +7089,17 @@
         <v>4</v>
       </c>
       <c r="G98">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L98" t="s">
         <v>80</v>
@@ -7049,7 +7114,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7067,19 +7132,20 @@
         <v>4.95</v>
       </c>
       <c r="G99">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L99" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7091,7 +7157,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7108,30 +7174,30 @@
       <c r="F100">
         <v>24</v>
       </c>
-      <c r="G100" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G100">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N100" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7159,9 +7225,9 @@
       <c r="F101">
         <v>13</v>
       </c>
-      <c r="G101" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G101">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
         <v>32</v>
@@ -7173,7 +7239,7 @@
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>85</v>
@@ -7210,9 +7276,9 @@
       <c r="F102">
         <v>13</v>
       </c>
-      <c r="G102" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G102">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>11.25</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -7224,7 +7290,7 @@
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>85</v>
@@ -7262,6 +7328,7 @@
         <v>5.7</v>
       </c>
       <c r="G103">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.7</v>
       </c>
       <c r="H103" t="s">
@@ -7271,16 +7338,16 @@
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L103" t="s">
         <v>82</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N103" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
@@ -7309,6 +7376,7 @@
         <v>8.5</v>
       </c>
       <c r="G104">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8.5</v>
       </c>
       <c r="H104" t="s">
@@ -7318,14 +7386,14 @@
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>82</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7351,16 +7419,17 @@
         <v>3.4</v>
       </c>
       <c r="G105">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>89</v>
@@ -7393,16 +7462,17 @@
         <v>3.5</v>
       </c>
       <c r="G106">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L106" t="s">
         <v>91</v>
@@ -7417,7 +7487,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7435,19 +7505,20 @@
         <v>3.45</v>
       </c>
       <c r="G107">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L107" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7459,7 +7530,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7476,27 +7547,27 @@
       <c r="F108">
         <v>24</v>
       </c>
-      <c r="G108" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G108">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
         <v>32</v>
       </c>
       <c r="I108" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K108" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N108" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7525,6 +7596,7 @@
         <v>7.5</v>
       </c>
       <c r="G109">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H109" t="s">
@@ -7537,7 +7609,7 @@
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>94</v>
@@ -7555,7 +7627,7 @@
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7573,19 +7645,20 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="G110">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L110" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7597,7 +7670,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7615,19 +7688,20 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="G111">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L111" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7657,16 +7731,17 @@
         <v>5.915</v>
       </c>
       <c r="G112">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>97</v>
@@ -7699,25 +7774,26 @@
         <v>4</v>
       </c>
       <c r="G113">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I113" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>98</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N113" t="s">
         <v>30</v>
@@ -7749,25 +7825,26 @@
         <v>5</v>
       </c>
       <c r="G114">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N114" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
@@ -7778,7 +7855,7 @@
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -7796,19 +7873,20 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="G115">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L115" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -7838,16 +7916,17 @@
         <v>5.6</v>
       </c>
       <c r="G116">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>101</v>
@@ -7880,16 +7959,17 @@
         <v>4.8</v>
       </c>
       <c r="G117">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>103</v>
@@ -7922,16 +8002,17 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G118">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>101</v>
@@ -7964,6 +8045,7 @@
         <v>7.5</v>
       </c>
       <c r="G119">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H119" t="s">
@@ -7976,7 +8058,7 @@
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>94</v>
@@ -8012,25 +8094,26 @@
         <v>9</v>
       </c>
       <c r="G120">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9</v>
       </c>
       <c r="H120" t="s">
         <v>28</v>
       </c>
       <c r="I120" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L120" t="s">
         <v>106</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N120" t="s">
         <v>30</v>
@@ -8062,25 +8145,26 @@
         <v>5</v>
       </c>
       <c r="G121">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H121" t="s">
         <v>28</v>
       </c>
       <c r="I121" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L121" t="s">
         <v>106</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N121" t="s">
         <v>30</v>
@@ -8091,7 +8175,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8109,19 +8193,20 @@
         <v>11</v>
       </c>
       <c r="G122">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L122" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
@@ -8133,7 +8218,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8151,28 +8236,29 @@
         <v>4.8</v>
       </c>
       <c r="G123">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.8</v>
       </c>
       <c r="H123" t="s">
         <v>28</v>
       </c>
       <c r="I123" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L123" t="s">
         <v>109</v>
       </c>
       <c r="M123" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N123" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8180,7 +8266,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8198,28 +8284,29 @@
         <v>4.8</v>
       </c>
       <c r="G124">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.8</v>
       </c>
       <c r="H124" t="s">
         <v>28</v>
       </c>
       <c r="I124" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L124" t="s">
         <v>109</v>
       </c>
       <c r="M124" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N124" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8227,7 +8314,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8244,30 +8331,30 @@
       <c r="F125">
         <v>12</v>
       </c>
-      <c r="G125" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G125">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>7</v>
       </c>
       <c r="H125" t="s">
         <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N125" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8296,28 +8383,29 @@
         <v>7</v>
       </c>
       <c r="G126">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H126" t="s">
         <v>28</v>
       </c>
       <c r="I126" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L126" t="s">
         <v>109</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N126" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8343,28 +8431,29 @@
         <v>7</v>
       </c>
       <c r="G127">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H127" t="s">
         <v>28</v>
       </c>
       <c r="I127" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L127" t="s">
         <v>109</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N127" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8372,7 +8461,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8390,6 +8479,7 @@
         <v>4</v>
       </c>
       <c r="G128">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H128" t="s">
@@ -8402,13 +8492,13 @@
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>112</v>
       </c>
       <c r="N128" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
@@ -8419,7 +8509,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8437,19 +8527,20 @@
         <v>9.25</v>
       </c>
       <c r="G129">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L129" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
@@ -8478,9 +8569,9 @@
       <c r="F130">
         <v>9</v>
       </c>
-      <c r="G130" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G130">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>8</v>
       </c>
       <c r="H130" t="s">
         <v>32</v>
@@ -8489,7 +8580,7 @@
         <v>111</v>
       </c>
       <c r="K130" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>112</v>
@@ -8527,6 +8618,7 @@
         <v>6</v>
       </c>
       <c r="G131">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H131" t="s">
@@ -8539,13 +8631,13 @@
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>115</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="N131" t="s">
         <v>116</v>
@@ -8559,7 +8651,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8577,26 +8669,27 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G132">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="H132" t="s">
         <v>28</v>
       </c>
       <c r="I132" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L132" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8604,7 +8697,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8622,25 +8715,26 @@
         <v>7</v>
       </c>
       <c r="G133">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.8</v>
       </c>
       <c r="H133" t="s">
         <v>28</v>
       </c>
       <c r="I133" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L133" t="s">
         <v>120</v>
       </c>
       <c r="M133" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N133" t="s">
         <v>30</v>
@@ -8654,7 +8748,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8672,25 +8766,26 @@
         <v>6.6</v>
       </c>
       <c r="G134">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.3999999999999995</v>
       </c>
       <c r="H134" t="s">
         <v>28</v>
       </c>
       <c r="I134" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L134" t="s">
         <v>120</v>
       </c>
       <c r="M134" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="N134" t="s">
         <v>30</v>
@@ -8704,7 +8799,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8722,25 +8817,26 @@
         <v>6.3</v>
       </c>
       <c r="G135">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.2</v>
       </c>
       <c r="H135" t="s">
         <v>28</v>
       </c>
       <c r="I135" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L135" t="s">
         <v>120</v>
       </c>
       <c r="M135" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="N135" t="s">
         <v>30</v>
@@ -8754,7 +8850,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -8772,25 +8868,26 @@
         <v>7.8</v>
       </c>
       <c r="G136">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.7</v>
       </c>
       <c r="H136" t="s">
         <v>28</v>
       </c>
       <c r="I136" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L136" t="s">
         <v>118</v>
       </c>
       <c r="M136" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="N136" t="s">
         <v>30</v>
@@ -8804,7 +8901,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -8822,23 +8919,24 @@
         <v>15.5</v>
       </c>
       <c r="G137">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L137" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -8864,25 +8962,26 @@
         <v>5.8</v>
       </c>
       <c r="G138">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.8</v>
       </c>
       <c r="H138" t="s">
         <v>28</v>
       </c>
       <c r="I138" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L138" t="s">
         <v>118</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N138" t="s">
         <v>30</v>
@@ -8914,25 +9013,26 @@
         <v>7.6</v>
       </c>
       <c r="G139">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.3999999999999995</v>
       </c>
       <c r="H139" t="s">
         <v>28</v>
       </c>
       <c r="I139" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L139" t="s">
         <v>120</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N139" t="s">
         <v>30</v>
@@ -8946,7 +9046,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -8964,6 +9064,7 @@
         <v>15</v>
       </c>
       <c r="G140">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>10</v>
       </c>
       <c r="H140" t="s">
@@ -8976,13 +9077,13 @@
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N140" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
@@ -8993,7 +9094,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9005,6 +9106,7 @@
         <v>96</v>
       </c>
       <c r="G141">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0</v>
       </c>
       <c r="H141" t="s">
@@ -9017,14 +9119,14 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L141" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
@@ -9035,7 +9137,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9053,6 +9155,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G142">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="H142" t="s">
@@ -9062,13 +9165,13 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L142" t="s">
         <v>122</v>
       </c>
       <c r="M142" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N142" t="s">
         <v>30</v>
@@ -9082,7 +9185,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9100,6 +9203,7 @@
         <v>7.4</v>
       </c>
       <c r="G143">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.3000000000000007</v>
       </c>
       <c r="H143" t="s">
@@ -9109,13 +9213,13 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L143" t="s">
         <v>122</v>
       </c>
       <c r="M143" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N143" t="s">
         <v>30</v>
@@ -9129,7 +9233,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9146,30 +9250,30 @@
       <c r="F144">
         <v>24</v>
       </c>
-      <c r="G144" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G144">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>15</v>
       </c>
       <c r="H144" t="s">
         <v>32</v>
       </c>
       <c r="I144" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N144" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9198,6 +9302,7 @@
         <v>4.7</v>
       </c>
       <c r="G145">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.7</v>
       </c>
       <c r="H145" t="s">
@@ -9207,13 +9312,13 @@
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L145" t="s">
         <v>122</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N145" t="s">
         <v>30</v>
@@ -9245,6 +9350,7 @@
         <v>7.2</v>
       </c>
       <c r="G146">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.2</v>
       </c>
       <c r="H146" t="s">
@@ -9254,13 +9360,13 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L146" t="s">
         <v>122</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N146" t="s">
         <v>30</v>
@@ -9274,7 +9380,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9292,19 +9398,20 @@
         <v>2.8</v>
       </c>
       <c r="G147">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L147" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9316,7 +9423,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9334,6 +9441,7 @@
         <v>7</v>
       </c>
       <c r="G148">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H148" t="s">
@@ -9343,7 +9451,7 @@
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L148" t="s">
         <v>125</v>
@@ -9358,7 +9466,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9376,6 +9484,7 @@
         <v>8</v>
       </c>
       <c r="G149">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H149" t="s">
@@ -9385,7 +9494,7 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L149" t="s">
         <v>125</v>
@@ -9400,7 +9509,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9418,6 +9527,7 @@
         <v>6</v>
       </c>
       <c r="G150">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.9</v>
       </c>
       <c r="H150" t="s">
@@ -9427,13 +9537,13 @@
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L150" t="s">
         <v>125</v>
       </c>
       <c r="M150" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N150" t="s">
         <v>30</v>
@@ -9447,7 +9557,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9464,9 +9574,9 @@
       <c r="F151">
         <v>6</v>
       </c>
-      <c r="G151" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G151">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5</v>
       </c>
       <c r="H151" t="s">
         <v>32</v>
@@ -9475,16 +9585,16 @@
         <v>14</v>
       </c>
       <c r="K151" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N151" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9495,7 +9605,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9512,9 +9622,9 @@
       <c r="F152">
         <v>8</v>
       </c>
-      <c r="G152" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G152">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>8</v>
       </c>
       <c r="H152" t="s">
         <v>32</v>
@@ -9523,16 +9633,16 @@
         <v>14</v>
       </c>
       <c r="K152" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N152" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9561,6 +9671,7 @@
         <v>7.8</v>
       </c>
       <c r="G153">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.7</v>
       </c>
       <c r="H153" t="s">
@@ -9570,13 +9681,13 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L153" t="s">
         <v>125</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N153" t="s">
         <v>30</v>
@@ -9590,7 +9701,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9608,6 +9719,7 @@
         <v>8</v>
       </c>
       <c r="G154">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H154" t="s">
@@ -9617,7 +9729,7 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L154" t="s">
         <v>127</v>
@@ -9632,7 +9744,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9649,30 +9761,30 @@
       <c r="F155">
         <v>24</v>
       </c>
-      <c r="G155" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G155">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
         <v>32</v>
       </c>
       <c r="I155" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N155" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -9683,7 +9795,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9700,9 +9812,9 @@
       <c r="F156">
         <v>7.5</v>
       </c>
-      <c r="G156" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G156">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5.5</v>
       </c>
       <c r="H156" t="s">
         <v>32</v>
@@ -9711,16 +9823,16 @@
         <v>14</v>
       </c>
       <c r="K156" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L156" t="s">
         <v>115</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N156" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -9731,7 +9843,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -9748,9 +9860,9 @@
       <c r="F157">
         <v>9</v>
       </c>
-      <c r="G157" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G157">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>7</v>
       </c>
       <c r="H157" t="s">
         <v>32</v>
@@ -9759,16 +9871,16 @@
         <v>111</v>
       </c>
       <c r="K157" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L157" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N157" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -9797,6 +9909,7 @@
         <v>4</v>
       </c>
       <c r="G158">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H158" t="s">
@@ -9806,13 +9919,13 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L158" t="s">
         <v>169</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N158" t="s">
         <v>128</v>
@@ -9841,6 +9954,7 @@
         <v>7.5</v>
       </c>
       <c r="G159">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.2</v>
       </c>
       <c r="H159" t="s">
@@ -9850,13 +9964,13 @@
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L159" t="s">
         <v>130</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N159" t="s">
         <v>30</v>
@@ -9885,6 +9999,7 @@
         <v>5.9</v>
       </c>
       <c r="G160">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.7</v>
       </c>
       <c r="H160" t="s">
@@ -9894,13 +10009,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L160" t="s">
         <v>130</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="N160" t="s">
         <v>30</v>
@@ -9929,6 +10044,7 @@
         <v>4.8</v>
       </c>
       <c r="G161">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.8</v>
       </c>
       <c r="H161" t="s">
@@ -9938,13 +10054,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L161" t="s">
         <v>133</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N161" t="s">
         <v>30</v>
@@ -9973,6 +10089,7 @@
         <v>7</v>
       </c>
       <c r="G162">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.9</v>
       </c>
       <c r="H162" t="s">
@@ -9982,7 +10099,7 @@
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L162" t="s">
         <v>133</v>
@@ -9997,7 +10114,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10009,6 +10126,7 @@
         <v>118</v>
       </c>
       <c r="G163">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0</v>
       </c>
       <c r="H163" t="s">
@@ -10018,14 +10136,14 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L163" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
@@ -10036,7 +10154,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10054,6 +10172,7 @@
         <v>6.5</v>
       </c>
       <c r="G164">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.5</v>
       </c>
       <c r="H164" t="s">
@@ -10066,7 +10185,7 @@
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>136</v>
@@ -10080,7 +10199,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10108,16 +10227,16 @@
         <v>111</v>
       </c>
       <c r="K165" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>136</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="N165" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10128,7 +10247,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10156,16 +10275,16 @@
         <v>14</v>
       </c>
       <c r="K166" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L166" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="N166" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10176,7 +10295,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10204,16 +10323,16 @@
         <v>14</v>
       </c>
       <c r="K167" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N167" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10224,7 +10343,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10252,16 +10371,16 @@
         <v>14</v>
       </c>
       <c r="K168" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N168" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10272,7 +10391,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10300,16 +10419,16 @@
         <v>14</v>
       </c>
       <c r="K169" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N169" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10348,7 +10467,7 @@
         <v>111</v>
       </c>
       <c r="K170" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>136</v>
@@ -10396,7 +10515,7 @@
         <v>111</v>
       </c>
       <c r="K171" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>136</v>
@@ -10434,6 +10553,7 @@
         <v>6</v>
       </c>
       <c r="G172">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H172" t="s">
@@ -10446,13 +10566,13 @@
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>115</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N172" t="s">
         <v>116</v>
@@ -10466,7 +10586,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10484,6 +10604,7 @@
         <v>13</v>
       </c>
       <c r="G173">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>8</v>
       </c>
       <c r="H173" t="s">
@@ -10493,14 +10614,14 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L173" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
@@ -10511,7 +10632,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10528,9 +10649,9 @@
       <c r="F174">
         <v>12</v>
       </c>
-      <c r="G174" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G174">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>6</v>
       </c>
       <c r="H174" t="s">
         <v>32</v>
@@ -10539,16 +10660,16 @@
         <v>187</v>
       </c>
       <c r="K174" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N174" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10576,9 +10697,9 @@
       <c r="F175">
         <v>14.5</v>
       </c>
-      <c r="G175" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G175">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>4</v>
       </c>
       <c r="H175" t="s">
         <v>32</v>
@@ -10587,10 +10708,10 @@
         <v>143</v>
       </c>
       <c r="K175" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M175" s="4" t="s">
         <v>144</v>
@@ -10607,7 +10728,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10625,19 +10746,20 @@
         <v>3.15</v>
       </c>
       <c r="G176">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L176" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -10667,23 +10789,24 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G177">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L177" t="s">
         <v>147</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10709,6 +10832,7 @@
         <v>7.5</v>
       </c>
       <c r="G178">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H178" t="s">
@@ -10721,7 +10845,7 @@
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>149</v>
@@ -10757,6 +10881,7 @@
         <v>6.2</v>
       </c>
       <c r="G179">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.2</v>
       </c>
       <c r="H179" t="s">
@@ -10766,7 +10891,7 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>151</v>
@@ -10799,6 +10924,7 @@
         <v>6.9</v>
       </c>
       <c r="G180">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.9</v>
       </c>
       <c r="H180" t="s">
@@ -10808,13 +10934,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>151</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N180" t="s">
         <v>30</v>
@@ -10843,6 +10969,7 @@
         <v>7.5</v>
       </c>
       <c r="G181">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H181" t="s">
@@ -10855,7 +10982,7 @@
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>149</v>
@@ -10873,7 +11000,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -10891,6 +11018,7 @@
         <v>7</v>
       </c>
       <c r="G182">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H182" t="s">
@@ -10900,7 +11028,7 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L182" t="s">
         <v>155</v>
@@ -10933,6 +11061,7 @@
         <v>7</v>
       </c>
       <c r="G183">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H183" t="s">
@@ -10942,13 +11071,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N183" t="s">
         <v>30</v>
@@ -10980,6 +11109,7 @@
         <v>5</v>
       </c>
       <c r="G184">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H184" t="s">
@@ -10989,13 +11119,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="N184" t="s">
         <v>30</v>
@@ -11027,6 +11157,7 @@
         <v>6.5</v>
       </c>
       <c r="G185">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.5</v>
       </c>
       <c r="H185" t="s">
@@ -11036,13 +11167,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N185" t="s">
         <v>30</v>
@@ -11074,6 +11205,7 @@
         <v>4.25</v>
       </c>
       <c r="G186">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.25</v>
       </c>
       <c r="H186" t="s">
@@ -11083,13 +11215,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N186" t="s">
         <v>30</v>
@@ -11121,6 +11253,7 @@
         <v>6.5</v>
       </c>
       <c r="G187">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.5</v>
       </c>
       <c r="H187" t="s">
@@ -11130,13 +11263,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N187" t="s">
         <v>30</v>
@@ -11168,6 +11301,7 @@
         <v>4</v>
       </c>
       <c r="G188">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H188" t="s">
@@ -11177,13 +11311,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="N188" t="s">
         <v>30</v>
@@ -11215,6 +11349,7 @@
         <v>6.5</v>
       </c>
       <c r="G189">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.5</v>
       </c>
       <c r="H189" t="s">
@@ -11224,13 +11359,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N189" t="s">
         <v>30</v>
@@ -11262,6 +11397,7 @@
         <v>4.25</v>
       </c>
       <c r="G190">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.25</v>
       </c>
       <c r="H190" t="s">
@@ -11271,13 +11407,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>155</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N190" t="s">
         <v>30</v>
@@ -11291,7 +11427,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11309,6 +11445,7 @@
         <v>6.8</v>
       </c>
       <c r="G191">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.7</v>
       </c>
       <c r="H191" t="s">
@@ -11318,13 +11455,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L191" t="s">
         <v>164</v>
       </c>
       <c r="M191" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="N191" t="s">
         <v>30</v>
@@ -11356,6 +11493,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G192">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.7</v>
       </c>
       <c r="H192" t="s">
@@ -11365,13 +11503,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>164</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="N192" t="s">
         <v>30</v>
@@ -11403,6 +11541,7 @@
         <v>3.4</v>
       </c>
       <c r="G193">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.3</v>
       </c>
       <c r="H193" t="s">
@@ -11412,13 +11551,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>166</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="N193" t="s">
         <v>30</v>
@@ -11450,6 +11589,7 @@
         <v>3.4</v>
       </c>
       <c r="G194">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.3</v>
       </c>
       <c r="H194" t="s">
@@ -11459,13 +11599,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>166</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="N194" t="s">
         <v>30</v>
@@ -11497,6 +11637,7 @@
         <v>7</v>
       </c>
       <c r="G195">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H195" t="s">
@@ -11506,7 +11647,7 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>169</v>
@@ -11539,6 +11680,7 @@
         <v>5.3</v>
       </c>
       <c r="G196">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.3</v>
       </c>
       <c r="H196" t="s">
@@ -11548,13 +11690,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>171</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="N196" t="s">
         <v>30</v>
@@ -11586,6 +11728,7 @@
         <v>7</v>
       </c>
       <c r="G197">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7</v>
       </c>
       <c r="H197" t="s">
@@ -11595,14 +11738,14 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>169</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
@@ -11631,6 +11774,7 @@
         <v>5</v>
       </c>
       <c r="G198">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H198" t="s">
@@ -11640,13 +11784,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>174</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N198" t="s">
         <v>30</v>
@@ -11678,6 +11822,7 @@
         <v>6</v>
       </c>
       <c r="G199">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H199" t="s">
@@ -11687,13 +11832,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>174</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N199" t="s">
         <v>30</v>
@@ -11725,6 +11870,7 @@
         <v>7.5</v>
       </c>
       <c r="G200">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H200" t="s">
@@ -11737,7 +11883,7 @@
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>149</v>
@@ -11773,6 +11919,7 @@
         <v>7.1</v>
       </c>
       <c r="G201">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.1</v>
       </c>
       <c r="H201" t="s">
@@ -11782,13 +11929,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L201" t="s">
         <v>178</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="N201" t="s">
         <v>30</v>
@@ -11817,6 +11964,7 @@
         <v>5.4</v>
       </c>
       <c r="G202">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.4</v>
       </c>
       <c r="H202" t="s">
@@ -11826,13 +11974,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L202" t="s">
         <v>178</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="N202" t="s">
         <v>30</v>
@@ -11861,6 +12009,7 @@
         <v>7.5</v>
       </c>
       <c r="G203">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>7.5</v>
       </c>
       <c r="H203" t="s">
@@ -11870,13 +12019,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L203" t="s">
         <v>181</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="N203" t="s">
         <v>30</v>
@@ -11905,6 +12054,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G204">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="H204" t="s">
@@ -11914,13 +12064,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L204" t="s">
         <v>171</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N204" t="s">
         <v>30</v>
@@ -11949,6 +12099,7 @@
         <v>6.6</v>
       </c>
       <c r="G205">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.6</v>
       </c>
       <c r="H205" t="s">
@@ -11958,13 +12109,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L205" t="s">
         <v>171</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="N205" t="s">
         <v>30</v>
@@ -11993,6 +12144,7 @@
         <v>8</v>
       </c>
       <c r="G206">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H206" t="s">
@@ -12005,14 +12157,14 @@
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>185</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
@@ -12023,7 +12175,7 @@
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12040,9 +12192,9 @@
       <c r="F207">
         <v>8</v>
       </c>
-      <c r="G207" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G207">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>7.5</v>
       </c>
       <c r="H207" t="s">
         <v>32</v>
@@ -12051,16 +12203,16 @@
         <v>14</v>
       </c>
       <c r="K207" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>115</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N207" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12089,6 +12241,7 @@
         <v>13</v>
       </c>
       <c r="G208">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H208" t="s">
@@ -12101,7 +12254,7 @@
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>188</v>
@@ -12137,6 +12290,7 @@
         <v>3.3</v>
       </c>
       <c r="G209">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.1999999999999997</v>
       </c>
       <c r="H209" t="s">
@@ -12146,7 +12300,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L209" t="s">
         <v>191</v>
@@ -12179,25 +12333,26 @@
         <v>2.6</v>
       </c>
       <c r="G210">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>2.6</v>
       </c>
       <c r="H210" t="s">
         <v>28</v>
       </c>
       <c r="I210" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L210" t="s">
         <v>191</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="N210" t="s">
         <v>30</v>
@@ -12229,25 +12384,26 @@
         <v>6</v>
       </c>
       <c r="G211">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H211" t="s">
         <v>28</v>
       </c>
       <c r="I211" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L211" t="s">
         <v>191</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="N211" t="s">
         <v>30</v>
@@ -12279,6 +12435,7 @@
         <v>4.5</v>
       </c>
       <c r="G212">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.5</v>
       </c>
       <c r="H212" t="s">
@@ -12288,13 +12445,13 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L212" t="s">
         <v>195</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="N212" t="s">
         <v>128</v>
@@ -12326,6 +12483,7 @@
         <v>8</v>
       </c>
       <c r="G213">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H213" t="s">
@@ -12338,7 +12496,7 @@
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>185</v>
@@ -12374,6 +12532,7 @@
         <v>6.3</v>
       </c>
       <c r="G214">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6.3</v>
       </c>
       <c r="H214" t="s">
@@ -12383,7 +12542,7 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L214" t="s">
         <v>191</v>
@@ -12416,6 +12575,7 @@
         <v>5.5</v>
       </c>
       <c r="G215">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.5</v>
       </c>
       <c r="H215" t="s">
@@ -12425,13 +12585,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L215" t="s">
         <v>191</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="N215" t="s">
         <v>30</v>
@@ -12445,7 +12605,7 @@
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12463,6 +12623,7 @@
         <v>11</v>
       </c>
       <c r="G216">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H216" t="s">
@@ -12475,13 +12636,13 @@
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L216" s="1" t="s">
         <v>188</v>
       </c>
       <c r="N216" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
@@ -12492,7 +12653,7 @@
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12510,6 +12671,7 @@
         <v>14</v>
       </c>
       <c r="G217">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>6</v>
       </c>
       <c r="H217" t="s">
@@ -12522,13 +12684,13 @@
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L217" s="1" t="s">
         <v>188</v>
       </c>
       <c r="N217" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
@@ -12557,6 +12719,7 @@
         <v>5</v>
       </c>
       <c r="G218">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.8</v>
       </c>
       <c r="H218" t="s">
@@ -12566,13 +12729,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L218" t="s">
         <v>200</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="N218" t="s">
         <v>30</v>
@@ -12604,6 +12767,7 @@
         <v>5.9</v>
       </c>
       <c r="G219">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.8000000000000007</v>
       </c>
       <c r="H219" t="s">
@@ -12613,13 +12777,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L219" t="s">
         <v>200</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="N219" t="s">
         <v>30</v>
@@ -12651,6 +12815,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G220">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="H220" t="s">
@@ -12660,13 +12825,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L220" t="s">
         <v>200</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N220" t="s">
         <v>30</v>
@@ -12698,6 +12863,7 @@
         <v>5.2</v>
       </c>
       <c r="G221">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>5</v>
       </c>
       <c r="H221" t="s">
@@ -12707,13 +12873,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L221" t="s">
         <v>200</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="N221" t="s">
         <v>30</v>
@@ -12745,16 +12911,17 @@
         <v>12.5</v>
       </c>
       <c r="G222">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L222" t="s">
         <v>204</v>
@@ -12769,7 +12936,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -12786,9 +12953,9 @@
       <c r="F223">
         <v>5</v>
       </c>
-      <c r="G223" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G223">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>4.5</v>
       </c>
       <c r="H223" t="s">
         <v>32</v>
@@ -12797,16 +12964,16 @@
         <v>111</v>
       </c>
       <c r="K223" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L223" s="1" t="s">
         <v>207</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N223" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -12817,7 +12984,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -12834,9 +13001,9 @@
       <c r="F224">
         <v>5.5</v>
       </c>
-      <c r="G224" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G224">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5</v>
       </c>
       <c r="H224" t="s">
         <v>32</v>
@@ -12845,16 +13012,16 @@
         <v>111</v>
       </c>
       <c r="K224" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L224" s="1" t="s">
         <v>207</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N224" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -12882,9 +13049,9 @@
       <c r="F225">
         <v>6</v>
       </c>
-      <c r="G225" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G225">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5.5</v>
       </c>
       <c r="H225" t="s">
         <v>32</v>
@@ -12893,7 +13060,7 @@
         <v>111</v>
       </c>
       <c r="K225" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L225" s="3" t="s">
         <v>207</v>
@@ -12930,9 +13097,9 @@
       <c r="F226">
         <v>6</v>
       </c>
-      <c r="G226" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G226">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5.5</v>
       </c>
       <c r="H226" t="s">
         <v>32</v>
@@ -12941,7 +13108,7 @@
         <v>111</v>
       </c>
       <c r="K226" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>207</v>
@@ -12961,7 +13128,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -12979,6 +13146,7 @@
         <v>12</v>
       </c>
       <c r="G227">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.5</v>
       </c>
       <c r="H227" t="s">
@@ -12991,14 +13159,14 @@
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L227" s="1" t="s">
         <v>188</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
@@ -13009,7 +13177,7 @@
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13026,9 +13194,9 @@
       <c r="F228">
         <v>6</v>
       </c>
-      <c r="G228" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+      <c r="G228">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
+        <v>5.5</v>
       </c>
       <c r="H228" t="s">
         <v>32</v>
@@ -13037,16 +13205,16 @@
         <v>111</v>
       </c>
       <c r="K228" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L228" s="1" t="s">
         <v>207</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N228" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13075,6 +13243,7 @@
         <v>3.6</v>
       </c>
       <c r="G229">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.6</v>
       </c>
       <c r="H229" t="s">
@@ -13084,13 +13253,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L229" t="s">
         <v>213</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="N229" t="s">
         <v>30</v>
@@ -13122,6 +13291,7 @@
         <v>2.9</v>
       </c>
       <c r="G230">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>2.9</v>
       </c>
       <c r="H230" t="s">
@@ -13131,13 +13301,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L230" t="s">
         <v>213</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N230" t="s">
         <v>30</v>
@@ -13169,6 +13339,7 @@
         <v>4</v>
       </c>
       <c r="G231">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H231" t="s">
@@ -13178,13 +13349,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L231" t="s">
         <v>213</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N231" t="s">
         <v>30</v>
@@ -13216,6 +13387,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G232">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="H232" t="s">
@@ -13225,13 +13397,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L232" t="s">
         <v>217</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N232" t="s">
         <v>30</v>
@@ -13263,6 +13435,7 @@
         <v>4.8</v>
       </c>
       <c r="G233">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.8</v>
       </c>
       <c r="H233" t="s">
@@ -13272,13 +13445,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L233" t="s">
         <v>217</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="N233" t="s">
         <v>30</v>
@@ -13310,6 +13483,7 @@
         <v>3.2</v>
       </c>
       <c r="G234">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.2</v>
       </c>
       <c r="H234" t="s">
@@ -13319,13 +13493,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L234" t="s">
         <v>213</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="N234" t="s">
         <v>30</v>
@@ -13357,6 +13531,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G235">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H235" t="s">
@@ -13366,13 +13541,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L235" t="s">
         <v>213</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="N235" t="s">
         <v>30</v>
@@ -13404,6 +13579,7 @@
         <v>4</v>
       </c>
       <c r="G236">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H236" t="s">
@@ -13413,13 +13589,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L236" t="s">
         <v>213</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="N236" t="s">
         <v>30</v>
@@ -13451,6 +13627,7 @@
         <v>4</v>
       </c>
       <c r="G237">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>4</v>
       </c>
       <c r="H237" t="s">
@@ -13460,13 +13637,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L237" t="s">
         <v>223</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="N237" t="s">
         <v>30</v>
@@ -13498,6 +13675,7 @@
         <v>3.5</v>
       </c>
       <c r="G238">
+        <f>Table1[[#This Row],[Emax]]-Table1[[#This Row],[Emin]]</f>
         <v>3.5</v>
       </c>
       <c r="H238" t="s">
@@ -13507,13 +13685,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L238" t="s">
         <v>225</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="N238" t="s">
         <v>30</v>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2CFAB-2705-6740-AD39-2360AD2600EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC8C593-AF5C-E545-B2DF-7DA65456116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="646">
   <si>
     <t>Isotope</t>
   </si>
@@ -178,9 +178,6 @@
     <t>60Co</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>A.V. Voinov et al. PRC 76, 044602 (2007)</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
   </si>
   <si>
     <t>127Te</t>
-  </si>
-  <si>
-    <t>a,n?</t>
   </si>
   <si>
     <t>Accepted/NLD_52_127_1.csv</t>
@@ -2452,9 +2446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L43" sqref="L43"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2480,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -2489,10 +2483,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -2507,7 +2501,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>7</v>
@@ -2527,7 +2521,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2555,13 +2549,13 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N2" t="s">
         <v>16</v>
@@ -2570,12 +2564,12 @@
         <v>0.13551162551010876</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2603,14 +2597,14 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2646,13 +2640,13 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -2691,13 +2685,13 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N5" t="s">
         <v>18</v>
@@ -2708,7 +2702,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2736,10 +2730,10 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2751,7 +2745,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2779,13 +2773,13 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N7" t="s">
         <v>16</v>
@@ -2796,7 +2790,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2824,14 +2818,14 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2839,7 +2833,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2867,13 +2861,13 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N9" t="s">
         <v>18</v>
@@ -2912,13 +2906,13 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -2929,7 +2923,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2957,13 +2951,13 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N11" t="s">
         <v>16</v>
@@ -2974,7 +2968,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3002,13 +2996,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N12" t="s">
         <v>21</v>
@@ -3019,7 +3013,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3047,14 +3041,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3062,7 +3056,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3090,14 +3084,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3105,7 +3099,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3133,16 +3127,16 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3150,7 +3144,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3178,16 +3172,16 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3195,7 +3189,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3223,16 +3217,16 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3240,7 +3234,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3262,16 +3256,16 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3283,7 +3277,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3305,20 +3299,20 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3326,7 +3320,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3354,16 +3348,16 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3371,7 +3365,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3396,19 +3390,19 @@
         <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N21" t="s">
         <v>30</v>
@@ -3417,12 +3411,12 @@
         <v>1.1022160736577469</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3447,30 +3441,30 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3495,19 +3489,19 @@
         <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N23" t="s">
         <v>30</v>
@@ -3516,12 +3510,12 @@
         <v>0.66530212507089459</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3546,19 +3540,19 @@
         <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N24" t="s">
         <v>30</v>
@@ -3567,7 +3561,7 @@
         <v>0.22929653162440999</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3600,7 +3594,7 @@
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
@@ -3615,7 +3609,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3640,20 +3634,20 @@
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3661,7 +3655,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3686,19 +3680,19 @@
         <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N27" t="s">
         <v>30</v>
@@ -3707,12 +3701,12 @@
         <v>1.22929653162441</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3740,10 +3734,10 @@
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3755,7 +3749,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3780,19 +3774,19 @@
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N29" t="s">
         <v>30</v>
@@ -3801,12 +3795,12 @@
         <v>0.79418935940907787</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3831,28 +3825,28 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3879,25 +3873,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
       </c>
       <c r="M31" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="N31" t="s">
         <v>567</v>
-      </c>
-      <c r="N31" t="s">
-        <v>569</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -3927,22 +3921,22 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="N32" t="s">
         <v>568</v>
-      </c>
-      <c r="N32" t="s">
-        <v>570</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -3950,7 +3944,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -3975,19 +3969,19 @@
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O33">
         <v>1.3599709566234246</v>
@@ -3998,7 +3992,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4023,19 +4017,19 @@
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O34">
         <v>0.9266319398067111</v>
@@ -4046,7 +4040,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4071,19 +4065,19 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O35">
         <v>0.49416318102058909</v>
@@ -4094,7 +4088,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4119,19 +4113,19 @@
         <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L36" t="s">
         <v>29</v>
       </c>
       <c r="M36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N36" t="s">
         <v>30</v>
@@ -4140,7 +4134,7 @@
         <v>6.2555795895832489E-2</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -4170,19 +4164,19 @@
         <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L37" t="s">
         <v>29</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N37" t="s">
         <v>30</v>
@@ -4191,12 +4185,12 @@
         <v>-0.36819886753061581</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4221,19 +4215,19 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>451</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K38" t="s">
-        <v>453</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="N38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O38">
         <v>0.63180113246938419</v>
@@ -4244,7 +4238,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4272,14 +4266,14 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4315,7 +4309,7 @@
         <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>34</v>
@@ -4335,7 +4329,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4360,30 +4354,30 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
+        <v>272</v>
+      </c>
+      <c r="K41" t="s">
+        <v>453</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="K41" t="s">
-        <v>455</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>276</v>
-      </c>
       <c r="N41" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
       </c>
       <c r="P41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4408,19 +4402,19 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O42">
         <v>0.77281646291544348</v>
@@ -4431,7 +4425,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4456,19 +4450,19 @@
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N43" t="s">
         <v>275</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N43" t="s">
-        <v>277</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4479,7 +4473,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4504,19 +4498,19 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4555,14 +4549,14 @@
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L45" t="s">
         <v>40</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4570,7 +4564,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4595,30 +4589,30 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
       </c>
       <c r="P46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4643,19 +4637,19 @@
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M47" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N47" t="s">
         <v>30</v>
@@ -4664,12 +4658,12 @@
         <v>0.49053082895950695</v>
       </c>
       <c r="P47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4697,14 +4691,14 @@
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4712,7 +4706,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4740,14 +4734,14 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L49" t="s">
         <v>20</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4755,7 +4749,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4780,19 +4774,19 @@
         <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N50" t="s">
         <v>275</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N50" t="s">
-        <v>277</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4803,7 +4797,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4828,19 +4822,19 @@
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K51" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N51" t="s">
         <v>275</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N51" t="s">
-        <v>277</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4851,7 +4845,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -4876,30 +4870,30 @@
         <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -4924,19 +4918,19 @@
         <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O53">
         <v>6.4722583070196293E-2</v>
@@ -4947,7 +4941,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -4972,19 +4966,19 @@
         <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M54" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N54" t="s">
         <v>30</v>
@@ -4993,12 +4987,12 @@
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5026,16 +5020,16 @@
         <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5046,7 +5040,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5071,30 +5065,30 @@
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
       </c>
       <c r="P56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5116,33 +5110,33 @@
         <v>5.5</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
       </c>
       <c r="P57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5167,30 +5161,30 @@
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
       </c>
       <c r="P58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5215,19 +5209,19 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5235,7 +5229,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5259,31 +5253,28 @@
       <c r="H60" t="s">
         <v>32</v>
       </c>
-      <c r="I60" t="s">
-        <v>42</v>
-      </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
       </c>
       <c r="P60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5308,33 +5299,33 @@
         <v>32</v>
       </c>
       <c r="I61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N61" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
       </c>
       <c r="P61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5359,30 +5350,30 @@
         <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N62" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
       </c>
       <c r="P62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5407,28 +5398,28 @@
         <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O63">
         <v>0.21549256905338865</v>
       </c>
       <c r="P63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -5457,20 +5448,17 @@
       <c r="H64" t="s">
         <v>32</v>
       </c>
-      <c r="I64" t="s">
+      <c r="K64" t="s">
+        <v>445</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K64" t="s">
-        <v>447</v>
-      </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" t="s">
         <v>44</v>
-      </c>
-      <c r="N64" t="s">
-        <v>45</v>
       </c>
       <c r="O64">
         <v>-0.20794327870674323</v>
@@ -5509,13 +5497,13 @@
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s">
         <v>20</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N65" t="s">
         <v>23</v>
@@ -5550,34 +5538,31 @@
       <c r="H66" t="s">
         <v>32</v>
       </c>
-      <c r="I66" t="s">
-        <v>42</v>
-      </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="N66" t="s">
         <v>46</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="N66" t="s">
-        <v>47</v>
       </c>
       <c r="O66">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>63</v>
@@ -5601,32 +5586,29 @@
       <c r="H67" t="s">
         <v>32</v>
       </c>
-      <c r="I67" t="s">
-        <v>42</v>
-      </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O67">
         <v>-0.63060214877680565</v>
       </c>
       <c r="P67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5648,20 +5630,20 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5669,7 +5651,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5694,30 +5676,30 @@
         <v>32</v>
       </c>
       <c r="I69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
       </c>
       <c r="P69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5745,14 +5727,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5760,7 +5742,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5788,14 +5770,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5803,7 +5785,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5827,20 +5809,17 @@
       <c r="H72" t="s">
         <v>32</v>
       </c>
-      <c r="I72" t="s">
-        <v>42</v>
-      </c>
       <c r="K72" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -5851,7 +5830,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -5876,19 +5855,19 @@
         <v>32</v>
       </c>
       <c r="I73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K73" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L73" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N73" t="s">
         <v>313</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N73" t="s">
-        <v>315</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -5899,7 +5878,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -5924,33 +5903,33 @@
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N74" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
       </c>
       <c r="P74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -5974,23 +5953,20 @@
       <c r="H75" t="s">
         <v>32</v>
       </c>
-      <c r="I75" t="s">
-        <v>42</v>
-      </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6001,7 +5977,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6026,22 +6002,22 @@
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O76">
         <v>0.79205672129325677</v>
@@ -6052,7 +6028,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6076,34 +6052,31 @@
       <c r="H77" t="s">
         <v>32</v>
       </c>
-      <c r="I77" t="s">
-        <v>42</v>
-      </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
       </c>
       <c r="P77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6128,19 +6101,19 @@
         <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K78" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6151,7 +6124,7 @@
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79">
         <v>75</v>
@@ -6176,33 +6149,33 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J79">
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" t="s">
         <v>54</v>
-      </c>
-      <c r="N79" t="s">
-        <v>55</v>
       </c>
       <c r="O79">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>76</v>
@@ -6227,19 +6200,19 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80" t="s">
+        <v>445</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K80" t="s">
-        <v>447</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N80" t="s">
         <v>60</v>
-      </c>
-      <c r="N80" t="s">
-        <v>61</v>
       </c>
       <c r="O80">
         <v>-0.47361546110579411</v>
@@ -6250,7 +6223,7 @@
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81">
         <v>77</v>
@@ -6275,19 +6248,19 @@
         <v>32</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N81" t="s">
         <v>62</v>
-      </c>
-      <c r="N81" t="s">
-        <v>63</v>
       </c>
       <c r="O81">
         <v>-0.47361546110579411</v>
@@ -6298,7 +6271,7 @@
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82">
         <v>78</v>
@@ -6323,22 +6296,22 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J82">
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O82">
         <v>-0.89398280802292263</v>
@@ -6349,7 +6322,7 @@
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83">
         <v>79</v>
@@ -6373,23 +6346,20 @@
       <c r="H83" t="s">
         <v>32</v>
       </c>
-      <c r="I83" t="s">
-        <v>42</v>
-      </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N83" t="s">
         <v>66</v>
-      </c>
-      <c r="N83" t="s">
-        <v>67</v>
       </c>
       <c r="O83">
         <v>-0.89398280802292263</v>
@@ -6400,7 +6370,7 @@
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B84">
         <v>80</v>
@@ -6424,34 +6394,31 @@
       <c r="H84" t="s">
         <v>32</v>
       </c>
-      <c r="I84" t="s">
-        <v>42</v>
-      </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="N84" t="s">
         <v>56</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="N84" t="s">
-        <v>57</v>
       </c>
       <c r="O84">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85">
         <v>81</v>
@@ -6479,14 +6446,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6494,7 +6461,7 @@
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86">
         <v>82</v>
@@ -6516,16 +6483,16 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6537,7 +6504,7 @@
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>83</v>
@@ -6559,16 +6526,16 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6580,7 +6547,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6602,30 +6569,30 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N88" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
       </c>
       <c r="P88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6653,27 +6620,27 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="N89" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
       </c>
       <c r="P89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6701,27 +6668,27 @@
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N90" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
       </c>
       <c r="P90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6746,33 +6713,33 @@
         <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N91" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
       </c>
       <c r="P91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92">
         <v>88</v>
@@ -6796,32 +6763,29 @@
       <c r="H92" t="s">
         <v>32</v>
       </c>
-      <c r="I92" t="s">
-        <v>42</v>
-      </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O92">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93">
         <v>89</v>
@@ -6843,34 +6807,34 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s">
         <v>75</v>
-      </c>
-      <c r="I93" t="s">
-        <v>76</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O93">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -6895,33 +6859,33 @@
         <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
       </c>
       <c r="P94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -6946,22 +6910,22 @@
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="N95" t="s">
         <v>336</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="N95" t="s">
-        <v>338</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -6972,7 +6936,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7000,16 +6964,16 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N96" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -7020,7 +6984,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7045,22 +7009,22 @@
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L97" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N97" t="s">
         <v>336</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="N97" t="s">
-        <v>338</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7071,7 +7035,7 @@
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B98">
         <v>94</v>
@@ -7093,16 +7057,16 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" t="s">
@@ -7114,7 +7078,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7136,16 +7100,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7157,7 +7121,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7182,22 +7146,22 @@
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L100" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N100" t="s">
         <v>347</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="N100" t="s">
-        <v>349</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7208,7 +7172,7 @@
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101">
         <v>97</v>
@@ -7233,22 +7197,22 @@
         <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J101">
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="N101" t="s">
         <v>86</v>
-      </c>
-      <c r="N101" t="s">
-        <v>87</v>
       </c>
       <c r="O101">
         <v>-1.0573149088805707</v>
@@ -7259,7 +7223,7 @@
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102">
         <v>98</v>
@@ -7284,22 +7248,22 @@
         <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J102">
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O102">
         <v>-1.881470383782073</v>
@@ -7310,7 +7274,7 @@
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B103">
         <v>99</v>
@@ -7338,27 +7302,27 @@
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N103" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
       </c>
       <c r="P103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>100</v>
@@ -7386,14 +7350,14 @@
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7401,7 +7365,7 @@
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105">
         <v>101</v>
@@ -7423,16 +7387,16 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
@@ -7444,7 +7408,7 @@
     </row>
     <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B106">
         <v>102</v>
@@ -7466,16 +7430,16 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
@@ -7487,7 +7451,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7509,16 +7473,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L107" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7530,7 +7494,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7555,19 +7519,19 @@
         <v>32</v>
       </c>
       <c r="I108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K108" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N108" t="s">
         <v>347</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="N108" t="s">
-        <v>349</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7578,7 +7542,7 @@
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -7603,31 +7567,31 @@
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O109">
         <v>-0.46973757929284687</v>
       </c>
       <c r="P109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7649,16 +7613,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L110" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7670,7 +7634,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7692,16 +7656,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L111" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7713,7 +7677,7 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112">
         <v>108</v>
@@ -7735,16 +7699,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
@@ -7756,7 +7720,7 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113">
         <v>109</v>
@@ -7778,22 +7742,22 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I113" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N113" t="s">
         <v>30</v>
@@ -7802,12 +7766,12 @@
         <v>-2.3663664896644576</v>
       </c>
       <c r="P113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -7829,33 +7793,33 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N114" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
       </c>
       <c r="P114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -7877,16 +7841,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L115" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -7898,7 +7862,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -7920,16 +7884,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
@@ -7941,7 +7905,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -7963,16 +7927,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
@@ -7984,7 +7948,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -8006,16 +7970,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
@@ -8027,7 +7991,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8052,31 +8016,31 @@
         <v>32</v>
       </c>
       <c r="I119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O119">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8101,19 +8065,19 @@
         <v>28</v>
       </c>
       <c r="I120" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N120" t="s">
         <v>30</v>
@@ -8122,12 +8086,12 @@
         <v>-0.17337555216106892</v>
       </c>
       <c r="P120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8152,19 +8116,19 @@
         <v>28</v>
       </c>
       <c r="I121" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N121" t="s">
         <v>30</v>
@@ -8175,7 +8139,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8197,20 +8161,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L122" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8218,7 +8182,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8243,22 +8207,22 @@
         <v>28</v>
       </c>
       <c r="I123" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L123" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M123" t="s">
+        <v>578</v>
+      </c>
+      <c r="N123" t="s">
         <v>580</v>
-      </c>
-      <c r="N123" t="s">
-        <v>582</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8266,7 +8230,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8291,22 +8255,22 @@
         <v>28</v>
       </c>
       <c r="I124" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M124" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N124" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8314,7 +8278,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8339,22 +8303,22 @@
         <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L125" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N125" t="s">
         <v>357</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N125" t="s">
-        <v>359</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8365,7 +8329,7 @@
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8390,22 +8354,22 @@
         <v>28</v>
       </c>
       <c r="I126" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N126" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8413,7 +8377,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8438,22 +8402,22 @@
         <v>28</v>
       </c>
       <c r="I127" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N127" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8461,7 +8425,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8486,30 +8450,30 @@
         <v>32</v>
       </c>
       <c r="I128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N128" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
       </c>
       <c r="P128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8531,20 +8495,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L129" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8552,7 +8516,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8577,19 +8541,19 @@
         <v>32</v>
       </c>
       <c r="I130" t="s">
+        <v>110</v>
+      </c>
+      <c r="K130" t="s">
+        <v>450</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K130" t="s">
-        <v>452</v>
-      </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="N130" t="s">
         <v>113</v>
-      </c>
-      <c r="N130" t="s">
-        <v>114</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
@@ -8600,7 +8564,7 @@
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8625,33 +8589,33 @@
         <v>32</v>
       </c>
       <c r="I131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L131" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="N131" t="s">
         <v>115</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="N131" t="s">
-        <v>116</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8676,20 +8640,20 @@
         <v>28</v>
       </c>
       <c r="I132" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L132" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8697,7 +8661,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8722,19 +8686,19 @@
         <v>28</v>
       </c>
       <c r="I133" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M133" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N133" t="s">
         <v>30</v>
@@ -8743,12 +8707,12 @@
         <v>1.2201002373528382</v>
       </c>
       <c r="P133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8773,19 +8737,19 @@
         <v>28</v>
       </c>
       <c r="I134" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M134" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N134" t="s">
         <v>30</v>
@@ -8794,12 +8758,12 @@
         <v>0.82000763927846521</v>
       </c>
       <c r="P134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8824,19 +8788,19 @@
         <v>28</v>
       </c>
       <c r="I135" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M135" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N135" t="s">
         <v>30</v>
@@ -8845,12 +8809,12 @@
         <v>0.42052283799023371</v>
       </c>
       <c r="P135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -8875,19 +8839,19 @@
         <v>28</v>
       </c>
       <c r="I136" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M136" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N136" t="s">
         <v>30</v>
@@ -8896,12 +8860,12 @@
         <v>2.1642134891465048E-2</v>
       </c>
       <c r="P136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -8923,20 +8887,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L137" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -8944,7 +8908,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -8969,19 +8933,19 @@
         <v>28</v>
       </c>
       <c r="I138" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N138" t="s">
         <v>30</v>
@@ -8990,12 +8954,12 @@
         <v>-0.37663811699323446</v>
       </c>
       <c r="P138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -9020,19 +8984,19 @@
         <v>28</v>
       </c>
       <c r="I139" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N139" t="s">
         <v>30</v>
@@ -9041,12 +9005,12 @@
         <v>-0.77432151423236206</v>
       </c>
       <c r="P139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9071,30 +9035,30 @@
         <v>32</v>
       </c>
       <c r="I140" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N140" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
       </c>
       <c r="P140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9112,32 +9076,29 @@
       <c r="H141" t="s">
         <v>32</v>
       </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
       <c r="J141" t="s">
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L141" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
       </c>
       <c r="P141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9165,13 +9126,13 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M142" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N142" t="s">
         <v>30</v>
@@ -9180,12 +9141,12 @@
         <v>0.4583145839925038</v>
       </c>
       <c r="P142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9213,13 +9174,13 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M143" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N143" t="s">
         <v>30</v>
@@ -9228,12 +9189,12 @@
         <v>6.5282226143224875E-2</v>
       </c>
       <c r="P143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9258,22 +9219,22 @@
         <v>32</v>
       </c>
       <c r="I144" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L144" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N144" t="s">
         <v>377</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="N144" t="s">
-        <v>379</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9284,7 +9245,7 @@
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9312,13 +9273,13 @@
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N145" t="s">
         <v>30</v>
@@ -9327,12 +9288,12 @@
         <v>-0.32718355944679445</v>
       </c>
       <c r="P145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9360,13 +9321,13 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N146" t="s">
         <v>30</v>
@@ -9375,12 +9336,12 @@
         <v>-0.71908592393408099</v>
       </c>
       <c r="P146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9402,16 +9363,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L147" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9423,7 +9384,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9451,10 +9412,10 @@
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
@@ -9466,7 +9427,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9494,10 +9455,10 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
@@ -9509,7 +9470,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9537,13 +9498,13 @@
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M150" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N150" t="s">
         <v>30</v>
@@ -9552,12 +9513,12 @@
         <v>0.10855658349814234</v>
       </c>
       <c r="P150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9581,20 +9542,17 @@
       <c r="H151" t="s">
         <v>32</v>
       </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
       <c r="K151" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N151" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9605,7 +9563,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9629,20 +9587,17 @@
       <c r="H152" t="s">
         <v>32</v>
       </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
       <c r="K152" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N152" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9653,7 +9608,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9681,13 +9636,13 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L153" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N153" t="s">
         <v>30</v>
@@ -9696,12 +9651,12 @@
         <v>-0.28112283268126248</v>
       </c>
       <c r="P153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9729,14 +9684,14 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9744,7 +9699,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9769,22 +9724,22 @@
         <v>32</v>
       </c>
       <c r="I155" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L155" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N155" t="s">
         <v>377</v>
-      </c>
-      <c r="M155" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N155" t="s">
-        <v>379</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -9795,7 +9750,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9819,20 +9774,17 @@
       <c r="H156" t="s">
         <v>32</v>
       </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
       <c r="K156" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L156" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N156" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -9843,7 +9795,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -9868,19 +9820,19 @@
         <v>32</v>
       </c>
       <c r="I157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K157" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L157" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N157" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -9891,7 +9843,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -9919,16 +9871,16 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -9936,7 +9888,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -9964,13 +9916,13 @@
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L159" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N159" t="s">
         <v>30</v>
@@ -9981,7 +9933,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10009,13 +9961,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N160" t="s">
         <v>30</v>
@@ -10026,7 +9978,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10054,13 +10006,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N161" t="s">
         <v>30</v>
@@ -10071,7 +10023,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10099,10 +10051,10 @@
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L162" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
@@ -10114,7 +10066,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10136,25 +10088,25 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L163" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
       </c>
       <c r="P163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10179,16 +10131,16 @@
         <v>32</v>
       </c>
       <c r="I164" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N164" t="s">
         <v>30</v>
@@ -10199,7 +10151,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10224,19 +10176,19 @@
         <v>32</v>
       </c>
       <c r="I165" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K165" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N165" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10247,7 +10199,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10271,20 +10223,17 @@
       <c r="H166" t="s">
         <v>32</v>
       </c>
-      <c r="I166" t="s">
-        <v>14</v>
-      </c>
       <c r="K166" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N166" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10295,7 +10244,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10319,20 +10268,17 @@
       <c r="H167" t="s">
         <v>32</v>
       </c>
-      <c r="I167" t="s">
-        <v>14</v>
-      </c>
       <c r="K167" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N167" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10343,7 +10289,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10367,20 +10313,17 @@
       <c r="H168" t="s">
         <v>32</v>
       </c>
-      <c r="I168" t="s">
-        <v>14</v>
-      </c>
       <c r="K168" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N168" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10391,7 +10334,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10415,20 +10358,17 @@
       <c r="H169" t="s">
         <v>32</v>
       </c>
-      <c r="I169" t="s">
-        <v>14</v>
-      </c>
       <c r="K169" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N169" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10439,7 +10379,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10464,19 +10404,19 @@
         <v>32</v>
       </c>
       <c r="I170" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K170" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M170" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="N170" t="s">
         <v>137</v>
-      </c>
-      <c r="N170" t="s">
-        <v>138</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
@@ -10487,7 +10427,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10512,19 +10452,19 @@
         <v>32</v>
       </c>
       <c r="I171" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K171" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N171" t="s">
         <v>140</v>
-      </c>
-      <c r="N171" t="s">
-        <v>141</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
@@ -10535,7 +10475,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10560,33 +10500,33 @@
         <v>32</v>
       </c>
       <c r="I172" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="N172" t="s">
         <v>115</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="N172" t="s">
-        <v>116</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10614,25 +10554,25 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L173" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
       </c>
       <c r="P173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10657,19 +10597,19 @@
         <v>32</v>
       </c>
       <c r="I174" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K174" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N174" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10680,7 +10620,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10705,19 +10645,19 @@
         <v>32</v>
       </c>
       <c r="I175" t="s">
+        <v>185</v>
+      </c>
+      <c r="K175" t="s">
+        <v>486</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="M175" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N175" t="s">
         <v>143</v>
-      </c>
-      <c r="K175" t="s">
-        <v>488</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="M175" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N175" t="s">
-        <v>145</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
@@ -10728,7 +10668,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10750,16 +10690,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L176" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -10771,7 +10711,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10793,20 +10733,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L177" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10814,7 +10754,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10839,31 +10779,31 @@
         <v>32</v>
       </c>
       <c r="I178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O178">
         <v>-1.3420167407453789</v>
       </c>
       <c r="P178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -10891,10 +10831,10 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
@@ -10906,7 +10846,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -10934,13 +10874,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N180" t="s">
         <v>30</v>
@@ -10951,7 +10891,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -10976,31 +10916,31 @@
         <v>32</v>
       </c>
       <c r="I181" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O181">
         <v>-1.4760834690352951</v>
       </c>
       <c r="P181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11028,10 +10968,10 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L182" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
@@ -11043,7 +10983,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11071,13 +11011,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N183" t="s">
         <v>30</v>
@@ -11086,12 +11026,12 @@
         <v>-0.47608346903529508</v>
       </c>
       <c r="P183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11119,13 +11059,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N184" t="s">
         <v>30</v>
@@ -11134,12 +11074,12 @@
         <v>-0.84905082577578384</v>
       </c>
       <c r="P184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11167,13 +11107,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N185" t="s">
         <v>30</v>
@@ -11182,12 +11122,12 @@
         <v>-1.2215512709279182</v>
       </c>
       <c r="P185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11215,13 +11155,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N186" t="s">
         <v>30</v>
@@ -11230,12 +11170,12 @@
         <v>-1.5935868648990876</v>
       </c>
       <c r="P186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11263,13 +11203,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="N187" t="s">
         <v>30</v>
@@ -11278,12 +11218,12 @@
         <v>-1.9651596487121239</v>
       </c>
       <c r="P187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11311,13 +11251,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N188" t="s">
         <v>30</v>
@@ -11326,12 +11266,12 @@
         <v>-2.3362716443057678</v>
       </c>
       <c r="P188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11359,13 +11299,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N189" t="s">
         <v>30</v>
@@ -11374,12 +11314,12 @@
         <v>-2.7069248548283866</v>
       </c>
       <c r="P189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11407,13 +11347,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N190" t="s">
         <v>30</v>
@@ -11422,12 +11362,12 @@
         <v>-3.0771212649253883</v>
       </c>
       <c r="P190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11455,13 +11395,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L191" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M191" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N191" t="s">
         <v>30</v>
@@ -11470,12 +11410,12 @@
         <v>3.4840351287876103E-2</v>
       </c>
       <c r="P191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11503,13 +11443,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="N192" t="s">
         <v>30</v>
@@ -11518,12 +11458,12 @@
         <v>-0.33627164430576784</v>
       </c>
       <c r="P192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11551,13 +11491,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N193" t="s">
         <v>30</v>
@@ -11566,12 +11506,12 @@
         <v>-1.0771212649253883</v>
       </c>
       <c r="P193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11599,13 +11539,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N194" t="s">
         <v>30</v>
@@ -11614,12 +11554,12 @@
         <v>-1.4468628410203479</v>
       </c>
       <c r="P194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11647,10 +11587,10 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
@@ -11662,7 +11602,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11690,13 +11630,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="N196" t="s">
         <v>30</v>
@@ -11705,12 +11645,12 @@
         <v>-0.75438528011734718</v>
       </c>
       <c r="P196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11738,25 +11678,25 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
       </c>
       <c r="P197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11784,13 +11724,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N198" t="s">
         <v>30</v>
@@ -11799,12 +11739,12 @@
         <v>-1.4845460887548114</v>
       </c>
       <c r="P198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11832,13 +11772,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N199" t="s">
         <v>30</v>
@@ -11847,12 +11787,12 @@
         <v>-1.8489767637588841</v>
       </c>
       <c r="P199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -11877,31 +11817,31 @@
         <v>32</v>
       </c>
       <c r="I200" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O200">
         <v>-1.2129766276880645</v>
       </c>
       <c r="P200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -11929,13 +11869,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L201" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N201" t="s">
         <v>30</v>
@@ -11946,7 +11886,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -11974,13 +11914,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L202" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N202" t="s">
         <v>30</v>
@@ -11991,7 +11931,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12019,13 +11959,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L203" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N203" t="s">
         <v>30</v>
@@ -12036,7 +11976,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12064,13 +12004,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L204" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N204" t="s">
         <v>30</v>
@@ -12081,7 +12021,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12109,13 +12049,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L205" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N205" t="s">
         <v>30</v>
@@ -12126,7 +12066,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12151,31 +12091,31 @@
         <v>32</v>
       </c>
       <c r="I206" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
       </c>
       <c r="P206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12199,20 +12139,17 @@
       <c r="H207" t="s">
         <v>32</v>
       </c>
-      <c r="I207" t="s">
-        <v>14</v>
-      </c>
       <c r="K207" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N207" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12223,7 +12160,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12248,31 +12185,31 @@
         <v>32</v>
       </c>
       <c r="I208" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
       </c>
       <c r="P208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12300,10 +12237,10 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L209" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
@@ -12315,7 +12252,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12340,19 +12277,19 @@
         <v>28</v>
       </c>
       <c r="I210" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L210" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N210" t="s">
         <v>30</v>
@@ -12361,12 +12298,12 @@
         <v>-0.9407752647588552</v>
       </c>
       <c r="P210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12391,19 +12328,19 @@
         <v>28</v>
       </c>
       <c r="I211" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L211" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N211" t="s">
         <v>30</v>
@@ -12412,12 +12349,12 @@
         <v>-1.2922158023175427</v>
       </c>
       <c r="P211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12445,27 +12382,27 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L212" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N212" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
       </c>
       <c r="P212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12490,31 +12427,31 @@
         <v>32</v>
       </c>
       <c r="I213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
       </c>
       <c r="P213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12542,10 +12479,10 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L214" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
@@ -12557,7 +12494,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12585,13 +12522,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L215" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N215" t="s">
         <v>30</v>
@@ -12600,12 +12537,12 @@
         <v>-0.99395345696034099</v>
       </c>
       <c r="P215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12630,30 +12567,30 @@
         <v>32</v>
       </c>
       <c r="I216" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
       </c>
       <c r="P216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12678,30 +12615,30 @@
         <v>32</v>
       </c>
       <c r="I217" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N217" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
       </c>
       <c r="P217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12729,13 +12666,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L218" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N218" t="s">
         <v>30</v>
@@ -12744,12 +12681,12 @@
         <v>-0.43816934722877932</v>
       </c>
       <c r="P218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12777,13 +12714,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L219" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N219" t="s">
         <v>30</v>
@@ -12792,12 +12729,12 @@
         <v>-0.78585369937712812</v>
       </c>
       <c r="P219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12825,13 +12762,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L220" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N220" t="s">
         <v>30</v>
@@ -12840,12 +12777,12 @@
         <v>-1.1331695621990292</v>
       </c>
       <c r="P220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -12873,13 +12810,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L221" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N221" t="s">
         <v>30</v>
@@ -12888,12 +12825,12 @@
         <v>-1.4801181958633407</v>
       </c>
       <c r="P221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -12915,20 +12852,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L222" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -12936,7 +12873,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -12961,19 +12898,19 @@
         <v>32</v>
       </c>
       <c r="I223" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K223" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N223" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -12984,7 +12921,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13009,19 +12946,19 @@
         <v>32</v>
       </c>
       <c r="I224" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K224" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N224" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -13032,7 +12969,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13057,19 +12994,19 @@
         <v>32</v>
       </c>
       <c r="I225" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K225" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M225" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N225" t="s">
         <v>207</v>
-      </c>
-      <c r="M225" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N225" t="s">
-        <v>209</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
@@ -13080,7 +13017,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13105,19 +13042,19 @@
         <v>32</v>
       </c>
       <c r="I226" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K226" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L226" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M226" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N226" t="s">
         <v>207</v>
-      </c>
-      <c r="M226" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N226" t="s">
-        <v>209</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
@@ -13128,7 +13065,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13153,31 +13090,31 @@
         <v>32</v>
       </c>
       <c r="I227" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
       </c>
       <c r="P227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13202,19 +13139,19 @@
         <v>32</v>
       </c>
       <c r="I228" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K228" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N228" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13225,7 +13162,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13253,13 +13190,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L229" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N229" t="s">
         <v>30</v>
@@ -13268,12 +13205,12 @@
         <v>-1.3613560717265187</v>
       </c>
       <c r="P229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13301,13 +13238,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L230" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N230" t="s">
         <v>30</v>
@@ -13316,12 +13253,12 @@
         <v>-1.6998480216558676</v>
       </c>
       <c r="P230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13349,13 +13286,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L231" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N231" t="s">
         <v>30</v>
@@ -13364,12 +13301,12 @@
         <v>-2.0380016536697809</v>
       </c>
       <c r="P231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13397,13 +13334,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L232" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N232" t="s">
         <v>30</v>
@@ -13412,12 +13349,12 @@
         <v>-0.69984802165586757</v>
       </c>
       <c r="P232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13445,13 +13382,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L233" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N233" t="s">
         <v>30</v>
@@ -13460,12 +13397,12 @@
         <v>-1.0380016536697809</v>
       </c>
       <c r="P233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13493,13 +13430,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L234" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N234" t="s">
         <v>30</v>
@@ -13508,12 +13445,12 @@
         <v>-1.3872541469982878</v>
       </c>
       <c r="P234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13541,13 +13478,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L235" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N235" t="s">
         <v>30</v>
@@ -13556,12 +13493,12 @@
         <v>-1.7237319906828503</v>
       </c>
       <c r="P235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13589,13 +13526,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L236" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N236" t="s">
         <v>30</v>
@@ -13604,12 +13541,12 @@
         <v>-2.0598777916518145</v>
       </c>
       <c r="P236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13637,13 +13574,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L237" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N237" t="s">
         <v>30</v>
@@ -13652,12 +13589,12 @@
         <v>-0.72373199068285032</v>
       </c>
       <c r="P237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13685,13 +13622,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L238" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N238" t="s">
         <v>30</v>
@@ -13700,7 +13637,7 @@
         <v>-1.4011609456622267</v>
       </c>
       <c r="P238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC8C593-AF5C-E545-B2DF-7DA65456116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0D801-1A43-7B4E-81B6-0B76B8376A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="653">
   <si>
     <t>Isotope</t>
   </si>
@@ -97,9 +97,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>A.D. Carlson and H.H. Barschall PR 158, 1142 (1967)</t>
-  </si>
-  <si>
     <t>50% uncertainty listed in paper</t>
   </si>
   <si>
@@ -1988,6 +1985,30 @@
   </si>
   <si>
     <t>3He,n</t>
+  </si>
+  <si>
+    <t>p,t; d,d</t>
+  </si>
+  <si>
+    <t>Carlson and Barschall, Phys. Rev. 158, 1967</t>
+  </si>
+  <si>
+    <t>DOI:10.1016/0031-9163(65)90447-6</t>
+  </si>
+  <si>
+    <t>n,g</t>
+  </si>
+  <si>
+    <t>DOI:10.1103/PhysRevC.47.1033.</t>
+  </si>
+  <si>
+    <t>Phys. Rev. C 70, 024311 (2004)</t>
+  </si>
+  <si>
+    <t>n,p; n,a; d,n</t>
+  </si>
+  <si>
+    <t>Phys. Rev. C 62, 064312 (2000)</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2474,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -2483,10 +2504,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -2501,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>7</v>
@@ -2521,7 +2542,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2545,31 +2566,34 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" t="s">
+        <v>645</v>
+      </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L2" t="s">
+        <v>646</v>
+      </c>
+      <c r="M2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N2" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>550</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
       </c>
       <c r="O2">
         <v>0.13551162551010876</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2593,18 +2617,21 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>509</v>
+      </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>647</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2636,20 +2663,23 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
+      <c r="I4" t="s">
+        <v>645</v>
+      </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L4" t="s">
+        <v>646</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="N4" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="N4" t="s">
-        <v>16</v>
       </c>
       <c r="O4">
         <v>-0.22724293151235386</v>
@@ -2681,20 +2711,23 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
+      <c r="I5" t="s">
+        <v>648</v>
+      </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L5" t="s">
+        <v>649</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="N5" t="s">
         <v>17</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
       </c>
       <c r="O5">
         <v>-0.22724293151235386</v>
@@ -2702,7 +2735,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2726,18 +2759,21 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
       <c r="J6">
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L6" t="s">
-        <v>229</v>
+        <v>650</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6">
         <v>0.77275706848764614</v>
@@ -2745,7 +2781,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2769,20 +2805,23 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
+      <c r="I7" t="s">
+        <v>645</v>
+      </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L7" t="s">
+        <v>646</v>
+      </c>
+      <c r="M7" t="s">
+        <v>552</v>
+      </c>
+      <c r="N7" t="s">
         <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>553</v>
-      </c>
-      <c r="N7" t="s">
-        <v>16</v>
       </c>
       <c r="O7">
         <v>0.3207758832260339</v>
@@ -2790,7 +2829,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2814,18 +2853,21 @@
       <c r="H8" t="s">
         <v>13</v>
       </c>
+      <c r="I8" t="s">
+        <v>651</v>
+      </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2833,7 +2875,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2857,20 +2899,23 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
+      <c r="I9" t="s">
+        <v>648</v>
+      </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L9" t="s">
+        <v>649</v>
+      </c>
+      <c r="M9" t="s">
+        <v>553</v>
+      </c>
+      <c r="N9" t="s">
         <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>554</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
       </c>
       <c r="O9">
         <v>0.3207758832260339</v>
@@ -2878,7 +2923,7 @@
     </row>
     <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2902,20 +2947,23 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
+      <c r="I10" t="s">
+        <v>648</v>
+      </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L10" t="s">
+        <v>652</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="N10" t="s">
         <v>20</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
       </c>
       <c r="O10">
         <v>-2.8604461484416532E-2</v>
@@ -2923,7 +2971,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2947,20 +2995,23 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
+      <c r="I11" t="s">
+        <v>645</v>
+      </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L11" t="s">
+        <v>646</v>
+      </c>
+      <c r="M11" t="s">
+        <v>555</v>
+      </c>
+      <c r="N11" t="s">
         <v>15</v>
-      </c>
-      <c r="M11" t="s">
-        <v>556</v>
-      </c>
-      <c r="N11" t="s">
-        <v>16</v>
       </c>
       <c r="O11">
         <v>0.52373581864522656</v>
@@ -2968,7 +3019,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2992,20 +3043,23 @@
       <c r="H12" t="s">
         <v>13</v>
       </c>
+      <c r="I12" t="s">
+        <v>648</v>
+      </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L12" t="s">
+        <v>652</v>
+      </c>
+      <c r="M12" t="s">
+        <v>556</v>
+      </c>
+      <c r="N12" t="s">
         <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>557</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
       </c>
       <c r="O12">
         <v>0.52373581864522656</v>
@@ -3013,7 +3067,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3041,14 +3095,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3056,7 +3110,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3084,14 +3138,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3099,7 +3153,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3127,16 +3181,16 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3144,7 +3198,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3172,16 +3226,16 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3189,7 +3243,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3217,16 +3271,16 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3234,7 +3288,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3256,20 +3310,20 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O18">
         <v>1.4185119401318005</v>
@@ -3277,7 +3331,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3299,20 +3353,20 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3320,7 +3374,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3348,16 +3402,16 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3365,7 +3419,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3387,36 +3441,36 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O21">
         <v>1.1022160736577469</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3438,33 +3492,33 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N22" t="s">
         <v>247</v>
-      </c>
-      <c r="N22" t="s">
-        <v>248</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3486,36 +3540,36 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O23">
         <v>0.66530212507089459</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3537,36 +3591,36 @@
         <v>7.7</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O24">
         <v>0.22929653162440999</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -3594,14 +3648,14 @@
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25">
         <v>-2.7981092392552966</v>
@@ -3609,7 +3663,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3631,23 +3685,23 @@
         <v>7.8</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3655,7 +3709,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3677,36 +3731,36 @@
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O27">
         <v>1.22929653162441</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3734,14 +3788,14 @@
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O28">
         <v>0.79418935940907787</v>
@@ -3749,7 +3803,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3771,36 +3825,36 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O29">
         <v>0.79418935940907787</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3822,36 +3876,36 @@
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -3873,25 +3927,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -3899,7 +3953,7 @@
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -3921,22 +3975,22 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -3944,7 +3998,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -3966,33 +4020,33 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="N33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O33">
         <v>1.3599709566234246</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4014,33 +4068,33 @@
         <v>3.5</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O34">
         <v>0.9266319398067111</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4062,33 +4116,33 @@
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O35">
         <v>0.49416318102058909</v>
       </c>
       <c r="P35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4110,36 +4164,36 @@
         <v>7.3999999999999995</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>519</v>
+      </c>
+      <c r="N36" t="s">
         <v>29</v>
-      </c>
-      <c r="M36" t="s">
-        <v>520</v>
-      </c>
-      <c r="N36" t="s">
-        <v>30</v>
       </c>
       <c r="O36">
         <v>6.2555795895832489E-2</v>
       </c>
       <c r="P36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>33</v>
@@ -4161,36 +4215,36 @@
         <v>9.1000000000000014</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="N37" t="s">
         <v>29</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="N37" t="s">
-        <v>30</v>
       </c>
       <c r="O37">
         <v>-0.36819886753061581</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4212,33 +4266,33 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>450</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K38" t="s">
-        <v>451</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="N38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O38">
         <v>0.63180113246938419</v>
       </c>
       <c r="P38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4266,14 +4320,14 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4281,7 +4335,7 @@
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>36</v>
@@ -4303,33 +4357,33 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
         <v>32</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
+        <v>451</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K40" t="s">
-        <v>452</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" t="s">
         <v>35</v>
-      </c>
-      <c r="N40" t="s">
-        <v>36</v>
       </c>
       <c r="O40">
         <v>-0.22718353708455652</v>
       </c>
       <c r="P40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4351,33 +4405,33 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
+        <v>271</v>
+      </c>
+      <c r="K41" t="s">
+        <v>452</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="K41" t="s">
-        <v>453</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="M41" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="N41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
       </c>
       <c r="P41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4399,33 +4453,33 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I42" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" t="s">
+        <v>449</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K42" t="s">
-        <v>450</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="N42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O42">
         <v>0.77281646291544348</v>
       </c>
       <c r="P42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4447,33 +4501,33 @@
         <v>3.75</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" t="s">
+        <v>452</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K43" t="s">
-        <v>453</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="M43" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
       </c>
       <c r="P43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4495,33 +4549,33 @@
         <v>6.5</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
       </c>
       <c r="P44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>41</v>
@@ -4543,20 +4597,20 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4564,7 +4618,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4586,33 +4640,33 @@
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
       </c>
       <c r="P46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4634,36 +4688,36 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="H47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O47">
         <v>0.49053082895950695</v>
       </c>
       <c r="P47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4691,14 +4745,14 @@
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4706,7 +4760,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4734,14 +4788,14 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4749,7 +4803,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4771,33 +4825,33 @@
         <v>6.25</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50" t="s">
+        <v>271</v>
+      </c>
+      <c r="K50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K50" t="s">
-        <v>453</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="M50" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
       </c>
       <c r="P50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4819,33 +4873,33 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I51" t="s">
+        <v>271</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K51" t="s">
-        <v>453</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="M51" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -4867,33 +4921,33 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -4915,33 +4969,33 @@
         <v>5.75</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O53">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -4963,36 +5017,36 @@
         <v>6.7</v>
       </c>
       <c r="H54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O54">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5014,33 +5068,33 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
         <v>32</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K55" t="s">
-        <v>452</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N55" t="s">
         <v>290</v>
-      </c>
-      <c r="N55" t="s">
-        <v>291</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5062,33 +5116,33 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
       </c>
       <c r="P56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5110,33 +5164,33 @@
         <v>5.5</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
       </c>
       <c r="P57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5158,33 +5212,33 @@
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
       </c>
       <c r="P58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5206,22 +5260,22 @@
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5229,7 +5283,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5251,30 +5305,30 @@
         <v>5.5</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
       </c>
       <c r="P60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5296,36 +5350,36 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="N61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
       </c>
       <c r="P61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5347,33 +5401,33 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
       </c>
       <c r="P62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5395,36 +5449,36 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O63">
         <v>0.21549256905338865</v>
       </c>
       <c r="P63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64">
         <v>60</v>
@@ -5446,30 +5500,30 @@
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" t="s">
         <v>43</v>
-      </c>
-      <c r="N64" t="s">
-        <v>44</v>
       </c>
       <c r="O64">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65">
         <v>61</v>
@@ -5497,16 +5551,16 @@
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O65">
         <v>-0.20794327870674323</v>
@@ -5514,7 +5568,7 @@
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66">
         <v>62</v>
@@ -5536,33 +5590,33 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="N66" t="s">
         <v>45</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="N66" t="s">
-        <v>46</v>
       </c>
       <c r="O66">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67">
         <v>63</v>
@@ -5584,31 +5638,31 @@
         <v>8.5</v>
       </c>
       <c r="H67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O67">
         <v>-0.63060214877680565</v>
       </c>
       <c r="P67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5630,20 +5684,20 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5651,7 +5705,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5673,33 +5727,33 @@
         <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
       </c>
       <c r="P69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5727,14 +5781,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5742,7 +5796,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5770,14 +5824,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5785,7 +5839,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5807,30 +5861,30 @@
         <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K72" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M72" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="N72" t="s">
         <v>309</v>
-      </c>
-      <c r="N72" t="s">
-        <v>310</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
       </c>
       <c r="P72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -5852,33 +5906,33 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L73" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" t="s">
         <v>312</v>
-      </c>
-      <c r="N73" t="s">
-        <v>313</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
       </c>
       <c r="P73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -5900,36 +5954,36 @@
         <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
       </c>
       <c r="P74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -5951,33 +6005,33 @@
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
       </c>
       <c r="P75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -5999,36 +6053,36 @@
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O76">
         <v>0.79205672129325677</v>
       </c>
       <c r="P76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6050,33 +6104,33 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
       </c>
       <c r="P77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6098,33 +6152,33 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K78" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M78" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N78" t="s">
         <v>321</v>
-      </c>
-      <c r="N78" t="s">
-        <v>322</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
       </c>
       <c r="P78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79">
         <v>75</v>
@@ -6146,36 +6200,36 @@
         <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" t="s">
         <v>53</v>
-      </c>
-      <c r="N79" t="s">
-        <v>54</v>
       </c>
       <c r="O79">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80">
         <v>76</v>
@@ -6197,33 +6251,33 @@
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I80" t="s">
+        <v>50</v>
+      </c>
+      <c r="K80" t="s">
+        <v>444</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K80" t="s">
-        <v>445</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="M80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N80" t="s">
         <v>59</v>
-      </c>
-      <c r="N80" t="s">
-        <v>60</v>
       </c>
       <c r="O80">
         <v>-0.47361546110579411</v>
       </c>
       <c r="P80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81">
         <v>77</v>
@@ -6245,33 +6299,33 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K81" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M81" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N81" t="s">
         <v>61</v>
-      </c>
-      <c r="N81" t="s">
-        <v>62</v>
       </c>
       <c r="O81">
         <v>-0.47361546110579411</v>
       </c>
       <c r="P81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82">
         <v>78</v>
@@ -6293,36 +6347,36 @@
         <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J82">
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O82">
         <v>-0.89398280802292263</v>
       </c>
       <c r="P82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83">
         <v>79</v>
@@ -6344,33 +6398,33 @@
         <v>9</v>
       </c>
       <c r="H83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M83" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N83" t="s">
         <v>65</v>
-      </c>
-      <c r="N83" t="s">
-        <v>66</v>
       </c>
       <c r="O83">
         <v>-0.89398280802292263</v>
       </c>
       <c r="P83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84">
         <v>80</v>
@@ -6392,33 +6446,33 @@
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="N84" t="s">
         <v>55</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="N84" t="s">
-        <v>56</v>
       </c>
       <c r="O84">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85">
         <v>81</v>
@@ -6440,20 +6494,20 @@
         <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J85">
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6461,7 +6515,7 @@
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <v>82</v>
@@ -6483,20 +6537,20 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O86">
         <v>-2.984672885194577</v>
@@ -6504,7 +6558,7 @@
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87">
         <v>83</v>
@@ -6526,20 +6580,20 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O87">
         <v>-3.4006227935603661</v>
@@ -6547,7 +6601,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6569,30 +6623,30 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
       </c>
       <c r="P88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6614,33 +6668,33 @@
         <v>9.5</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
       </c>
       <c r="P89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6662,33 +6716,33 @@
         <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
       </c>
       <c r="P90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6710,36 +6764,36 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N91" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
       </c>
       <c r="P91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92">
         <v>88</v>
@@ -6761,31 +6815,31 @@
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O92">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93">
         <v>89</v>
@@ -6807,34 +6861,34 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93" t="s">
         <v>74</v>
-      </c>
-      <c r="I93" t="s">
-        <v>75</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O93">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -6856,36 +6910,36 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I94" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L94" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="N94" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
       </c>
       <c r="P94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -6907,36 +6961,36 @@
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I95" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" t="s">
         <v>335</v>
-      </c>
-      <c r="N95" t="s">
-        <v>336</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
       </c>
       <c r="P95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -6958,33 +7012,33 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J96">
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N96" t="s">
         <v>337</v>
-      </c>
-      <c r="N96" t="s">
-        <v>338</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
       </c>
       <c r="P96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7006,36 +7060,36 @@
         <v>6.75</v>
       </c>
       <c r="H97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
       </c>
       <c r="P97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98">
         <v>94</v>
@@ -7057,20 +7111,20 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O98">
         <v>-3.0573149088805707</v>
@@ -7078,7 +7132,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7100,20 +7154,20 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O99">
         <v>2.6864010034506087</v>
@@ -7121,7 +7175,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7143,36 +7197,36 @@
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L100" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M100" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="N100" t="s">
         <v>346</v>
-      </c>
-      <c r="N100" t="s">
-        <v>347</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
       </c>
       <c r="P100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101">
         <v>97</v>
@@ -7194,36 +7248,36 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J101">
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L101" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="N101" t="s">
         <v>85</v>
-      </c>
-      <c r="N101" t="s">
-        <v>86</v>
       </c>
       <c r="O101">
         <v>-1.0573149088805707</v>
       </c>
       <c r="P101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102">
         <v>98</v>
@@ -7245,36 +7299,36 @@
         <v>11.25</v>
       </c>
       <c r="H102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J102">
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O102">
         <v>-1.881470383782073</v>
       </c>
       <c r="P102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103">
         <v>99</v>
@@ -7296,33 +7350,33 @@
         <v>5.7</v>
       </c>
       <c r="H103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N103" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
       </c>
       <c r="P103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104">
         <v>100</v>
@@ -7344,20 +7398,20 @@
         <v>8.5</v>
       </c>
       <c r="H104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J104">
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7365,7 +7419,7 @@
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105">
         <v>101</v>
@@ -7387,20 +7441,20 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O105">
         <v>-1.881470383782073</v>
@@ -7408,7 +7462,7 @@
     </row>
     <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106">
         <v>102</v>
@@ -7430,20 +7484,20 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O106">
         <v>-1.881470383782073</v>
@@ -7451,7 +7505,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7473,20 +7527,20 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O107">
         <v>2.015327114805423</v>
@@ -7494,7 +7548,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7516,33 +7570,33 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I108" t="s">
+        <v>343</v>
+      </c>
+      <c r="K108" t="s">
+        <v>466</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K108" t="s">
-        <v>467</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="M108" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
       </c>
       <c r="P108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -7564,34 +7618,34 @@
         <v>5.5</v>
       </c>
       <c r="H109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O109">
         <v>-0.46973757929284687</v>
       </c>
       <c r="P109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7613,20 +7667,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O110">
         <v>3.015327114805423</v>
@@ -7634,7 +7688,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7656,20 +7710,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L111" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O111">
         <v>3.3558026970156334</v>
@@ -7677,7 +7731,7 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112">
         <v>108</v>
@@ -7699,20 +7753,20 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O112">
         <v>-2.3663664896644576</v>
@@ -7720,7 +7774,7 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113">
         <v>109</v>
@@ -7742,36 +7796,36 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I113" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O113">
         <v>-2.3663664896644576</v>
       </c>
       <c r="P113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -7793,33 +7847,33 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M114" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="N114" t="s">
         <v>548</v>
-      </c>
-      <c r="N114" t="s">
-        <v>549</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
       </c>
       <c r="P114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -7841,20 +7895,20 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L115" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O115">
         <v>3.7074816964189736</v>
@@ -7862,7 +7916,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -7884,20 +7938,20 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O116">
         <v>-2.7798997626471618</v>
@@ -7905,7 +7959,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -7927,20 +7981,20 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O117">
         <v>-3.5794771620097663</v>
@@ -7948,7 +8002,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -7970,20 +8024,20 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O118">
         <v>-4.3766381169932345</v>
@@ -7991,7 +8045,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8013,34 +8067,34 @@
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O119">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8062,36 +8116,36 @@
         <v>9</v>
       </c>
       <c r="H120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I120" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O120">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8113,25 +8167,25 @@
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I121" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O121">
         <v>-0.57593740071263966</v>
@@ -8139,7 +8193,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8161,20 +8215,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L122" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8182,7 +8236,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8204,25 +8258,25 @@
         <v>4.8</v>
       </c>
       <c r="H123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I123" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8230,7 +8284,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8252,25 +8306,25 @@
         <v>4.8</v>
       </c>
       <c r="H124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I124" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M124" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N124" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8278,7 +8332,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8300,36 +8354,36 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L125" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M125" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="N125" t="s">
         <v>356</v>
-      </c>
-      <c r="N125" t="s">
-        <v>357</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
       </c>
       <c r="P125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8351,25 +8405,25 @@
         <v>7</v>
       </c>
       <c r="H126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I126" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N126" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8377,7 +8431,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8399,25 +8453,25 @@
         <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I127" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8425,7 +8479,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8447,33 +8501,33 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
       </c>
       <c r="P128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8495,20 +8549,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L129" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8516,7 +8570,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8538,33 +8592,33 @@
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I130" t="s">
+        <v>109</v>
+      </c>
+      <c r="K130" t="s">
+        <v>449</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K130" t="s">
-        <v>450</v>
-      </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="N130" t="s">
         <v>112</v>
-      </c>
-      <c r="N130" t="s">
-        <v>113</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8586,36 +8640,36 @@
         <v>5.5</v>
       </c>
       <c r="H131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L131" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="N131" t="s">
         <v>114</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="N131" t="s">
-        <v>115</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8637,23 +8691,23 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I132" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L132" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8661,7 +8715,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8683,36 +8737,36 @@
         <v>6.8</v>
       </c>
       <c r="H133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M133" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O133">
         <v>1.2201002373528382</v>
       </c>
       <c r="P133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8734,36 +8788,36 @@
         <v>6.3999999999999995</v>
       </c>
       <c r="H134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I134" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M134" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O134">
         <v>0.82000763927846521</v>
       </c>
       <c r="P134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8785,36 +8839,36 @@
         <v>6.2</v>
       </c>
       <c r="H135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I135" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M135" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O135">
         <v>0.42052283799023371</v>
       </c>
       <c r="P135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -8836,36 +8890,36 @@
         <v>7.7</v>
       </c>
       <c r="H136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I136" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M136" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O136">
         <v>2.1642134891465048E-2</v>
       </c>
       <c r="P136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -8887,20 +8941,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L137" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -8908,7 +8962,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -8930,36 +8984,36 @@
         <v>5.8</v>
       </c>
       <c r="H138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I138" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O138">
         <v>-0.37663811699323446</v>
       </c>
       <c r="P138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -8981,36 +9035,36 @@
         <v>7.3999999999999995</v>
       </c>
       <c r="H139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I139" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L139" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O139">
         <v>-0.77432151423236206</v>
       </c>
       <c r="P139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9032,33 +9086,33 @@
         <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L140" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N140" t="s">
         <v>370</v>
-      </c>
-      <c r="N140" t="s">
-        <v>371</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
       </c>
       <c r="P140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9074,31 +9128,31 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J141" t="s">
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L141" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
       </c>
       <c r="P141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9120,33 +9174,33 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J142" t="s">
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L142" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M142" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O142">
         <v>0.4583145839925038</v>
       </c>
       <c r="P142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9168,33 +9222,33 @@
         <v>7.3000000000000007</v>
       </c>
       <c r="H143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J143">
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L143" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M143" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O143">
         <v>6.5282226143224875E-2</v>
       </c>
       <c r="P143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9216,36 +9270,36 @@
         <v>15</v>
       </c>
       <c r="H144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M144" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="M144" s="2" t="s">
+      <c r="N144" t="s">
         <v>376</v>
-      </c>
-      <c r="N144" t="s">
-        <v>377</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
       </c>
       <c r="P144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9267,33 +9321,33 @@
         <v>4.7</v>
       </c>
       <c r="H145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J145" t="s">
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O145">
         <v>-0.32718355944679445</v>
       </c>
       <c r="P145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9315,33 +9369,33 @@
         <v>7.2</v>
       </c>
       <c r="H146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J146">
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O146">
         <v>-0.71908592393408099</v>
       </c>
       <c r="P146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9363,20 +9417,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O147">
         <v>3.8285883958386719</v>
@@ -9384,7 +9438,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9406,20 +9460,20 @@
         <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O148">
         <v>2.4583145839925038</v>
@@ -9427,7 +9481,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9449,20 +9503,20 @@
         <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J149">
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O149">
         <v>2.0652822261432249</v>
@@ -9470,7 +9524,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9492,33 +9546,33 @@
         <v>5.9</v>
       </c>
       <c r="H150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M150" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O150">
         <v>0.10855658349814234</v>
       </c>
       <c r="P150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9540,30 +9594,30 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K151" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M151" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="N151" t="s">
         <v>385</v>
-      </c>
-      <c r="N151" t="s">
-        <v>386</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
       </c>
       <c r="P151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9585,30 +9639,30 @@
         <v>8</v>
       </c>
       <c r="H152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K152" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N152" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
       </c>
       <c r="P152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9630,33 +9684,33 @@
         <v>7.7</v>
       </c>
       <c r="H153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J153">
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O153">
         <v>-0.28112283268126248</v>
       </c>
       <c r="P153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9678,20 +9732,20 @@
         <v>8</v>
       </c>
       <c r="H154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J154">
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L154" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9699,7 +9753,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9721,36 +9775,36 @@
         <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I155" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N155" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
       </c>
       <c r="P155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9772,30 +9826,30 @@
         <v>5.5</v>
       </c>
       <c r="H156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K156" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L156" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N156" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
       </c>
       <c r="P156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -9817,33 +9871,33 @@
         <v>7</v>
       </c>
       <c r="H157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K157" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L157" t="s">
+        <v>393</v>
+      </c>
+      <c r="M157" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="M157" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="N157" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
       </c>
       <c r="P157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -9865,22 +9919,22 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J158" t="s">
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N158" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -9888,7 +9942,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -9910,22 +9964,22 @@
         <v>7.2</v>
       </c>
       <c r="H159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J159">
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O159">
         <v>-0.60778752388213064</v>
@@ -9933,7 +9987,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -9955,22 +10009,22 @@
         <v>5.7</v>
       </c>
       <c r="H160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J160" t="s">
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O160">
         <v>-0.99368952843227021</v>
@@ -9978,7 +10032,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10000,22 +10054,22 @@
         <v>4.8</v>
       </c>
       <c r="H161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J161" t="s">
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O161">
         <v>-1.7639108556215461</v>
@@ -10023,7 +10077,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10045,20 +10099,20 @@
         <v>6.9</v>
       </c>
       <c r="H162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J162">
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O162">
         <v>-2.1482355421460468</v>
@@ -10066,7 +10120,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10082,31 +10136,31 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J163" t="s">
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L163" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
       </c>
       <c r="P163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10128,22 +10182,22 @@
         <v>6.5</v>
       </c>
       <c r="H164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I164" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O164">
         <v>0.39221247611786936</v>
@@ -10151,7 +10205,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10173,33 +10227,33 @@
         <v>3.5</v>
       </c>
       <c r="H165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I165" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K165" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M165" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="N165" t="s">
         <v>398</v>
-      </c>
-      <c r="N165" t="s">
-        <v>399</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
       </c>
       <c r="P165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10221,30 +10275,30 @@
         <v>8</v>
       </c>
       <c r="H166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K166" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N166" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
       </c>
       <c r="P166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10266,30 +10320,30 @@
         <v>5.5</v>
       </c>
       <c r="H167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K167" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N167" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
       </c>
       <c r="P167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10311,30 +10365,30 @@
         <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K168" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N168" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
       </c>
       <c r="P168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10356,30 +10410,30 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K169" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N169" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
       </c>
       <c r="P169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10401,33 +10455,33 @@
         <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I170" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M170" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="N170" t="s">
         <v>136</v>
-      </c>
-      <c r="N170" t="s">
-        <v>137</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10449,33 +10503,33 @@
         <v>7</v>
       </c>
       <c r="H171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K171" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N171" t="s">
         <v>139</v>
-      </c>
-      <c r="N171" t="s">
-        <v>140</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
       </c>
       <c r="P171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10497,36 +10551,36 @@
         <v>6</v>
       </c>
       <c r="H172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I172" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="N172" t="s">
         <v>114</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="N172" t="s">
-        <v>115</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10548,31 +10602,31 @@
         <v>8</v>
       </c>
       <c r="H173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J173" t="s">
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L173" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
       </c>
       <c r="P173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10594,33 +10648,33 @@
         <v>6</v>
       </c>
       <c r="H174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I174" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K174" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M174" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N174" t="s">
         <v>412</v>
-      </c>
-      <c r="N174" t="s">
-        <v>413</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
       </c>
       <c r="P174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10642,33 +10696,33 @@
         <v>4</v>
       </c>
       <c r="H175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K175" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M175" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N175" t="s">
         <v>142</v>
-      </c>
-      <c r="N175" t="s">
-        <v>143</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
       </c>
       <c r="P175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10690,20 +10744,20 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L176" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O176">
         <v>4.5531166862776615</v>
@@ -10711,7 +10765,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10733,20 +10787,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L177" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10754,7 +10808,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10776,34 +10830,34 @@
         <v>5</v>
       </c>
       <c r="H178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I178" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O178">
         <v>-1.3420167407453789</v>
       </c>
       <c r="P178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -10825,20 +10879,20 @@
         <v>6.2</v>
       </c>
       <c r="H179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J179" t="s">
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O179">
         <v>-1.2283562810661124</v>
@@ -10846,7 +10900,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -10868,22 +10922,22 @@
         <v>6.9</v>
       </c>
       <c r="H180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J180" t="s">
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O180">
         <v>-1.6041695010304764</v>
@@ -10891,7 +10945,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -10913,34 +10967,34 @@
         <v>5.5</v>
       </c>
       <c r="H181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O181">
         <v>-1.4760834690352951</v>
       </c>
       <c r="P181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -10962,20 +11016,20 @@
         <v>6</v>
       </c>
       <c r="H182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J182">
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L182" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O182">
         <v>0.27126031961319796</v>
@@ -10983,7 +11037,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11005,33 +11059,33 @@
         <v>7</v>
       </c>
       <c r="H183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J183">
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O183">
         <v>-0.47608346903529508</v>
       </c>
       <c r="P183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11053,33 +11107,33 @@
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J184" t="s">
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O184">
         <v>-0.84905082577578384</v>
       </c>
       <c r="P184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11101,33 +11155,33 @@
         <v>6.5</v>
       </c>
       <c r="H185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J185">
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O185">
         <v>-1.2215512709279182</v>
       </c>
       <c r="P185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11149,33 +11203,33 @@
         <v>4.25</v>
       </c>
       <c r="H186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O186">
         <v>-1.5935868648990876</v>
       </c>
       <c r="P186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11197,33 +11251,33 @@
         <v>6.5</v>
       </c>
       <c r="H187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J187">
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O187">
         <v>-1.9651596487121239</v>
       </c>
       <c r="P187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11245,33 +11299,33 @@
         <v>4</v>
       </c>
       <c r="H188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J188" t="s">
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O188">
         <v>-2.3362716443057678</v>
       </c>
       <c r="P188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11293,33 +11347,33 @@
         <v>6.5</v>
       </c>
       <c r="H189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J189">
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O189">
         <v>-2.7069248548283866</v>
       </c>
       <c r="P189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11341,33 +11395,33 @@
         <v>4.25</v>
       </c>
       <c r="H190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J190" t="s">
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O190">
         <v>-3.0771212649253883</v>
       </c>
       <c r="P190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11389,33 +11443,33 @@
         <v>6.7</v>
       </c>
       <c r="H191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J191">
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L191" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M191" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O191">
         <v>3.4840351287876103E-2</v>
       </c>
       <c r="P191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11437,33 +11491,33 @@
         <v>4.7</v>
       </c>
       <c r="H192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J192" t="s">
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O192">
         <v>-0.33627164430576784</v>
       </c>
       <c r="P192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11485,33 +11539,33 @@
         <v>3.3</v>
       </c>
       <c r="H193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J193" t="s">
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O193">
         <v>-1.0771212649253883</v>
       </c>
       <c r="P193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11533,33 +11587,33 @@
         <v>3.3</v>
       </c>
       <c r="H194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J194" t="s">
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O194">
         <v>-1.4468628410203479</v>
       </c>
       <c r="P194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11581,20 +11635,20 @@
         <v>7</v>
       </c>
       <c r="H195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J195">
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O195">
         <v>-0.38865159591399845</v>
@@ -11602,7 +11656,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11624,33 +11678,33 @@
         <v>5.3</v>
       </c>
       <c r="H196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J196" t="s">
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O196">
         <v>-0.75438528011734718</v>
       </c>
       <c r="P196" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11672,31 +11726,31 @@
         <v>7</v>
       </c>
       <c r="H197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J197">
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
       </c>
       <c r="P197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11718,33 +11772,33 @@
         <v>5</v>
       </c>
       <c r="H198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J198" t="s">
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O198">
         <v>-1.4845460887548114</v>
       </c>
       <c r="P198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11766,33 +11820,33 @@
         <v>6</v>
       </c>
       <c r="H199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J199">
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O199">
         <v>-1.8489767637588841</v>
       </c>
       <c r="P199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -11814,34 +11868,34 @@
         <v>5.5</v>
       </c>
       <c r="H200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I200" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O200">
         <v>-1.2129766276880645</v>
       </c>
       <c r="P200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -11863,22 +11917,22 @@
         <v>7.1</v>
       </c>
       <c r="H201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J201">
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L201" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O201">
         <v>-0.57654741827666101</v>
@@ -11886,7 +11940,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -11908,22 +11962,22 @@
         <v>5.4</v>
       </c>
       <c r="H202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J202" t="s">
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L202" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O202">
         <v>-0.93969085861327528</v>
@@ -11931,7 +11985,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -11953,22 +12007,22 @@
         <v>7.5</v>
       </c>
       <c r="H203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J203">
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L203" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O203">
         <v>-2.6574093519627695E-2</v>
@@ -11976,7 +12030,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -11998,22 +12052,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J204" t="s">
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L204" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O204">
         <v>-0.38802507779796258</v>
@@ -12021,7 +12075,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12043,22 +12097,22 @@
         <v>6.6</v>
       </c>
       <c r="H205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J205">
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L205" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O205">
         <v>-0.74905711450627166</v>
@@ -12066,7 +12120,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12088,34 +12142,34 @@
         <v>6</v>
       </c>
       <c r="H206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I206" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
       </c>
       <c r="P206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12137,30 +12191,30 @@
         <v>7.5</v>
       </c>
       <c r="H207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K207" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N207" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
       </c>
       <c r="P207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12182,34 +12236,34 @@
         <v>6</v>
       </c>
       <c r="H208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I208" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
       </c>
       <c r="P208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12231,20 +12285,20 @@
         <v>3.1999999999999997</v>
       </c>
       <c r="H209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J209">
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L209" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O209">
         <v>-0.58895177361991102</v>
@@ -12252,7 +12306,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12274,36 +12328,36 @@
         <v>2.6</v>
       </c>
       <c r="H210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I210" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L210" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O210">
         <v>-0.9407752647588552</v>
       </c>
       <c r="P210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12325,36 +12379,36 @@
         <v>6</v>
       </c>
       <c r="H211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I211" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L211" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O211">
         <v>-1.2922158023175427</v>
       </c>
       <c r="P211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12376,33 +12430,33 @@
         <v>4.5</v>
       </c>
       <c r="H212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J212" t="s">
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L212" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N212" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
       </c>
       <c r="P212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12424,34 +12478,34 @@
         <v>5.5</v>
       </c>
       <c r="H213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I213" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
       </c>
       <c r="P213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12473,20 +12527,20 @@
         <v>6.3</v>
       </c>
       <c r="H214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J214" t="s">
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L214" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O214">
         <v>-0.643274748826002</v>
@@ -12494,7 +12548,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12516,33 +12570,33 @@
         <v>5.5</v>
       </c>
       <c r="H215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J215" t="s">
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L215" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O215">
         <v>-0.99395345696034099</v>
       </c>
       <c r="P215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12564,33 +12618,33 @@
         <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I216" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N216" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
       </c>
       <c r="P216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12612,33 +12666,33 @@
         <v>6</v>
       </c>
       <c r="H217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I217" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N217" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
       </c>
       <c r="P217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12660,33 +12714,33 @@
         <v>4.8</v>
       </c>
       <c r="H218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J218" t="s">
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L218" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O218">
         <v>-0.43816934722877932</v>
       </c>
       <c r="P218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12708,33 +12762,33 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="H219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J219">
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L219" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O219">
         <v>-0.78585369937712812</v>
       </c>
       <c r="P219" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12756,33 +12810,33 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J220" t="s">
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L220" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O220">
         <v>-1.1331695621990292</v>
       </c>
       <c r="P220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -12804,33 +12858,33 @@
         <v>5</v>
       </c>
       <c r="H221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J221">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L221" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O221">
         <v>-1.4801181958633407</v>
       </c>
       <c r="P221" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -12852,20 +12906,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L222" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -12873,7 +12927,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -12895,33 +12949,33 @@
         <v>4.5</v>
       </c>
       <c r="H223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I223" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K223" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M223" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N223" t="s">
         <v>423</v>
-      </c>
-      <c r="N223" t="s">
-        <v>424</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
       </c>
       <c r="P223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -12943,33 +12997,33 @@
         <v>5</v>
       </c>
       <c r="H224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I224" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K224" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N224" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
       </c>
       <c r="P224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -12991,33 +13045,33 @@
         <v>5.5</v>
       </c>
       <c r="H225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I225" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K225" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M225" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M225" s="4" t="s">
+      <c r="N225" t="s">
         <v>206</v>
-      </c>
-      <c r="N225" t="s">
-        <v>207</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
       </c>
       <c r="P225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13039,33 +13093,33 @@
         <v>5.5</v>
       </c>
       <c r="H226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I226" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K226" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
       </c>
       <c r="P226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13087,34 +13141,34 @@
         <v>4.5</v>
       </c>
       <c r="H227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I227" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
       </c>
       <c r="P227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13136,33 +13190,33 @@
         <v>5.5</v>
       </c>
       <c r="H228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I228" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K228" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M228" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N228" t="s">
         <v>428</v>
-      </c>
-      <c r="N228" t="s">
-        <v>429</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
       </c>
       <c r="P228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13184,33 +13238,33 @@
         <v>3.6</v>
       </c>
       <c r="H229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J229" t="s">
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L229" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O229">
         <v>-1.3613560717265187</v>
       </c>
       <c r="P229" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13232,33 +13286,33 @@
         <v>2.9</v>
       </c>
       <c r="H230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J230">
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L230" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O230">
         <v>-1.6998480216558676</v>
       </c>
       <c r="P230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13280,33 +13334,33 @@
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J231" t="s">
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L231" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O231">
         <v>-2.0380016536697809</v>
       </c>
       <c r="P231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13328,33 +13382,33 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J232" t="s">
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L232" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O232">
         <v>-0.69984802165586757</v>
       </c>
       <c r="P232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13376,33 +13430,33 @@
         <v>4.8</v>
       </c>
       <c r="H233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J233" t="s">
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O233">
         <v>-1.0380016536697809</v>
       </c>
       <c r="P233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13424,33 +13478,33 @@
         <v>3.2</v>
       </c>
       <c r="H234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J234" t="s">
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L234" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O234">
         <v>-1.3872541469982878</v>
       </c>
       <c r="P234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13472,33 +13526,33 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J235">
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L235" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O235">
         <v>-1.7237319906828503</v>
       </c>
       <c r="P235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13520,33 +13574,33 @@
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J236" t="s">
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L236" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O236">
         <v>-2.0598777916518145</v>
       </c>
       <c r="P236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13568,33 +13622,33 @@
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J237" t="s">
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L237" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O237">
         <v>-0.72373199068285032</v>
       </c>
       <c r="P237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13616,28 +13670,28 @@
         <v>3.5</v>
       </c>
       <c r="H238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J238" t="s">
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L238" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N238" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O238">
         <v>-1.4011609456622267</v>
       </c>
       <c r="P238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0D801-1A43-7B4E-81B6-0B76B8376A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5579B16-8501-5E4A-ABE0-560B5573C2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="652">
   <si>
     <t>Isotope</t>
   </si>
@@ -100,9 +100,6 @@
     <t>50% uncertainty listed in paper</t>
   </si>
   <si>
-    <t>W.P. Abfalterer et al. PRC 47, 1033 (1993)</t>
-  </si>
-  <si>
     <t>40% uncertainty listed in paper</t>
   </si>
   <si>
@@ -766,15 +763,6 @@
     <t>40Ca</t>
   </si>
   <si>
-    <t>Csresonance</t>
-  </si>
-  <si>
-    <t>T. Nakashima Journal of the Physical Society of Japan 36, 10 (1973)</t>
-  </si>
-  <si>
-    <t>I. Usman et al. PRC 84, 054322 (2011)</t>
-  </si>
-  <si>
     <t>Found the average uncertainty to be ~20%, 20% taken</t>
   </si>
   <si>
@@ -2009,6 +1997,15 @@
   </si>
   <si>
     <t>Phys. Rev. C 62, 064312 (2000)</t>
+  </si>
+  <si>
+    <t>DOI:10.1143/JPSJ.36.10</t>
+  </si>
+  <si>
+    <t>Resonance spacing</t>
+  </si>
+  <si>
+    <t>DOI: 10.1103/PhysRevC.84.054322</t>
   </si>
 </sst>
 </file>
@@ -2469,7 +2466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -2504,10 +2501,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -2522,7 +2519,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>7</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2567,19 +2564,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2588,12 +2585,12 @@
         <v>0.13551162551010876</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2618,20 +2615,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2664,19 +2661,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2712,22 +2709,22 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5">
         <v>-0.22724293151235386</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2760,20 +2757,20 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6">
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6">
         <v>0.77275706848764614</v>
@@ -2781,7 +2778,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2806,19 +2803,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2829,7 +2826,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2854,20 +2851,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2900,22 +2897,22 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9">
         <v>0.3207758832260339</v>
@@ -2923,7 +2920,7 @@
     </row>
     <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2948,22 +2945,22 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L10" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10">
         <v>-2.8604461484416532E-2</v>
@@ -2971,7 +2968,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2996,19 +2993,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3019,7 +3016,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3044,22 +3041,22 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L12" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M12" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O12">
         <v>0.52373581864522656</v>
@@ -3067,7 +3064,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3095,14 +3092,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3110,7 +3107,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3138,14 +3135,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3177,20 +3174,23 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
+      <c r="I15" t="s">
+        <v>644</v>
+      </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>648</v>
       </c>
       <c r="M15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3222,20 +3222,23 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
+      <c r="I16" t="s">
+        <v>644</v>
+      </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>648</v>
       </c>
       <c r="M16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3267,20 +3270,23 @@
       <c r="H17" t="s">
         <v>13</v>
       </c>
+      <c r="I17" t="s">
+        <v>644</v>
+      </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>648</v>
       </c>
       <c r="M17" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="N17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3288,7 +3294,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3310,20 +3316,23 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>650</v>
+      </c>
+      <c r="I18" t="s">
+        <v>505</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L18" t="s">
-        <v>239</v>
+        <v>649</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O18">
         <v>1.4185119401318005</v>
@@ -3331,7 +3340,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3353,20 +3362,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="I19" t="s">
+        <v>618</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L19" t="s">
-        <v>240</v>
+        <v>651</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3374,7 +3386,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3398,20 +3410,23 @@
       <c r="H20" t="s">
         <v>13</v>
       </c>
+      <c r="I20" t="s">
+        <v>644</v>
+      </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>645</v>
       </c>
       <c r="M20" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N20" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3419,7 +3434,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3441,36 +3456,36 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O21">
         <v>1.1022160736577469</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3492,33 +3507,33 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3540,36 +3555,36 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O23">
         <v>0.66530212507089459</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3591,36 +3606,36 @@
         <v>7.7</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O24">
         <v>0.22929653162440999</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -3644,18 +3659,21 @@
       <c r="H25" t="s">
         <v>13</v>
       </c>
+      <c r="I25" t="s">
+        <v>644</v>
+      </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>648</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O25">
         <v>-2.7981092392552966</v>
@@ -3663,7 +3681,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3685,23 +3703,23 @@
         <v>7.8</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3709,7 +3727,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3731,36 +3749,36 @@
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O27">
         <v>1.22929653162441</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3788,14 +3806,14 @@
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O28">
         <v>0.79418935940907787</v>
@@ -3803,7 +3821,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3825,36 +3843,36 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O29">
         <v>0.79418935940907787</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3876,36 +3894,36 @@
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N30" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -3927,25 +3945,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I31" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N31" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -3953,7 +3971,7 @@
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -3975,22 +3993,22 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N32" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -3998,7 +4016,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4020,33 +4038,33 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O33">
         <v>1.3599709566234246</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4068,33 +4086,33 @@
         <v>3.5</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O34">
         <v>0.9266319398067111</v>
       </c>
       <c r="P34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4116,33 +4134,33 @@
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O35">
         <v>0.49416318102058909</v>
       </c>
       <c r="P35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4164,36 +4182,36 @@
         <v>7.3999999999999995</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>515</v>
+      </c>
+      <c r="N36" t="s">
         <v>28</v>
-      </c>
-      <c r="M36" t="s">
-        <v>519</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
       </c>
       <c r="O36">
         <v>6.2555795895832489E-2</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>33</v>
@@ -4215,36 +4233,36 @@
         <v>9.1000000000000014</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="N37" t="s">
         <v>28</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
       </c>
       <c r="O37">
         <v>-0.36819886753061581</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4266,33 +4284,33 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K38" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O38">
         <v>0.63180113246938419</v>
       </c>
       <c r="P38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4320,14 +4338,14 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4335,7 +4353,7 @@
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40">
         <v>36</v>
@@ -4357,33 +4375,33 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
         <v>31</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
+        <v>447</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K40" t="s">
-        <v>451</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" t="s">
         <v>34</v>
-      </c>
-      <c r="N40" t="s">
-        <v>35</v>
       </c>
       <c r="O40">
         <v>-0.22718353708455652</v>
       </c>
       <c r="P40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4405,33 +4423,33 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K41" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4453,33 +4471,33 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K42" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O42">
         <v>0.77281646291544348</v>
       </c>
       <c r="P42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4501,33 +4519,33 @@
         <v>3.75</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K43" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N43" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
       </c>
       <c r="P43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4549,33 +4567,33 @@
         <v>6.5</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
       </c>
       <c r="P44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>41</v>
@@ -4597,20 +4615,20 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4618,7 +4636,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4640,33 +4658,33 @@
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N46" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
       </c>
       <c r="P46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4688,36 +4706,36 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M47" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="N47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O47">
         <v>0.49053082895950695</v>
       </c>
       <c r="P47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4745,14 +4763,14 @@
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4760,7 +4778,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4788,14 +4806,14 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4803,7 +4821,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4825,33 +4843,33 @@
         <v>6.25</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K50" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N50" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
       </c>
       <c r="P50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4873,33 +4891,33 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K51" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N51" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -4921,33 +4939,33 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -4969,33 +4987,33 @@
         <v>5.75</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K53" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O53">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5017,36 +5035,36 @@
         <v>6.7</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M54" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O54">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5068,33 +5086,33 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s">
         <v>31</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
+        <v>447</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K55" t="s">
-        <v>451</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M55" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N55" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5116,33 +5134,33 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I56" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N56" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
       </c>
       <c r="P56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5164,33 +5182,33 @@
         <v>5.5</v>
       </c>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N57" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
       </c>
       <c r="P57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5212,33 +5230,33 @@
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N58" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
       </c>
       <c r="P58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5260,22 +5278,22 @@
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N59" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5283,7 +5301,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5305,30 +5323,30 @@
         <v>5.5</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N60" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
       </c>
       <c r="P60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5350,36 +5368,36 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N61" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
       </c>
       <c r="P61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5401,33 +5419,33 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N62" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
       </c>
       <c r="P62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5449,36 +5467,36 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O63">
         <v>0.21549256905338865</v>
       </c>
       <c r="P63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>60</v>
@@ -5500,30 +5518,30 @@
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K64" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" t="s">
         <v>42</v>
-      </c>
-      <c r="N64" t="s">
-        <v>43</v>
       </c>
       <c r="O64">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65">
         <v>61</v>
@@ -5551,16 +5569,16 @@
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O65">
         <v>-0.20794327870674323</v>
@@ -5568,7 +5586,7 @@
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66">
         <v>62</v>
@@ -5590,33 +5608,33 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="N66" t="s">
         <v>44</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="N66" t="s">
-        <v>45</v>
       </c>
       <c r="O66">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <v>63</v>
@@ -5638,31 +5656,31 @@
         <v>8.5</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O67">
         <v>-0.63060214877680565</v>
       </c>
       <c r="P67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5684,20 +5702,20 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5705,7 +5723,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5727,33 +5745,33 @@
         <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
       </c>
       <c r="P69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5781,14 +5799,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5796,7 +5814,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5824,14 +5842,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5839,7 +5857,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5861,30 +5879,30 @@
         <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K72" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N72" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
       </c>
       <c r="P72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -5906,33 +5924,33 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K73" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N73" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
       </c>
       <c r="P73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -5954,36 +5972,36 @@
         <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I74" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N74" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
       </c>
       <c r="P74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6005,33 +6023,33 @@
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N75" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
       </c>
       <c r="P75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6053,36 +6071,36 @@
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I76" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O76">
         <v>0.79205672129325677</v>
       </c>
       <c r="P76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6104,33 +6122,33 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
       </c>
       <c r="P77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6152,33 +6170,33 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I78" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="K78" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N78" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
       </c>
       <c r="P78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79">
         <v>75</v>
@@ -6200,36 +6218,36 @@
         <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" t="s">
         <v>52</v>
-      </c>
-      <c r="N79" t="s">
-        <v>53</v>
       </c>
       <c r="O79">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80">
         <v>76</v>
@@ -6251,33 +6269,33 @@
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80" t="s">
+        <v>440</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K80" t="s">
-        <v>444</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="M80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N80" t="s">
         <v>58</v>
-      </c>
-      <c r="N80" t="s">
-        <v>59</v>
       </c>
       <c r="O80">
         <v>-0.47361546110579411</v>
       </c>
       <c r="P80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81">
         <v>77</v>
@@ -6299,33 +6317,33 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N81" t="s">
         <v>60</v>
-      </c>
-      <c r="N81" t="s">
-        <v>61</v>
       </c>
       <c r="O81">
         <v>-0.47361546110579411</v>
       </c>
       <c r="P81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B82">
         <v>78</v>
@@ -6347,36 +6365,36 @@
         <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O82">
         <v>-0.89398280802292263</v>
       </c>
       <c r="P82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83">
         <v>79</v>
@@ -6398,33 +6416,33 @@
         <v>9</v>
       </c>
       <c r="H83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N83" t="s">
         <v>64</v>
-      </c>
-      <c r="N83" t="s">
-        <v>65</v>
       </c>
       <c r="O83">
         <v>-0.89398280802292263</v>
       </c>
       <c r="P83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B84">
         <v>80</v>
@@ -6446,33 +6464,33 @@
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="N84" t="s">
         <v>54</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="N84" t="s">
-        <v>55</v>
       </c>
       <c r="O84">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85">
         <v>81</v>
@@ -6494,20 +6512,20 @@
         <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J85">
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6515,7 +6533,7 @@
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86">
         <v>82</v>
@@ -6537,20 +6555,20 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O86">
         <v>-2.984672885194577</v>
@@ -6558,7 +6576,7 @@
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87">
         <v>83</v>
@@ -6580,20 +6598,20 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O87">
         <v>-3.4006227935603661</v>
@@ -6601,7 +6619,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6623,30 +6641,30 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N88" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
       </c>
       <c r="P88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6668,33 +6686,33 @@
         <v>9.5</v>
       </c>
       <c r="H89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="N89" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
       </c>
       <c r="P89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6716,33 +6734,33 @@
         <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N90" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
       </c>
       <c r="P90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6764,36 +6782,36 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I91" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N91" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
       </c>
       <c r="P91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92">
         <v>88</v>
@@ -6815,31 +6833,31 @@
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O92">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93">
         <v>89</v>
@@ -6861,34 +6879,34 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" t="s">
         <v>73</v>
-      </c>
-      <c r="I93" t="s">
-        <v>74</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O93">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -6910,36 +6928,36 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I94" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N94" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
       </c>
       <c r="P94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -6961,36 +6979,36 @@
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N95" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
       </c>
       <c r="P95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7012,33 +7030,33 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J96">
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N96" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
       </c>
       <c r="P96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7060,36 +7078,36 @@
         <v>6.75</v>
       </c>
       <c r="H97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I97" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N97" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
       </c>
       <c r="P97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>94</v>
@@ -7111,20 +7129,20 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O98">
         <v>-3.0573149088805707</v>
@@ -7132,7 +7150,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7154,20 +7172,20 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L99" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O99">
         <v>2.6864010034506087</v>
@@ -7175,7 +7193,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7197,36 +7215,36 @@
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N100" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
       </c>
       <c r="P100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101">
         <v>97</v>
@@ -7248,36 +7266,36 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J101">
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="N101" t="s">
         <v>84</v>
-      </c>
-      <c r="N101" t="s">
-        <v>85</v>
       </c>
       <c r="O101">
         <v>-1.0573149088805707</v>
       </c>
       <c r="P101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102">
         <v>98</v>
@@ -7299,36 +7317,36 @@
         <v>11.25</v>
       </c>
       <c r="H102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J102">
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O102">
         <v>-1.881470383782073</v>
       </c>
       <c r="P102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B103">
         <v>99</v>
@@ -7350,33 +7368,33 @@
         <v>5.7</v>
       </c>
       <c r="H103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N103" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
       </c>
       <c r="P103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B104">
         <v>100</v>
@@ -7398,20 +7416,20 @@
         <v>8.5</v>
       </c>
       <c r="H104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J104">
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7419,7 +7437,7 @@
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105">
         <v>101</v>
@@ -7441,20 +7459,20 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O105">
         <v>-1.881470383782073</v>
@@ -7462,7 +7480,7 @@
     </row>
     <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106">
         <v>102</v>
@@ -7484,20 +7502,20 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O106">
         <v>-1.881470383782073</v>
@@ -7505,7 +7523,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7527,20 +7545,20 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L107" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O107">
         <v>2.015327114805423</v>
@@ -7548,7 +7566,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7570,33 +7588,33 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I108" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K108" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N108" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
       </c>
       <c r="P108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -7618,34 +7636,34 @@
         <v>5.5</v>
       </c>
       <c r="H109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O109">
         <v>-0.46973757929284687</v>
       </c>
       <c r="P109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7667,20 +7685,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L110" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O110">
         <v>3.015327114805423</v>
@@ -7688,7 +7706,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7710,20 +7728,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L111" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O111">
         <v>3.3558026970156334</v>
@@ -7731,7 +7749,7 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112">
         <v>108</v>
@@ -7753,20 +7771,20 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O112">
         <v>-2.3663664896644576</v>
@@ -7774,7 +7792,7 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113">
         <v>109</v>
@@ -7796,36 +7814,36 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I113" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O113">
         <v>-2.3663664896644576</v>
       </c>
       <c r="P113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -7847,33 +7865,33 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N114" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
       </c>
       <c r="P114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -7895,20 +7913,20 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L115" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O115">
         <v>3.7074816964189736</v>
@@ -7916,7 +7934,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -7938,20 +7956,20 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O116">
         <v>-2.7798997626471618</v>
@@ -7959,7 +7977,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -7981,20 +7999,20 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O117">
         <v>-3.5794771620097663</v>
@@ -8002,7 +8020,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -8024,20 +8042,20 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O118">
         <v>-4.3766381169932345</v>
@@ -8045,7 +8063,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8067,34 +8085,34 @@
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O119">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8116,36 +8134,36 @@
         <v>9</v>
       </c>
       <c r="H120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I120" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O120">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8167,25 +8185,25 @@
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I121" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O121">
         <v>-0.57593740071263966</v>
@@ -8193,7 +8211,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8215,20 +8233,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L122" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8236,7 +8254,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8258,25 +8276,25 @@
         <v>4.8</v>
       </c>
       <c r="H123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I123" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M123" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N123" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8284,7 +8302,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8306,25 +8324,25 @@
         <v>4.8</v>
       </c>
       <c r="H124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I124" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M124" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N124" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8332,7 +8350,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8354,36 +8372,36 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I125" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N125" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
       </c>
       <c r="P125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8405,25 +8423,25 @@
         <v>7</v>
       </c>
       <c r="H126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I126" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N126" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8431,7 +8449,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8453,25 +8471,25 @@
         <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I127" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N127" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8479,7 +8497,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8501,33 +8519,33 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I128" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N128" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
       </c>
       <c r="P128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8549,20 +8567,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8570,7 +8588,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8592,33 +8610,33 @@
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I130" t="s">
+        <v>108</v>
+      </c>
+      <c r="K130" t="s">
+        <v>445</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K130" t="s">
-        <v>449</v>
-      </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="N130" t="s">
         <v>111</v>
-      </c>
-      <c r="N130" t="s">
-        <v>112</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8640,36 +8658,36 @@
         <v>5.5</v>
       </c>
       <c r="H131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L131" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="N131" t="s">
         <v>113</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="N131" t="s">
-        <v>114</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8691,23 +8709,23 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I132" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L132" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8715,7 +8733,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8737,36 +8755,36 @@
         <v>6.8</v>
       </c>
       <c r="H133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I133" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M133" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O133">
         <v>1.2201002373528382</v>
       </c>
       <c r="P133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8788,36 +8806,36 @@
         <v>6.3999999999999995</v>
       </c>
       <c r="H134" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I134" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M134" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O134">
         <v>0.82000763927846521</v>
       </c>
       <c r="P134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8839,36 +8857,36 @@
         <v>6.2</v>
       </c>
       <c r="H135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I135" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M135" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="N135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O135">
         <v>0.42052283799023371</v>
       </c>
       <c r="P135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -8890,36 +8908,36 @@
         <v>7.7</v>
       </c>
       <c r="H136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I136" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M136" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O136">
         <v>2.1642134891465048E-2</v>
       </c>
       <c r="P136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -8941,20 +8959,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L137" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -8962,7 +8980,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -8984,36 +9002,36 @@
         <v>5.8</v>
       </c>
       <c r="H138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I138" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O138">
         <v>-0.37663811699323446</v>
       </c>
       <c r="P138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -9035,36 +9053,36 @@
         <v>7.3999999999999995</v>
       </c>
       <c r="H139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I139" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O139">
         <v>-0.77432151423236206</v>
       </c>
       <c r="P139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9086,33 +9104,33 @@
         <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N140" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
       </c>
       <c r="P140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9128,31 +9146,31 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J141" t="s">
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L141" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
       </c>
       <c r="P141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9174,33 +9192,33 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J142" t="s">
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M142" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O142">
         <v>0.4583145839925038</v>
       </c>
       <c r="P142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9222,33 +9240,33 @@
         <v>7.3000000000000007</v>
       </c>
       <c r="H143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J143">
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M143" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O143">
         <v>6.5282226143224875E-2</v>
       </c>
       <c r="P143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9270,36 +9288,36 @@
         <v>15</v>
       </c>
       <c r="H144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I144" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N144" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
       </c>
       <c r="P144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9321,33 +9339,33 @@
         <v>4.7</v>
       </c>
       <c r="H145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J145" t="s">
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O145">
         <v>-0.32718355944679445</v>
       </c>
       <c r="P145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9369,33 +9387,33 @@
         <v>7.2</v>
       </c>
       <c r="H146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J146">
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O146">
         <v>-0.71908592393408099</v>
       </c>
       <c r="P146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9417,20 +9435,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L147" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O147">
         <v>3.8285883958386719</v>
@@ -9438,7 +9456,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9460,20 +9478,20 @@
         <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O148">
         <v>2.4583145839925038</v>
@@ -9481,7 +9499,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9503,20 +9521,20 @@
         <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J149">
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O149">
         <v>2.0652822261432249</v>
@@ -9524,7 +9542,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9546,33 +9564,33 @@
         <v>5.9</v>
       </c>
       <c r="H150" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M150" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O150">
         <v>0.10855658349814234</v>
       </c>
       <c r="P150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9594,30 +9612,30 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K151" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N151" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
       </c>
       <c r="P151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9639,30 +9657,30 @@
         <v>8</v>
       </c>
       <c r="H152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K152" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N152" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
       </c>
       <c r="P152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9684,33 +9702,33 @@
         <v>7.7</v>
       </c>
       <c r="H153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J153">
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O153">
         <v>-0.28112283268126248</v>
       </c>
       <c r="P153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9732,20 +9750,20 @@
         <v>8</v>
       </c>
       <c r="H154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J154">
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9753,7 +9771,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9775,36 +9793,36 @@
         <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I155" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N155" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
       </c>
       <c r="P155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9826,30 +9844,30 @@
         <v>5.5</v>
       </c>
       <c r="H156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K156" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L156" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N156" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
       </c>
       <c r="P156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -9871,33 +9889,33 @@
         <v>7</v>
       </c>
       <c r="H157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I157" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K157" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L157" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N157" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
       </c>
       <c r="P157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -9919,22 +9937,22 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J158" t="s">
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N158" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -9942,7 +9960,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -9964,22 +9982,22 @@
         <v>7.2</v>
       </c>
       <c r="H159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J159">
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L159" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O159">
         <v>-0.60778752388213064</v>
@@ -9987,7 +10005,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10009,22 +10027,22 @@
         <v>5.7</v>
       </c>
       <c r="H160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J160" t="s">
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L160" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O160">
         <v>-0.99368952843227021</v>
@@ -10032,7 +10050,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10054,22 +10072,22 @@
         <v>4.8</v>
       </c>
       <c r="H161" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J161" t="s">
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O161">
         <v>-1.7639108556215461</v>
@@ -10077,7 +10095,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10099,20 +10117,20 @@
         <v>6.9</v>
       </c>
       <c r="H162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J162">
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L162" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O162">
         <v>-2.1482355421460468</v>
@@ -10120,7 +10138,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10136,31 +10154,31 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J163" t="s">
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L163" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
       </c>
       <c r="P163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10182,22 +10200,22 @@
         <v>6.5</v>
       </c>
       <c r="H164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I164" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O164">
         <v>0.39221247611786936</v>
@@ -10205,7 +10223,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10227,33 +10245,33 @@
         <v>3.5</v>
       </c>
       <c r="H165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I165" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K165" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N165" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
       </c>
       <c r="P165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10275,30 +10293,30 @@
         <v>8</v>
       </c>
       <c r="H166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K166" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N166" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
       </c>
       <c r="P166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10320,30 +10338,30 @@
         <v>5.5</v>
       </c>
       <c r="H167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K167" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N167" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
       </c>
       <c r="P167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10365,30 +10383,30 @@
         <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K168" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="N168" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
       </c>
       <c r="P168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10410,30 +10428,30 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K169" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="N169" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
       </c>
       <c r="P169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10455,33 +10473,33 @@
         <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I170" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K170" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M170" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="N170" t="s">
         <v>135</v>
-      </c>
-      <c r="N170" t="s">
-        <v>136</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10503,33 +10521,33 @@
         <v>7</v>
       </c>
       <c r="H171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I171" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K171" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N171" t="s">
         <v>138</v>
-      </c>
-      <c r="N171" t="s">
-        <v>139</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
       </c>
       <c r="P171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10551,36 +10569,36 @@
         <v>6</v>
       </c>
       <c r="H172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I172" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="N172" t="s">
         <v>113</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="N172" t="s">
-        <v>114</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10602,31 +10620,31 @@
         <v>8</v>
       </c>
       <c r="H173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J173" t="s">
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L173" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
       </c>
       <c r="P173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10648,33 +10666,33 @@
         <v>6</v>
       </c>
       <c r="H174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K174" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N174" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
       </c>
       <c r="P174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10696,33 +10714,33 @@
         <v>4</v>
       </c>
       <c r="H175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K175" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M175" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N175" t="s">
         <v>141</v>
-      </c>
-      <c r="N175" t="s">
-        <v>142</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
       </c>
       <c r="P175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10744,20 +10762,20 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L176" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O176">
         <v>4.5531166862776615</v>
@@ -10765,7 +10783,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10787,20 +10805,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10808,7 +10826,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10830,34 +10848,34 @@
         <v>5</v>
       </c>
       <c r="H178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I178" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O178">
         <v>-1.3420167407453789</v>
       </c>
       <c r="P178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -10879,20 +10897,20 @@
         <v>6.2</v>
       </c>
       <c r="H179" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J179" t="s">
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O179">
         <v>-1.2283562810661124</v>
@@ -10900,7 +10918,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -10922,22 +10940,22 @@
         <v>6.9</v>
       </c>
       <c r="H180" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J180" t="s">
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="N180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O180">
         <v>-1.6041695010304764</v>
@@ -10945,7 +10963,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -10967,34 +10985,34 @@
         <v>5.5</v>
       </c>
       <c r="H181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I181" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O181">
         <v>-1.4760834690352951</v>
       </c>
       <c r="P181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11016,20 +11034,20 @@
         <v>6</v>
       </c>
       <c r="H182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J182">
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O182">
         <v>0.27126031961319796</v>
@@ -11037,7 +11055,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11059,33 +11077,33 @@
         <v>7</v>
       </c>
       <c r="H183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J183">
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O183">
         <v>-0.47608346903529508</v>
       </c>
       <c r="P183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11107,33 +11125,33 @@
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J184" t="s">
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="N184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O184">
         <v>-0.84905082577578384</v>
       </c>
       <c r="P184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11155,33 +11173,33 @@
         <v>6.5</v>
       </c>
       <c r="H185" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J185">
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O185">
         <v>-1.2215512709279182</v>
       </c>
       <c r="P185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11203,33 +11221,33 @@
         <v>4.25</v>
       </c>
       <c r="H186" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O186">
         <v>-1.5935868648990876</v>
       </c>
       <c r="P186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11251,33 +11269,33 @@
         <v>6.5</v>
       </c>
       <c r="H187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J187">
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O187">
         <v>-1.9651596487121239</v>
       </c>
       <c r="P187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11299,33 +11317,33 @@
         <v>4</v>
       </c>
       <c r="H188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J188" t="s">
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O188">
         <v>-2.3362716443057678</v>
       </c>
       <c r="P188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11347,33 +11365,33 @@
         <v>6.5</v>
       </c>
       <c r="H189" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J189">
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O189">
         <v>-2.7069248548283866</v>
       </c>
       <c r="P189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11395,33 +11413,33 @@
         <v>4.25</v>
       </c>
       <c r="H190" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J190" t="s">
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="N190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O190">
         <v>-3.0771212649253883</v>
       </c>
       <c r="P190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11443,33 +11461,33 @@
         <v>6.7</v>
       </c>
       <c r="H191" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J191">
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L191" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M191" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="N191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O191">
         <v>3.4840351287876103E-2</v>
       </c>
       <c r="P191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11491,33 +11509,33 @@
         <v>4.7</v>
       </c>
       <c r="H192" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J192" t="s">
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N192" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O192">
         <v>-0.33627164430576784</v>
       </c>
       <c r="P192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11539,33 +11557,33 @@
         <v>3.3</v>
       </c>
       <c r="H193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J193" t="s">
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O193">
         <v>-1.0771212649253883</v>
       </c>
       <c r="P193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11587,33 +11605,33 @@
         <v>3.3</v>
       </c>
       <c r="H194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J194" t="s">
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O194">
         <v>-1.4468628410203479</v>
       </c>
       <c r="P194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11635,20 +11653,20 @@
         <v>7</v>
       </c>
       <c r="H195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J195">
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O195">
         <v>-0.38865159591399845</v>
@@ -11656,7 +11674,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11678,33 +11696,33 @@
         <v>5.3</v>
       </c>
       <c r="H196" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J196" t="s">
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O196">
         <v>-0.75438528011734718</v>
       </c>
       <c r="P196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11726,31 +11744,31 @@
         <v>7</v>
       </c>
       <c r="H197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J197">
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
       </c>
       <c r="P197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11772,33 +11790,33 @@
         <v>5</v>
       </c>
       <c r="H198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J198" t="s">
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O198">
         <v>-1.4845460887548114</v>
       </c>
       <c r="P198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11820,33 +11838,33 @@
         <v>6</v>
       </c>
       <c r="H199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J199">
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="N199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O199">
         <v>-1.8489767637588841</v>
       </c>
       <c r="P199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -11868,34 +11886,34 @@
         <v>5.5</v>
       </c>
       <c r="H200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I200" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O200">
         <v>-1.2129766276880645</v>
       </c>
       <c r="P200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -11917,22 +11935,22 @@
         <v>7.1</v>
       </c>
       <c r="H201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J201">
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L201" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="N201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O201">
         <v>-0.57654741827666101</v>
@@ -11940,7 +11958,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -11962,22 +11980,22 @@
         <v>5.4</v>
       </c>
       <c r="H202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J202" t="s">
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="N202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O202">
         <v>-0.93969085861327528</v>
@@ -11985,7 +12003,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12007,22 +12025,22 @@
         <v>7.5</v>
       </c>
       <c r="H203" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J203">
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L203" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="N203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O203">
         <v>-2.6574093519627695E-2</v>
@@ -12030,7 +12048,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12052,22 +12070,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H204" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J204" t="s">
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L204" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="N204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O204">
         <v>-0.38802507779796258</v>
@@ -12075,7 +12093,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12097,22 +12115,22 @@
         <v>6.6</v>
       </c>
       <c r="H205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J205">
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L205" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="N205" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O205">
         <v>-0.74905711450627166</v>
@@ -12120,7 +12138,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12142,34 +12160,34 @@
         <v>6</v>
       </c>
       <c r="H206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I206" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
       </c>
       <c r="P206" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12191,30 +12209,30 @@
         <v>7.5</v>
       </c>
       <c r="H207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K207" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N207" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
       </c>
       <c r="P207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12236,34 +12254,34 @@
         <v>6</v>
       </c>
       <c r="H208" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I208" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
       </c>
       <c r="P208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12285,20 +12303,20 @@
         <v>3.1999999999999997</v>
       </c>
       <c r="H209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J209">
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L209" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O209">
         <v>-0.58895177361991102</v>
@@ -12306,7 +12324,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12328,36 +12346,36 @@
         <v>2.6</v>
       </c>
       <c r="H210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I210" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L210" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="N210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O210">
         <v>-0.9407752647588552</v>
       </c>
       <c r="P210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12379,36 +12397,36 @@
         <v>6</v>
       </c>
       <c r="H211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I211" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L211" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="N211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O211">
         <v>-1.2922158023175427</v>
       </c>
       <c r="P211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12430,33 +12448,33 @@
         <v>4.5</v>
       </c>
       <c r="H212" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J212" t="s">
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N212" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
       </c>
       <c r="P212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12478,34 +12496,34 @@
         <v>5.5</v>
       </c>
       <c r="H213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I213" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
       </c>
       <c r="P213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12527,20 +12545,20 @@
         <v>6.3</v>
       </c>
       <c r="H214" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J214" t="s">
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L214" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O214">
         <v>-0.643274748826002</v>
@@ -12548,7 +12566,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12570,33 +12588,33 @@
         <v>5.5</v>
       </c>
       <c r="H215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J215" t="s">
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="N215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O215">
         <v>-0.99395345696034099</v>
       </c>
       <c r="P215" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12618,33 +12636,33 @@
         <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I216" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N216" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
       </c>
       <c r="P216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12666,33 +12684,33 @@
         <v>6</v>
       </c>
       <c r="H217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I217" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N217" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
       </c>
       <c r="P217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12714,33 +12732,33 @@
         <v>4.8</v>
       </c>
       <c r="H218" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J218" t="s">
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L218" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="N218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O218">
         <v>-0.43816934722877932</v>
       </c>
       <c r="P218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12762,33 +12780,33 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="H219" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J219">
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L219" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="N219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O219">
         <v>-0.78585369937712812</v>
       </c>
       <c r="P219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12810,33 +12828,33 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H220" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J220" t="s">
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L220" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="N220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O220">
         <v>-1.1331695621990292</v>
       </c>
       <c r="P220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -12858,33 +12876,33 @@
         <v>5</v>
       </c>
       <c r="H221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J221">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L221" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="N221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O221">
         <v>-1.4801181958633407</v>
       </c>
       <c r="P221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -12906,20 +12924,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L222" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -12927,7 +12945,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -12949,33 +12967,33 @@
         <v>4.5</v>
       </c>
       <c r="H223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I223" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K223" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N223" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
       </c>
       <c r="P223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -12997,33 +13015,33 @@
         <v>5</v>
       </c>
       <c r="H224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K224" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N224" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
       </c>
       <c r="P224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13045,33 +13063,33 @@
         <v>5.5</v>
       </c>
       <c r="H225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I225" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K225" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M225" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M225" s="4" t="s">
+      <c r="N225" t="s">
         <v>205</v>
-      </c>
-      <c r="N225" t="s">
-        <v>206</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
       </c>
       <c r="P225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13093,33 +13111,33 @@
         <v>5.5</v>
       </c>
       <c r="H226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I226" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K226" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N226" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
       </c>
       <c r="P226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13141,34 +13159,34 @@
         <v>4.5</v>
       </c>
       <c r="H227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I227" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
       </c>
       <c r="P227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13190,33 +13208,33 @@
         <v>5.5</v>
       </c>
       <c r="H228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I228" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K228" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N228" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
       </c>
       <c r="P228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13238,33 +13256,33 @@
         <v>3.6</v>
       </c>
       <c r="H229" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J229" t="s">
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L229" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="N229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O229">
         <v>-1.3613560717265187</v>
       </c>
       <c r="P229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13286,33 +13304,33 @@
         <v>2.9</v>
       </c>
       <c r="H230" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J230">
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L230" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="N230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O230">
         <v>-1.6998480216558676</v>
       </c>
       <c r="P230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13334,33 +13352,33 @@
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J231" t="s">
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L231" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="N231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O231">
         <v>-2.0380016536697809</v>
       </c>
       <c r="P231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13382,33 +13400,33 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H232" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J232" t="s">
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="N232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O232">
         <v>-0.69984802165586757</v>
       </c>
       <c r="P232" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13430,33 +13448,33 @@
         <v>4.8</v>
       </c>
       <c r="H233" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J233" t="s">
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L233" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O233">
         <v>-1.0380016536697809</v>
       </c>
       <c r="P233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13478,33 +13496,33 @@
         <v>3.2</v>
       </c>
       <c r="H234" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J234" t="s">
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L234" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="N234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O234">
         <v>-1.3872541469982878</v>
       </c>
       <c r="P234" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13526,33 +13544,33 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H235" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J235">
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L235" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="N235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O235">
         <v>-1.7237319906828503</v>
       </c>
       <c r="P235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13574,33 +13592,33 @@
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J236" t="s">
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L236" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="N236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O236">
         <v>-2.0598777916518145</v>
       </c>
       <c r="P236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13622,33 +13640,33 @@
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J237" t="s">
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L237" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O237">
         <v>-0.72373199068285032</v>
       </c>
       <c r="P237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13670,28 +13688,28 @@
         <v>3.5</v>
       </c>
       <c r="H238" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J238" t="s">
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L238" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O238">
         <v>-1.4011609456622267</v>
       </c>
       <c r="P238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5579B16-8501-5E4A-ABE0-560B5573C2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD582FF-C53A-4647-90E4-5BD5B7315651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
@@ -2466,7 +2466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L26" sqref="L26"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD582FF-C53A-4647-90E4-5BD5B7315651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C47BC1-5E1B-3E4C-AC9A-56155F3C744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="652">
   <si>
     <t>Isotope</t>
   </si>
@@ -2466,7 +2466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <selection pane="topRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3802,6 +3802,9 @@
       <c r="H28" t="s">
         <v>13</v>
       </c>
+      <c r="I28" t="s">
+        <v>108</v>
+      </c>
       <c r="J28">
         <v>0.318</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>434</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>646</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3995,6 +3998,9 @@
       <c r="H32" t="s">
         <v>500</v>
       </c>
+      <c r="I32" t="s">
+        <v>617</v>
+      </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
@@ -4334,6 +4340,9 @@
       <c r="H39" t="s">
         <v>13</v>
       </c>
+      <c r="I39" t="s">
+        <v>108</v>
+      </c>
       <c r="J39">
         <v>0.21199999999999999</v>
       </c>
@@ -4341,7 +4350,7 @@
         <v>434</v>
       </c>
       <c r="L39" t="s">
-        <v>227</v>
+        <v>646</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C47BC1-5E1B-3E4C-AC9A-56155F3C744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417AE56E-764B-AE4B-963B-8BE1589FE5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="655">
   <si>
     <t>Isotope</t>
   </si>
@@ -106,9 +106,6 @@
     <t>32P</t>
   </si>
   <si>
-    <t>W.P. Abfalterer et al. PRC 64, 064312 (2000)</t>
-  </si>
-  <si>
     <t>30-40% uncertainty listed (took 35%)</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>CrossSection</t>
   </si>
   <si>
-    <t>G.P.A. Nobre et al. PRC 101, 034608 (2020)</t>
-  </si>
-  <si>
     <t>60Co</t>
   </si>
   <si>
@@ -2006,6 +2000,21 @@
   </si>
   <si>
     <t>DOI: 10.1103/PhysRevC.84.054322</t>
+  </si>
+  <si>
+    <t>n,p</t>
+  </si>
+  <si>
+    <t>G. P. A. Nobre, D. A. Brown, M. W. Herman, and A. Golas, arXiv:1909.09660v2</t>
+  </si>
+  <si>
+    <t>DOI:10.1103/PhysRev.182.1149</t>
+  </si>
+  <si>
+    <t>DOI: 10.1134/S1063779606040010.</t>
+  </si>
+  <si>
+    <t>Phys. Rev. C 76, 044602 (2007)</t>
   </si>
 </sst>
 </file>
@@ -2464,9 +2473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L29" sqref="L29"/>
+      <selection pane="topRight" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2492,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -2501,10 +2510,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -2519,7 +2528,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>7</v>
@@ -2539,7 +2548,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2564,19 +2573,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2585,12 +2594,12 @@
         <v>0.13551162551010876</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2615,20 +2624,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2661,19 +2670,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2709,19 +2718,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2732,7 +2741,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2757,16 +2766,16 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J6">
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2778,7 +2787,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2803,19 +2812,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2826,7 +2835,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2851,20 +2860,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2872,7 +2881,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2897,19 +2906,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -2945,22 +2954,22 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10">
         <v>-2.8604461484416532E-2</v>
@@ -2968,7 +2977,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2993,19 +3002,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3016,7 +3025,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3041,22 +3050,22 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O12">
         <v>0.52373581864522656</v>
@@ -3064,7 +3073,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3092,14 +3101,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3107,7 +3116,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3135,14 +3144,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3150,7 +3159,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3175,22 +3184,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3198,7 +3207,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3223,22 +3232,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3246,7 +3255,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3271,22 +3280,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3294,7 +3303,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3316,23 +3325,23 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18">
         <v>1.4185119401318005</v>
@@ -3340,7 +3349,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3362,23 +3371,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3386,7 +3395,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3411,22 +3420,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3434,7 +3443,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3456,36 +3465,36 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21">
         <v>1.1022160736577469</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3507,33 +3516,33 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3555,36 +3564,36 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O23">
         <v>0.66530212507089459</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3606,36 +3615,36 @@
         <v>7.7</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O24">
         <v>0.22929653162440999</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -3660,20 +3669,20 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L25" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O25">
         <v>-2.7981092392552966</v>
@@ -3681,7 +3690,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3703,23 +3712,23 @@
         <v>7.8</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3727,7 +3736,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3749,36 +3758,36 @@
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O27">
         <v>1.22929653162441</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3803,16 +3812,16 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J28">
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L28" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3824,7 +3833,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3846,36 +3855,36 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O29">
         <v>0.79418935940907787</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3897,36 +3906,36 @@
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -3948,25 +3957,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="N31" t="s">
         <v>560</v>
-      </c>
-      <c r="N31" t="s">
-        <v>562</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -3974,7 +3983,7 @@
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -3996,25 +4005,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="N32" t="s">
         <v>561</v>
-      </c>
-      <c r="N32" t="s">
-        <v>563</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4022,7 +4031,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4044,33 +4053,33 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O33">
         <v>1.3599709566234246</v>
       </c>
       <c r="P33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4092,33 +4101,33 @@
         <v>3.5</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O34">
         <v>0.9266319398067111</v>
       </c>
       <c r="P34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4140,33 +4149,33 @@
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O35">
         <v>0.49416318102058909</v>
       </c>
       <c r="P35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4188,36 +4197,36 @@
         <v>7.3999999999999995</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>513</v>
+      </c>
+      <c r="N36" t="s">
         <v>27</v>
-      </c>
-      <c r="M36" t="s">
-        <v>515</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
       </c>
       <c r="O36">
         <v>6.2555795895832489E-2</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>33</v>
@@ -4239,36 +4248,36 @@
         <v>9.1000000000000014</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="N37" t="s">
         <v>27</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="N37" t="s">
-        <v>28</v>
       </c>
       <c r="O37">
         <v>-0.36819886753061581</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4290,33 +4299,33 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" t="s">
+        <v>444</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K38" t="s">
-        <v>446</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="N38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O38">
         <v>0.63180113246938419</v>
       </c>
       <c r="P38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4341,20 +4350,20 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J39">
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4362,7 +4371,7 @@
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>36</v>
@@ -4384,33 +4393,33 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
         <v>30</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
+        <v>445</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K40" t="s">
-        <v>447</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" t="s">
         <v>33</v>
-      </c>
-      <c r="N40" t="s">
-        <v>34</v>
       </c>
       <c r="O40">
         <v>-0.22718353708455652</v>
       </c>
       <c r="P40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4432,33 +4441,33 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" t="s">
+        <v>446</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K41" t="s">
-        <v>448</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="N41" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4480,33 +4489,33 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K42" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O42">
         <v>0.77281646291544348</v>
       </c>
       <c r="P42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4528,33 +4537,33 @@
         <v>3.75</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N43" t="s">
         <v>268</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N43" t="s">
-        <v>270</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
       </c>
       <c r="P43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4576,33 +4585,33 @@
         <v>6.5</v>
       </c>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
       </c>
       <c r="P44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>41</v>
@@ -4624,20 +4633,23 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="I45" t="s">
+        <v>650</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L45" t="s">
-        <v>38</v>
+        <v>651</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4645,7 +4657,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4667,33 +4679,33 @@
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
       </c>
       <c r="P46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4715,36 +4727,36 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M47" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O47">
         <v>0.49053082895950695</v>
       </c>
       <c r="P47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4768,18 +4780,21 @@
       <c r="H48" t="s">
         <v>13</v>
       </c>
+      <c r="I48" t="s">
+        <v>503</v>
+      </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>233</v>
+        <v>652</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4787,7 +4802,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4811,18 +4826,21 @@
       <c r="H49" t="s">
         <v>13</v>
       </c>
+      <c r="I49" t="s">
+        <v>642</v>
+      </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s">
-        <v>18</v>
+        <v>646</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4830,7 +4848,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4852,33 +4870,33 @@
         <v>6.25</v>
       </c>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K50" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N50" t="s">
         <v>268</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N50" t="s">
-        <v>270</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
       </c>
       <c r="P50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4900,33 +4918,33 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K51" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N51" t="s">
         <v>268</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N51" t="s">
-        <v>270</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -4948,33 +4966,33 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -4996,33 +5014,33 @@
         <v>5.75</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O53">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5044,36 +5062,36 @@
         <v>6.7</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M54" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O54">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5095,33 +5113,33 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s">
         <v>30</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
+        <v>445</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K55" t="s">
-        <v>447</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M55" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5143,33 +5161,33 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N56" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5191,33 +5209,33 @@
         <v>5.5</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
       </c>
       <c r="P57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5239,33 +5257,33 @@
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
       </c>
       <c r="P58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5287,22 +5305,22 @@
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5310,7 +5328,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5332,30 +5350,33 @@
         <v>5.5</v>
       </c>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I60" t="s">
+        <v>106</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>453</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>112</v>
+        <v>451</v>
+      </c>
+      <c r="L60" t="s">
+        <v>653</v>
       </c>
       <c r="N60" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
       </c>
       <c r="P60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5377,36 +5398,36 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N61" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
       </c>
       <c r="P61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5428,33 +5449,33 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N62" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
       </c>
       <c r="P62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5476,36 +5497,36 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O63">
         <v>0.21549256905338865</v>
       </c>
       <c r="P63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>60</v>
@@ -5527,30 +5548,33 @@
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I64" t="s">
+        <v>615</v>
       </c>
       <c r="K64" t="s">
-        <v>440</v>
-      </c>
-      <c r="L64" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L64" t="s">
+        <v>654</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N64" t="s">
         <v>40</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N64" t="s">
-        <v>42</v>
       </c>
       <c r="O64">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B65">
         <v>61</v>
@@ -5574,20 +5598,23 @@
       <c r="H65" t="s">
         <v>13</v>
       </c>
+      <c r="I65" t="s">
+        <v>642</v>
+      </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s">
-        <v>18</v>
+        <v>646</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O65">
         <v>-0.20794327870674323</v>
@@ -5595,7 +5622,7 @@
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66">
         <v>62</v>
@@ -5617,33 +5644,33 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O66">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>63</v>
@@ -5665,31 +5692,31 @@
         <v>8.5</v>
       </c>
       <c r="H67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O67">
         <v>-0.63060214877680565</v>
       </c>
       <c r="P67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5711,20 +5738,20 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5732,7 +5759,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5754,33 +5781,33 @@
         <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
       </c>
       <c r="P69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5808,14 +5835,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5823,7 +5850,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5851,14 +5878,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5866,7 +5893,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5888,30 +5915,30 @@
         <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N72" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
       </c>
       <c r="P72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -5933,33 +5960,33 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L73" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N73" t="s">
         <v>306</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="N73" t="s">
-        <v>308</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
       </c>
       <c r="P73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -5981,36 +6008,36 @@
         <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
       </c>
       <c r="P74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6032,33 +6059,33 @@
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
       </c>
       <c r="P75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6080,36 +6107,36 @@
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O76">
         <v>0.79205672129325677</v>
       </c>
       <c r="P76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6131,33 +6158,33 @@
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
       </c>
       <c r="P77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6179,33 +6206,33 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K78" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N78" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
       </c>
       <c r="P78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B79">
         <v>75</v>
@@ -6227,36 +6254,36 @@
         <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N79" t="s">
         <v>50</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N79" t="s">
-        <v>52</v>
       </c>
       <c r="O79">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B80">
         <v>76</v>
@@ -6278,33 +6305,33 @@
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O80">
         <v>-0.47361546110579411</v>
       </c>
       <c r="P80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B81">
         <v>77</v>
@@ -6326,33 +6353,33 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O81">
         <v>-0.47361546110579411</v>
       </c>
       <c r="P81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>78</v>
@@ -6374,36 +6401,36 @@
         <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O82">
         <v>-0.89398280802292263</v>
       </c>
       <c r="P82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83">
         <v>79</v>
@@ -6425,33 +6452,33 @@
         <v>9</v>
       </c>
       <c r="H83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O83">
         <v>-0.89398280802292263</v>
       </c>
       <c r="P83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B84">
         <v>80</v>
@@ -6473,33 +6500,33 @@
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O84">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B85">
         <v>81</v>
@@ -6521,20 +6548,20 @@
         <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J85">
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6542,7 +6569,7 @@
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B86">
         <v>82</v>
@@ -6564,20 +6591,20 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O86">
         <v>-2.984672885194577</v>
@@ -6585,7 +6612,7 @@
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B87">
         <v>83</v>
@@ -6607,20 +6634,20 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O87">
         <v>-3.4006227935603661</v>
@@ -6628,7 +6655,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6650,30 +6677,30 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
       </c>
       <c r="P88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6695,33 +6722,33 @@
         <v>9.5</v>
       </c>
       <c r="H89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N89" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
       </c>
       <c r="P89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6743,33 +6770,33 @@
         <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N90" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
       </c>
       <c r="P90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6791,36 +6818,36 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N91" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
       </c>
       <c r="P91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B92">
         <v>88</v>
@@ -6842,31 +6869,31 @@
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O92">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P92" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B93">
         <v>89</v>
@@ -6888,34 +6915,34 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O93">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -6937,36 +6964,36 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N94" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
       </c>
       <c r="P94" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -6988,36 +7015,36 @@
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N95" t="s">
         <v>329</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N95" t="s">
-        <v>331</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
       </c>
       <c r="P95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7039,33 +7066,33 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J96">
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N96" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
       </c>
       <c r="P96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7087,36 +7114,36 @@
         <v>6.75</v>
       </c>
       <c r="H97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N97" t="s">
         <v>329</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="N97" t="s">
-        <v>331</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
       </c>
       <c r="P97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B98">
         <v>94</v>
@@ -7138,20 +7165,20 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L98" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O98">
         <v>-3.0573149088805707</v>
@@ -7159,7 +7186,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7181,20 +7208,20 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L99" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O99">
         <v>2.6864010034506087</v>
@@ -7202,7 +7229,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7224,36 +7251,36 @@
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L100" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="N100" t="s">
         <v>340</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="N100" t="s">
-        <v>342</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
       </c>
       <c r="P100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B101">
         <v>97</v>
@@ -7275,36 +7302,36 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J101">
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L101" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N101" t="s">
         <v>82</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N101" t="s">
-        <v>84</v>
       </c>
       <c r="O101">
         <v>-1.0573149088805707</v>
       </c>
       <c r="P101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B102">
         <v>98</v>
@@ -7326,36 +7353,36 @@
         <v>11.25</v>
       </c>
       <c r="H102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I102" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J102">
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N102" t="s">
         <v>82</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N102" t="s">
-        <v>84</v>
       </c>
       <c r="O102">
         <v>-1.881470383782073</v>
       </c>
       <c r="P102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B103">
         <v>99</v>
@@ -7377,33 +7404,33 @@
         <v>5.7</v>
       </c>
       <c r="H103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N103" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
       </c>
       <c r="P103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B104">
         <v>100</v>
@@ -7425,20 +7452,20 @@
         <v>8.5</v>
       </c>
       <c r="H104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J104">
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7446,7 +7473,7 @@
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B105">
         <v>101</v>
@@ -7468,20 +7495,20 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O105">
         <v>-1.881470383782073</v>
@@ -7489,7 +7516,7 @@
     </row>
     <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B106">
         <v>102</v>
@@ -7511,20 +7538,20 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O106">
         <v>-1.881470383782073</v>
@@ -7532,7 +7559,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7554,20 +7581,20 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L107" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O107">
         <v>2.015327114805423</v>
@@ -7575,7 +7602,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7597,33 +7624,33 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N108" t="s">
         <v>340</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="N108" t="s">
-        <v>342</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
       </c>
       <c r="P108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -7645,34 +7672,34 @@
         <v>5.5</v>
       </c>
       <c r="H109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O109">
         <v>-0.46973757929284687</v>
       </c>
       <c r="P109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7694,20 +7721,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O110">
         <v>3.015327114805423</v>
@@ -7715,7 +7742,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7737,20 +7764,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O111">
         <v>3.3558026970156334</v>
@@ -7758,7 +7785,7 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B112">
         <v>108</v>
@@ -7780,20 +7807,20 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O112">
         <v>-2.3663664896644576</v>
@@ -7801,7 +7828,7 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113">
         <v>109</v>
@@ -7823,36 +7850,36 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I113" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O113">
         <v>-2.3663664896644576</v>
       </c>
       <c r="P113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -7874,33 +7901,33 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N114" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
       </c>
       <c r="P114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -7922,20 +7949,20 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L115" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O115">
         <v>3.7074816964189736</v>
@@ -7943,7 +7970,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -7965,20 +7992,20 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O116">
         <v>-2.7798997626471618</v>
@@ -7986,7 +8013,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -8008,20 +8035,20 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O117">
         <v>-3.5794771620097663</v>
@@ -8029,7 +8056,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -8051,20 +8078,20 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O118">
         <v>-4.3766381169932345</v>
@@ -8072,7 +8099,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8094,34 +8121,34 @@
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O119">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8143,36 +8170,36 @@
         <v>9</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L120" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O120">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8194,25 +8221,25 @@
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L121" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O121">
         <v>-0.57593740071263966</v>
@@ -8220,7 +8247,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8242,20 +8269,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L122" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8263,7 +8290,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8285,25 +8312,25 @@
         <v>4.8</v>
       </c>
       <c r="H123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M123" t="s">
+        <v>571</v>
+      </c>
+      <c r="N123" t="s">
         <v>573</v>
-      </c>
-      <c r="N123" t="s">
-        <v>575</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8311,7 +8338,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8333,25 +8360,25 @@
         <v>4.8</v>
       </c>
       <c r="H124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L124" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M124" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N124" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8359,7 +8386,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8381,36 +8408,36 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L125" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N125" t="s">
         <v>350</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="N125" t="s">
-        <v>352</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
       </c>
       <c r="P125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8432,25 +8459,25 @@
         <v>7</v>
       </c>
       <c r="H126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="N126" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8458,7 +8485,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8480,25 +8507,25 @@
         <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L127" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N127" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8506,7 +8533,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8528,33 +8555,33 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N128" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
       </c>
       <c r="P128" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8576,20 +8603,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L129" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8597,7 +8624,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8619,33 +8646,33 @@
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I130" t="s">
+        <v>106</v>
+      </c>
+      <c r="K130" t="s">
+        <v>443</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M130" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K130" t="s">
-        <v>445</v>
-      </c>
-      <c r="L130" s="3" t="s">
+      <c r="N130" t="s">
         <v>109</v>
-      </c>
-      <c r="M130" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N130" t="s">
-        <v>111</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8667,36 +8694,36 @@
         <v>5.5</v>
       </c>
       <c r="H131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N131" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8718,23 +8745,23 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L132" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8742,7 +8769,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8764,36 +8791,36 @@
         <v>6.8</v>
       </c>
       <c r="H133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L133" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M133" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O133">
         <v>1.2201002373528382</v>
       </c>
       <c r="P133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8815,36 +8842,36 @@
         <v>6.3999999999999995</v>
       </c>
       <c r="H134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L134" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M134" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O134">
         <v>0.82000763927846521</v>
       </c>
       <c r="P134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8866,36 +8893,36 @@
         <v>6.2</v>
       </c>
       <c r="H135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L135" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M135" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O135">
         <v>0.42052283799023371</v>
       </c>
       <c r="P135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -8917,36 +8944,36 @@
         <v>7.7</v>
       </c>
       <c r="H136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L136" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M136" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O136">
         <v>2.1642134891465048E-2</v>
       </c>
       <c r="P136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -8968,20 +8995,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L137" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -8989,7 +9016,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -9011,36 +9038,36 @@
         <v>5.8</v>
       </c>
       <c r="H138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L138" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O138">
         <v>-0.37663811699323446</v>
       </c>
       <c r="P138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -9062,36 +9089,36 @@
         <v>7.3999999999999995</v>
       </c>
       <c r="H139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L139" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O139">
         <v>-0.77432151423236206</v>
       </c>
       <c r="P139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9113,33 +9140,33 @@
         <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N140" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
       </c>
       <c r="P140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9155,31 +9182,31 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J141" t="s">
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L141" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
       </c>
       <c r="P141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9201,33 +9228,33 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J142" t="s">
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M142" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O142">
         <v>0.4583145839925038</v>
       </c>
       <c r="P142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9249,33 +9276,33 @@
         <v>7.3000000000000007</v>
       </c>
       <c r="H143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J143">
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L143" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M143" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O143">
         <v>6.5282226143224875E-2</v>
       </c>
       <c r="P143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9297,36 +9324,36 @@
         <v>15</v>
       </c>
       <c r="H144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L144" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N144" t="s">
         <v>370</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="N144" t="s">
-        <v>372</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
       </c>
       <c r="P144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9348,33 +9375,33 @@
         <v>4.7</v>
       </c>
       <c r="H145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J145" t="s">
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L145" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O145">
         <v>-0.32718355944679445</v>
       </c>
       <c r="P145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9396,33 +9423,33 @@
         <v>7.2</v>
       </c>
       <c r="H146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J146">
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L146" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O146">
         <v>-0.71908592393408099</v>
       </c>
       <c r="P146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9444,20 +9471,20 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L147" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O147">
         <v>3.8285883958386719</v>
@@ -9465,7 +9492,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9487,20 +9514,20 @@
         <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L148" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O148">
         <v>2.4583145839925038</v>
@@ -9508,7 +9535,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9530,20 +9557,20 @@
         <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J149">
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L149" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O149">
         <v>2.0652822261432249</v>
@@ -9551,7 +9578,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9573,33 +9600,33 @@
         <v>5.9</v>
       </c>
       <c r="H150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L150" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M150" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O150">
         <v>0.10855658349814234</v>
       </c>
       <c r="P150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9621,30 +9648,30 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N151" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
       </c>
       <c r="P151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9666,30 +9693,30 @@
         <v>8</v>
       </c>
       <c r="H152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K152" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N152" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
       </c>
       <c r="P152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9711,33 +9738,33 @@
         <v>7.7</v>
       </c>
       <c r="H153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J153">
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L153" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O153">
         <v>-0.28112283268126248</v>
       </c>
       <c r="P153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9759,20 +9786,20 @@
         <v>8</v>
       </c>
       <c r="H154" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J154">
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L154" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9780,7 +9807,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9802,36 +9829,36 @@
         <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L155" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="N155" t="s">
         <v>370</v>
-      </c>
-      <c r="M155" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="N155" t="s">
-        <v>372</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
       </c>
       <c r="P155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9853,30 +9880,30 @@
         <v>5.5</v>
       </c>
       <c r="H156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K156" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L156" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N156" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
       </c>
       <c r="P156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -9898,33 +9925,33 @@
         <v>7</v>
       </c>
       <c r="H157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K157" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L157" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N157" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
       </c>
       <c r="P157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -9946,22 +9973,22 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J158" t="s">
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L158" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N158" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -9969,7 +9996,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -9991,22 +10018,22 @@
         <v>7.2</v>
       </c>
       <c r="H159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J159">
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L159" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O159">
         <v>-0.60778752388213064</v>
@@ -10014,7 +10041,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10036,22 +10063,22 @@
         <v>5.7</v>
       </c>
       <c r="H160" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J160" t="s">
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L160" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O160">
         <v>-0.99368952843227021</v>
@@ -10059,7 +10086,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10081,22 +10108,22 @@
         <v>4.8</v>
       </c>
       <c r="H161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J161" t="s">
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L161" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O161">
         <v>-1.7639108556215461</v>
@@ -10104,7 +10131,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10126,20 +10153,20 @@
         <v>6.9</v>
       </c>
       <c r="H162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J162">
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L162" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O162">
         <v>-2.1482355421460468</v>
@@ -10147,7 +10174,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10163,31 +10190,31 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J163" t="s">
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L163" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
       </c>
       <c r="P163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10209,22 +10236,22 @@
         <v>6.5</v>
       </c>
       <c r="H164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I164" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O164">
         <v>0.39221247611786936</v>
@@ -10232,7 +10259,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10254,33 +10281,33 @@
         <v>3.5</v>
       </c>
       <c r="H165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K165" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N165" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
       </c>
       <c r="P165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10302,30 +10329,30 @@
         <v>8</v>
       </c>
       <c r="H166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N166" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
       </c>
       <c r="P166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10347,30 +10374,30 @@
         <v>5.5</v>
       </c>
       <c r="H167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N167" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
       </c>
       <c r="P167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10392,30 +10419,30 @@
         <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N168" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
       </c>
       <c r="P168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10437,30 +10464,30 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N169" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
       </c>
       <c r="P169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10482,33 +10509,33 @@
         <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I170" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K170" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M170" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N170" t="s">
         <v>133</v>
-      </c>
-      <c r="M170" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N170" t="s">
-        <v>135</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10530,33 +10557,33 @@
         <v>7</v>
       </c>
       <c r="H171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I171" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K171" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N171" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
       </c>
       <c r="P171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10578,36 +10605,36 @@
         <v>6</v>
       </c>
       <c r="H172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I172" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N172" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10629,31 +10656,31 @@
         <v>8</v>
       </c>
       <c r="H173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J173" t="s">
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L173" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
       </c>
       <c r="P173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10675,33 +10702,33 @@
         <v>6</v>
       </c>
       <c r="H174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I174" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K174" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N174" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
       </c>
       <c r="P174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10723,33 +10750,33 @@
         <v>4</v>
       </c>
       <c r="H175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K175" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N175" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
       </c>
       <c r="P175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10771,20 +10798,20 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L176" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O176">
         <v>4.5531166862776615</v>
@@ -10792,7 +10819,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10814,20 +10841,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L177" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10835,7 +10862,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10857,34 +10884,34 @@
         <v>5</v>
       </c>
       <c r="H178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I178" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O178">
         <v>-1.3420167407453789</v>
       </c>
       <c r="P178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -10906,20 +10933,20 @@
         <v>6.2</v>
       </c>
       <c r="H179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J179" t="s">
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O179">
         <v>-1.2283562810661124</v>
@@ -10927,7 +10954,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -10949,22 +10976,22 @@
         <v>6.9</v>
       </c>
       <c r="H180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J180" t="s">
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O180">
         <v>-1.6041695010304764</v>
@@ -10972,7 +10999,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -10994,34 +11021,34 @@
         <v>5.5</v>
       </c>
       <c r="H181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I181" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O181">
         <v>-1.4760834690352951</v>
       </c>
       <c r="P181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11043,20 +11070,20 @@
         <v>6</v>
       </c>
       <c r="H182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J182">
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L182" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O182">
         <v>0.27126031961319796</v>
@@ -11064,7 +11091,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11086,33 +11113,33 @@
         <v>7</v>
       </c>
       <c r="H183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J183">
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O183">
         <v>-0.47608346903529508</v>
       </c>
       <c r="P183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11134,33 +11161,33 @@
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J184" t="s">
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O184">
         <v>-0.84905082577578384</v>
       </c>
       <c r="P184" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11182,33 +11209,33 @@
         <v>6.5</v>
       </c>
       <c r="H185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J185">
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O185">
         <v>-1.2215512709279182</v>
       </c>
       <c r="P185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11230,33 +11257,33 @@
         <v>4.25</v>
       </c>
       <c r="H186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O186">
         <v>-1.5935868648990876</v>
       </c>
       <c r="P186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11278,33 +11305,33 @@
         <v>6.5</v>
       </c>
       <c r="H187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J187">
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O187">
         <v>-1.9651596487121239</v>
       </c>
       <c r="P187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11326,33 +11353,33 @@
         <v>4</v>
       </c>
       <c r="H188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J188" t="s">
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O188">
         <v>-2.3362716443057678</v>
       </c>
       <c r="P188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11374,33 +11401,33 @@
         <v>6.5</v>
       </c>
       <c r="H189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J189">
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O189">
         <v>-2.7069248548283866</v>
       </c>
       <c r="P189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11422,33 +11449,33 @@
         <v>4.25</v>
       </c>
       <c r="H190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J190" t="s">
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O190">
         <v>-3.0771212649253883</v>
       </c>
       <c r="P190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11470,33 +11497,33 @@
         <v>6.7</v>
       </c>
       <c r="H191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J191">
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L191" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M191" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O191">
         <v>3.4840351287876103E-2</v>
       </c>
       <c r="P191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11518,33 +11545,33 @@
         <v>4.7</v>
       </c>
       <c r="H192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J192" t="s">
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O192">
         <v>-0.33627164430576784</v>
       </c>
       <c r="P192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11566,33 +11593,33 @@
         <v>3.3</v>
       </c>
       <c r="H193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J193" t="s">
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="N193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O193">
         <v>-1.0771212649253883</v>
       </c>
       <c r="P193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11614,33 +11641,33 @@
         <v>3.3</v>
       </c>
       <c r="H194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J194" t="s">
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O194">
         <v>-1.4468628410203479</v>
       </c>
       <c r="P194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11662,20 +11689,20 @@
         <v>7</v>
       </c>
       <c r="H195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J195">
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O195">
         <v>-0.38865159591399845</v>
@@ -11683,7 +11710,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11705,33 +11732,33 @@
         <v>5.3</v>
       </c>
       <c r="H196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J196" t="s">
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O196">
         <v>-0.75438528011734718</v>
       </c>
       <c r="P196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11753,31 +11780,31 @@
         <v>7</v>
       </c>
       <c r="H197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J197">
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
       </c>
       <c r="P197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11799,33 +11826,33 @@
         <v>5</v>
       </c>
       <c r="H198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J198" t="s">
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O198">
         <v>-1.4845460887548114</v>
       </c>
       <c r="P198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11847,33 +11874,33 @@
         <v>6</v>
       </c>
       <c r="H199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J199">
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O199">
         <v>-1.8489767637588841</v>
       </c>
       <c r="P199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -11895,34 +11922,34 @@
         <v>5.5</v>
       </c>
       <c r="H200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I200" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O200">
         <v>-1.2129766276880645</v>
       </c>
       <c r="P200" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -11944,22 +11971,22 @@
         <v>7.1</v>
       </c>
       <c r="H201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J201">
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L201" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="N201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O201">
         <v>-0.57654741827666101</v>
@@ -11967,7 +11994,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -11989,22 +12016,22 @@
         <v>5.4</v>
       </c>
       <c r="H202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J202" t="s">
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L202" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O202">
         <v>-0.93969085861327528</v>
@@ -12012,7 +12039,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12034,22 +12061,22 @@
         <v>7.5</v>
       </c>
       <c r="H203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J203">
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L203" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O203">
         <v>-2.6574093519627695E-2</v>
@@ -12057,7 +12084,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12079,22 +12106,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J204" t="s">
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L204" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O204">
         <v>-0.38802507779796258</v>
@@ -12102,7 +12129,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12124,22 +12151,22 @@
         <v>6.6</v>
       </c>
       <c r="H205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J205">
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L205" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="N205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O205">
         <v>-0.74905711450627166</v>
@@ -12147,7 +12174,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12169,34 +12196,34 @@
         <v>6</v>
       </c>
       <c r="H206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I206" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
       </c>
       <c r="P206" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12218,30 +12245,30 @@
         <v>7.5</v>
       </c>
       <c r="H207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N207" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
       </c>
       <c r="P207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12263,34 +12290,34 @@
         <v>6</v>
       </c>
       <c r="H208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I208" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
       </c>
       <c r="P208" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12312,20 +12339,20 @@
         <v>3.1999999999999997</v>
       </c>
       <c r="H209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J209">
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L209" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O209">
         <v>-0.58895177361991102</v>
@@ -12333,7 +12360,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12355,36 +12382,36 @@
         <v>2.6</v>
       </c>
       <c r="H210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I210" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L210" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O210">
         <v>-0.9407752647588552</v>
       </c>
       <c r="P210" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12406,36 +12433,36 @@
         <v>6</v>
       </c>
       <c r="H211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I211" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L211" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O211">
         <v>-1.2922158023175427</v>
       </c>
       <c r="P211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12457,33 +12484,33 @@
         <v>4.5</v>
       </c>
       <c r="H212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J212" t="s">
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L212" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N212" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
       </c>
       <c r="P212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12505,34 +12532,34 @@
         <v>5.5</v>
       </c>
       <c r="H213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I213" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
       </c>
       <c r="P213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12554,20 +12581,20 @@
         <v>6.3</v>
       </c>
       <c r="H214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J214" t="s">
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L214" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O214">
         <v>-0.643274748826002</v>
@@ -12575,7 +12602,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12597,33 +12624,33 @@
         <v>5.5</v>
       </c>
       <c r="H215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J215" t="s">
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L215" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O215">
         <v>-0.99395345696034099</v>
       </c>
       <c r="P215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12645,33 +12672,33 @@
         <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I216" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
       </c>
       <c r="P216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12693,33 +12720,33 @@
         <v>6</v>
       </c>
       <c r="H217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N217" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
       </c>
       <c r="P217" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12741,33 +12768,33 @@
         <v>4.8</v>
       </c>
       <c r="H218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J218" t="s">
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L218" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O218">
         <v>-0.43816934722877932</v>
       </c>
       <c r="P218" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12789,33 +12816,33 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="H219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J219">
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L219" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O219">
         <v>-0.78585369937712812</v>
       </c>
       <c r="P219" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12837,33 +12864,33 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J220" t="s">
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L220" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O220">
         <v>-1.1331695621990292</v>
       </c>
       <c r="P220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -12885,33 +12912,33 @@
         <v>5</v>
       </c>
       <c r="H221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J221">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L221" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O221">
         <v>-1.4801181958633407</v>
       </c>
       <c r="P221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -12933,20 +12960,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L222" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -12954,7 +12981,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -12976,33 +13003,33 @@
         <v>4.5</v>
       </c>
       <c r="H223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K223" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N223" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
       </c>
       <c r="P223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13024,33 +13051,33 @@
         <v>5</v>
       </c>
       <c r="H224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I224" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K224" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N224" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
       </c>
       <c r="P224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13072,33 +13099,33 @@
         <v>5.5</v>
       </c>
       <c r="H225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I225" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K225" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M225" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N225" t="s">
         <v>203</v>
-      </c>
-      <c r="M225" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="N225" t="s">
-        <v>205</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
       </c>
       <c r="P225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13120,33 +13147,33 @@
         <v>5.5</v>
       </c>
       <c r="H226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I226" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K226" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L226" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M226" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N226" t="s">
         <v>203</v>
-      </c>
-      <c r="M226" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="N226" t="s">
-        <v>205</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
       </c>
       <c r="P226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13168,34 +13195,34 @@
         <v>4.5</v>
       </c>
       <c r="H227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I227" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
       </c>
       <c r="P227" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13217,33 +13244,33 @@
         <v>5.5</v>
       </c>
       <c r="H228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I228" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K228" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N228" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
       </c>
       <c r="P228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13265,33 +13292,33 @@
         <v>3.6</v>
       </c>
       <c r="H229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J229" t="s">
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L229" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O229">
         <v>-1.3613560717265187</v>
       </c>
       <c r="P229" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13313,33 +13340,33 @@
         <v>2.9</v>
       </c>
       <c r="H230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J230">
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L230" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O230">
         <v>-1.6998480216558676</v>
       </c>
       <c r="P230" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13361,33 +13388,33 @@
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J231" t="s">
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L231" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O231">
         <v>-2.0380016536697809</v>
       </c>
       <c r="P231" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13409,33 +13436,33 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J232" t="s">
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L232" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O232">
         <v>-0.69984802165586757</v>
       </c>
       <c r="P232" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13457,33 +13484,33 @@
         <v>4.8</v>
       </c>
       <c r="H233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J233" t="s">
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L233" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O233">
         <v>-1.0380016536697809</v>
       </c>
       <c r="P233" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13505,33 +13532,33 @@
         <v>3.2</v>
       </c>
       <c r="H234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J234" t="s">
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L234" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O234">
         <v>-1.3872541469982878</v>
       </c>
       <c r="P234" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13553,33 +13580,33 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J235">
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L235" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O235">
         <v>-1.7237319906828503</v>
       </c>
       <c r="P235" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13601,33 +13628,33 @@
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J236" t="s">
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L236" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O236">
         <v>-2.0598777916518145</v>
       </c>
       <c r="P236" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13649,33 +13676,33 @@
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J237" t="s">
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L237" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O237">
         <v>-0.72373199068285032</v>
       </c>
       <c r="P237" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13697,28 +13724,28 @@
         <v>3.5</v>
       </c>
       <c r="H238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J238" t="s">
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L238" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O238">
         <v>-1.4011609456622267</v>
       </c>
       <c r="P238" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -13753,65 +13780,63 @@
     <hyperlink ref="L76" r:id="rId28" xr:uid="{B9037BD3-F242-4BDB-8709-4A8FDD57C068}"/>
     <hyperlink ref="L74" r:id="rId29" xr:uid="{622A38EC-5F46-41C2-A2A0-AD49E7C1AA9D}"/>
     <hyperlink ref="L77" r:id="rId30" xr:uid="{B12A1737-EE0A-4FE2-A104-E866528F3438}"/>
-    <hyperlink ref="L60" r:id="rId31" xr:uid="{45F0B844-FF56-4B3A-BA6C-20B28D9E74BA}"/>
-    <hyperlink ref="L78" r:id="rId32" xr:uid="{97D0E99D-5C5E-415F-A350-0965BE6743C2}"/>
-    <hyperlink ref="L67:L73" r:id="rId33" display="B. Oginni PhD Thesis OU 2009" xr:uid="{E3F9C84C-389A-4A4C-AFFD-D675A8102A90}"/>
-    <hyperlink ref="L95" r:id="rId34" xr:uid="{9D74199E-93C0-4CA3-A5D9-342A665B7D47}"/>
-    <hyperlink ref="L97" r:id="rId35" xr:uid="{3BA0D3BE-D421-4D6E-94C5-E0070F603E9E}"/>
-    <hyperlink ref="L100" r:id="rId36" xr:uid="{279BD717-F964-463D-9764-602BA3D2E6D6}"/>
-    <hyperlink ref="L108" r:id="rId37" xr:uid="{0B41E2A9-0D8A-4A2B-949E-7EF8E6545684}"/>
-    <hyperlink ref="L125" r:id="rId38" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
-    <hyperlink ref="L128" r:id="rId39" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
-    <hyperlink ref="L140" r:id="rId40" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
-    <hyperlink ref="L144" r:id="rId41" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
-    <hyperlink ref="L151" r:id="rId42" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
-    <hyperlink ref="L152" r:id="rId43" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
-    <hyperlink ref="L156" r:id="rId44" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
-    <hyperlink ref="L166" r:id="rId45" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
-    <hyperlink ref="L167" r:id="rId46" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
-    <hyperlink ref="L168" r:id="rId47" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
-    <hyperlink ref="L169" r:id="rId48" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
-    <hyperlink ref="L207" r:id="rId49" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
-    <hyperlink ref="L157" r:id="rId50" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
-    <hyperlink ref="L165" r:id="rId51" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
-    <hyperlink ref="L164" r:id="rId52" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
-    <hyperlink ref="L174" r:id="rId53" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
-    <hyperlink ref="L216" r:id="rId54" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
-    <hyperlink ref="L217" r:id="rId55" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
-    <hyperlink ref="L227" r:id="rId56" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
-    <hyperlink ref="L124:L127" r:id="rId57" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
-    <hyperlink ref="L88" r:id="rId58" xr:uid="{EFABE6D7-E87F-4C57-9D13-D62090F8765C}"/>
-    <hyperlink ref="L227:L228" r:id="rId59" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
-    <hyperlink ref="L208" r:id="rId60" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
-    <hyperlink ref="L131" r:id="rId61" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
-    <hyperlink ref="L172" r:id="rId62" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
-    <hyperlink ref="L175" r:id="rId63" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
-    <hyperlink ref="L40" r:id="rId64" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
-    <hyperlink ref="L64" r:id="rId65" xr:uid="{E226C3A5-1512-0D4C-A2C8-A29B838E24C3}"/>
-    <hyperlink ref="L66" r:id="rId66" xr:uid="{486FA29D-B4FB-0E41-A1C0-0C52804EEA49}"/>
-    <hyperlink ref="L81" r:id="rId67" xr:uid="{E722973C-376C-A84C-B833-12D596723ED5}"/>
-    <hyperlink ref="L67" r:id="rId68" xr:uid="{3E255CAD-7581-C844-AF54-9E0B2A820C92}"/>
-    <hyperlink ref="L83" r:id="rId69" xr:uid="{52AA1369-73F0-C946-AF71-62949D2B7A8A}"/>
-    <hyperlink ref="L79" r:id="rId70" xr:uid="{A0993E20-5E5A-CD4E-91B9-BC3CD576B43D}"/>
-    <hyperlink ref="L80" r:id="rId71" xr:uid="{CD44EE35-8DF6-A640-AC5F-131BE5B48437}"/>
-    <hyperlink ref="L82" r:id="rId72" xr:uid="{80AC9819-96DF-8640-B1F0-6372B694E8D3}"/>
-    <hyperlink ref="L84" r:id="rId73" xr:uid="{BC9A1581-C3DE-BF43-AD9A-168F71E7D050}"/>
-    <hyperlink ref="L92" r:id="rId74" xr:uid="{AD8F2636-38D2-4B4C-AC56-5ACA05EEB1A3}"/>
-    <hyperlink ref="L93" r:id="rId75" xr:uid="{6EC6F34D-ACAC-EA47-875D-32E161FD497E}"/>
-    <hyperlink ref="L159:L166" r:id="rId76" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
-    <hyperlink ref="L187:L207" r:id="rId77" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
-    <hyperlink ref="L130" r:id="rId78" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
-    <hyperlink ref="L170" r:id="rId79" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
-    <hyperlink ref="L171" r:id="rId80" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
-    <hyperlink ref="L206" r:id="rId81" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
-    <hyperlink ref="L213" r:id="rId82" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
-    <hyperlink ref="L155" r:id="rId83" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
-    <hyperlink ref="L123" r:id="rId84" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
-    <hyperlink ref="L126" r:id="rId85" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
+    <hyperlink ref="L78" r:id="rId31" xr:uid="{97D0E99D-5C5E-415F-A350-0965BE6743C2}"/>
+    <hyperlink ref="L67:L73" r:id="rId32" display="B. Oginni PhD Thesis OU 2009" xr:uid="{E3F9C84C-389A-4A4C-AFFD-D675A8102A90}"/>
+    <hyperlink ref="L95" r:id="rId33" xr:uid="{9D74199E-93C0-4CA3-A5D9-342A665B7D47}"/>
+    <hyperlink ref="L97" r:id="rId34" xr:uid="{3BA0D3BE-D421-4D6E-94C5-E0070F603E9E}"/>
+    <hyperlink ref="L100" r:id="rId35" xr:uid="{279BD717-F964-463D-9764-602BA3D2E6D6}"/>
+    <hyperlink ref="L108" r:id="rId36" xr:uid="{0B41E2A9-0D8A-4A2B-949E-7EF8E6545684}"/>
+    <hyperlink ref="L125" r:id="rId37" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
+    <hyperlink ref="L128" r:id="rId38" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
+    <hyperlink ref="L140" r:id="rId39" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
+    <hyperlink ref="L144" r:id="rId40" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
+    <hyperlink ref="L151" r:id="rId41" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
+    <hyperlink ref="L152" r:id="rId42" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
+    <hyperlink ref="L156" r:id="rId43" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
+    <hyperlink ref="L166" r:id="rId44" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
+    <hyperlink ref="L167" r:id="rId45" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
+    <hyperlink ref="L168" r:id="rId46" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
+    <hyperlink ref="L169" r:id="rId47" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
+    <hyperlink ref="L207" r:id="rId48" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
+    <hyperlink ref="L157" r:id="rId49" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
+    <hyperlink ref="L165" r:id="rId50" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
+    <hyperlink ref="L164" r:id="rId51" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
+    <hyperlink ref="L174" r:id="rId52" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
+    <hyperlink ref="L216" r:id="rId53" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
+    <hyperlink ref="L217" r:id="rId54" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
+    <hyperlink ref="L227" r:id="rId55" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
+    <hyperlink ref="L124:L127" r:id="rId56" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
+    <hyperlink ref="L88" r:id="rId57" xr:uid="{EFABE6D7-E87F-4C57-9D13-D62090F8765C}"/>
+    <hyperlink ref="L227:L228" r:id="rId58" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
+    <hyperlink ref="L208" r:id="rId59" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
+    <hyperlink ref="L131" r:id="rId60" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
+    <hyperlink ref="L172" r:id="rId61" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
+    <hyperlink ref="L175" r:id="rId62" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
+    <hyperlink ref="L40" r:id="rId63" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
+    <hyperlink ref="L66" r:id="rId64" xr:uid="{486FA29D-B4FB-0E41-A1C0-0C52804EEA49}"/>
+    <hyperlink ref="L81" r:id="rId65" xr:uid="{E722973C-376C-A84C-B833-12D596723ED5}"/>
+    <hyperlink ref="L67" r:id="rId66" xr:uid="{3E255CAD-7581-C844-AF54-9E0B2A820C92}"/>
+    <hyperlink ref="L83" r:id="rId67" xr:uid="{52AA1369-73F0-C946-AF71-62949D2B7A8A}"/>
+    <hyperlink ref="L79" r:id="rId68" xr:uid="{A0993E20-5E5A-CD4E-91B9-BC3CD576B43D}"/>
+    <hyperlink ref="L80" r:id="rId69" xr:uid="{CD44EE35-8DF6-A640-AC5F-131BE5B48437}"/>
+    <hyperlink ref="L82" r:id="rId70" xr:uid="{80AC9819-96DF-8640-B1F0-6372B694E8D3}"/>
+    <hyperlink ref="L84" r:id="rId71" xr:uid="{BC9A1581-C3DE-BF43-AD9A-168F71E7D050}"/>
+    <hyperlink ref="L92" r:id="rId72" xr:uid="{AD8F2636-38D2-4B4C-AC56-5ACA05EEB1A3}"/>
+    <hyperlink ref="L93" r:id="rId73" xr:uid="{6EC6F34D-ACAC-EA47-875D-32E161FD497E}"/>
+    <hyperlink ref="L159:L166" r:id="rId74" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
+    <hyperlink ref="L187:L207" r:id="rId75" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
+    <hyperlink ref="L130" r:id="rId76" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
+    <hyperlink ref="L170" r:id="rId77" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
+    <hyperlink ref="L171" r:id="rId78" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
+    <hyperlink ref="L206" r:id="rId79" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
+    <hyperlink ref="L213" r:id="rId80" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
+    <hyperlink ref="L155" r:id="rId81" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
+    <hyperlink ref="L123" r:id="rId82" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
+    <hyperlink ref="L126" r:id="rId83" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId86"/>
+    <tablePart r:id="rId84"/>
   </tableParts>
 </worksheet>
 </file>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417AE56E-764B-AE4B-963B-8BE1589FE5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B27757F-136E-584D-B04C-198B33039E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="664">
   <si>
     <t>Isotope</t>
   </si>
@@ -175,9 +175,6 @@
     <t>couldn't find information about reaction type; compound reaction dominant, shape of spectra looks consistent, reasonable error bars present</t>
   </si>
   <si>
-    <t>B. Oginni et al. PRC 80, 034305 (2009)</t>
-  </si>
-  <si>
     <t>couldn't find information about reaction type, shape of spectra is consistent, reasonable error bars</t>
   </si>
   <si>
@@ -727,9 +724,6 @@
     <t>28Si</t>
   </si>
   <si>
-    <t>A. Salas-Bacci et al. PRC 70, 024311 (2004)</t>
-  </si>
-  <si>
     <t>29Si</t>
   </si>
   <si>
@@ -2014,7 +2008,40 @@
     <t>DOI: 10.1134/S1063779606040010.</t>
   </si>
   <si>
-    <t>Phys. Rev. C 76, 044602 (2007)</t>
+    <t>6Li,2p2n; 7Li,2p2n</t>
+  </si>
+  <si>
+    <t>B.M. Oginni et al., Phys. Rev. C 80, 034305 (2009)</t>
+  </si>
+  <si>
+    <t>7Li,a</t>
+  </si>
+  <si>
+    <t>p,p'; e,e'</t>
+  </si>
+  <si>
+    <t>B.M. Oginni, Ph.D. dissertation, Ohio University, June 2009.</t>
+  </si>
+  <si>
+    <t>Y. Kalmykov, Phys. Rev. Lett. 99, 202502 (2007)</t>
+  </si>
+  <si>
+    <t>S. Grimes, Phys Rev C 3, 645(1971)</t>
+  </si>
+  <si>
+    <t>A. Salas-Bacci, Phys Rev C 70, 024311 (2004)</t>
+  </si>
+  <si>
+    <t>J.R. Huizenga, Phys Rev 182, 1149 (1969)</t>
+  </si>
+  <si>
+    <t>6Li,p; 7Li,p</t>
+  </si>
+  <si>
+    <t>A. V. Voinov et al., EPJ Web of Conferences 21, 05001 (2012)</t>
+  </si>
+  <si>
+    <t>A.V. Voinov et al., Phys Rev C 76, 044602 (2007)</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2089,7 +2116,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2473,9 +2499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I66" sqref="I66"/>
+      <selection pane="topRight" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2496,59 +2522,59 @@
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2573,19 +2599,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2594,12 +2620,12 @@
         <v>0.13551162551010876</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2624,20 +2650,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2670,19 +2696,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2718,19 +2744,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2741,7 +2767,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2766,16 +2792,16 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2787,7 +2813,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2812,19 +2838,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2835,7 +2861,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2860,20 +2886,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2881,7 +2907,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2906,19 +2932,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -2954,19 +2980,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -2977,7 +3003,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3002,19 +3028,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3025,7 +3051,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3050,19 +3076,19 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
@@ -3073,7 +3099,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3101,14 +3127,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3116,7 +3142,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3144,14 +3170,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3159,7 +3185,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3184,22 +3210,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3207,7 +3233,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3232,22 +3258,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L16" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3255,7 +3281,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3280,22 +3306,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3303,7 +3329,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3325,19 +3351,19 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3349,7 +3375,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3371,23 +3397,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3395,7 +3421,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3420,22 +3446,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3443,7 +3469,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3468,19 +3494,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3489,12 +3515,12 @@
         <v>1.1022160736577469</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3519,30 +3545,30 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3567,19 +3593,19 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
@@ -3588,12 +3614,12 @@
         <v>0.66530212507089459</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3618,19 +3644,19 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
@@ -3639,7 +3665,7 @@
         <v>0.22929653162440999</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3669,16 +3695,16 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L25" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
@@ -3690,7 +3716,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3715,20 +3741,20 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3736,7 +3762,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3761,19 +3787,19 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N27" t="s">
         <v>27</v>
@@ -3782,12 +3808,12 @@
         <v>1.22929653162441</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3812,16 +3838,16 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J28">
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L28" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3833,7 +3859,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3858,19 +3884,19 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N29" t="s">
         <v>27</v>
@@ -3879,12 +3905,12 @@
         <v>0.79418935940907787</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3909,28 +3935,28 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3957,25 +3983,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="N31" t="s">
         <v>558</v>
-      </c>
-      <c r="N31" t="s">
-        <v>560</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -4005,25 +4031,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="N32" t="s">
         <v>559</v>
-      </c>
-      <c r="N32" t="s">
-        <v>561</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4031,7 +4057,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4056,19 +4082,19 @@
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O33">
         <v>1.3599709566234246</v>
@@ -4079,7 +4105,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4104,19 +4130,19 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O34">
         <v>0.9266319398067111</v>
@@ -4127,7 +4153,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4152,19 +4178,19 @@
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O35">
         <v>0.49416318102058909</v>
@@ -4175,7 +4201,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4200,19 +4226,19 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N36" t="s">
         <v>27</v>
@@ -4221,7 +4247,7 @@
         <v>6.2555795895832489E-2</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -4251,19 +4277,19 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L37" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -4272,12 +4298,12 @@
         <v>-0.36819886753061581</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4302,19 +4328,19 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" t="s">
+        <v>442</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K38" t="s">
-        <v>444</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="N38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O38">
         <v>0.63180113246938419</v>
@@ -4325,7 +4351,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4350,20 +4376,20 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J39">
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L39" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4399,7 +4425,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
@@ -4419,7 +4445,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4444,30 +4470,30 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" t="s">
+        <v>444</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="K41" t="s">
-        <v>446</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="N41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
       </c>
       <c r="P41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4492,19 +4518,19 @@
         <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O42">
         <v>0.77281646291544348</v>
@@ -4515,7 +4541,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4540,19 +4566,19 @@
         <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K43" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N43" t="s">
         <v>266</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="N43" t="s">
-        <v>268</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4563,7 +4589,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4588,19 +4614,19 @@
         <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4636,20 +4662,20 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4657,7 +4683,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4682,30 +4708,30 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
       </c>
       <c r="P46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4730,19 +4756,19 @@
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M47" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N47" t="s">
         <v>27</v>
@@ -4751,12 +4777,12 @@
         <v>0.49053082895950695</v>
       </c>
       <c r="P47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4781,20 +4807,20 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4802,7 +4828,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4827,20 +4853,20 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4848,7 +4874,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4873,19 +4899,19 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K50" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N50" t="s">
         <v>266</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N50" t="s">
-        <v>268</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4896,7 +4922,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4921,19 +4947,19 @@
         <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K51" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N51" t="s">
         <v>266</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N51" t="s">
-        <v>268</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4944,7 +4970,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -4969,30 +4995,30 @@
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -5017,19 +5043,19 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O53">
         <v>6.4722583070196293E-2</v>
@@ -5040,7 +5066,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5065,19 +5091,19 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N54" t="s">
         <v>27</v>
@@ -5086,12 +5112,12 @@
         <v>6.4722583070196293E-2</v>
       </c>
       <c r="P54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5119,16 +5145,16 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N55" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5139,7 +5165,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5164,30 +5190,30 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N56" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
       </c>
       <c r="P56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5209,33 +5235,33 @@
         <v>5.5</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
       </c>
       <c r="P57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5260,30 +5286,30 @@
         <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
       </c>
       <c r="P58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5308,19 +5334,19 @@
         <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5328,7 +5354,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5353,30 +5379,30 @@
         <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
       </c>
       <c r="P60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5401,33 +5427,33 @@
         <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N61" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
       </c>
       <c r="P61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5452,30 +5478,30 @@
         <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
       </c>
       <c r="P62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5500,28 +5526,28 @@
         <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O63">
         <v>0.21549256905338865</v>
       </c>
       <c r="P63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -5551,13 +5577,13 @@
         <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K64" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L64" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>39</v>
@@ -5599,19 +5625,19 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -5646,31 +5672,34 @@
       <c r="H66" t="s">
         <v>29</v>
       </c>
+      <c r="I66" t="s">
+        <v>652</v>
+      </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>450</v>
-      </c>
-      <c r="L66" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="L66" t="s">
+        <v>653</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="N66" t="s">
         <v>41</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="N66" t="s">
-        <v>42</v>
       </c>
       <c r="O66">
         <v>-0.20794327870674323</v>
       </c>
       <c r="P66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67">
         <v>63</v>
@@ -5694,29 +5723,32 @@
       <c r="H67" t="s">
         <v>29</v>
       </c>
+      <c r="I67" t="s">
+        <v>654</v>
+      </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>450</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>45</v>
+        <v>448</v>
+      </c>
+      <c r="L67" t="s">
+        <v>656</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O67">
         <v>-0.63060214877680565</v>
       </c>
       <c r="P67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5738,20 +5770,23 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>501</v>
+        <v>499</v>
+      </c>
+      <c r="I68" t="s">
+        <v>655</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L68" t="s">
-        <v>300</v>
+        <v>657</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5759,7 +5794,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5784,30 +5819,30 @@
         <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>444</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>261</v>
+        <v>442</v>
+      </c>
+      <c r="L69" t="s">
+        <v>658</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
       </c>
       <c r="P69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5831,18 +5866,21 @@
       <c r="H70" t="s">
         <v>13</v>
       </c>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
       <c r="J70">
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L70" t="s">
-        <v>225</v>
+        <v>659</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5850,7 +5888,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5874,18 +5912,21 @@
       <c r="H71" t="s">
         <v>13</v>
       </c>
+      <c r="I71" t="s">
+        <v>501</v>
+      </c>
       <c r="J71">
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L71" t="s">
-        <v>231</v>
+        <v>660</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5893,7 +5934,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5917,17 +5958,20 @@
       <c r="H72" t="s">
         <v>29</v>
       </c>
+      <c r="I72" t="s">
+        <v>661</v>
+      </c>
       <c r="K72" t="s">
-        <v>438</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>48</v>
+        <v>436</v>
+      </c>
+      <c r="L72" t="s">
+        <v>47</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -5938,7 +5982,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -5963,19 +6007,19 @@
         <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K73" t="s">
-        <v>443</v>
-      </c>
-      <c r="L73" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L73" t="s">
+        <v>302</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="N73" t="s">
         <v>304</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="N73" t="s">
-        <v>306</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -5986,7 +6030,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -6011,33 +6055,33 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N74" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
       </c>
       <c r="P74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6061,20 +6105,23 @@
       <c r="H75" t="s">
         <v>29</v>
       </c>
+      <c r="I75" t="s">
+        <v>661</v>
+      </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>438</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>48</v>
+        <v>436</v>
+      </c>
+      <c r="L75" t="s">
+        <v>662</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6085,7 +6132,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6110,22 +6157,22 @@
         <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>438</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>38</v>
+        <v>436</v>
+      </c>
+      <c r="L76" t="s">
+        <v>663</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O76">
         <v>0.79205672129325677</v>
@@ -6136,7 +6183,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6160,31 +6207,34 @@
       <c r="H77" t="s">
         <v>29</v>
       </c>
+      <c r="I77" t="s">
+        <v>661</v>
+      </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>438</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>48</v>
+        <v>436</v>
+      </c>
+      <c r="L77" t="s">
+        <v>662</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N77" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
       </c>
       <c r="P77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6209,19 +6259,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K78" t="s">
-        <v>450</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>45</v>
+        <v>448</v>
+      </c>
+      <c r="L78" t="s">
+        <v>656</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6232,7 +6282,7 @@
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79">
         <v>75</v>
@@ -6257,33 +6307,33 @@
         <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J79">
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>438</v>
-      </c>
-      <c r="L79" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L79" t="s">
+        <v>662</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" t="s">
         <v>49</v>
-      </c>
-      <c r="N79" t="s">
-        <v>50</v>
       </c>
       <c r="O79">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <v>76</v>
@@ -6308,19 +6358,19 @@
         <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>438</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>48</v>
+        <v>436</v>
+      </c>
+      <c r="L80" t="s">
+        <v>662</v>
       </c>
       <c r="M80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N80" t="s">
         <v>55</v>
-      </c>
-      <c r="N80" t="s">
-        <v>56</v>
       </c>
       <c r="O80">
         <v>-0.47361546110579411</v>
@@ -6331,7 +6381,7 @@
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81">
         <v>77</v>
@@ -6356,19 +6406,19 @@
         <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>450</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>41</v>
+        <v>448</v>
+      </c>
+      <c r="L81" t="s">
+        <v>653</v>
       </c>
       <c r="M81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N81" t="s">
         <v>57</v>
-      </c>
-      <c r="N81" t="s">
-        <v>58</v>
       </c>
       <c r="O81">
         <v>-0.47361546110579411</v>
@@ -6379,7 +6429,7 @@
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82">
         <v>78</v>
@@ -6404,22 +6454,22 @@
         <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J82">
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>438</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>60</v>
+        <v>436</v>
+      </c>
+      <c r="L82" t="s">
+        <v>662</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="N82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O82">
         <v>-0.89398280802292263</v>
@@ -6430,7 +6480,7 @@
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83">
         <v>79</v>
@@ -6458,16 +6508,16 @@
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>450</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>45</v>
+        <v>448</v>
+      </c>
+      <c r="L83" t="s">
+        <v>656</v>
       </c>
       <c r="M83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N83" t="s">
         <v>61</v>
-      </c>
-      <c r="N83" t="s">
-        <v>62</v>
       </c>
       <c r="O83">
         <v>-0.89398280802292263</v>
@@ -6478,7 +6528,7 @@
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84">
         <v>80</v>
@@ -6506,27 +6556,27 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="N84" t="s">
         <v>51</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="N84" t="s">
-        <v>52</v>
       </c>
       <c r="O84">
         <v>-5.2490702781035736E-2</v>
       </c>
       <c r="P84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B85">
         <v>81</v>
@@ -6554,14 +6604,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6569,7 +6619,7 @@
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86">
         <v>82</v>
@@ -6591,16 +6641,16 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6612,7 +6662,7 @@
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87">
         <v>83</v>
@@ -6634,16 +6684,16 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L87" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6655,7 +6705,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6677,30 +6727,30 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N88" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
       </c>
       <c r="P88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6728,27 +6778,27 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N89" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
       </c>
       <c r="P89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6776,27 +6826,27 @@
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N90" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
       </c>
       <c r="P90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6821,33 +6871,33 @@
         <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N91" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
       </c>
       <c r="P91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92">
         <v>88</v>
@@ -6875,25 +6925,25 @@
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O92">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93">
         <v>89</v>
@@ -6915,34 +6965,34 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
+        <v>69</v>
+      </c>
+      <c r="I93" t="s">
         <v>70</v>
-      </c>
-      <c r="I93" t="s">
-        <v>71</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O93">
         <v>-0.31359899654939127</v>
       </c>
       <c r="P93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -6967,33 +7017,33 @@
         <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N94" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
       </c>
       <c r="P94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -7018,22 +7068,22 @@
         <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N95" t="s">
         <v>327</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="N95" t="s">
-        <v>329</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -7044,7 +7094,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7072,16 +7122,16 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N96" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -7092,7 +7142,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7117,22 +7167,22 @@
         <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L97" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N97" t="s">
         <v>327</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="N97" t="s">
-        <v>329</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7143,7 +7193,7 @@
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98">
         <v>94</v>
@@ -7165,16 +7215,16 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" t="s">
@@ -7186,7 +7236,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7208,16 +7258,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7229,7 +7279,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7254,22 +7304,22 @@
         <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L100" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="N100" t="s">
         <v>338</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="N100" t="s">
-        <v>340</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7280,7 +7330,7 @@
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B101">
         <v>97</v>
@@ -7305,22 +7355,22 @@
         <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J101">
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L101" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="N101" t="s">
         <v>81</v>
-      </c>
-      <c r="N101" t="s">
-        <v>82</v>
       </c>
       <c r="O101">
         <v>-1.0573149088805707</v>
@@ -7331,7 +7381,7 @@
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102">
         <v>98</v>
@@ -7356,22 +7406,22 @@
         <v>29</v>
       </c>
       <c r="I102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J102">
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O102">
         <v>-1.881470383782073</v>
@@ -7382,7 +7432,7 @@
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103">
         <v>99</v>
@@ -7410,27 +7460,27 @@
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N103" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
       </c>
       <c r="P103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104">
         <v>100</v>
@@ -7458,14 +7508,14 @@
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7473,7 +7523,7 @@
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B105">
         <v>101</v>
@@ -7495,16 +7545,16 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
@@ -7516,7 +7566,7 @@
     </row>
     <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106">
         <v>102</v>
@@ -7538,16 +7588,16 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
@@ -7559,7 +7609,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7581,16 +7631,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L107" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7602,7 +7652,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7627,19 +7677,19 @@
         <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N108" t="s">
         <v>338</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="N108" t="s">
-        <v>340</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7650,7 +7700,7 @@
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -7675,31 +7725,31 @@
         <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O109">
         <v>-0.46973757929284687</v>
       </c>
       <c r="P109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7721,16 +7771,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L110" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7742,7 +7792,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7764,16 +7814,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7785,7 +7835,7 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B112">
         <v>108</v>
@@ -7807,16 +7857,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
@@ -7828,7 +7878,7 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B113">
         <v>109</v>
@@ -7850,22 +7900,22 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I113" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N113" t="s">
         <v>27</v>
@@ -7874,12 +7924,12 @@
         <v>-2.3663664896644576</v>
       </c>
       <c r="P113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -7901,33 +7951,33 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N114" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
       </c>
       <c r="P114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -7949,16 +7999,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L115" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -7970,7 +8020,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -7992,16 +8042,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
@@ -8013,7 +8063,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -8035,16 +8085,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
@@ -8056,7 +8106,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -8078,16 +8128,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
@@ -8099,7 +8149,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8124,31 +8174,31 @@
         <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O119">
         <v>-0.17337555216106892</v>
       </c>
       <c r="P119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8173,19 +8223,19 @@
         <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N120" t="s">
         <v>27</v>
@@ -8194,12 +8244,12 @@
         <v>-0.17337555216106892</v>
       </c>
       <c r="P120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8224,19 +8274,19 @@
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N121" t="s">
         <v>27</v>
@@ -8247,7 +8297,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8269,20 +8319,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L122" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8290,7 +8340,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8315,22 +8365,22 @@
         <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M123" t="s">
+        <v>569</v>
+      </c>
+      <c r="N123" t="s">
         <v>571</v>
-      </c>
-      <c r="N123" t="s">
-        <v>573</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8338,7 +8388,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8363,22 +8413,22 @@
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M124" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N124" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8386,7 +8436,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8411,22 +8461,22 @@
         <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L125" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N125" t="s">
         <v>348</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="N125" t="s">
-        <v>350</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8437,7 +8487,7 @@
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8462,22 +8512,22 @@
         <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N126" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8485,7 +8535,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8510,22 +8560,22 @@
         <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N127" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8533,7 +8583,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8558,30 +8608,30 @@
         <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N128" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
       </c>
       <c r="P128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8603,20 +8653,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L129" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8624,7 +8674,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8649,19 +8699,19 @@
         <v>29</v>
       </c>
       <c r="I130" t="s">
+        <v>105</v>
+      </c>
+      <c r="K130" t="s">
+        <v>441</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K130" t="s">
-        <v>443</v>
-      </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="N130" t="s">
         <v>108</v>
-      </c>
-      <c r="N130" t="s">
-        <v>109</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
@@ -8672,7 +8722,7 @@
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8697,33 +8747,33 @@
         <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L131" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="N131" t="s">
         <v>110</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="N131" t="s">
-        <v>111</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
       </c>
       <c r="P131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8748,20 +8798,20 @@
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L132" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8769,7 +8819,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8794,19 +8844,19 @@
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M133" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N133" t="s">
         <v>27</v>
@@ -8815,12 +8865,12 @@
         <v>1.2201002373528382</v>
       </c>
       <c r="P133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8845,19 +8895,19 @@
         <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L134" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M134" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N134" t="s">
         <v>27</v>
@@ -8866,12 +8916,12 @@
         <v>0.82000763927846521</v>
       </c>
       <c r="P134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8896,19 +8946,19 @@
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L135" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M135" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N135" t="s">
         <v>27</v>
@@ -8917,12 +8967,12 @@
         <v>0.42052283799023371</v>
       </c>
       <c r="P135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -8947,19 +8997,19 @@
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M136" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N136" t="s">
         <v>27</v>
@@ -8968,12 +9018,12 @@
         <v>2.1642134891465048E-2</v>
       </c>
       <c r="P136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -8995,20 +9045,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L137" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -9016,7 +9066,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -9041,19 +9091,19 @@
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N138" t="s">
         <v>27</v>
@@ -9062,12 +9112,12 @@
         <v>-0.37663811699323446</v>
       </c>
       <c r="P138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -9092,19 +9142,19 @@
         <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L139" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N139" t="s">
         <v>27</v>
@@ -9113,12 +9163,12 @@
         <v>-0.77432151423236206</v>
       </c>
       <c r="P139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9143,30 +9193,30 @@
         <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N140" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
       </c>
       <c r="P140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9188,25 +9238,25 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L141" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
       </c>
       <c r="P141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9234,13 +9284,13 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M142" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N142" t="s">
         <v>27</v>
@@ -9249,12 +9299,12 @@
         <v>0.4583145839925038</v>
       </c>
       <c r="P142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9282,13 +9332,13 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M143" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N143" t="s">
         <v>27</v>
@@ -9297,12 +9347,12 @@
         <v>6.5282226143224875E-2</v>
       </c>
       <c r="P143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9327,22 +9377,22 @@
         <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L144" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N144" t="s">
         <v>368</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="N144" t="s">
-        <v>370</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9353,7 +9403,7 @@
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9381,13 +9431,13 @@
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N145" t="s">
         <v>27</v>
@@ -9396,12 +9446,12 @@
         <v>-0.32718355944679445</v>
       </c>
       <c r="P145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9429,13 +9479,13 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N146" t="s">
         <v>27</v>
@@ -9444,12 +9494,12 @@
         <v>-0.71908592393408099</v>
       </c>
       <c r="P146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9471,16 +9521,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L147" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9492,7 +9542,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9520,10 +9570,10 @@
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
@@ -9535,7 +9585,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9563,10 +9613,10 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L149" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
@@ -9578,7 +9628,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9606,13 +9656,13 @@
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L150" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M150" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N150" t="s">
         <v>27</v>
@@ -9621,12 +9671,12 @@
         <v>0.10855658349814234</v>
       </c>
       <c r="P150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9651,16 +9701,16 @@
         <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N151" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9671,7 +9721,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9696,16 +9746,16 @@
         <v>29</v>
       </c>
       <c r="K152" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N152" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9716,7 +9766,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9744,13 +9794,13 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N153" t="s">
         <v>27</v>
@@ -9759,12 +9809,12 @@
         <v>-0.28112283268126248</v>
       </c>
       <c r="P153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9792,14 +9842,14 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9807,7 +9857,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9832,22 +9882,22 @@
         <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L155" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N155" t="s">
         <v>368</v>
-      </c>
-      <c r="M155" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="N155" t="s">
-        <v>370</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -9858,7 +9908,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9883,16 +9933,16 @@
         <v>29</v>
       </c>
       <c r="K156" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N156" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -9903,7 +9953,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -9928,19 +9978,19 @@
         <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K157" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L157" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N157" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -9951,7 +10001,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -9979,16 +10029,16 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -9996,7 +10046,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -10024,13 +10074,13 @@
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N159" t="s">
         <v>27</v>
@@ -10041,7 +10091,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10069,13 +10119,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L160" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N160" t="s">
         <v>27</v>
@@ -10086,7 +10136,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10114,13 +10164,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N161" t="s">
         <v>27</v>
@@ -10131,7 +10181,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10159,10 +10209,10 @@
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
@@ -10174,7 +10224,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10196,25 +10246,25 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L163" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
       </c>
       <c r="P163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10239,16 +10289,16 @@
         <v>29</v>
       </c>
       <c r="I164" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N164" t="s">
         <v>27</v>
@@ -10259,7 +10309,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10284,19 +10334,19 @@
         <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K165" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N165" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10307,7 +10357,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10332,16 +10382,16 @@
         <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N166" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10352,7 +10402,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10377,16 +10427,16 @@
         <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N167" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10397,7 +10447,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10422,16 +10472,16 @@
         <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10442,7 +10492,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10467,16 +10517,16 @@
         <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N169" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10487,7 +10537,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10512,19 +10562,19 @@
         <v>29</v>
       </c>
       <c r="I170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K170" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M170" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="N170" t="s">
         <v>132</v>
-      </c>
-      <c r="N170" t="s">
-        <v>133</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
@@ -10535,7 +10585,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10560,19 +10610,19 @@
         <v>29</v>
       </c>
       <c r="I171" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K171" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N171" t="s">
         <v>135</v>
-      </c>
-      <c r="N171" t="s">
-        <v>136</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
@@ -10583,7 +10633,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10608,33 +10658,33 @@
         <v>29</v>
       </c>
       <c r="I172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="N172" t="s">
         <v>110</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="N172" t="s">
-        <v>111</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
       </c>
       <c r="P172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10662,25 +10712,25 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L173" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
       </c>
       <c r="P173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10705,19 +10755,19 @@
         <v>29</v>
       </c>
       <c r="I174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K174" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N174" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10728,7 +10778,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10753,19 +10803,19 @@
         <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K175" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M175" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N175" t="s">
         <v>138</v>
-      </c>
-      <c r="N175" t="s">
-        <v>139</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
@@ -10776,7 +10826,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10798,16 +10848,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L176" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -10819,7 +10869,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10841,20 +10891,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L177" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10862,7 +10912,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10887,31 +10937,31 @@
         <v>29</v>
       </c>
       <c r="I178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O178">
         <v>-1.3420167407453789</v>
       </c>
       <c r="P178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -10939,10 +10989,10 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
@@ -10954,7 +11004,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -10982,13 +11032,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N180" t="s">
         <v>27</v>
@@ -10999,7 +11049,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -11024,31 +11074,31 @@
         <v>29</v>
       </c>
       <c r="I181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O181">
         <v>-1.4760834690352951</v>
       </c>
       <c r="P181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11076,10 +11126,10 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
@@ -11091,7 +11141,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11119,13 +11169,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N183" t="s">
         <v>27</v>
@@ -11134,12 +11184,12 @@
         <v>-0.47608346903529508</v>
       </c>
       <c r="P183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11167,13 +11217,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N184" t="s">
         <v>27</v>
@@ -11182,12 +11232,12 @@
         <v>-0.84905082577578384</v>
       </c>
       <c r="P184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11215,13 +11265,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N185" t="s">
         <v>27</v>
@@ -11230,12 +11280,12 @@
         <v>-1.2215512709279182</v>
       </c>
       <c r="P185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11263,13 +11313,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N186" t="s">
         <v>27</v>
@@ -11278,12 +11328,12 @@
         <v>-1.5935868648990876</v>
       </c>
       <c r="P186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11311,13 +11361,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N187" t="s">
         <v>27</v>
@@ -11326,12 +11376,12 @@
         <v>-1.9651596487121239</v>
       </c>
       <c r="P187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11359,13 +11409,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N188" t="s">
         <v>27</v>
@@ -11374,12 +11424,12 @@
         <v>-2.3362716443057678</v>
       </c>
       <c r="P188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11407,13 +11457,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N189" t="s">
         <v>27</v>
@@ -11422,12 +11472,12 @@
         <v>-2.7069248548283866</v>
       </c>
       <c r="P189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11455,13 +11505,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N190" t="s">
         <v>27</v>
@@ -11470,12 +11520,12 @@
         <v>-3.0771212649253883</v>
       </c>
       <c r="P190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11503,13 +11553,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L191" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M191" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N191" t="s">
         <v>27</v>
@@ -11518,12 +11568,12 @@
         <v>3.4840351287876103E-2</v>
       </c>
       <c r="P191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11551,13 +11601,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N192" t="s">
         <v>27</v>
@@ -11566,12 +11616,12 @@
         <v>-0.33627164430576784</v>
       </c>
       <c r="P192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11599,13 +11649,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N193" t="s">
         <v>27</v>
@@ -11614,12 +11664,12 @@
         <v>-1.0771212649253883</v>
       </c>
       <c r="P193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11647,13 +11697,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N194" t="s">
         <v>27</v>
@@ -11662,12 +11712,12 @@
         <v>-1.4468628410203479</v>
       </c>
       <c r="P194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11695,10 +11745,10 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
@@ -11710,7 +11760,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11738,13 +11788,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N196" t="s">
         <v>27</v>
@@ -11753,12 +11803,12 @@
         <v>-0.75438528011734718</v>
       </c>
       <c r="P196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11786,25 +11836,25 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
       </c>
       <c r="P197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11832,13 +11882,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N198" t="s">
         <v>27</v>
@@ -11847,12 +11897,12 @@
         <v>-1.4845460887548114</v>
       </c>
       <c r="P198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11880,13 +11930,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N199" t="s">
         <v>27</v>
@@ -11895,12 +11945,12 @@
         <v>-1.8489767637588841</v>
       </c>
       <c r="P199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -11925,31 +11975,31 @@
         <v>29</v>
       </c>
       <c r="I200" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O200">
         <v>-1.2129766276880645</v>
       </c>
       <c r="P200" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -11977,13 +12027,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L201" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N201" t="s">
         <v>27</v>
@@ -11994,7 +12044,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -12022,13 +12072,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L202" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="N202" t="s">
         <v>27</v>
@@ -12039,7 +12089,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12067,13 +12117,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N203" t="s">
         <v>27</v>
@@ -12084,7 +12134,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12112,13 +12162,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N204" t="s">
         <v>27</v>
@@ -12129,7 +12179,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12157,13 +12207,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L205" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N205" t="s">
         <v>27</v>
@@ -12174,7 +12224,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12199,31 +12249,31 @@
         <v>29</v>
       </c>
       <c r="I206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
       </c>
       <c r="P206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12248,16 +12298,16 @@
         <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N207" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12268,7 +12318,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12293,31 +12343,31 @@
         <v>29</v>
       </c>
       <c r="I208" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
       </c>
       <c r="P208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12345,10 +12395,10 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L209" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
@@ -12360,7 +12410,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12385,19 +12435,19 @@
         <v>25</v>
       </c>
       <c r="I210" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L210" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N210" t="s">
         <v>27</v>
@@ -12406,12 +12456,12 @@
         <v>-0.9407752647588552</v>
       </c>
       <c r="P210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12436,19 +12486,19 @@
         <v>25</v>
       </c>
       <c r="I211" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L211" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N211" t="s">
         <v>27</v>
@@ -12457,12 +12507,12 @@
         <v>-1.2922158023175427</v>
       </c>
       <c r="P211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12490,27 +12540,27 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L212" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N212" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
       </c>
       <c r="P212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12535,31 +12585,31 @@
         <v>29</v>
       </c>
       <c r="I213" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
       </c>
       <c r="P213" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12587,10 +12637,10 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L214" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
@@ -12602,7 +12652,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12630,13 +12680,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N215" t="s">
         <v>27</v>
@@ -12645,12 +12695,12 @@
         <v>-0.99395345696034099</v>
       </c>
       <c r="P215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12675,30 +12725,30 @@
         <v>29</v>
       </c>
       <c r="I216" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
       </c>
       <c r="P216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12723,30 +12773,30 @@
         <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
       </c>
       <c r="P217" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12774,13 +12824,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L218" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N218" t="s">
         <v>27</v>
@@ -12789,12 +12839,12 @@
         <v>-0.43816934722877932</v>
       </c>
       <c r="P218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12822,13 +12872,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L219" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N219" t="s">
         <v>27</v>
@@ -12837,12 +12887,12 @@
         <v>-0.78585369937712812</v>
       </c>
       <c r="P219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12870,13 +12920,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L220" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N220" t="s">
         <v>27</v>
@@ -12885,12 +12935,12 @@
         <v>-1.1331695621990292</v>
       </c>
       <c r="P220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -12918,13 +12968,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L221" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N221" t="s">
         <v>27</v>
@@ -12933,12 +12983,12 @@
         <v>-1.4801181958633407</v>
       </c>
       <c r="P221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -12960,20 +13010,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L222" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -12981,7 +13031,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -13006,19 +13056,19 @@
         <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K223" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N223" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -13029,7 +13079,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13054,19 +13104,19 @@
         <v>29</v>
       </c>
       <c r="I224" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K224" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N224" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -13077,7 +13127,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13102,19 +13152,19 @@
         <v>29</v>
       </c>
       <c r="I225" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K225" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M225" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M225" s="4" t="s">
+      <c r="N225" t="s">
         <v>202</v>
-      </c>
-      <c r="N225" t="s">
-        <v>203</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
@@ -13125,7 +13175,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13150,19 +13200,19 @@
         <v>29</v>
       </c>
       <c r="I226" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K226" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N226" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
@@ -13173,7 +13223,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13198,31 +13248,31 @@
         <v>29</v>
       </c>
       <c r="I227" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
       </c>
       <c r="P227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13247,19 +13297,19 @@
         <v>29</v>
       </c>
       <c r="I228" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K228" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13270,7 +13320,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13298,13 +13348,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L229" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N229" t="s">
         <v>27</v>
@@ -13313,12 +13363,12 @@
         <v>-1.3613560717265187</v>
       </c>
       <c r="P229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13346,13 +13396,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L230" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N230" t="s">
         <v>27</v>
@@ -13361,12 +13411,12 @@
         <v>-1.6998480216558676</v>
       </c>
       <c r="P230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13394,13 +13444,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L231" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N231" t="s">
         <v>27</v>
@@ -13409,12 +13459,12 @@
         <v>-2.0380016536697809</v>
       </c>
       <c r="P231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13442,13 +13492,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L232" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N232" t="s">
         <v>27</v>
@@ -13457,12 +13507,12 @@
         <v>-0.69984802165586757</v>
       </c>
       <c r="P232" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13490,13 +13540,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L233" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N233" t="s">
         <v>27</v>
@@ -13505,12 +13555,12 @@
         <v>-1.0380016536697809</v>
       </c>
       <c r="P233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13538,13 +13588,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N234" t="s">
         <v>27</v>
@@ -13553,12 +13603,12 @@
         <v>-1.3872541469982878</v>
       </c>
       <c r="P234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13586,13 +13636,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L235" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N235" t="s">
         <v>27</v>
@@ -13601,12 +13651,12 @@
         <v>-1.7237319906828503</v>
       </c>
       <c r="P235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13634,13 +13684,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N236" t="s">
         <v>27</v>
@@ -13649,12 +13699,12 @@
         <v>-2.0598777916518145</v>
       </c>
       <c r="P236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13682,13 +13732,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L237" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N237" t="s">
         <v>27</v>
@@ -13697,12 +13747,12 @@
         <v>-0.72373199068285032</v>
       </c>
       <c r="P237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13730,13 +13780,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N238" t="s">
         <v>27</v>
@@ -13745,7 +13795,7 @@
         <v>-1.4011609456622267</v>
       </c>
       <c r="P238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -13775,68 +13825,55 @@
     <hyperlink ref="L62" r:id="rId23" xr:uid="{FCB91122-5D31-49AE-94BC-B8D4BBBFA59A}"/>
     <hyperlink ref="L72" r:id="rId24" xr:uid="{C9031CD5-F74D-4021-93A1-6AC35F9DCD3F}"/>
     <hyperlink ref="L73" r:id="rId25" xr:uid="{15220E7C-7D82-4EFC-8814-D473E6823CF8}"/>
-    <hyperlink ref="L69" r:id="rId26" xr:uid="{534B0E12-2AE8-4666-B218-BBB6CB18DDBB}"/>
-    <hyperlink ref="L75" r:id="rId27" xr:uid="{120F39F2-9203-4BAD-9A4B-B5B75AA3855C}"/>
-    <hyperlink ref="L76" r:id="rId28" xr:uid="{B9037BD3-F242-4BDB-8709-4A8FDD57C068}"/>
-    <hyperlink ref="L74" r:id="rId29" xr:uid="{622A38EC-5F46-41C2-A2A0-AD49E7C1AA9D}"/>
-    <hyperlink ref="L77" r:id="rId30" xr:uid="{B12A1737-EE0A-4FE2-A104-E866528F3438}"/>
-    <hyperlink ref="L78" r:id="rId31" xr:uid="{97D0E99D-5C5E-415F-A350-0965BE6743C2}"/>
-    <hyperlink ref="L67:L73" r:id="rId32" display="B. Oginni PhD Thesis OU 2009" xr:uid="{E3F9C84C-389A-4A4C-AFFD-D675A8102A90}"/>
-    <hyperlink ref="L95" r:id="rId33" xr:uid="{9D74199E-93C0-4CA3-A5D9-342A665B7D47}"/>
-    <hyperlink ref="L97" r:id="rId34" xr:uid="{3BA0D3BE-D421-4D6E-94C5-E0070F603E9E}"/>
-    <hyperlink ref="L100" r:id="rId35" xr:uid="{279BD717-F964-463D-9764-602BA3D2E6D6}"/>
-    <hyperlink ref="L108" r:id="rId36" xr:uid="{0B41E2A9-0D8A-4A2B-949E-7EF8E6545684}"/>
-    <hyperlink ref="L125" r:id="rId37" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
-    <hyperlink ref="L128" r:id="rId38" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
-    <hyperlink ref="L140" r:id="rId39" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
-    <hyperlink ref="L144" r:id="rId40" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
-    <hyperlink ref="L151" r:id="rId41" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
-    <hyperlink ref="L152" r:id="rId42" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
-    <hyperlink ref="L156" r:id="rId43" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
-    <hyperlink ref="L166" r:id="rId44" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
-    <hyperlink ref="L167" r:id="rId45" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
-    <hyperlink ref="L168" r:id="rId46" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
-    <hyperlink ref="L169" r:id="rId47" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
-    <hyperlink ref="L207" r:id="rId48" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
-    <hyperlink ref="L157" r:id="rId49" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
-    <hyperlink ref="L165" r:id="rId50" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
-    <hyperlink ref="L164" r:id="rId51" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
-    <hyperlink ref="L174" r:id="rId52" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
-    <hyperlink ref="L216" r:id="rId53" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
-    <hyperlink ref="L217" r:id="rId54" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
-    <hyperlink ref="L227" r:id="rId55" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
-    <hyperlink ref="L124:L127" r:id="rId56" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
-    <hyperlink ref="L88" r:id="rId57" xr:uid="{EFABE6D7-E87F-4C57-9D13-D62090F8765C}"/>
-    <hyperlink ref="L227:L228" r:id="rId58" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
-    <hyperlink ref="L208" r:id="rId59" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
-    <hyperlink ref="L131" r:id="rId60" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
-    <hyperlink ref="L172" r:id="rId61" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
-    <hyperlink ref="L175" r:id="rId62" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
-    <hyperlink ref="L40" r:id="rId63" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
-    <hyperlink ref="L66" r:id="rId64" xr:uid="{486FA29D-B4FB-0E41-A1C0-0C52804EEA49}"/>
-    <hyperlink ref="L81" r:id="rId65" xr:uid="{E722973C-376C-A84C-B833-12D596723ED5}"/>
-    <hyperlink ref="L67" r:id="rId66" xr:uid="{3E255CAD-7581-C844-AF54-9E0B2A820C92}"/>
-    <hyperlink ref="L83" r:id="rId67" xr:uid="{52AA1369-73F0-C946-AF71-62949D2B7A8A}"/>
-    <hyperlink ref="L79" r:id="rId68" xr:uid="{A0993E20-5E5A-CD4E-91B9-BC3CD576B43D}"/>
-    <hyperlink ref="L80" r:id="rId69" xr:uid="{CD44EE35-8DF6-A640-AC5F-131BE5B48437}"/>
-    <hyperlink ref="L82" r:id="rId70" xr:uid="{80AC9819-96DF-8640-B1F0-6372B694E8D3}"/>
-    <hyperlink ref="L84" r:id="rId71" xr:uid="{BC9A1581-C3DE-BF43-AD9A-168F71E7D050}"/>
-    <hyperlink ref="L92" r:id="rId72" xr:uid="{AD8F2636-38D2-4B4C-AC56-5ACA05EEB1A3}"/>
-    <hyperlink ref="L93" r:id="rId73" xr:uid="{6EC6F34D-ACAC-EA47-875D-32E161FD497E}"/>
-    <hyperlink ref="L159:L166" r:id="rId74" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
-    <hyperlink ref="L187:L207" r:id="rId75" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
-    <hyperlink ref="L130" r:id="rId76" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
-    <hyperlink ref="L170" r:id="rId77" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
-    <hyperlink ref="L171" r:id="rId78" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
-    <hyperlink ref="L206" r:id="rId79" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
-    <hyperlink ref="L213" r:id="rId80" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
-    <hyperlink ref="L155" r:id="rId81" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
-    <hyperlink ref="L123" r:id="rId82" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
-    <hyperlink ref="L126" r:id="rId83" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
+    <hyperlink ref="L74" r:id="rId26" xr:uid="{622A38EC-5F46-41C2-A2A0-AD49E7C1AA9D}"/>
+    <hyperlink ref="L95" r:id="rId27" xr:uid="{9D74199E-93C0-4CA3-A5D9-342A665B7D47}"/>
+    <hyperlink ref="L97" r:id="rId28" xr:uid="{3BA0D3BE-D421-4D6E-94C5-E0070F603E9E}"/>
+    <hyperlink ref="L100" r:id="rId29" xr:uid="{279BD717-F964-463D-9764-602BA3D2E6D6}"/>
+    <hyperlink ref="L108" r:id="rId30" xr:uid="{0B41E2A9-0D8A-4A2B-949E-7EF8E6545684}"/>
+    <hyperlink ref="L125" r:id="rId31" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
+    <hyperlink ref="L128" r:id="rId32" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
+    <hyperlink ref="L140" r:id="rId33" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
+    <hyperlink ref="L144" r:id="rId34" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
+    <hyperlink ref="L151" r:id="rId35" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
+    <hyperlink ref="L152" r:id="rId36" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
+    <hyperlink ref="L156" r:id="rId37" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
+    <hyperlink ref="L166" r:id="rId38" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
+    <hyperlink ref="L167" r:id="rId39" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
+    <hyperlink ref="L168" r:id="rId40" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
+    <hyperlink ref="L169" r:id="rId41" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
+    <hyperlink ref="L207" r:id="rId42" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
+    <hyperlink ref="L157" r:id="rId43" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
+    <hyperlink ref="L165" r:id="rId44" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
+    <hyperlink ref="L164" r:id="rId45" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
+    <hyperlink ref="L174" r:id="rId46" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
+    <hyperlink ref="L216" r:id="rId47" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
+    <hyperlink ref="L217" r:id="rId48" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
+    <hyperlink ref="L227" r:id="rId49" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
+    <hyperlink ref="L124:L127" r:id="rId50" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
+    <hyperlink ref="L88" r:id="rId51" xr:uid="{EFABE6D7-E87F-4C57-9D13-D62090F8765C}"/>
+    <hyperlink ref="L227:L228" r:id="rId52" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
+    <hyperlink ref="L208" r:id="rId53" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
+    <hyperlink ref="L131" r:id="rId54" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
+    <hyperlink ref="L172" r:id="rId55" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
+    <hyperlink ref="L175" r:id="rId56" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
+    <hyperlink ref="L40" r:id="rId57" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
+    <hyperlink ref="L84" r:id="rId58" xr:uid="{BC9A1581-C3DE-BF43-AD9A-168F71E7D050}"/>
+    <hyperlink ref="L92" r:id="rId59" xr:uid="{AD8F2636-38D2-4B4C-AC56-5ACA05EEB1A3}"/>
+    <hyperlink ref="L93" r:id="rId60" xr:uid="{6EC6F34D-ACAC-EA47-875D-32E161FD497E}"/>
+    <hyperlink ref="L159:L166" r:id="rId61" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
+    <hyperlink ref="L187:L207" r:id="rId62" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
+    <hyperlink ref="L130" r:id="rId63" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
+    <hyperlink ref="L170" r:id="rId64" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
+    <hyperlink ref="L171" r:id="rId65" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
+    <hyperlink ref="L206" r:id="rId66" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
+    <hyperlink ref="L213" r:id="rId67" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
+    <hyperlink ref="L155" r:id="rId68" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
+    <hyperlink ref="L123" r:id="rId69" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
+    <hyperlink ref="L126" r:id="rId70" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId84"/>
+    <tablePart r:id="rId71"/>
   </tableParts>
 </worksheet>
 </file>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B27757F-136E-584D-B04C-198B33039E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A521E6FA-F82B-0344-9154-9397E035060E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="666">
   <si>
     <t>Isotope</t>
   </si>
@@ -247,27 +247,15 @@
     <t>69Ni</t>
   </si>
   <si>
-    <t>A. Spyrou et al. JPG 44, 044002 (2017)</t>
-  </si>
-  <si>
     <t>70Ni</t>
   </si>
   <si>
-    <t>S.N. Liddick et al. PRL116, 242502 (2016)</t>
-  </si>
-  <si>
     <t>65Cu</t>
   </si>
   <si>
     <t>evaporation</t>
   </si>
   <si>
-    <t>p,p'; a,a'</t>
-  </si>
-  <si>
-    <t>J.C. Pacer et al, NP A226,413(1974)</t>
-  </si>
-  <si>
     <t>Data seemed off, data taken from Lu paper referenced. Used the line plotting charged particle spectra in fig. 18 and a 20% uncertainty used to remain consistent with evaporation model; also used elastic scattering</t>
   </si>
   <si>
@@ -1003,9 +991,6 @@
     <t>63Cu</t>
   </si>
   <si>
-    <t>a,p;a,a'</t>
-  </si>
-  <si>
     <t>Accepted/NLD_29_63_2.csv</t>
   </si>
   <si>
@@ -2042,6 +2027,27 @@
   </si>
   <si>
     <t>A.V. Voinov et al., Phys Rev C 76, 044602 (2007)</t>
+  </si>
+  <si>
+    <t>p,p'; a,a'; a,p; p,a</t>
+  </si>
+  <si>
+    <t>C.C. Lu et al, Nucl. Phys. A 190, 229-260 (1972), DOI:10.1016/0375-9474(72)90139-X</t>
+  </si>
+  <si>
+    <t>A. Spyrou et al., J. Phys. G: Nucl. Part. Phys. 44, 044002 (2017)</t>
+  </si>
+  <si>
+    <t>S.N. Liddick et al. Phys. Rev. Lett. 116, 242502 (2016)</t>
+  </si>
+  <si>
+    <t>JC Pacer, Nucl. Phys. A 226, 413–423 (1974)</t>
+  </si>
+  <si>
+    <t>6Li,g; 7Li,g</t>
+  </si>
+  <si>
+    <t>7Li,p</t>
   </si>
 </sst>
 </file>
@@ -2499,9 +2505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I84" sqref="I84"/>
+      <selection pane="topRight" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2527,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -2536,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -2554,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>7</v>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2599,19 +2605,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2650,20 +2656,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2696,19 +2702,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2744,19 +2750,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2767,7 +2773,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2792,16 +2798,16 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J6">
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2813,7 +2819,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2838,19 +2844,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2861,7 +2867,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2886,20 +2892,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2907,7 +2913,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2932,19 +2938,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L9" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="M9" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -2980,19 +2986,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L10" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -3003,7 +3009,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3028,19 +3034,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L11" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M11" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3051,7 +3057,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3076,19 +3082,19 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L12" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
@@ -3099,7 +3105,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3127,14 +3133,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3170,14 +3176,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3210,22 +3216,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M15" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="N15" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3233,7 +3239,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3258,22 +3264,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L16" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M16" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="N16" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3281,7 +3287,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3306,22 +3312,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L17" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M17" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3329,7 +3335,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3351,19 +3357,19 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I18" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L18" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3375,7 +3381,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3397,23 +3403,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I19" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L19" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3421,7 +3427,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3446,22 +3452,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L20" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="M20" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="N20" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3469,7 +3475,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3494,19 +3500,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3545,19 +3551,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
@@ -3568,7 +3574,7 @@
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3593,19 +3599,19 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
@@ -3619,7 +3625,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3644,19 +3650,19 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
@@ -3695,16 +3701,16 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L25" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
@@ -3716,7 +3722,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3741,20 +3747,20 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3762,7 +3768,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3787,19 +3793,19 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N27" t="s">
         <v>27</v>
@@ -3813,7 +3819,7 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3838,16 +3844,16 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J28">
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L28" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3859,7 +3865,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3884,19 +3890,19 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N29" t="s">
         <v>27</v>
@@ -3910,7 +3916,7 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3935,22 +3941,22 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N30" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
@@ -3983,25 +3989,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I31" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="N31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -4031,25 +4037,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I32" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="N32" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4057,7 +4063,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4082,16 +4088,16 @@
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s">
         <v>61</v>
@@ -4105,7 +4111,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4130,16 +4136,16 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
@@ -4153,7 +4159,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4178,16 +4184,16 @@
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
@@ -4201,7 +4207,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4226,19 +4232,19 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="N36" t="s">
         <v>27</v>
@@ -4277,19 +4283,19 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L37" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -4303,7 +4309,7 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4328,16 +4334,16 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N38" t="s">
         <v>61</v>
@@ -4351,7 +4357,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4376,20 +4382,20 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J39">
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L39" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4425,7 +4431,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
@@ -4445,7 +4451,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4470,19 +4476,19 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K41" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N41" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
@@ -4493,7 +4499,7 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4518,16 +4524,16 @@
         <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N42" t="s">
         <v>61</v>
@@ -4541,7 +4547,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4566,19 +4572,19 @@
         <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K43" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N43" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4589,7 +4595,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4614,19 +4620,19 @@
         <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N44" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4662,20 +4668,20 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L45" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4683,7 +4689,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4708,19 +4714,19 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
@@ -4731,7 +4737,7 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4756,19 +4762,19 @@
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="N47" t="s">
         <v>27</v>
@@ -4782,7 +4788,7 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4807,20 +4813,20 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L48" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4828,7 +4834,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4853,20 +4859,20 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4899,19 +4905,19 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K50" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N50" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4922,7 +4928,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4947,19 +4953,19 @@
         <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4970,7 +4976,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -4995,19 +5001,19 @@
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
@@ -5018,7 +5024,7 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -5043,16 +5049,16 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K53" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
@@ -5066,7 +5072,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5091,19 +5097,19 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M54" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="N54" t="s">
         <v>27</v>
@@ -5117,7 +5123,7 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5145,16 +5151,16 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N55" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5165,7 +5171,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5190,19 +5196,19 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N56" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
@@ -5213,7 +5219,7 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5235,22 +5241,22 @@
         <v>5.5</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N57" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
@@ -5261,7 +5267,7 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5286,19 +5292,19 @@
         <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N58" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5334,19 +5340,19 @@
         <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N59" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5354,7 +5360,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5379,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="N60" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
@@ -5402,7 +5408,7 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5427,22 +5433,22 @@
         <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N61" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
@@ -5453,7 +5459,7 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5478,19 +5484,19 @@
         <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N62" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5526,19 +5532,19 @@
         <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N63" t="s">
         <v>63</v>
@@ -5577,13 +5583,13 @@
         <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="K64" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>39</v>
@@ -5625,19 +5631,19 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L65" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -5673,19 +5679,19 @@
         <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
@@ -5724,16 +5730,16 @@
         <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L67" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
@@ -5748,7 +5754,7 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5770,23 +5776,23 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I68" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5794,7 +5800,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5819,19 +5825,19 @@
         <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L69" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
@@ -5842,7 +5848,7 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5867,20 +5873,20 @@
         <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J70">
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5888,7 +5894,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5913,20 +5919,20 @@
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J71">
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5934,7 +5940,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5959,19 +5965,19 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="K72" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s">
         <v>47</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N72" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -5982,7 +5988,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -6007,19 +6013,19 @@
         <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K73" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N73" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -6030,7 +6036,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -6055,22 +6061,22 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N74" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
@@ -6081,7 +6087,7 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6106,22 +6112,22 @@
         <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L75" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N75" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6132,7 +6138,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6157,19 +6163,19 @@
         <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L76" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N76" t="s">
         <v>61</v>
@@ -6183,7 +6189,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6208,22 +6214,22 @@
         <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L77" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N77" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
@@ -6234,7 +6240,7 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6259,19 +6265,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K78" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N78" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6313,10 +6319,10 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L79" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>48</v>
@@ -6361,10 +6367,10 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L80" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>54</v>
@@ -6409,10 +6415,10 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L81" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>56</v>
@@ -6460,10 +6466,10 @@
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L82" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>59</v>
@@ -6504,14 +6510,17 @@
       <c r="H83" t="s">
         <v>29</v>
       </c>
+      <c r="I83" t="s">
+        <v>665</v>
+      </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L83" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>60</v>
@@ -6552,17 +6561,20 @@
       <c r="H84" t="s">
         <v>29</v>
       </c>
+      <c r="I84" t="s">
+        <v>659</v>
+      </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>446</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>50</v>
+        <v>441</v>
+      </c>
+      <c r="L84" t="s">
+        <v>660</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="N84" t="s">
         <v>51</v>
@@ -6604,14 +6616,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L85" t="s">
         <v>62</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6641,16 +6653,19 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>496</v>
+        <v>491</v>
+      </c>
+      <c r="I86" t="s">
+        <v>635</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L86" t="s">
-        <v>65</v>
+        <v>661</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6662,7 +6677,7 @@
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87">
         <v>83</v>
@@ -6684,16 +6699,19 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>496</v>
+        <v>491</v>
+      </c>
+      <c r="I87" t="s">
+        <v>635</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L87" t="s">
-        <v>67</v>
+        <v>662</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6705,7 +6723,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6727,19 +6745,22 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="I88" t="s">
+        <v>659</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>454</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>71</v>
+        <v>449</v>
+      </c>
+      <c r="L88" t="s">
+        <v>663</v>
       </c>
       <c r="N88" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
@@ -6750,7 +6771,7 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6774,20 +6795,23 @@
       <c r="H89" t="s">
         <v>29</v>
       </c>
+      <c r="I89" t="s">
+        <v>664</v>
+      </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>448</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>44</v>
+        <v>443</v>
+      </c>
+      <c r="L89" t="s">
+        <v>651</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="N89" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
@@ -6798,7 +6822,7 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6822,20 +6846,23 @@
       <c r="H90" t="s">
         <v>29</v>
       </c>
+      <c r="I90" t="s">
+        <v>649</v>
+      </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>448</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>44</v>
+        <v>443</v>
+      </c>
+      <c r="L90" t="s">
+        <v>651</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N90" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
@@ -6846,7 +6873,7 @@
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6871,22 +6898,22 @@
         <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>317</v>
+        <v>659</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>446</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>50</v>
+        <v>441</v>
+      </c>
+      <c r="L91" t="s">
+        <v>660</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N91" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
@@ -6897,7 +6924,7 @@
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B92">
         <v>88</v>
@@ -6921,14 +6948,17 @@
       <c r="H92" t="s">
         <v>29</v>
       </c>
+      <c r="I92" t="s">
+        <v>659</v>
+      </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>446</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>50</v>
+        <v>441</v>
+      </c>
+      <c r="L92" t="s">
+        <v>660</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
@@ -6943,7 +6973,7 @@
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B93">
         <v>89</v>
@@ -6965,23 +6995,23 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>70</v>
+        <v>659</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>454</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>71</v>
+        <v>449</v>
+      </c>
+      <c r="L93" t="s">
+        <v>663</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O93">
         <v>-0.31359899654939127</v>
@@ -6992,7 +7022,7 @@
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -7017,22 +7047,22 @@
         <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N94" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
@@ -7043,7 +7073,7 @@
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -7068,22 +7098,22 @@
         <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N95" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -7094,7 +7124,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7122,16 +7152,16 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N96" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -7142,7 +7172,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7167,22 +7197,22 @@
         <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="N97" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7193,7 +7223,7 @@
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B98">
         <v>94</v>
@@ -7215,16 +7245,16 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" t="s">
@@ -7236,7 +7266,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7258,16 +7288,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L99" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7279,7 +7309,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7304,22 +7334,22 @@
         <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="N100" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7330,7 +7360,7 @@
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B101">
         <v>97</v>
@@ -7355,22 +7385,22 @@
         <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J101">
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N101" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O101">
         <v>-1.0573149088805707</v>
@@ -7381,7 +7411,7 @@
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B102">
         <v>98</v>
@@ -7406,22 +7436,22 @@
         <v>29</v>
       </c>
       <c r="I102" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J102">
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N102" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O102">
         <v>-1.881470383782073</v>
@@ -7432,7 +7462,7 @@
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B103">
         <v>99</v>
@@ -7460,16 +7490,16 @@
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="N103" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
@@ -7480,7 +7510,7 @@
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B104">
         <v>100</v>
@@ -7508,14 +7538,14 @@
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7523,7 +7553,7 @@
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B105">
         <v>101</v>
@@ -7545,16 +7575,16 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
@@ -7566,7 +7596,7 @@
     </row>
     <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B106">
         <v>102</v>
@@ -7588,16 +7618,16 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
@@ -7609,7 +7639,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7631,16 +7661,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L107" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7652,7 +7682,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7677,19 +7707,19 @@
         <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K108" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M108" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="M108" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="N108" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7700,7 +7730,7 @@
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -7725,20 +7755,20 @@
         <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O109">
         <v>-0.46973757929284687</v>
@@ -7749,7 +7779,7 @@
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7771,16 +7801,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L110" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7792,7 +7822,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7814,16 +7844,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7835,7 +7865,7 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B112">
         <v>108</v>
@@ -7857,16 +7887,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
@@ -7878,7 +7908,7 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B113">
         <v>109</v>
@@ -7900,22 +7930,22 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="I113" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="N113" t="s">
         <v>27</v>
@@ -7929,7 +7959,7 @@
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -7951,22 +7981,22 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="N114" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
@@ -7977,7 +8007,7 @@
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -7999,16 +8029,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L115" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -8020,7 +8050,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -8042,16 +8072,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
@@ -8063,7 +8093,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -8085,16 +8115,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
@@ -8106,7 +8136,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -8128,16 +8158,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
@@ -8149,7 +8179,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8174,20 +8204,20 @@
         <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O119">
         <v>-0.17337555216106892</v>
@@ -8198,7 +8228,7 @@
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8223,19 +8253,19 @@
         <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L120" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="N120" t="s">
         <v>27</v>
@@ -8249,7 +8279,7 @@
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8274,19 +8304,19 @@
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L121" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="N121" t="s">
         <v>27</v>
@@ -8297,7 +8327,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8319,20 +8349,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L122" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8340,7 +8370,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8365,22 +8395,22 @@
         <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L123" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M123" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="N123" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8388,7 +8418,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8413,22 +8443,22 @@
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M124" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="N124" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8436,7 +8466,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8461,22 +8491,22 @@
         <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N125" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8487,7 +8517,7 @@
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8512,22 +8542,22 @@
         <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L126" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="N126" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8535,7 +8565,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8560,22 +8590,22 @@
         <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L127" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="N127" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8583,7 +8613,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8608,19 +8638,19 @@
         <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N128" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
@@ -8631,7 +8661,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8653,20 +8683,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L129" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8674,7 +8704,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8699,19 +8729,19 @@
         <v>29</v>
       </c>
       <c r="I130" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K130" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N130" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
@@ -8722,7 +8752,7 @@
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8747,22 +8777,22 @@
         <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="N131" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
@@ -8773,7 +8803,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8798,20 +8828,20 @@
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L132" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8819,7 +8849,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8844,19 +8874,19 @@
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L133" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M133" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="N133" t="s">
         <v>27</v>
@@ -8870,7 +8900,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8895,19 +8925,19 @@
         <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L134" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M134" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N134" t="s">
         <v>27</v>
@@ -8921,7 +8951,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8946,19 +8976,19 @@
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L135" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M135" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="N135" t="s">
         <v>27</v>
@@ -8972,7 +9002,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -8997,19 +9027,19 @@
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L136" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M136" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="N136" t="s">
         <v>27</v>
@@ -9023,7 +9053,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -9045,20 +9075,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L137" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -9066,7 +9096,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -9091,19 +9121,19 @@
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L138" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="N138" t="s">
         <v>27</v>
@@ -9117,7 +9147,7 @@
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -9142,19 +9172,19 @@
         <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L139" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="N139" t="s">
         <v>27</v>
@@ -9168,7 +9198,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9193,19 +9223,19 @@
         <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="N140" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
@@ -9216,7 +9246,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9238,14 +9268,14 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L141" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
@@ -9256,7 +9286,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9284,13 +9314,13 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L142" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M142" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="N142" t="s">
         <v>27</v>
@@ -9304,7 +9334,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9332,13 +9362,13 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L143" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M143" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="N143" t="s">
         <v>27</v>
@@ -9352,7 +9382,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9377,22 +9407,22 @@
         <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N144" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9403,7 +9433,7 @@
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9431,13 +9461,13 @@
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L145" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="N145" t="s">
         <v>27</v>
@@ -9451,7 +9481,7 @@
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9479,13 +9509,13 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L146" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="N146" t="s">
         <v>27</v>
@@ -9499,7 +9529,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9521,16 +9551,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L147" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9542,7 +9572,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9570,10 +9600,10 @@
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L148" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
@@ -9585,7 +9615,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9613,10 +9643,10 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L149" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
@@ -9628,7 +9658,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9656,13 +9686,13 @@
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L150" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M150" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="N150" t="s">
         <v>27</v>
@@ -9676,7 +9706,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9701,16 +9731,16 @@
         <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N151" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9721,7 +9751,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9746,16 +9776,16 @@
         <v>29</v>
       </c>
       <c r="K152" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N152" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9766,7 +9796,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9794,13 +9824,13 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L153" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="N153" t="s">
         <v>27</v>
@@ -9814,7 +9844,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9842,14 +9872,14 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L154" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9857,7 +9887,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9882,22 +9912,22 @@
         <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="N155" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -9908,7 +9938,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9933,16 +9963,16 @@
         <v>29</v>
       </c>
       <c r="K156" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L156" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="N156" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -9953,7 +9983,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -9978,19 +10008,19 @@
         <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K157" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L157" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N157" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -10001,7 +10031,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -10029,16 +10059,16 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L158" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="N158" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -10046,7 +10076,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -10074,13 +10104,13 @@
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L159" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="N159" t="s">
         <v>27</v>
@@ -10091,7 +10121,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10119,13 +10149,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L160" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N160" t="s">
         <v>27</v>
@@ -10136,7 +10166,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10164,13 +10194,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L161" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="N161" t="s">
         <v>27</v>
@@ -10181,7 +10211,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10209,10 +10239,10 @@
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L162" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
@@ -10224,7 +10254,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10246,14 +10276,14 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L163" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
@@ -10264,7 +10294,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10289,16 +10319,16 @@
         <v>29</v>
       </c>
       <c r="I164" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N164" t="s">
         <v>27</v>
@@ -10309,7 +10339,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10334,19 +10364,19 @@
         <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K165" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N165" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10357,7 +10387,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10382,16 +10412,16 @@
         <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N166" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10402,7 +10432,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10427,16 +10457,16 @@
         <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="N167" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10447,7 +10477,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10472,16 +10502,16 @@
         <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N168" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10492,7 +10522,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10517,16 +10547,16 @@
         <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="N169" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10537,7 +10567,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10562,19 +10592,19 @@
         <v>29</v>
       </c>
       <c r="I170" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K170" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N170" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
@@ -10585,7 +10615,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10610,19 +10640,19 @@
         <v>29</v>
       </c>
       <c r="I171" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K171" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L171" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M171" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M171" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="N171" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
@@ -10633,7 +10663,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10658,22 +10688,22 @@
         <v>29</v>
       </c>
       <c r="I172" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="N172" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
@@ -10684,7 +10714,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10712,14 +10742,14 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L173" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
@@ -10730,7 +10760,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10755,19 +10785,19 @@
         <v>29</v>
       </c>
       <c r="I174" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K174" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="N174" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10778,7 +10808,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10803,19 +10833,19 @@
         <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K175" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N175" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
@@ -10826,7 +10856,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10848,16 +10878,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L176" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -10869,7 +10899,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10891,20 +10921,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L177" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10912,7 +10942,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10937,20 +10967,20 @@
         <v>29</v>
       </c>
       <c r="I178" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O178">
         <v>-1.3420167407453789</v>
@@ -10961,7 +10991,7 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -10989,10 +11019,10 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
@@ -11004,7 +11034,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -11032,13 +11062,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="N180" t="s">
         <v>27</v>
@@ -11049,7 +11079,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -11074,20 +11104,20 @@
         <v>29</v>
       </c>
       <c r="I181" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O181">
         <v>-1.4760834690352951</v>
@@ -11098,7 +11128,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11126,10 +11156,10 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L182" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
@@ -11141,7 +11171,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11169,13 +11199,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="N183" t="s">
         <v>27</v>
@@ -11189,7 +11219,7 @@
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11217,13 +11247,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="N184" t="s">
         <v>27</v>
@@ -11237,7 +11267,7 @@
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11265,13 +11295,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="N185" t="s">
         <v>27</v>
@@ -11285,7 +11315,7 @@
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11313,13 +11343,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="N186" t="s">
         <v>27</v>
@@ -11333,7 +11363,7 @@
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11361,13 +11391,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="N187" t="s">
         <v>27</v>
@@ -11381,7 +11411,7 @@
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11409,13 +11439,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="N188" t="s">
         <v>27</v>
@@ -11429,7 +11459,7 @@
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11457,13 +11487,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="N189" t="s">
         <v>27</v>
@@ -11477,7 +11507,7 @@
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11505,13 +11535,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="N190" t="s">
         <v>27</v>
@@ -11525,7 +11555,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11553,13 +11583,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L191" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M191" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="N191" t="s">
         <v>27</v>
@@ -11573,7 +11603,7 @@
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11601,13 +11631,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="N192" t="s">
         <v>27</v>
@@ -11621,7 +11651,7 @@
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11649,13 +11679,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="N193" t="s">
         <v>27</v>
@@ -11669,7 +11699,7 @@
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11697,13 +11727,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="N194" t="s">
         <v>27</v>
@@ -11717,7 +11747,7 @@
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11745,10 +11775,10 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
@@ -11760,7 +11790,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11788,13 +11818,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="N196" t="s">
         <v>27</v>
@@ -11808,7 +11838,7 @@
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11836,14 +11866,14 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
@@ -11854,7 +11884,7 @@
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11882,13 +11912,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="N198" t="s">
         <v>27</v>
@@ -11902,7 +11932,7 @@
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11930,13 +11960,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="N199" t="s">
         <v>27</v>
@@ -11950,7 +11980,7 @@
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -11975,20 +12005,20 @@
         <v>29</v>
       </c>
       <c r="I200" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O200">
         <v>-1.2129766276880645</v>
@@ -11999,7 +12029,7 @@
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -12027,13 +12057,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L201" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="N201" t="s">
         <v>27</v>
@@ -12044,7 +12074,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -12072,13 +12102,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L202" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N202" t="s">
         <v>27</v>
@@ -12089,7 +12119,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12117,13 +12147,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L203" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="N203" t="s">
         <v>27</v>
@@ -12134,7 +12164,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12162,13 +12192,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L204" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="N204" t="s">
         <v>27</v>
@@ -12179,7 +12209,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12207,13 +12237,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L205" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="N205" t="s">
         <v>27</v>
@@ -12224,7 +12254,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12249,20 +12279,20 @@
         <v>29</v>
       </c>
       <c r="I206" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
@@ -12273,7 +12303,7 @@
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12298,16 +12328,16 @@
         <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N207" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12318,7 +12348,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12343,20 +12373,20 @@
         <v>29</v>
       </c>
       <c r="I208" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
@@ -12367,7 +12397,7 @@
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12395,10 +12425,10 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L209" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
@@ -12410,7 +12440,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12435,19 +12465,19 @@
         <v>25</v>
       </c>
       <c r="I210" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L210" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="N210" t="s">
         <v>27</v>
@@ -12461,7 +12491,7 @@
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12486,19 +12516,19 @@
         <v>25</v>
       </c>
       <c r="I211" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L211" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="N211" t="s">
         <v>27</v>
@@ -12512,7 +12542,7 @@
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12540,16 +12570,16 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L212" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="N212" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
@@ -12560,7 +12590,7 @@
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12585,20 +12615,20 @@
         <v>29</v>
       </c>
       <c r="I213" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
@@ -12609,7 +12639,7 @@
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12637,10 +12667,10 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L214" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
@@ -12652,7 +12682,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12680,13 +12710,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L215" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N215" t="s">
         <v>27</v>
@@ -12700,7 +12730,7 @@
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12725,19 +12755,19 @@
         <v>29</v>
       </c>
       <c r="I216" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N216" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
@@ -12748,7 +12778,7 @@
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12773,19 +12803,19 @@
         <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N217" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
@@ -12796,7 +12826,7 @@
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12824,13 +12854,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L218" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="N218" t="s">
         <v>27</v>
@@ -12844,7 +12874,7 @@
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12872,13 +12902,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L219" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N219" t="s">
         <v>27</v>
@@ -12892,7 +12922,7 @@
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12920,13 +12950,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L220" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N220" t="s">
         <v>27</v>
@@ -12940,7 +12970,7 @@
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -12968,13 +12998,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L221" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="N221" t="s">
         <v>27</v>
@@ -12988,7 +13018,7 @@
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -13010,20 +13040,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L222" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -13031,7 +13061,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -13056,19 +13086,19 @@
         <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K223" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N223" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -13079,7 +13109,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13104,19 +13134,19 @@
         <v>29</v>
       </c>
       <c r="I224" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K224" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="N224" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -13127,7 +13157,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13152,19 +13182,19 @@
         <v>29</v>
       </c>
       <c r="I225" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K225" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M225" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N225" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
@@ -13175,7 +13205,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13200,19 +13230,19 @@
         <v>29</v>
       </c>
       <c r="I226" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K226" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L226" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M226" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M226" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="N226" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
@@ -13223,7 +13253,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13248,20 +13278,20 @@
         <v>29</v>
       </c>
       <c r="I227" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
@@ -13272,7 +13302,7 @@
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13297,19 +13327,19 @@
         <v>29</v>
       </c>
       <c r="I228" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K228" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N228" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13320,7 +13350,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13348,13 +13378,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L229" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="N229" t="s">
         <v>27</v>
@@ -13368,7 +13398,7 @@
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13396,13 +13426,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L230" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="N230" t="s">
         <v>27</v>
@@ -13416,7 +13446,7 @@
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13444,13 +13474,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L231" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N231" t="s">
         <v>27</v>
@@ -13464,7 +13494,7 @@
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13492,13 +13522,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L232" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N232" t="s">
         <v>27</v>
@@ -13512,7 +13542,7 @@
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13540,13 +13570,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L233" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N233" t="s">
         <v>27</v>
@@ -13560,7 +13590,7 @@
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13588,13 +13618,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L234" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="N234" t="s">
         <v>27</v>
@@ -13608,7 +13638,7 @@
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13636,13 +13666,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L235" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="N235" t="s">
         <v>27</v>
@@ -13656,7 +13686,7 @@
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13684,13 +13714,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L236" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N236" t="s">
         <v>27</v>
@@ -13704,7 +13734,7 @@
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13732,13 +13762,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L237" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="N237" t="s">
         <v>27</v>
@@ -13752,7 +13782,7 @@
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13780,13 +13810,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L238" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N238" t="s">
         <v>27</v>
@@ -13850,30 +13880,26 @@
     <hyperlink ref="L217" r:id="rId48" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
     <hyperlink ref="L227" r:id="rId49" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
     <hyperlink ref="L124:L127" r:id="rId50" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
-    <hyperlink ref="L88" r:id="rId51" xr:uid="{EFABE6D7-E87F-4C57-9D13-D62090F8765C}"/>
-    <hyperlink ref="L227:L228" r:id="rId52" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
-    <hyperlink ref="L208" r:id="rId53" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
-    <hyperlink ref="L131" r:id="rId54" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
-    <hyperlink ref="L172" r:id="rId55" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
-    <hyperlink ref="L175" r:id="rId56" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
-    <hyperlink ref="L40" r:id="rId57" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
-    <hyperlink ref="L84" r:id="rId58" xr:uid="{BC9A1581-C3DE-BF43-AD9A-168F71E7D050}"/>
-    <hyperlink ref="L92" r:id="rId59" xr:uid="{AD8F2636-38D2-4B4C-AC56-5ACA05EEB1A3}"/>
-    <hyperlink ref="L93" r:id="rId60" xr:uid="{6EC6F34D-ACAC-EA47-875D-32E161FD497E}"/>
-    <hyperlink ref="L159:L166" r:id="rId61" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
-    <hyperlink ref="L187:L207" r:id="rId62" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
-    <hyperlink ref="L130" r:id="rId63" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
-    <hyperlink ref="L170" r:id="rId64" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
-    <hyperlink ref="L171" r:id="rId65" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
-    <hyperlink ref="L206" r:id="rId66" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
-    <hyperlink ref="L213" r:id="rId67" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
-    <hyperlink ref="L155" r:id="rId68" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
-    <hyperlink ref="L123" r:id="rId69" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
-    <hyperlink ref="L126" r:id="rId70" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
+    <hyperlink ref="L227:L228" r:id="rId51" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
+    <hyperlink ref="L208" r:id="rId52" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
+    <hyperlink ref="L131" r:id="rId53" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
+    <hyperlink ref="L172" r:id="rId54" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
+    <hyperlink ref="L175" r:id="rId55" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
+    <hyperlink ref="L40" r:id="rId56" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
+    <hyperlink ref="L159:L166" r:id="rId57" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
+    <hyperlink ref="L187:L207" r:id="rId58" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
+    <hyperlink ref="L130" r:id="rId59" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
+    <hyperlink ref="L170" r:id="rId60" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
+    <hyperlink ref="L171" r:id="rId61" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
+    <hyperlink ref="L206" r:id="rId62" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
+    <hyperlink ref="L213" r:id="rId63" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
+    <hyperlink ref="L155" r:id="rId64" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
+    <hyperlink ref="L123" r:id="rId65" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
+    <hyperlink ref="L126" r:id="rId66" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId71"/>
+    <tablePart r:id="rId67"/>
   </tableParts>
 </worksheet>
 </file>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A521E6FA-F82B-0344-9154-9397E035060E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E80EA7-63D9-E946-BAD8-0069DAF25A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="667">
   <si>
     <t>Isotope</t>
   </si>
@@ -289,9 +289,6 @@
     <t>76Ge</t>
   </si>
   <si>
-    <t>A. Spyrou et al. PRL 113, 232502 (2014)</t>
-  </si>
-  <si>
     <t>Accepted/NLD_32_76_1.csv</t>
   </si>
   <si>
@@ -2048,6 +2045,12 @@
   </si>
   <si>
     <t>7Li,p</t>
+  </si>
+  <si>
+    <t>U.K. Pal et al. J Phys. G 25, 1671 (1999)</t>
+  </si>
+  <si>
+    <t>A. Spyrou et al. Phys. Rev. Lett 113, 232502 (2014)</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2124,6 +2127,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2505,9 +2509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I96" sqref="I96"/>
+      <selection pane="topRight" activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2533,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -2542,10 +2546,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>488</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -2560,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>7</v>
@@ -2580,7 +2584,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2605,19 +2609,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2631,7 +2635,7 @@
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2656,20 +2660,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2702,19 +2706,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2750,19 +2754,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2773,7 +2777,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2798,16 +2802,16 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2819,7 +2823,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2844,19 +2848,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2867,7 +2871,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2892,20 +2896,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2913,7 +2917,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2938,19 +2942,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -2986,19 +2990,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -3009,7 +3013,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3034,19 +3038,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3057,7 +3061,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3082,19 +3086,19 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
@@ -3105,7 +3109,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3133,14 +3137,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3148,7 +3152,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3176,14 +3180,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3191,7 +3195,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3216,22 +3220,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3239,7 +3243,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3264,22 +3268,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3287,7 +3291,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3312,22 +3316,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3335,7 +3339,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3357,19 +3361,19 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3381,7 +3385,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3403,23 +3407,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3427,7 +3431,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3452,22 +3456,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3475,7 +3479,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3500,19 +3504,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3526,7 +3530,7 @@
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3551,19 +3555,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N22" t="s">
         <v>234</v>
-      </c>
-      <c r="N22" t="s">
-        <v>235</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
@@ -3574,7 +3578,7 @@
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3599,19 +3603,19 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
@@ -3625,7 +3629,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3650,19 +3654,19 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
@@ -3701,16 +3705,16 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
@@ -3722,7 +3726,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3747,20 +3751,20 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3768,7 +3772,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3793,19 +3797,19 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N27" t="s">
         <v>27</v>
@@ -3819,7 +3823,7 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3844,16 +3848,16 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28">
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3865,7 +3869,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3890,19 +3894,19 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N29" t="s">
         <v>27</v>
@@ -3916,7 +3920,7 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3941,22 +3945,22 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
@@ -3989,25 +3993,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -4037,25 +4041,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4063,7 +4067,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4088,16 +4092,16 @@
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="N33" t="s">
         <v>61</v>
@@ -4111,7 +4115,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4136,16 +4140,16 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
@@ -4159,7 +4163,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4184,16 +4188,16 @@
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
@@ -4207,7 +4211,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4232,19 +4236,19 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N36" t="s">
         <v>27</v>
@@ -4283,19 +4287,19 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L37" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -4309,7 +4313,7 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4334,16 +4338,16 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" t="s">
+        <v>436</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K38" t="s">
-        <v>437</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="N38" t="s">
         <v>61</v>
@@ -4357,7 +4361,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4382,20 +4386,20 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J39">
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4431,7 +4435,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
@@ -4451,7 +4455,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4476,19 +4480,19 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" t="s">
+        <v>438</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="K41" t="s">
-        <v>439</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="M41" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="N41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
@@ -4499,7 +4503,7 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4524,16 +4528,16 @@
         <v>29</v>
       </c>
       <c r="I42" t="s">
+        <v>263</v>
+      </c>
+      <c r="K42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="K42" t="s">
-        <v>436</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="N42" t="s">
         <v>61</v>
@@ -4547,7 +4551,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4572,19 +4576,19 @@
         <v>29</v>
       </c>
       <c r="I43" t="s">
+        <v>258</v>
+      </c>
+      <c r="K43" t="s">
+        <v>438</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K43" t="s">
-        <v>439</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="M43" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4595,7 +4599,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4620,19 +4624,19 @@
         <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4668,20 +4672,20 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4689,7 +4693,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4714,19 +4718,19 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
@@ -4737,7 +4741,7 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4762,19 +4766,19 @@
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N47" t="s">
         <v>27</v>
@@ -4788,7 +4792,7 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4813,20 +4817,20 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L48" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4834,7 +4838,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4859,20 +4863,20 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4880,7 +4884,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4905,19 +4909,19 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" t="s">
+        <v>438</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K50" t="s">
-        <v>439</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="M50" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4928,7 +4932,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4953,19 +4957,19 @@
         <v>29</v>
       </c>
       <c r="I51" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" t="s">
+        <v>438</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K51" t="s">
-        <v>439</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="M51" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4976,7 +4980,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -5001,19 +5005,19 @@
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
@@ -5024,7 +5028,7 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -5049,16 +5053,16 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
@@ -5072,7 +5076,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5097,19 +5101,19 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N54" t="s">
         <v>27</v>
@@ -5123,7 +5127,7 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5151,16 +5155,16 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N55" t="s">
         <v>277</v>
-      </c>
-      <c r="N55" t="s">
-        <v>278</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5171,7 +5175,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5196,19 +5200,19 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
@@ -5219,7 +5223,7 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5244,19 +5248,19 @@
         <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
@@ -5267,7 +5271,7 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5292,19 +5296,19 @@
         <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
@@ -5315,7 +5319,7 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5340,19 +5344,19 @@
         <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5360,7 +5364,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5385,19 +5389,19 @@
         <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
@@ -5408,7 +5412,7 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5433,22 +5437,22 @@
         <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L61" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="N61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
@@ -5459,7 +5463,7 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5484,19 +5488,19 @@
         <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
@@ -5507,7 +5511,7 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5532,19 +5536,19 @@
         <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N63" t="s">
         <v>63</v>
@@ -5583,13 +5587,13 @@
         <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>39</v>
@@ -5631,19 +5635,19 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -5679,19 +5683,19 @@
         <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
@@ -5730,16 +5734,16 @@
         <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
@@ -5754,7 +5758,7 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5776,23 +5780,23 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I68" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L68" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5800,7 +5804,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5825,19 +5829,19 @@
         <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
@@ -5848,7 +5852,7 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5873,20 +5877,20 @@
         <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J70">
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5894,7 +5898,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5919,20 +5923,20 @@
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J71">
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L71" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5940,7 +5944,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5965,19 +5969,19 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L72" t="s">
         <v>47</v>
       </c>
       <c r="M72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N72" t="s">
         <v>296</v>
-      </c>
-      <c r="N72" t="s">
-        <v>297</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -5988,7 +5992,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -6013,19 +6017,19 @@
         <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L73" t="s">
+        <v>297</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" t="s">
         <v>299</v>
-      </c>
-      <c r="N73" t="s">
-        <v>300</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -6061,22 +6065,22 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
@@ -6087,7 +6091,7 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6112,22 +6116,22 @@
         <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L75" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6138,7 +6142,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6163,19 +6167,19 @@
         <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L76" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N76" t="s">
         <v>61</v>
@@ -6189,7 +6193,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6214,22 +6218,22 @@
         <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L77" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
@@ -6240,7 +6244,7 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6265,19 +6269,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L78" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="N78" t="s">
         <v>308</v>
-      </c>
-      <c r="N78" t="s">
-        <v>309</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6319,10 +6323,10 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L79" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>48</v>
@@ -6367,10 +6371,10 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L80" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>54</v>
@@ -6415,10 +6419,10 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>56</v>
@@ -6466,10 +6470,10 @@
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L82" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>59</v>
@@ -6511,16 +6515,16 @@
         <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>60</v>
@@ -6562,19 +6566,19 @@
         <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L84" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N84" t="s">
         <v>51</v>
@@ -6616,14 +6620,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L85" t="s">
         <v>62</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6653,19 +6657,19 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I86" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6699,19 +6703,19 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I87" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L87" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6723,7 +6727,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6748,19 +6752,19 @@
         <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L88" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
@@ -6771,7 +6775,7 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6796,22 +6800,22 @@
         <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L89" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N89" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
@@ -6822,7 +6826,7 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6847,22 +6851,22 @@
         <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L90" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
@@ -6873,7 +6877,7 @@
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6898,22 +6902,22 @@
         <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L91" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
@@ -6949,16 +6953,16 @@
         <v>29</v>
       </c>
       <c r="I92" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L92" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
@@ -6998,16 +7002,16 @@
         <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L93" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
@@ -7022,7 +7026,7 @@
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -7047,22 +7051,22 @@
         <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="N94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
@@ -7073,7 +7077,7 @@
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -7098,22 +7102,22 @@
         <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" t="s">
         <v>321</v>
-      </c>
-      <c r="N95" t="s">
-        <v>322</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -7124,7 +7128,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7148,20 +7152,23 @@
       <c r="H96" t="s">
         <v>29</v>
       </c>
+      <c r="I96" t="s">
+        <v>664</v>
+      </c>
       <c r="J96">
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>443</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>44</v>
+        <v>442</v>
+      </c>
+      <c r="L96" t="s">
+        <v>650</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="N96" t="s">
         <v>323</v>
-      </c>
-      <c r="N96" t="s">
-        <v>324</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -7172,7 +7179,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7197,22 +7204,22 @@
         <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>439</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>320</v>
+        <v>438</v>
+      </c>
+      <c r="L97" t="s">
+        <v>319</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7245,13 +7252,16 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="I98" t="s">
+        <v>634</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L98" t="s">
         <v>70</v>
@@ -7266,7 +7276,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7288,16 +7298,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L99" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7309,7 +7319,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7334,22 +7344,22 @@
         <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>453</v>
-      </c>
-      <c r="L100" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L100" t="s">
+        <v>665</v>
+      </c>
+      <c r="M100" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="N100" t="s">
         <v>332</v>
-      </c>
-      <c r="N100" t="s">
-        <v>333</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7391,9 +7401,9 @@
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>431</v>
-      </c>
-      <c r="L101" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L101" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M101" s="4" t="s">
@@ -7442,13 +7452,13 @@
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>431</v>
-      </c>
-      <c r="L102" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L102" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N102" t="s">
         <v>77</v>
@@ -7486,20 +7496,23 @@
       <c r="H103" t="s">
         <v>25</v>
       </c>
+      <c r="I103" t="s">
+        <v>497</v>
+      </c>
       <c r="J103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L103" t="s">
         <v>72</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
@@ -7534,18 +7547,21 @@
       <c r="H104" t="s">
         <v>25</v>
       </c>
+      <c r="I104" t="s">
+        <v>499</v>
+      </c>
       <c r="J104">
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>454</v>
-      </c>
-      <c r="L104" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="L104" s="9" t="s">
         <v>72</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7575,16 +7591,19 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="I105" t="s">
+        <v>634</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>448</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>79</v>
+        <v>447</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>666</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
@@ -7618,16 +7637,16 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
@@ -7639,7 +7658,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7661,16 +7680,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L107" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7682,7 +7701,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7707,19 +7726,19 @@
         <v>29</v>
       </c>
       <c r="I108" t="s">
+        <v>329</v>
+      </c>
+      <c r="K108" t="s">
+        <v>452</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K108" t="s">
-        <v>453</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="M108" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7730,7 +7749,7 @@
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109">
         <v>105</v>
@@ -7755,20 +7774,20 @@
         <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O109">
         <v>-0.46973757929284687</v>
@@ -7779,7 +7798,7 @@
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7801,16 +7820,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7822,7 +7841,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7844,16 +7863,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L111" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7865,7 +7884,7 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112">
         <v>108</v>
@@ -7887,16 +7906,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
@@ -7908,7 +7927,7 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113">
         <v>109</v>
@@ -7930,22 +7949,22 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I113" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N113" t="s">
         <v>27</v>
@@ -7959,7 +7978,7 @@
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -7981,22 +8000,22 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M114" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="N114" t="s">
         <v>534</v>
-      </c>
-      <c r="N114" t="s">
-        <v>535</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
@@ -8007,7 +8026,7 @@
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -8029,16 +8048,16 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L115" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -8050,7 +8069,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -8072,16 +8091,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
@@ -8093,7 +8112,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -8115,16 +8134,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
@@ -8136,7 +8155,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -8158,16 +8177,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
@@ -8179,7 +8198,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8204,20 +8223,20 @@
         <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O119">
         <v>-0.17337555216106892</v>
@@ -8228,7 +8247,7 @@
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8253,19 +8272,19 @@
         <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N120" t="s">
         <v>27</v>
@@ -8279,7 +8298,7 @@
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8304,19 +8323,19 @@
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N121" t="s">
         <v>27</v>
@@ -8327,7 +8346,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8349,20 +8368,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8370,7 +8389,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8395,22 +8414,22 @@
         <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M123" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N123" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8418,7 +8437,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8443,22 +8462,22 @@
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M124" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N124" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8466,7 +8485,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8491,22 +8510,22 @@
         <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L125" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M125" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="N125" t="s">
         <v>342</v>
-      </c>
-      <c r="N125" t="s">
-        <v>343</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8517,7 +8536,7 @@
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8542,22 +8561,22 @@
         <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N126" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8565,7 +8584,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8590,22 +8609,22 @@
         <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N127" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8613,7 +8632,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8638,19 +8657,19 @@
         <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N128" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
@@ -8661,7 +8680,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8683,20 +8702,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L129" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8704,7 +8723,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8729,19 +8748,19 @@
         <v>29</v>
       </c>
       <c r="I130" t="s">
+        <v>100</v>
+      </c>
+      <c r="K130" t="s">
+        <v>435</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K130" t="s">
-        <v>436</v>
-      </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="N130" t="s">
         <v>103</v>
-      </c>
-      <c r="N130" t="s">
-        <v>104</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
@@ -8752,7 +8771,7 @@
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8777,22 +8796,22 @@
         <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L131" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="N131" t="s">
         <v>105</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="N131" t="s">
-        <v>106</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
@@ -8803,7 +8822,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8828,20 +8847,20 @@
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L132" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8849,7 +8868,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8874,19 +8893,19 @@
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M133" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N133" t="s">
         <v>27</v>
@@ -8900,7 +8919,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8925,19 +8944,19 @@
         <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M134" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N134" t="s">
         <v>27</v>
@@ -8951,7 +8970,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8976,19 +8995,19 @@
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M135" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N135" t="s">
         <v>27</v>
@@ -9002,7 +9021,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -9027,19 +9046,19 @@
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M136" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N136" t="s">
         <v>27</v>
@@ -9053,7 +9072,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -9075,20 +9094,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -9096,7 +9115,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -9121,19 +9140,19 @@
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N138" t="s">
         <v>27</v>
@@ -9147,7 +9166,7 @@
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -9172,19 +9191,19 @@
         <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N139" t="s">
         <v>27</v>
@@ -9198,7 +9217,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9223,19 +9242,19 @@
         <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L140" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N140" t="s">
         <v>356</v>
-      </c>
-      <c r="N140" t="s">
-        <v>357</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
@@ -9246,7 +9265,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9268,14 +9287,14 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
@@ -9286,7 +9305,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9314,13 +9333,13 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M142" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N142" t="s">
         <v>27</v>
@@ -9334,7 +9353,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9362,13 +9381,13 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M143" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N143" t="s">
         <v>27</v>
@@ -9382,7 +9401,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9407,22 +9426,22 @@
         <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L144" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M144" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M144" s="2" t="s">
+      <c r="N144" t="s">
         <v>362</v>
-      </c>
-      <c r="N144" t="s">
-        <v>363</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9433,7 +9452,7 @@
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9461,13 +9480,13 @@
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N145" t="s">
         <v>27</v>
@@ -9481,7 +9500,7 @@
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9509,13 +9528,13 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N146" t="s">
         <v>27</v>
@@ -9529,7 +9548,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9551,16 +9570,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9572,7 +9591,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9600,10 +9619,10 @@
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L148" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
@@ -9615,7 +9634,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9643,10 +9662,10 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L149" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
@@ -9658,7 +9677,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9686,13 +9705,13 @@
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L150" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M150" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N150" t="s">
         <v>27</v>
@@ -9706,7 +9725,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9731,16 +9750,16 @@
         <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M151" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N151" t="s">
         <v>371</v>
-      </c>
-      <c r="N151" t="s">
-        <v>372</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9751,7 +9770,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9776,16 +9795,16 @@
         <v>29</v>
       </c>
       <c r="K152" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N152" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9796,7 +9815,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9824,13 +9843,13 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L153" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N153" t="s">
         <v>27</v>
@@ -9844,7 +9863,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9872,14 +9891,14 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9887,7 +9906,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9912,22 +9931,22 @@
         <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N155" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -9938,7 +9957,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9963,16 +9982,16 @@
         <v>29</v>
       </c>
       <c r="K156" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L156" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N156" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -9983,7 +10002,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -10008,19 +10027,19 @@
         <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K157" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L157" t="s">
+        <v>379</v>
+      </c>
+      <c r="M157" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="M157" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="N157" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -10031,7 +10050,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -10059,16 +10078,16 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -10076,7 +10095,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -10104,13 +10123,13 @@
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L159" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N159" t="s">
         <v>27</v>
@@ -10121,7 +10140,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10149,13 +10168,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L160" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N160" t="s">
         <v>27</v>
@@ -10166,7 +10185,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10194,13 +10213,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N161" t="s">
         <v>27</v>
@@ -10211,7 +10230,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10239,10 +10258,10 @@
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
@@ -10254,7 +10273,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10276,14 +10295,14 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L163" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
@@ -10294,7 +10313,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10319,16 +10338,16 @@
         <v>29</v>
       </c>
       <c r="I164" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N164" t="s">
         <v>27</v>
@@ -10339,7 +10358,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10364,19 +10383,19 @@
         <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K165" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M165" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N165" t="s">
         <v>384</v>
-      </c>
-      <c r="N165" t="s">
-        <v>385</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10387,7 +10406,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10412,16 +10431,16 @@
         <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N166" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10432,7 +10451,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10457,16 +10476,16 @@
         <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N167" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10477,7 +10496,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10502,16 +10521,16 @@
         <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N168" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10522,7 +10541,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10547,16 +10566,16 @@
         <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N169" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10567,7 +10586,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10592,19 +10611,19 @@
         <v>29</v>
       </c>
       <c r="I170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K170" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M170" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="N170" t="s">
         <v>127</v>
-      </c>
-      <c r="N170" t="s">
-        <v>128</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
@@ -10615,7 +10634,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10640,19 +10659,19 @@
         <v>29</v>
       </c>
       <c r="I171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K171" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N171" t="s">
         <v>130</v>
-      </c>
-      <c r="N171" t="s">
-        <v>131</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
@@ -10663,7 +10682,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10688,22 +10707,22 @@
         <v>29</v>
       </c>
       <c r="I172" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="N172" t="s">
         <v>105</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="N172" t="s">
-        <v>106</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
@@ -10714,7 +10733,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10742,14 +10761,14 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L173" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
@@ -10760,7 +10779,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10785,19 +10804,19 @@
         <v>29</v>
       </c>
       <c r="I174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K174" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M174" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="N174" t="s">
         <v>398</v>
-      </c>
-      <c r="N174" t="s">
-        <v>399</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10808,7 +10827,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10833,19 +10852,19 @@
         <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K175" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M175" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N175" t="s">
         <v>133</v>
-      </c>
-      <c r="N175" t="s">
-        <v>134</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
@@ -10856,7 +10875,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10878,16 +10897,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L176" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -10899,7 +10918,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10921,20 +10940,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L177" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10942,7 +10961,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10967,20 +10986,20 @@
         <v>29</v>
       </c>
       <c r="I178" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O178">
         <v>-1.3420167407453789</v>
@@ -10991,7 +11010,7 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -11019,10 +11038,10 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
@@ -11034,7 +11053,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -11062,13 +11081,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N180" t="s">
         <v>27</v>
@@ -11079,7 +11098,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -11104,20 +11123,20 @@
         <v>29</v>
       </c>
       <c r="I181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O181">
         <v>-1.4760834690352951</v>
@@ -11128,7 +11147,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11156,10 +11175,10 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L182" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
@@ -11171,7 +11190,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11199,13 +11218,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N183" t="s">
         <v>27</v>
@@ -11219,7 +11238,7 @@
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11247,13 +11266,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N184" t="s">
         <v>27</v>
@@ -11267,7 +11286,7 @@
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11295,13 +11314,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N185" t="s">
         <v>27</v>
@@ -11315,7 +11334,7 @@
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11343,13 +11362,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N186" t="s">
         <v>27</v>
@@ -11363,7 +11382,7 @@
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11391,13 +11410,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N187" t="s">
         <v>27</v>
@@ -11411,7 +11430,7 @@
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11439,13 +11458,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N188" t="s">
         <v>27</v>
@@ -11459,7 +11478,7 @@
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11487,13 +11506,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N189" t="s">
         <v>27</v>
@@ -11507,7 +11526,7 @@
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11535,13 +11554,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N190" t="s">
         <v>27</v>
@@ -11555,7 +11574,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11583,13 +11602,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M191" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N191" t="s">
         <v>27</v>
@@ -11603,7 +11622,7 @@
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11631,13 +11650,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N192" t="s">
         <v>27</v>
@@ -11651,7 +11670,7 @@
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11679,13 +11698,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N193" t="s">
         <v>27</v>
@@ -11699,7 +11718,7 @@
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11727,13 +11746,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N194" t="s">
         <v>27</v>
@@ -11747,7 +11766,7 @@
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11775,10 +11794,10 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
@@ -11790,7 +11809,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11818,13 +11837,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N196" t="s">
         <v>27</v>
@@ -11838,7 +11857,7 @@
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11866,14 +11885,14 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
@@ -11884,7 +11903,7 @@
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11912,13 +11931,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N198" t="s">
         <v>27</v>
@@ -11932,7 +11951,7 @@
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11960,13 +11979,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N199" t="s">
         <v>27</v>
@@ -11980,7 +11999,7 @@
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -12005,20 +12024,20 @@
         <v>29</v>
       </c>
       <c r="I200" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O200">
         <v>-1.2129766276880645</v>
@@ -12029,7 +12048,7 @@
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -12057,13 +12076,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L201" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N201" t="s">
         <v>27</v>
@@ -12074,7 +12093,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -12102,13 +12121,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L202" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N202" t="s">
         <v>27</v>
@@ -12119,7 +12138,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12147,13 +12166,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N203" t="s">
         <v>27</v>
@@ -12164,7 +12183,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12192,13 +12211,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N204" t="s">
         <v>27</v>
@@ -12209,7 +12228,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12237,13 +12256,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L205" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N205" t="s">
         <v>27</v>
@@ -12254,7 +12273,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12279,20 +12298,20 @@
         <v>29</v>
       </c>
       <c r="I206" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
@@ -12303,7 +12322,7 @@
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12328,16 +12347,16 @@
         <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N207" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12348,7 +12367,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12373,20 +12392,20 @@
         <v>29</v>
       </c>
       <c r="I208" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
@@ -12397,7 +12416,7 @@
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12425,10 +12444,10 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L209" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
@@ -12440,7 +12459,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12465,19 +12484,19 @@
         <v>25</v>
       </c>
       <c r="I210" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L210" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N210" t="s">
         <v>27</v>
@@ -12491,7 +12510,7 @@
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12516,19 +12535,19 @@
         <v>25</v>
       </c>
       <c r="I211" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L211" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N211" t="s">
         <v>27</v>
@@ -12542,7 +12561,7 @@
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12570,16 +12589,16 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L212" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N212" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
@@ -12590,7 +12609,7 @@
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12615,20 +12634,20 @@
         <v>29</v>
       </c>
       <c r="I213" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
@@ -12639,7 +12658,7 @@
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12667,10 +12686,10 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L214" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
@@ -12682,7 +12701,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12710,13 +12729,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L215" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N215" t="s">
         <v>27</v>
@@ -12730,7 +12749,7 @@
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12755,19 +12774,19 @@
         <v>29</v>
       </c>
       <c r="I216" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N216" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
@@ -12778,7 +12797,7 @@
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12803,19 +12822,19 @@
         <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N217" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
@@ -12826,7 +12845,7 @@
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12854,13 +12873,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L218" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N218" t="s">
         <v>27</v>
@@ -12874,7 +12893,7 @@
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12902,13 +12921,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L219" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N219" t="s">
         <v>27</v>
@@ -12922,7 +12941,7 @@
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12950,13 +12969,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L220" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N220" t="s">
         <v>27</v>
@@ -12970,7 +12989,7 @@
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -12998,13 +13017,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L221" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N221" t="s">
         <v>27</v>
@@ -13018,7 +13037,7 @@
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -13040,20 +13059,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L222" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -13061,7 +13080,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -13086,19 +13105,19 @@
         <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K223" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M223" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N223" t="s">
         <v>409</v>
-      </c>
-      <c r="N223" t="s">
-        <v>410</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -13109,7 +13128,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13134,19 +13153,19 @@
         <v>29</v>
       </c>
       <c r="I224" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N224" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -13157,7 +13176,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13182,19 +13201,19 @@
         <v>29</v>
       </c>
       <c r="I225" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K225" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M225" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="M225" s="4" t="s">
+      <c r="N225" t="s">
         <v>197</v>
-      </c>
-      <c r="N225" t="s">
-        <v>198</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
@@ -13205,7 +13224,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13230,19 +13249,19 @@
         <v>29</v>
       </c>
       <c r="I226" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K226" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N226" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
@@ -13253,7 +13272,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13278,20 +13297,20 @@
         <v>29</v>
       </c>
       <c r="I227" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
@@ -13302,7 +13321,7 @@
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13327,19 +13346,19 @@
         <v>29</v>
       </c>
       <c r="I228" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K228" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M228" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="N228" t="s">
         <v>414</v>
-      </c>
-      <c r="N228" t="s">
-        <v>415</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13350,7 +13369,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13378,13 +13397,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L229" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N229" t="s">
         <v>27</v>
@@ -13398,7 +13417,7 @@
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13426,13 +13445,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L230" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N230" t="s">
         <v>27</v>
@@ -13446,7 +13465,7 @@
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13474,13 +13493,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L231" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N231" t="s">
         <v>27</v>
@@ -13494,7 +13513,7 @@
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13522,13 +13541,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L232" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N232" t="s">
         <v>27</v>
@@ -13542,7 +13561,7 @@
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13570,13 +13589,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L233" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N233" t="s">
         <v>27</v>
@@ -13590,7 +13609,7 @@
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13618,13 +13637,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L234" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N234" t="s">
         <v>27</v>
@@ -13638,7 +13657,7 @@
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13666,13 +13685,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L235" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N235" t="s">
         <v>27</v>
@@ -13686,7 +13705,7 @@
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13714,13 +13733,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N236" t="s">
         <v>27</v>
@@ -13734,7 +13753,7 @@
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13762,13 +13781,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L237" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N237" t="s">
         <v>27</v>
@@ -13782,7 +13801,7 @@
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13810,13 +13829,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L238" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N238" t="s">
         <v>27</v>
@@ -13857,49 +13876,47 @@
     <hyperlink ref="L73" r:id="rId25" xr:uid="{15220E7C-7D82-4EFC-8814-D473E6823CF8}"/>
     <hyperlink ref="L74" r:id="rId26" xr:uid="{622A38EC-5F46-41C2-A2A0-AD49E7C1AA9D}"/>
     <hyperlink ref="L95" r:id="rId27" xr:uid="{9D74199E-93C0-4CA3-A5D9-342A665B7D47}"/>
-    <hyperlink ref="L97" r:id="rId28" xr:uid="{3BA0D3BE-D421-4D6E-94C5-E0070F603E9E}"/>
-    <hyperlink ref="L100" r:id="rId29" xr:uid="{279BD717-F964-463D-9764-602BA3D2E6D6}"/>
-    <hyperlink ref="L108" r:id="rId30" xr:uid="{0B41E2A9-0D8A-4A2B-949E-7EF8E6545684}"/>
-    <hyperlink ref="L125" r:id="rId31" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
-    <hyperlink ref="L128" r:id="rId32" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
-    <hyperlink ref="L140" r:id="rId33" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
-    <hyperlink ref="L144" r:id="rId34" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
-    <hyperlink ref="L151" r:id="rId35" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
-    <hyperlink ref="L152" r:id="rId36" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
-    <hyperlink ref="L156" r:id="rId37" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
-    <hyperlink ref="L166" r:id="rId38" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
-    <hyperlink ref="L167" r:id="rId39" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
-    <hyperlink ref="L168" r:id="rId40" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
-    <hyperlink ref="L169" r:id="rId41" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
-    <hyperlink ref="L207" r:id="rId42" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
-    <hyperlink ref="L157" r:id="rId43" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
-    <hyperlink ref="L165" r:id="rId44" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
-    <hyperlink ref="L164" r:id="rId45" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
-    <hyperlink ref="L174" r:id="rId46" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
-    <hyperlink ref="L216" r:id="rId47" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
-    <hyperlink ref="L217" r:id="rId48" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
-    <hyperlink ref="L227" r:id="rId49" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
-    <hyperlink ref="L124:L127" r:id="rId50" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
-    <hyperlink ref="L227:L228" r:id="rId51" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
-    <hyperlink ref="L208" r:id="rId52" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
-    <hyperlink ref="L131" r:id="rId53" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
-    <hyperlink ref="L172" r:id="rId54" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
-    <hyperlink ref="L175" r:id="rId55" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
-    <hyperlink ref="L40" r:id="rId56" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
-    <hyperlink ref="L159:L166" r:id="rId57" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
-    <hyperlink ref="L187:L207" r:id="rId58" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
-    <hyperlink ref="L130" r:id="rId59" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
-    <hyperlink ref="L170" r:id="rId60" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
-    <hyperlink ref="L171" r:id="rId61" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
-    <hyperlink ref="L206" r:id="rId62" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
-    <hyperlink ref="L213" r:id="rId63" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
-    <hyperlink ref="L155" r:id="rId64" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
-    <hyperlink ref="L123" r:id="rId65" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
-    <hyperlink ref="L126" r:id="rId66" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
+    <hyperlink ref="L108" r:id="rId28" xr:uid="{0B41E2A9-0D8A-4A2B-949E-7EF8E6545684}"/>
+    <hyperlink ref="L125" r:id="rId29" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
+    <hyperlink ref="L128" r:id="rId30" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
+    <hyperlink ref="L140" r:id="rId31" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
+    <hyperlink ref="L144" r:id="rId32" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
+    <hyperlink ref="L151" r:id="rId33" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
+    <hyperlink ref="L152" r:id="rId34" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
+    <hyperlink ref="L156" r:id="rId35" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
+    <hyperlink ref="L166" r:id="rId36" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
+    <hyperlink ref="L167" r:id="rId37" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
+    <hyperlink ref="L168" r:id="rId38" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
+    <hyperlink ref="L169" r:id="rId39" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
+    <hyperlink ref="L207" r:id="rId40" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
+    <hyperlink ref="L157" r:id="rId41" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
+    <hyperlink ref="L165" r:id="rId42" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
+    <hyperlink ref="L164" r:id="rId43" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
+    <hyperlink ref="L174" r:id="rId44" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
+    <hyperlink ref="L216" r:id="rId45" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
+    <hyperlink ref="L217" r:id="rId46" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
+    <hyperlink ref="L227" r:id="rId47" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
+    <hyperlink ref="L124:L127" r:id="rId48" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
+    <hyperlink ref="L227:L228" r:id="rId49" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
+    <hyperlink ref="L208" r:id="rId50" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
+    <hyperlink ref="L131" r:id="rId51" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
+    <hyperlink ref="L172" r:id="rId52" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
+    <hyperlink ref="L175" r:id="rId53" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
+    <hyperlink ref="L40" r:id="rId54" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
+    <hyperlink ref="L159:L166" r:id="rId55" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
+    <hyperlink ref="L187:L207" r:id="rId56" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
+    <hyperlink ref="L130" r:id="rId57" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
+    <hyperlink ref="L170" r:id="rId58" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
+    <hyperlink ref="L171" r:id="rId59" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
+    <hyperlink ref="L206" r:id="rId60" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
+    <hyperlink ref="L213" r:id="rId61" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
+    <hyperlink ref="L155" r:id="rId62" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
+    <hyperlink ref="L123" r:id="rId63" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
+    <hyperlink ref="L126" r:id="rId64" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId67"/>
+    <tablePart r:id="rId65"/>
   </tableParts>
 </worksheet>
 </file>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E80EA7-63D9-E946-BAD8-0069DAF25A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05BA570-BD6B-8042-BCD4-9AFB036801F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="671">
   <si>
     <t>Isotope</t>
   </si>
@@ -310,9 +310,6 @@
     <t>87Kr</t>
   </si>
   <si>
-    <t>S. Raman et al. PRC 28, 602 (1983)</t>
-  </si>
-  <si>
     <t>V.W. Ingeberg et al. EPJA 56, 68 (2020)</t>
   </si>
   <si>
@@ -1042,9 +1039,6 @@
     <t>12C,p</t>
   </si>
   <si>
-    <t>U.K. Pal et al. JPG 25, 1671 (1999)</t>
-  </si>
-  <si>
     <t>Accepted/NLD_32_70_1.csv</t>
   </si>
   <si>
@@ -1054,9 +1048,6 @@
     <t>69As</t>
   </si>
   <si>
-    <t>Ph. Dessagne et al. PRC 37, 2687 (1988)</t>
-  </si>
-  <si>
     <t>Accepted/NLD_33_69_1.csv</t>
   </si>
   <si>
@@ -2051,6 +2042,27 @@
   </si>
   <si>
     <t>A. Spyrou et al. Phys. Rev. Lett 113, 232502 (2014)</t>
+  </si>
+  <si>
+    <t>beta,g</t>
+  </si>
+  <si>
+    <t>D. Mücher et al., arXiv:2011.0107</t>
+  </si>
+  <si>
+    <t>Ph. Dessagne, Phys. Rev. C 37 (6) (1988) 2687</t>
+  </si>
+  <si>
+    <t>p,n beta</t>
+  </si>
+  <si>
+    <t>S. Raman et al., Phys. Rev. C 28, 602 (1983)</t>
+  </si>
+  <si>
+    <t>beta, p</t>
+  </si>
+  <si>
+    <t>beta, n</t>
   </si>
 </sst>
 </file>
@@ -2509,9 +2521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I107" sqref="I107"/>
+      <selection pane="topRight" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2537,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -2546,10 +2558,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -2564,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>7</v>
@@ -2584,7 +2596,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2609,19 +2621,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2635,7 +2647,7 @@
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2660,20 +2672,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2706,19 +2718,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2754,19 +2766,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2777,7 +2789,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2802,16 +2814,16 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6">
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2823,7 +2835,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2848,19 +2860,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2871,7 +2883,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2896,20 +2908,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2917,7 +2929,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2942,19 +2954,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -2990,19 +3002,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -3013,7 +3025,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3038,19 +3050,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3061,7 +3073,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3086,19 +3098,19 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
@@ -3109,7 +3121,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3137,14 +3149,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3152,7 +3164,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3180,14 +3192,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3195,7 +3207,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3220,22 +3232,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="N15" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3243,7 +3255,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3268,22 +3280,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L16" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M16" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3291,7 +3303,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3316,22 +3328,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L17" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M17" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3339,7 +3351,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3361,19 +3373,19 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L18" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3385,7 +3397,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3407,23 +3419,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3431,7 +3443,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3456,22 +3468,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L20" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="N20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3479,7 +3491,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3504,19 +3516,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3530,7 +3542,7 @@
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3555,19 +3567,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N22" t="s">
         <v>233</v>
-      </c>
-      <c r="N22" t="s">
-        <v>234</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
@@ -3578,7 +3590,7 @@
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3603,19 +3615,19 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
@@ -3629,7 +3641,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3654,19 +3666,19 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
@@ -3705,16 +3717,16 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
@@ -3726,7 +3738,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3751,20 +3763,20 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3772,7 +3784,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3797,19 +3809,19 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N27" t="s">
         <v>27</v>
@@ -3823,7 +3835,7 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3848,16 +3860,16 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28">
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L28" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3869,7 +3881,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3894,19 +3906,19 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="N29" t="s">
         <v>27</v>
@@ -3920,7 +3932,7 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3945,22 +3957,22 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
@@ -3993,25 +4005,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I31" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -4041,25 +4053,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I32" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="N32" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4067,7 +4079,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4092,16 +4104,16 @@
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="N33" t="s">
         <v>61</v>
@@ -4115,7 +4127,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4140,16 +4152,16 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
@@ -4163,7 +4175,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4188,16 +4200,16 @@
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
@@ -4211,7 +4223,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4236,19 +4248,19 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N36" t="s">
         <v>27</v>
@@ -4287,19 +4299,19 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L37" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -4313,7 +4325,7 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4338,16 +4350,16 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" t="s">
+        <v>433</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K38" t="s">
-        <v>436</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="N38" t="s">
         <v>61</v>
@@ -4361,7 +4373,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4386,20 +4398,20 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J39">
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L39" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4435,7 +4447,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
@@ -4455,7 +4467,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4480,19 +4492,19 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" t="s">
+        <v>435</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K41" t="s">
-        <v>438</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="M41" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="N41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
@@ -4503,7 +4515,7 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4528,16 +4540,16 @@
         <v>29</v>
       </c>
       <c r="I42" t="s">
+        <v>262</v>
+      </c>
+      <c r="K42" t="s">
+        <v>432</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="K42" t="s">
-        <v>435</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="N42" t="s">
         <v>61</v>
@@ -4551,7 +4563,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4576,19 +4588,19 @@
         <v>29</v>
       </c>
       <c r="I43" t="s">
+        <v>257</v>
+      </c>
+      <c r="K43" t="s">
+        <v>435</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K43" t="s">
-        <v>438</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="M43" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4599,7 +4611,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4624,19 +4636,19 @@
         <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4672,20 +4684,20 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L45" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4693,7 +4705,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4718,19 +4730,19 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
@@ -4741,7 +4753,7 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4766,19 +4778,19 @@
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N47" t="s">
         <v>27</v>
@@ -4792,7 +4804,7 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4817,20 +4829,20 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4838,7 +4850,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4863,20 +4875,20 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4884,7 +4896,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4909,19 +4921,19 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" t="s">
+        <v>435</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K50" t="s">
-        <v>438</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="M50" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4932,7 +4944,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4957,19 +4969,19 @@
         <v>29</v>
       </c>
       <c r="I51" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" t="s">
+        <v>435</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K51" t="s">
-        <v>438</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="M51" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4980,7 +4992,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -5005,19 +5017,19 @@
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
@@ -5028,7 +5040,7 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -5053,16 +5065,16 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K53" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
@@ -5076,7 +5088,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5101,19 +5113,19 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M54" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N54" t="s">
         <v>27</v>
@@ -5127,7 +5139,7 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5155,16 +5167,16 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N55" t="s">
         <v>276</v>
-      </c>
-      <c r="N55" t="s">
-        <v>277</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5175,7 +5187,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5200,19 +5212,19 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
@@ -5223,7 +5235,7 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5248,19 +5260,19 @@
         <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
@@ -5271,7 +5283,7 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5296,19 +5308,19 @@
         <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
@@ -5319,7 +5331,7 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5344,19 +5356,19 @@
         <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N59" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5364,7 +5376,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5389,19 +5401,19 @@
         <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="N60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
@@ -5412,7 +5424,7 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5437,22 +5449,22 @@
         <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L61" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="N61" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
@@ -5463,7 +5475,7 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5494,13 +5506,13 @@
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
@@ -5511,7 +5523,7 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5536,19 +5548,19 @@
         <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N63" t="s">
         <v>63</v>
@@ -5587,13 +5599,13 @@
         <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="K64" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>39</v>
@@ -5635,19 +5647,19 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L65" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -5683,19 +5695,19 @@
         <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
@@ -5734,16 +5746,16 @@
         <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L67" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
@@ -5758,7 +5770,7 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5780,23 +5792,23 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I68" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5804,7 +5816,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5829,19 +5841,19 @@
         <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L69" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
@@ -5852,7 +5864,7 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5877,20 +5889,20 @@
         <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J70">
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L70" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5898,7 +5910,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5923,20 +5935,20 @@
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J71">
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L71" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5944,7 +5956,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5969,19 +5981,19 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K72" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L72" t="s">
         <v>47</v>
       </c>
       <c r="M72" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N72" t="s">
         <v>295</v>
-      </c>
-      <c r="N72" t="s">
-        <v>296</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -5992,7 +6004,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -6017,19 +6029,19 @@
         <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K73" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L73" t="s">
+        <v>296</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" t="s">
         <v>298</v>
-      </c>
-      <c r="N73" t="s">
-        <v>299</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -6040,7 +6052,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -6065,22 +6077,22 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="N74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
@@ -6091,7 +6103,7 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6116,22 +6128,22 @@
         <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L75" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6142,7 +6154,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6167,19 +6179,19 @@
         <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L76" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N76" t="s">
         <v>61</v>
@@ -6193,7 +6205,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6218,22 +6230,22 @@
         <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L77" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
@@ -6244,7 +6256,7 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6269,19 +6281,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K78" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L78" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M78" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N78" t="s">
         <v>307</v>
-      </c>
-      <c r="N78" t="s">
-        <v>308</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6323,10 +6335,10 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L79" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>48</v>
@@ -6371,10 +6383,10 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L80" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>54</v>
@@ -6419,10 +6431,10 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L81" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>56</v>
@@ -6470,10 +6482,10 @@
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L82" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>59</v>
@@ -6515,16 +6527,16 @@
         <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L83" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>60</v>
@@ -6566,19 +6578,19 @@
         <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L84" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N84" t="s">
         <v>51</v>
@@ -6620,14 +6632,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L85" t="s">
         <v>62</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6657,19 +6669,19 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I86" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L86" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6703,19 +6715,19 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I87" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L87" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6727,7 +6739,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6752,19 +6764,19 @@
         <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L88" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="N88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
@@ -6775,7 +6787,7 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6800,22 +6812,22 @@
         <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L89" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="N89" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
@@ -6826,7 +6838,7 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6851,22 +6863,22 @@
         <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L90" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N90" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
@@ -6877,7 +6889,7 @@
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6902,22 +6914,22 @@
         <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L91" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N91" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
@@ -6953,16 +6965,16 @@
         <v>29</v>
       </c>
       <c r="I92" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L92" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
@@ -7002,16 +7014,16 @@
         <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L93" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
@@ -7026,7 +7038,7 @@
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -7051,22 +7063,22 @@
         <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L94" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="N94" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
@@ -7077,7 +7089,7 @@
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -7102,22 +7114,22 @@
         <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" t="s">
         <v>320</v>
-      </c>
-      <c r="N95" t="s">
-        <v>321</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -7128,7 +7140,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7153,22 +7165,22 @@
         <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J96">
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L96" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N96" t="s">
         <v>322</v>
-      </c>
-      <c r="N96" t="s">
-        <v>323</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -7179,7 +7191,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7204,22 +7216,22 @@
         <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7252,16 +7264,16 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I98" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L98" t="s">
         <v>70</v>
@@ -7276,7 +7288,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7298,16 +7310,19 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="I99" t="s">
+        <v>669</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L99" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7319,7 +7334,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7344,22 +7359,22 @@
         <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L100" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N100" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7401,7 +7416,7 @@
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>75</v>
@@ -7452,7 +7467,7 @@
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>75</v>
@@ -7497,22 +7512,22 @@
         <v>25</v>
       </c>
       <c r="I103" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L103" t="s">
         <v>72</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="N103" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
@@ -7548,20 +7563,20 @@
         <v>25</v>
       </c>
       <c r="I104" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J104">
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>72</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7591,19 +7606,19 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I105" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
@@ -7637,16 +7652,19 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>492</v>
+        <v>489</v>
+      </c>
+      <c r="I106" t="s">
+        <v>664</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L106" t="s">
-        <v>80</v>
+        <v>665</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
@@ -7658,7 +7676,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7680,16 +7698,19 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="I107" t="s">
+        <v>667</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L107" t="s">
-        <v>334</v>
+        <v>666</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7701,7 +7722,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7726,19 +7747,19 @@
         <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K108" t="s">
-        <v>452</v>
-      </c>
-      <c r="L108" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L108" t="s">
+        <v>662</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N108" t="s">
         <v>330</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="N108" t="s">
-        <v>332</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7780,7 +7801,7 @@
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>83</v>
@@ -7798,7 +7819,7 @@
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7820,16 +7841,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="I110" t="s">
+        <v>669</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L110" t="s">
-        <v>327</v>
+        <v>666</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7841,7 +7865,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7863,16 +7887,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="I111" t="s">
+        <v>669</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7906,16 +7933,19 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+      <c r="I112" t="s">
+        <v>631</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>457</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>86</v>
+        <v>454</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>668</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
@@ -7949,22 +7979,22 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I113" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N113" t="s">
         <v>27</v>
@@ -7978,7 +8008,7 @@
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114">
         <v>110</v>
@@ -8000,22 +8030,25 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>492</v>
+        <v>489</v>
+      </c>
+      <c r="I114" t="s">
+        <v>664</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N114" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
@@ -8026,7 +8059,7 @@
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -8048,16 +8081,19 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="I115" t="s">
+        <v>669</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L115" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -8069,7 +8105,7 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116">
         <v>112</v>
@@ -8091,16 +8127,19 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+      <c r="I116" t="s">
+        <v>670</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" t="s">
@@ -8112,7 +8151,7 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117">
         <v>113</v>
@@ -8134,16 +8173,19 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+      <c r="I117" t="s">
+        <v>670</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" t="s">
@@ -8155,7 +8197,7 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118">
         <v>114</v>
@@ -8177,16 +8219,19 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+      <c r="I118" t="s">
+        <v>670</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" t="s">
@@ -8198,7 +8243,7 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119">
         <v>115</v>
@@ -8229,7 +8274,7 @@
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>83</v>
@@ -8247,7 +8292,7 @@
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120">
         <v>116</v>
@@ -8272,19 +8317,19 @@
         <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N120" t="s">
         <v>27</v>
@@ -8298,7 +8343,7 @@
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121">
         <v>117</v>
@@ -8323,19 +8368,19 @@
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="N121" t="s">
         <v>27</v>
@@ -8346,7 +8391,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8368,20 +8413,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8389,7 +8434,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8414,22 +8459,22 @@
         <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M123" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N123" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8437,7 +8482,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8462,22 +8507,22 @@
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M124" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="N124" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8485,7 +8530,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8510,22 +8555,22 @@
         <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N125" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8536,7 +8581,7 @@
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126">
         <v>121</v>
@@ -8561,22 +8606,22 @@
         <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="N126" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8584,7 +8629,7 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127">
         <v>121</v>
@@ -8609,22 +8654,22 @@
         <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N127" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8632,7 +8677,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8657,19 +8702,19 @@
         <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N128" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
@@ -8680,7 +8725,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8702,20 +8747,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L129" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8723,7 +8768,7 @@
     </row>
     <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B130">
         <v>124</v>
@@ -8748,19 +8793,19 @@
         <v>29</v>
       </c>
       <c r="I130" t="s">
+        <v>99</v>
+      </c>
+      <c r="K130" t="s">
+        <v>432</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K130" t="s">
-        <v>435</v>
-      </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M130" s="4" t="s">
+      <c r="N130" t="s">
         <v>102</v>
-      </c>
-      <c r="N130" t="s">
-        <v>103</v>
       </c>
       <c r="O130">
         <v>-0.17999236072153479</v>
@@ -8771,7 +8816,7 @@
     </row>
     <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B131">
         <v>125</v>
@@ -8796,22 +8841,22 @@
         <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L131" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="N131" t="s">
         <v>104</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="N131" t="s">
-        <v>105</v>
       </c>
       <c r="O131">
         <v>-0.17999236072153479</v>
@@ -8822,7 +8867,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8847,20 +8892,20 @@
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L132" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8868,7 +8913,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8893,19 +8938,19 @@
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M133" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N133" t="s">
         <v>27</v>
@@ -8919,7 +8964,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8944,19 +8989,19 @@
         <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M134" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N134" t="s">
         <v>27</v>
@@ -8970,7 +9015,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -8995,19 +9040,19 @@
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M135" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N135" t="s">
         <v>27</v>
@@ -9021,7 +9066,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -9046,19 +9091,19 @@
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M136" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N136" t="s">
         <v>27</v>
@@ -9072,7 +9117,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -9094,20 +9139,20 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L137" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -9115,7 +9160,7 @@
     </row>
     <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B138">
         <v>132</v>
@@ -9140,19 +9185,19 @@
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N138" t="s">
         <v>27</v>
@@ -9166,7 +9211,7 @@
     </row>
     <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B139">
         <v>133</v>
@@ -9191,19 +9236,19 @@
         <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N139" t="s">
         <v>27</v>
@@ -9217,7 +9262,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9242,19 +9287,19 @@
         <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N140" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
@@ -9265,7 +9310,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9287,14 +9332,14 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L141" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
@@ -9305,7 +9350,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9333,13 +9378,13 @@
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M142" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="N142" t="s">
         <v>27</v>
@@ -9353,7 +9398,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9381,13 +9426,13 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M143" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N143" t="s">
         <v>27</v>
@@ -9401,7 +9446,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9426,22 +9471,22 @@
         <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N144" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9452,7 +9497,7 @@
     </row>
     <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B145">
         <v>139</v>
@@ -9480,13 +9525,13 @@
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N145" t="s">
         <v>27</v>
@@ -9500,7 +9545,7 @@
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9528,13 +9573,13 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N146" t="s">
         <v>27</v>
@@ -9548,7 +9593,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9570,16 +9615,16 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L147" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9591,7 +9636,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9619,10 +9664,10 @@
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
@@ -9634,7 +9679,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9662,10 +9707,10 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
@@ -9677,7 +9722,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9705,13 +9750,13 @@
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M150" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N150" t="s">
         <v>27</v>
@@ -9725,7 +9770,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9750,16 +9795,16 @@
         <v>29</v>
       </c>
       <c r="K151" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N151" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9770,7 +9815,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9795,16 +9840,16 @@
         <v>29</v>
       </c>
       <c r="K152" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N152" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9815,7 +9860,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9843,13 +9888,13 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N153" t="s">
         <v>27</v>
@@ -9863,7 +9908,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9891,14 +9936,14 @@
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9906,7 +9951,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9931,22 +9976,22 @@
         <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N155" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -9957,7 +10002,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -9982,16 +10027,16 @@
         <v>29</v>
       </c>
       <c r="K156" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L156" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N156" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -10002,7 +10047,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -10027,19 +10072,19 @@
         <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K157" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L157" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N157" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -10050,7 +10095,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -10078,16 +10123,16 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="N158" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -10095,7 +10140,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -10123,13 +10168,13 @@
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L159" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="N159" t="s">
         <v>27</v>
@@ -10140,7 +10185,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10168,13 +10213,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N160" t="s">
         <v>27</v>
@@ -10185,7 +10230,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10213,13 +10258,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N161" t="s">
         <v>27</v>
@@ -10230,7 +10275,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10258,10 +10303,10 @@
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
@@ -10273,7 +10318,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10295,14 +10340,14 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L163" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
@@ -10313,7 +10358,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10338,16 +10383,16 @@
         <v>29</v>
       </c>
       <c r="I164" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N164" t="s">
         <v>27</v>
@@ -10358,7 +10403,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10383,19 +10428,19 @@
         <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K165" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N165" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10406,7 +10451,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10431,16 +10476,16 @@
         <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N166" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10451,7 +10496,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10476,16 +10521,16 @@
         <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N167" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10496,7 +10541,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10521,16 +10566,16 @@
         <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N168" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10541,7 +10586,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10566,16 +10611,16 @@
         <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N169" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10586,7 +10631,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10611,19 +10656,19 @@
         <v>29</v>
       </c>
       <c r="I170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K170" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M170" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="N170" t="s">
         <v>126</v>
-      </c>
-      <c r="N170" t="s">
-        <v>127</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
@@ -10634,7 +10679,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10659,19 +10704,19 @@
         <v>29</v>
       </c>
       <c r="I171" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K171" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N171" t="s">
         <v>129</v>
-      </c>
-      <c r="N171" t="s">
-        <v>130</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
@@ -10682,7 +10727,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10707,22 +10752,22 @@
         <v>29</v>
       </c>
       <c r="I172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="N172" t="s">
         <v>104</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="N172" t="s">
-        <v>105</v>
       </c>
       <c r="O172">
         <v>-1.1482355421460468</v>
@@ -10733,7 +10778,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10761,14 +10806,14 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L173" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
@@ -10779,7 +10824,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10804,19 +10849,19 @@
         <v>29</v>
       </c>
       <c r="I174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K174" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N174" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10827,7 +10872,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10852,19 +10897,19 @@
         <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K175" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M175" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N175" t="s">
         <v>132</v>
-      </c>
-      <c r="N175" t="s">
-        <v>133</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
@@ -10875,7 +10920,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10897,16 +10942,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L176" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -10918,7 +10963,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10940,20 +10985,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L177" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -10961,7 +11006,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -10992,10 +11037,10 @@
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
@@ -11010,7 +11055,7 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -11038,10 +11083,10 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
@@ -11053,7 +11098,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -11081,13 +11126,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N180" t="s">
         <v>27</v>
@@ -11098,7 +11143,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -11129,10 +11174,10 @@
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
@@ -11147,7 +11192,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11175,10 +11220,10 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L182" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
@@ -11190,7 +11235,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11218,13 +11263,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N183" t="s">
         <v>27</v>
@@ -11238,7 +11283,7 @@
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11266,13 +11311,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N184" t="s">
         <v>27</v>
@@ -11286,7 +11331,7 @@
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11314,13 +11359,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N185" t="s">
         <v>27</v>
@@ -11334,7 +11379,7 @@
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11362,13 +11407,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N186" t="s">
         <v>27</v>
@@ -11382,7 +11427,7 @@
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11410,13 +11455,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N187" t="s">
         <v>27</v>
@@ -11430,7 +11475,7 @@
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11458,13 +11503,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N188" t="s">
         <v>27</v>
@@ -11478,7 +11523,7 @@
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11506,13 +11551,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N189" t="s">
         <v>27</v>
@@ -11526,7 +11571,7 @@
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11554,13 +11599,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N190" t="s">
         <v>27</v>
@@ -11574,7 +11619,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11602,13 +11647,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M191" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N191" t="s">
         <v>27</v>
@@ -11622,7 +11667,7 @@
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11650,13 +11695,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N192" t="s">
         <v>27</v>
@@ -11670,7 +11715,7 @@
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11698,13 +11743,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N193" t="s">
         <v>27</v>
@@ -11718,7 +11763,7 @@
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11746,13 +11791,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N194" t="s">
         <v>27</v>
@@ -11766,7 +11811,7 @@
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11794,10 +11839,10 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
@@ -11809,7 +11854,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11837,13 +11882,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N196" t="s">
         <v>27</v>
@@ -11857,7 +11902,7 @@
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11885,14 +11930,14 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
@@ -11903,7 +11948,7 @@
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11931,13 +11976,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N198" t="s">
         <v>27</v>
@@ -11951,7 +11996,7 @@
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -11979,13 +12024,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N199" t="s">
         <v>27</v>
@@ -11999,7 +12044,7 @@
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -12030,10 +12075,10 @@
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
@@ -12048,7 +12093,7 @@
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -12076,13 +12121,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L201" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N201" t="s">
         <v>27</v>
@@ -12093,7 +12138,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -12121,13 +12166,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L202" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N202" t="s">
         <v>27</v>
@@ -12138,7 +12183,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12166,13 +12211,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L203" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N203" t="s">
         <v>27</v>
@@ -12183,7 +12228,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12211,13 +12256,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N204" t="s">
         <v>27</v>
@@ -12228,7 +12273,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12256,13 +12301,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L205" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N205" t="s">
         <v>27</v>
@@ -12273,7 +12318,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12304,14 +12349,14 @@
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
@@ -12322,7 +12367,7 @@
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12347,16 +12392,16 @@
         <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N207" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12367,7 +12412,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12392,20 +12437,20 @@
         <v>29</v>
       </c>
       <c r="I208" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
@@ -12416,7 +12461,7 @@
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12444,10 +12489,10 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L209" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
@@ -12459,7 +12504,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12484,19 +12529,19 @@
         <v>25</v>
       </c>
       <c r="I210" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L210" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N210" t="s">
         <v>27</v>
@@ -12510,7 +12555,7 @@
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12535,19 +12580,19 @@
         <v>25</v>
       </c>
       <c r="I211" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L211" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N211" t="s">
         <v>27</v>
@@ -12561,7 +12606,7 @@
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12589,16 +12634,16 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L212" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N212" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
@@ -12609,7 +12654,7 @@
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12640,14 +12685,14 @@
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
@@ -12658,7 +12703,7 @@
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12686,10 +12731,10 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L214" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
@@ -12701,7 +12746,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12729,13 +12774,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L215" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N215" t="s">
         <v>27</v>
@@ -12749,7 +12794,7 @@
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12774,19 +12819,19 @@
         <v>29</v>
       </c>
       <c r="I216" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N216" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
@@ -12797,7 +12842,7 @@
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12822,19 +12867,19 @@
         <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N217" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
@@ -12845,7 +12890,7 @@
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12873,13 +12918,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L218" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N218" t="s">
         <v>27</v>
@@ -12893,7 +12938,7 @@
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12921,13 +12966,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L219" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N219" t="s">
         <v>27</v>
@@ -12941,7 +12986,7 @@
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -12969,13 +13014,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L220" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N220" t="s">
         <v>27</v>
@@ -12989,7 +13034,7 @@
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -13017,13 +13062,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L221" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N221" t="s">
         <v>27</v>
@@ -13037,7 +13082,7 @@
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -13059,20 +13104,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L222" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -13080,7 +13125,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -13105,19 +13150,19 @@
         <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K223" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N223" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -13128,7 +13173,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13153,19 +13198,19 @@
         <v>29</v>
       </c>
       <c r="I224" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K224" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N224" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -13176,7 +13221,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13201,19 +13246,19 @@
         <v>29</v>
       </c>
       <c r="I225" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K225" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M225" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M225" s="4" t="s">
+      <c r="N225" t="s">
         <v>196</v>
-      </c>
-      <c r="N225" t="s">
-        <v>197</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
@@ -13224,7 +13269,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13249,19 +13294,19 @@
         <v>29</v>
       </c>
       <c r="I226" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K226" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N226" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
@@ -13272,7 +13317,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13297,20 +13342,20 @@
         <v>29</v>
       </c>
       <c r="I227" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
@@ -13321,7 +13366,7 @@
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13346,19 +13391,19 @@
         <v>29</v>
       </c>
       <c r="I228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K228" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N228" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13369,7 +13414,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13397,13 +13442,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L229" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N229" t="s">
         <v>27</v>
@@ -13417,7 +13462,7 @@
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13445,13 +13490,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N230" t="s">
         <v>27</v>
@@ -13465,7 +13510,7 @@
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13493,13 +13538,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L231" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N231" t="s">
         <v>27</v>
@@ -13513,7 +13558,7 @@
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13541,13 +13586,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L232" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N232" t="s">
         <v>27</v>
@@ -13561,7 +13606,7 @@
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13589,13 +13634,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L233" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N233" t="s">
         <v>27</v>
@@ -13609,7 +13654,7 @@
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13637,13 +13682,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L234" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="N234" t="s">
         <v>27</v>
@@ -13657,7 +13702,7 @@
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13685,13 +13730,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L235" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="N235" t="s">
         <v>27</v>
@@ -13705,7 +13750,7 @@
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13733,13 +13778,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="N236" t="s">
         <v>27</v>
@@ -13753,7 +13798,7 @@
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13781,13 +13826,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L237" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N237" t="s">
         <v>27</v>
@@ -13801,7 +13846,7 @@
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13829,13 +13874,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L238" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="N238" t="s">
         <v>27</v>
@@ -13876,47 +13921,46 @@
     <hyperlink ref="L73" r:id="rId25" xr:uid="{15220E7C-7D82-4EFC-8814-D473E6823CF8}"/>
     <hyperlink ref="L74" r:id="rId26" xr:uid="{622A38EC-5F46-41C2-A2A0-AD49E7C1AA9D}"/>
     <hyperlink ref="L95" r:id="rId27" xr:uid="{9D74199E-93C0-4CA3-A5D9-342A665B7D47}"/>
-    <hyperlink ref="L108" r:id="rId28" xr:uid="{0B41E2A9-0D8A-4A2B-949E-7EF8E6545684}"/>
-    <hyperlink ref="L125" r:id="rId29" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
-    <hyperlink ref="L128" r:id="rId30" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
-    <hyperlink ref="L140" r:id="rId31" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
-    <hyperlink ref="L144" r:id="rId32" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
-    <hyperlink ref="L151" r:id="rId33" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
-    <hyperlink ref="L152" r:id="rId34" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
-    <hyperlink ref="L156" r:id="rId35" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
-    <hyperlink ref="L166" r:id="rId36" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
-    <hyperlink ref="L167" r:id="rId37" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
-    <hyperlink ref="L168" r:id="rId38" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
-    <hyperlink ref="L169" r:id="rId39" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
-    <hyperlink ref="L207" r:id="rId40" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
-    <hyperlink ref="L157" r:id="rId41" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
-    <hyperlink ref="L165" r:id="rId42" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
-    <hyperlink ref="L164" r:id="rId43" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
-    <hyperlink ref="L174" r:id="rId44" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
-    <hyperlink ref="L216" r:id="rId45" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
-    <hyperlink ref="L217" r:id="rId46" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
-    <hyperlink ref="L227" r:id="rId47" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
-    <hyperlink ref="L124:L127" r:id="rId48" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
-    <hyperlink ref="L227:L228" r:id="rId49" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
-    <hyperlink ref="L208" r:id="rId50" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
-    <hyperlink ref="L131" r:id="rId51" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
-    <hyperlink ref="L172" r:id="rId52" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
-    <hyperlink ref="L175" r:id="rId53" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
-    <hyperlink ref="L40" r:id="rId54" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
-    <hyperlink ref="L159:L166" r:id="rId55" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
-    <hyperlink ref="L187:L207" r:id="rId56" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
-    <hyperlink ref="L130" r:id="rId57" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
-    <hyperlink ref="L170" r:id="rId58" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
-    <hyperlink ref="L171" r:id="rId59" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
-    <hyperlink ref="L206" r:id="rId60" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
-    <hyperlink ref="L213" r:id="rId61" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
-    <hyperlink ref="L155" r:id="rId62" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
-    <hyperlink ref="L123" r:id="rId63" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
-    <hyperlink ref="L126" r:id="rId64" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
+    <hyperlink ref="L125" r:id="rId28" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
+    <hyperlink ref="L128" r:id="rId29" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
+    <hyperlink ref="L140" r:id="rId30" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
+    <hyperlink ref="L144" r:id="rId31" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
+    <hyperlink ref="L151" r:id="rId32" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
+    <hyperlink ref="L152" r:id="rId33" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
+    <hyperlink ref="L156" r:id="rId34" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
+    <hyperlink ref="L166" r:id="rId35" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
+    <hyperlink ref="L167" r:id="rId36" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
+    <hyperlink ref="L168" r:id="rId37" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
+    <hyperlink ref="L169" r:id="rId38" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
+    <hyperlink ref="L207" r:id="rId39" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
+    <hyperlink ref="L157" r:id="rId40" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
+    <hyperlink ref="L165" r:id="rId41" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
+    <hyperlink ref="L164" r:id="rId42" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
+    <hyperlink ref="L174" r:id="rId43" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
+    <hyperlink ref="L216" r:id="rId44" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
+    <hyperlink ref="L217" r:id="rId45" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
+    <hyperlink ref="L227" r:id="rId46" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
+    <hyperlink ref="L124:L127" r:id="rId47" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
+    <hyperlink ref="L227:L228" r:id="rId48" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
+    <hyperlink ref="L208" r:id="rId49" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
+    <hyperlink ref="L131" r:id="rId50" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
+    <hyperlink ref="L172" r:id="rId51" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
+    <hyperlink ref="L175" r:id="rId52" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
+    <hyperlink ref="L40" r:id="rId53" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
+    <hyperlink ref="L159:L166" r:id="rId54" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
+    <hyperlink ref="L187:L207" r:id="rId55" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
+    <hyperlink ref="L130" r:id="rId56" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
+    <hyperlink ref="L170" r:id="rId57" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
+    <hyperlink ref="L171" r:id="rId58" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
+    <hyperlink ref="L206" r:id="rId59" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
+    <hyperlink ref="L213" r:id="rId60" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
+    <hyperlink ref="L155" r:id="rId61" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
+    <hyperlink ref="L123" r:id="rId62" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
+    <hyperlink ref="L126" r:id="rId63" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId65"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
 </worksheet>
 </file>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05BA570-BD6B-8042-BCD4-9AFB036801F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717D0FA-712D-314B-8137-4B7EEC6C4F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="672">
   <si>
     <t>Isotope</t>
   </si>
@@ -382,9 +382,6 @@
     <t>107Pd</t>
   </si>
   <si>
-    <t>T.K. Eriksen et al. PRC 90, 044311 (2014)</t>
-  </si>
-  <si>
     <t>108Pd</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>117Sn</t>
   </si>
   <si>
-    <t>M. Guttormsen et al. EPJA 51, 170 (2015) [combines results from previous works]</t>
-  </si>
-  <si>
     <t>Found the average uncertainty to be ~10% for the oslo method</t>
   </si>
   <si>
@@ -1102,9 +1096,6 @@
     <t>96Mo</t>
   </si>
   <si>
-    <t>D. Martin et al. PRL 119, 182503 (2017)</t>
-  </si>
-  <si>
     <t>96Tc</t>
   </si>
   <si>
@@ -1123,9 +1114,6 @@
     <t>104Pd</t>
   </si>
   <si>
-    <t>D.R. Chakrabarty et al. PRC 51, 2942 (1995)</t>
-  </si>
-  <si>
     <t>Accepted/NLD_46_104_1.csv</t>
   </si>
   <si>
@@ -2063,6 +2051,21 @@
   </si>
   <si>
     <t>beta, n</t>
+  </si>
+  <si>
+    <t>D. Martin et al. Phys. Rev. Lett 119, 182503 (2017)</t>
+  </si>
+  <si>
+    <t>T.K. Eriksen et al. Phys. Rev. C 90, 044311 (2014)</t>
+  </si>
+  <si>
+    <t>D.R. Chakrabarty et al. Phys. Rev. C 51, 2942 (1995)</t>
+  </si>
+  <si>
+    <t>MI Svirin, Phys. Part. Nucl. 37, 475–519 (2006), DOI:10.1134/S1063779606040010</t>
+  </si>
+  <si>
+    <t>Combines results from previous works. Found the average uncertainty to be ~10% for the Oslo method</t>
   </si>
 </sst>
 </file>
@@ -2521,9 +2524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I100" sqref="I100"/>
+      <selection pane="topRight" activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2549,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -2558,10 +2561,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -2576,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>7</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2621,19 +2624,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2672,20 +2675,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2718,19 +2721,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2766,19 +2769,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2820,10 +2823,10 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2835,7 +2838,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2860,19 +2863,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2883,7 +2886,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2908,20 +2911,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2954,19 +2957,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -3002,19 +3005,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -3025,7 +3028,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3050,19 +3053,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3098,19 +3101,19 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
@@ -3121,7 +3124,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3149,14 +3152,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3164,7 +3167,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3192,14 +3195,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3232,22 +3235,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L15" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="N15" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3255,7 +3258,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3280,22 +3283,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3303,7 +3306,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3328,22 +3331,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3373,19 +3376,19 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L18" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3397,7 +3400,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3419,23 +3422,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I19" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L19" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3468,22 +3471,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M20" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N20" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3516,19 +3519,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3542,7 +3545,7 @@
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3567,19 +3570,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
@@ -3590,7 +3593,7 @@
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3615,19 +3618,19 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
@@ -3641,7 +3644,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3666,19 +3669,19 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
@@ -3717,16 +3720,16 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L25" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
@@ -3738,7 +3741,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3763,20 +3766,20 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3784,7 +3787,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3809,19 +3812,19 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N27" t="s">
         <v>27</v>
@@ -3835,7 +3838,7 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3866,10 +3869,10 @@
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L28" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3881,7 +3884,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3906,19 +3909,19 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N29" t="s">
         <v>27</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3957,22 +3960,22 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="N30" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
@@ -4005,25 +4008,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I31" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N31" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -4053,25 +4056,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I32" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N32" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4079,7 +4082,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4107,13 +4110,13 @@
         <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N33" t="s">
         <v>61</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4155,13 +4158,13 @@
         <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
@@ -4175,7 +4178,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4203,13 +4206,13 @@
         <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
@@ -4223,7 +4226,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4248,19 +4251,19 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N36" t="s">
         <v>27</v>
@@ -4299,19 +4302,19 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L37" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -4325,7 +4328,7 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4350,16 +4353,16 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s">
+        <v>429</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="K38" t="s">
-        <v>433</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="N38" t="s">
         <v>61</v>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4404,14 +4407,14 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L39" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4447,7 +4450,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
@@ -4467,7 +4470,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4492,19 +4495,19 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
+        <v>255</v>
+      </c>
+      <c r="K41" t="s">
+        <v>431</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="K41" t="s">
-        <v>435</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="N41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
@@ -4515,7 +4518,7 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4540,16 +4543,16 @@
         <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N42" t="s">
         <v>61</v>
@@ -4563,7 +4566,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4588,19 +4591,19 @@
         <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K43" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N43" t="s">
         <v>258</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="N43" t="s">
-        <v>260</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4611,7 +4614,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4639,16 +4642,16 @@
         <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4684,20 +4687,20 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4705,7 +4708,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4730,19 +4733,19 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
@@ -4753,7 +4756,7 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4778,19 +4781,19 @@
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L47" t="s">
         <v>106</v>
       </c>
       <c r="M47" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N47" t="s">
         <v>27</v>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4829,20 +4832,20 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4875,20 +4878,20 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4921,19 +4924,19 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K50" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N50" t="s">
         <v>258</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="N50" t="s">
-        <v>260</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4944,7 +4947,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4969,19 +4972,19 @@
         <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K51" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N51" t="s">
         <v>258</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="N51" t="s">
-        <v>260</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4992,7 +4995,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -5017,19 +5020,19 @@
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -5065,16 +5068,16 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K53" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5113,19 +5116,19 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s">
         <v>106</v>
       </c>
       <c r="M54" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N54" t="s">
         <v>27</v>
@@ -5139,7 +5142,7 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5167,16 +5170,16 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5187,7 +5190,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5212,19 +5215,19 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
@@ -5235,7 +5238,7 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5266,13 +5269,13 @@
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5308,19 +5311,19 @@
         <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
@@ -5331,7 +5334,7 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5362,13 +5365,13 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5376,7 +5379,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5407,13 +5410,13 @@
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L60" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="N60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
@@ -5424,7 +5427,7 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5455,16 +5458,16 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N61" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
@@ -5475,7 +5478,7 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5506,13 +5509,13 @@
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
@@ -5523,7 +5526,7 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5548,19 +5551,19 @@
         <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N63" t="s">
         <v>63</v>
@@ -5599,13 +5602,13 @@
         <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L64" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>39</v>
@@ -5647,19 +5650,19 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L65" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -5695,19 +5698,19 @@
         <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
@@ -5746,16 +5749,16 @@
         <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
@@ -5770,7 +5773,7 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5792,23 +5795,23 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I68" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L68" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5816,7 +5819,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5847,13 +5850,13 @@
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L69" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
@@ -5864,7 +5867,7 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5895,14 +5898,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L70" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5910,7 +5913,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5935,20 +5938,20 @@
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J71">
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5956,7 +5959,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5981,19 +5984,19 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K72" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L72" t="s">
         <v>47</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -6004,7 +6007,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -6032,16 +6035,16 @@
         <v>99</v>
       </c>
       <c r="K73" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L73" t="s">
+        <v>294</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N73" t="s">
         <v>296</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="N73" t="s">
-        <v>298</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -6052,7 +6055,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -6077,22 +6080,22 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N74" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
@@ -6103,7 +6106,7 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6128,22 +6131,22 @@
         <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L75" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6154,7 +6157,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6179,19 +6182,19 @@
         <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L76" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N76" t="s">
         <v>61</v>
@@ -6205,7 +6208,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6230,22 +6233,22 @@
         <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L77" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
@@ -6256,7 +6259,7 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6281,19 +6284,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="K78" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L78" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N78" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6335,10 +6338,10 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L79" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>48</v>
@@ -6383,10 +6386,10 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L80" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>54</v>
@@ -6431,10 +6434,10 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L81" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>56</v>
@@ -6482,10 +6485,10 @@
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L82" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>59</v>
@@ -6527,16 +6530,16 @@
         <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L83" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>60</v>
@@ -6578,19 +6581,19 @@
         <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L84" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N84" t="s">
         <v>51</v>
@@ -6632,14 +6635,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L85" t="s">
         <v>62</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6669,19 +6672,19 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I86" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L86" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6715,19 +6718,19 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I87" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L87" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6739,7 +6742,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6764,19 +6767,19 @@
         <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L88" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N88" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
@@ -6787,7 +6790,7 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6812,22 +6815,22 @@
         <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L89" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="N89" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
@@ -6838,7 +6841,7 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6863,22 +6866,22 @@
         <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L90" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N90" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
@@ -6889,7 +6892,7 @@
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6914,22 +6917,22 @@
         <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L91" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
@@ -6965,16 +6968,16 @@
         <v>29</v>
       </c>
       <c r="I92" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L92" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
@@ -7014,16 +7017,16 @@
         <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L93" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
@@ -7038,7 +7041,7 @@
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -7063,22 +7066,22 @@
         <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N94" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
@@ -7089,7 +7092,7 @@
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -7114,22 +7117,22 @@
         <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N95" t="s">
         <v>318</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="N95" t="s">
-        <v>320</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -7140,7 +7143,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7165,22 +7168,22 @@
         <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J96">
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L96" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N96" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -7191,7 +7194,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7216,22 +7219,22 @@
         <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L97" t="s">
+        <v>316</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="N97" t="s">
         <v>318</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="N97" t="s">
-        <v>320</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7264,16 +7267,16 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I98" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L98" t="s">
         <v>70</v>
@@ -7288,7 +7291,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7310,19 +7313,19 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I99" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L99" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7334,7 +7337,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7359,22 +7362,22 @@
         <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L100" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7416,7 +7419,7 @@
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>75</v>
@@ -7467,7 +7470,7 @@
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>75</v>
@@ -7512,22 +7515,22 @@
         <v>25</v>
       </c>
       <c r="I103" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L103" t="s">
         <v>72</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N103" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
@@ -7563,20 +7566,20 @@
         <v>25</v>
       </c>
       <c r="I104" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J104">
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>72</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7606,19 +7609,19 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I105" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
@@ -7652,19 +7655,19 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I106" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L106" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
@@ -7676,7 +7679,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7698,19 +7701,19 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I107" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L107" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7722,7 +7725,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7747,19 +7750,19 @@
         <v>29</v>
       </c>
       <c r="I108" t="s">
+        <v>326</v>
+      </c>
+      <c r="K108" t="s">
+        <v>445</v>
+      </c>
+      <c r="L108" t="s">
+        <v>658</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N108" t="s">
         <v>328</v>
-      </c>
-      <c r="K108" t="s">
-        <v>449</v>
-      </c>
-      <c r="L108" t="s">
-        <v>662</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N108" t="s">
-        <v>330</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7801,7 +7804,7 @@
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>83</v>
@@ -7819,7 +7822,7 @@
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7841,19 +7844,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I110" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L110" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7865,7 +7868,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7887,19 +7890,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I111" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L111" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7933,19 +7936,19 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I112" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
@@ -7979,22 +7982,22 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I113" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>86</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N113" t="s">
         <v>27</v>
@@ -8030,25 +8033,25 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I114" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N114" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
@@ -8059,7 +8062,7 @@
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -8081,19 +8084,19 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I115" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L115" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -8127,16 +8130,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I116" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>89</v>
@@ -8173,16 +8176,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I117" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>91</v>
@@ -8219,16 +8222,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I118" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>89</v>
@@ -8274,7 +8277,7 @@
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>83</v>
@@ -8317,19 +8320,19 @@
         <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L120" t="s">
         <v>94</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N120" t="s">
         <v>27</v>
@@ -8368,19 +8371,19 @@
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L121" t="s">
         <v>94</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N121" t="s">
         <v>27</v>
@@ -8391,7 +8394,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8413,20 +8416,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L122" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8434,7 +8437,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8459,22 +8462,22 @@
         <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L123" t="s">
         <v>97</v>
       </c>
       <c r="M123" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N123" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8482,7 +8485,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8507,22 +8510,22 @@
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L124" t="s">
         <v>97</v>
       </c>
       <c r="M124" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N124" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8530,7 +8533,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8555,22 +8558,22 @@
         <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L125" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N125" t="s">
         <v>337</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="N125" t="s">
-        <v>339</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8606,22 +8609,22 @@
         <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L126" t="s">
         <v>97</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N126" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8654,22 +8657,22 @@
         <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L127" t="s">
         <v>97</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N127" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8677,7 +8680,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8708,13 +8711,13 @@
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N128" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
@@ -8725,7 +8728,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8747,20 +8750,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L129" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8796,7 +8799,7 @@
         <v>99</v>
       </c>
       <c r="K130" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>100</v>
@@ -8847,13 +8850,13 @@
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>103</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N131" t="s">
         <v>104</v>
@@ -8867,7 +8870,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8892,20 +8895,20 @@
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L132" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8913,7 +8916,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8938,19 +8941,19 @@
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L133" t="s">
         <v>108</v>
       </c>
       <c r="M133" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N133" t="s">
         <v>27</v>
@@ -8964,7 +8967,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8989,19 +8992,19 @@
         <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L134" t="s">
         <v>108</v>
       </c>
       <c r="M134" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N134" t="s">
         <v>27</v>
@@ -9015,7 +9018,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -9040,19 +9043,19 @@
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L135" t="s">
         <v>108</v>
       </c>
       <c r="M135" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N135" t="s">
         <v>27</v>
@@ -9066,7 +9069,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -9091,19 +9094,19 @@
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L136" t="s">
         <v>106</v>
       </c>
       <c r="M136" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N136" t="s">
         <v>27</v>
@@ -9117,7 +9120,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -9139,20 +9142,23 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>490</v>
+        <v>486</v>
+      </c>
+      <c r="I137" t="s">
+        <v>601</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L137" t="s">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -9185,19 +9191,19 @@
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L138" t="s">
         <v>106</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N138" t="s">
         <v>27</v>
@@ -9236,19 +9242,19 @@
         <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L139" t="s">
         <v>108</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N139" t="s">
         <v>27</v>
@@ -9262,7 +9268,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9287,19 +9293,19 @@
         <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N140" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
@@ -9310,7 +9316,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9332,14 +9338,14 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L141" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
@@ -9350,7 +9356,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9374,17 +9380,20 @@
       <c r="H142" t="s">
         <v>25</v>
       </c>
+      <c r="I142" t="s">
+        <v>490</v>
+      </c>
       <c r="J142" t="s">
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L142" t="s">
-        <v>110</v>
+        <v>668</v>
       </c>
       <c r="M142" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N142" t="s">
         <v>27</v>
@@ -9398,7 +9407,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9422,17 +9431,20 @@
       <c r="H143" t="s">
         <v>25</v>
       </c>
+      <c r="I143" t="s">
+        <v>492</v>
+      </c>
       <c r="J143">
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L143" t="s">
-        <v>110</v>
+        <v>668</v>
       </c>
       <c r="M143" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N143" t="s">
         <v>27</v>
@@ -9446,7 +9458,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9471,22 +9483,22 @@
         <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>464</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>357</v>
+        <v>460</v>
+      </c>
+      <c r="L144" t="s">
+        <v>669</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N144" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9521,17 +9533,20 @@
       <c r="H145" t="s">
         <v>25</v>
       </c>
+      <c r="I145" t="s">
+        <v>490</v>
+      </c>
       <c r="J145" t="s">
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L145" t="s">
-        <v>110</v>
+        <v>668</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N145" t="s">
         <v>27</v>
@@ -9545,7 +9560,7 @@
     </row>
     <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B146">
         <v>140</v>
@@ -9569,17 +9584,20 @@
       <c r="H146" t="s">
         <v>25</v>
       </c>
+      <c r="I146" t="s">
+        <v>492</v>
+      </c>
       <c r="J146">
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L146" t="s">
-        <v>110</v>
+        <v>668</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N146" t="s">
         <v>27</v>
@@ -9593,7 +9611,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9615,16 +9633,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+      <c r="I147" t="s">
+        <v>665</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L147" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9636,7 +9657,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9660,14 +9681,17 @@
       <c r="H148" t="s">
         <v>25</v>
       </c>
+      <c r="I148" t="s">
+        <v>490</v>
+      </c>
       <c r="J148" t="s">
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M148"/>
       <c r="N148" t="s">
@@ -9679,7 +9703,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9703,14 +9727,17 @@
       <c r="H149" t="s">
         <v>25</v>
       </c>
+      <c r="I149" t="s">
+        <v>492</v>
+      </c>
       <c r="J149">
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="s">
@@ -9722,7 +9749,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9746,17 +9773,20 @@
       <c r="H150" t="s">
         <v>25</v>
       </c>
+      <c r="I150" t="s">
+        <v>490</v>
+      </c>
       <c r="J150" t="s">
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L150" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M150" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N150" t="s">
         <v>27</v>
@@ -9770,7 +9800,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9794,17 +9824,20 @@
       <c r="H151" t="s">
         <v>29</v>
       </c>
+      <c r="I151" t="s">
+        <v>99</v>
+      </c>
       <c r="K151" t="s">
-        <v>440</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>103</v>
+        <v>436</v>
+      </c>
+      <c r="L151" t="s">
+        <v>670</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N151" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9815,7 +9848,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9839,17 +9872,20 @@
       <c r="H152" t="s">
         <v>29</v>
       </c>
+      <c r="I152" t="s">
+        <v>99</v>
+      </c>
       <c r="K152" t="s">
-        <v>440</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>103</v>
+        <v>436</v>
+      </c>
+      <c r="L152" t="s">
+        <v>670</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N152" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9860,7 +9896,7 @@
     </row>
     <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B153">
         <v>147</v>
@@ -9884,17 +9920,20 @@
       <c r="H153" t="s">
         <v>25</v>
       </c>
+      <c r="I153" t="s">
+        <v>492</v>
+      </c>
       <c r="J153">
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N153" t="s">
         <v>27</v>
@@ -9908,7 +9947,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9932,18 +9971,21 @@
       <c r="H154" t="s">
         <v>25</v>
       </c>
+      <c r="I154" t="s">
+        <v>490</v>
+      </c>
       <c r="J154">
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L154" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>116</v>
+        <v>671</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9951,7 +9993,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -9976,22 +10018,22 @@
         <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>464</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>357</v>
+        <v>460</v>
+      </c>
+      <c r="L155" t="s">
+        <v>669</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N155" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -10002,7 +10044,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -10026,17 +10068,20 @@
       <c r="H156" t="s">
         <v>29</v>
       </c>
+      <c r="I156" t="s">
+        <v>99</v>
+      </c>
       <c r="K156" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L156" t="s">
-        <v>103</v>
+        <v>670</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N156" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -10047,7 +10092,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -10075,16 +10120,16 @@
         <v>99</v>
       </c>
       <c r="K157" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L157" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N157" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -10095,7 +10140,7 @@
     </row>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B158">
         <v>152</v>
@@ -10123,16 +10168,16 @@
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N158" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O158">
         <v>-0.22135433163216334</v>
@@ -10140,7 +10185,7 @@
     </row>
     <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B159">
         <v>153</v>
@@ -10168,13 +10213,13 @@
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L159" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N159" t="s">
         <v>27</v>
@@ -10185,7 +10230,7 @@
     </row>
     <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B160">
         <v>154</v>
@@ -10213,13 +10258,13 @@
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L160" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N160" t="s">
         <v>27</v>
@@ -10230,7 +10275,7 @@
     </row>
     <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B161">
         <v>155</v>
@@ -10258,13 +10303,13 @@
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L161" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N161" t="s">
         <v>27</v>
@@ -10275,7 +10320,7 @@
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B162">
         <v>156</v>
@@ -10303,10 +10348,10 @@
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L162" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M162" s="4"/>
       <c r="N162" t="s">
@@ -10318,7 +10363,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10340,14 +10385,14 @@
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L163" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
@@ -10358,7 +10403,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10389,10 +10434,10 @@
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N164" t="s">
         <v>27</v>
@@ -10403,7 +10448,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10431,16 +10476,16 @@
         <v>99</v>
       </c>
       <c r="K165" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N165" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10451,7 +10496,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10476,16 +10521,16 @@
         <v>29</v>
       </c>
       <c r="K166" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L166" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N166" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10496,7 +10541,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10521,16 +10566,16 @@
         <v>29</v>
       </c>
       <c r="K167" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N167" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10541,7 +10586,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10566,16 +10611,16 @@
         <v>29</v>
       </c>
       <c r="K168" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N168" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10586,7 +10631,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10611,16 +10656,16 @@
         <v>29</v>
       </c>
       <c r="K169" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N169" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10631,7 +10676,7 @@
     </row>
     <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B170">
         <v>164</v>
@@ -10659,16 +10704,16 @@
         <v>99</v>
       </c>
       <c r="K170" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M170" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N170" t="s">
         <v>124</v>
-      </c>
-      <c r="M170" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N170" t="s">
-        <v>126</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
@@ -10679,7 +10724,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10707,16 +10752,16 @@
         <v>99</v>
       </c>
       <c r="K171" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N171" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
@@ -10727,7 +10772,7 @@
     </row>
     <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B172">
         <v>166</v>
@@ -10758,13 +10803,13 @@
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>103</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="N172" t="s">
         <v>104</v>
@@ -10778,7 +10823,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10806,14 +10851,14 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L173" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
@@ -10824,7 +10869,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10849,19 +10894,19 @@
         <v>29</v>
       </c>
       <c r="I174" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K174" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N174" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10872,7 +10917,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10897,19 +10942,19 @@
         <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K175" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N175" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
@@ -10920,7 +10965,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10942,16 +10987,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L176" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -10963,7 +11008,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -10985,20 +11030,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L177" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -11006,7 +11051,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -11037,10 +11082,10 @@
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
@@ -11055,7 +11100,7 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -11083,10 +11128,10 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
@@ -11098,7 +11143,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -11126,13 +11171,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N180" t="s">
         <v>27</v>
@@ -11143,7 +11188,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -11174,10 +11219,10 @@
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
@@ -11192,7 +11237,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11220,10 +11265,10 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L182" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
@@ -11235,7 +11280,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11263,13 +11308,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N183" t="s">
         <v>27</v>
@@ -11283,7 +11328,7 @@
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11311,13 +11356,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N184" t="s">
         <v>27</v>
@@ -11331,7 +11376,7 @@
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11359,13 +11404,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N185" t="s">
         <v>27</v>
@@ -11379,7 +11424,7 @@
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11407,13 +11452,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N186" t="s">
         <v>27</v>
@@ -11427,7 +11472,7 @@
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11455,13 +11500,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N187" t="s">
         <v>27</v>
@@ -11475,7 +11520,7 @@
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11503,13 +11548,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N188" t="s">
         <v>27</v>
@@ -11523,7 +11568,7 @@
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11551,13 +11596,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N189" t="s">
         <v>27</v>
@@ -11571,7 +11616,7 @@
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11599,13 +11644,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N190" t="s">
         <v>27</v>
@@ -11619,7 +11664,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11647,13 +11692,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L191" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M191" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N191" t="s">
         <v>27</v>
@@ -11667,7 +11712,7 @@
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11695,13 +11740,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N192" t="s">
         <v>27</v>
@@ -11715,7 +11760,7 @@
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11743,13 +11788,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N193" t="s">
         <v>27</v>
@@ -11763,7 +11808,7 @@
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11791,13 +11836,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N194" t="s">
         <v>27</v>
@@ -11811,7 +11856,7 @@
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11839,10 +11884,10 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
@@ -11854,7 +11899,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11882,13 +11927,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N196" t="s">
         <v>27</v>
@@ -11902,7 +11947,7 @@
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11930,14 +11975,14 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
@@ -11948,7 +11993,7 @@
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -11976,13 +12021,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N198" t="s">
         <v>27</v>
@@ -11996,7 +12041,7 @@
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -12024,13 +12069,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N199" t="s">
         <v>27</v>
@@ -12044,7 +12089,7 @@
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -12075,10 +12120,10 @@
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
@@ -12093,7 +12138,7 @@
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -12121,13 +12166,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L201" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="N201" t="s">
         <v>27</v>
@@ -12138,7 +12183,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -12166,13 +12211,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L202" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="N202" t="s">
         <v>27</v>
@@ -12183,7 +12228,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12211,13 +12256,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L203" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N203" t="s">
         <v>27</v>
@@ -12228,7 +12273,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12256,13 +12301,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L204" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N204" t="s">
         <v>27</v>
@@ -12273,7 +12318,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12301,13 +12346,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L205" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N205" t="s">
         <v>27</v>
@@ -12318,7 +12363,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12349,14 +12394,14 @@
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
@@ -12367,7 +12412,7 @@
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12392,16 +12437,16 @@
         <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N207" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12412,7 +12457,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12437,20 +12482,20 @@
         <v>29</v>
       </c>
       <c r="I208" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
@@ -12461,7 +12506,7 @@
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12489,10 +12534,10 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L209" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
@@ -12504,7 +12549,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12529,19 +12574,19 @@
         <v>25</v>
       </c>
       <c r="I210" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L210" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N210" t="s">
         <v>27</v>
@@ -12555,7 +12600,7 @@
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12580,19 +12625,19 @@
         <v>25</v>
       </c>
       <c r="I211" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L211" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="N211" t="s">
         <v>27</v>
@@ -12606,7 +12651,7 @@
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12634,16 +12679,16 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L212" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N212" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O212">
         <v>-1.643274748826002</v>
@@ -12654,7 +12699,7 @@
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12685,14 +12730,14 @@
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
@@ -12703,7 +12748,7 @@
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12731,10 +12776,10 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L214" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
@@ -12746,7 +12791,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12774,13 +12819,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L215" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N215" t="s">
         <v>27</v>
@@ -12794,7 +12839,7 @@
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12825,13 +12870,13 @@
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N216" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
@@ -12842,7 +12887,7 @@
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12867,19 +12912,19 @@
         <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N217" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
@@ -12890,7 +12935,7 @@
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12918,13 +12963,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L218" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N218" t="s">
         <v>27</v>
@@ -12938,7 +12983,7 @@
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -12966,13 +13011,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L219" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="N219" t="s">
         <v>27</v>
@@ -12986,7 +13031,7 @@
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -13014,13 +13059,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L220" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N220" t="s">
         <v>27</v>
@@ -13034,7 +13079,7 @@
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -13062,13 +13107,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L221" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N221" t="s">
         <v>27</v>
@@ -13082,7 +13127,7 @@
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -13104,20 +13149,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L222" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -13125,7 +13170,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -13153,16 +13198,16 @@
         <v>99</v>
       </c>
       <c r="K223" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N223" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -13173,7 +13218,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13201,16 +13246,16 @@
         <v>99</v>
       </c>
       <c r="K224" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N224" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -13221,7 +13266,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13249,16 +13294,16 @@
         <v>99</v>
       </c>
       <c r="K225" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M225" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N225" t="s">
         <v>194</v>
-      </c>
-      <c r="M225" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="N225" t="s">
-        <v>196</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
@@ -13269,7 +13314,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13297,16 +13342,16 @@
         <v>99</v>
       </c>
       <c r="K226" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L226" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M226" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N226" t="s">
         <v>194</v>
-      </c>
-      <c r="M226" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="N226" t="s">
-        <v>196</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
@@ -13317,7 +13362,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13348,14 +13393,14 @@
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
@@ -13366,7 +13411,7 @@
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13394,16 +13439,16 @@
         <v>99</v>
       </c>
       <c r="K228" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13414,7 +13459,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13442,13 +13487,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L229" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="N229" t="s">
         <v>27</v>
@@ -13462,7 +13507,7 @@
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13490,13 +13535,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L230" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="N230" t="s">
         <v>27</v>
@@ -13510,7 +13555,7 @@
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13538,13 +13583,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L231" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="N231" t="s">
         <v>27</v>
@@ -13558,7 +13603,7 @@
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13586,13 +13631,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L232" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="N232" t="s">
         <v>27</v>
@@ -13606,7 +13651,7 @@
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13634,13 +13679,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L233" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="N233" t="s">
         <v>27</v>
@@ -13654,7 +13699,7 @@
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13682,13 +13727,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L234" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="N234" t="s">
         <v>27</v>
@@ -13702,7 +13747,7 @@
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13730,13 +13775,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L235" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N235" t="s">
         <v>27</v>
@@ -13750,7 +13795,7 @@
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13778,13 +13823,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L236" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N236" t="s">
         <v>27</v>
@@ -13798,7 +13843,7 @@
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13826,13 +13871,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L237" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="N237" t="s">
         <v>27</v>
@@ -13846,7 +13891,7 @@
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13874,13 +13919,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L238" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="N238" t="s">
         <v>27</v>
@@ -13924,43 +13969,38 @@
     <hyperlink ref="L125" r:id="rId28" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
     <hyperlink ref="L128" r:id="rId29" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
     <hyperlink ref="L140" r:id="rId30" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
-    <hyperlink ref="L144" r:id="rId31" xr:uid="{7F007D2B-6A8D-4D0E-A587-17A62313DC20}"/>
-    <hyperlink ref="L151" r:id="rId32" xr:uid="{D97A931C-CC99-480E-A4AC-AD81A020B684}"/>
-    <hyperlink ref="L152" r:id="rId33" xr:uid="{142BBEE0-4F73-4E46-BE81-C484CEB855BD}"/>
-    <hyperlink ref="L156" r:id="rId34" xr:uid="{C129A63A-5CBE-420C-9C34-F4FB3F433FE9}"/>
-    <hyperlink ref="L166" r:id="rId35" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
-    <hyperlink ref="L167" r:id="rId36" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
-    <hyperlink ref="L168" r:id="rId37" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
-    <hyperlink ref="L169" r:id="rId38" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
-    <hyperlink ref="L207" r:id="rId39" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
-    <hyperlink ref="L157" r:id="rId40" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
-    <hyperlink ref="L165" r:id="rId41" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
-    <hyperlink ref="L164" r:id="rId42" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
-    <hyperlink ref="L174" r:id="rId43" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
-    <hyperlink ref="L216" r:id="rId44" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
-    <hyperlink ref="L217" r:id="rId45" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
-    <hyperlink ref="L227" r:id="rId46" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
-    <hyperlink ref="L124:L127" r:id="rId47" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
-    <hyperlink ref="L227:L228" r:id="rId48" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
-    <hyperlink ref="L208" r:id="rId49" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
-    <hyperlink ref="L131" r:id="rId50" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
-    <hyperlink ref="L172" r:id="rId51" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
-    <hyperlink ref="L175" r:id="rId52" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
-    <hyperlink ref="L40" r:id="rId53" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
-    <hyperlink ref="L159:L166" r:id="rId54" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
-    <hyperlink ref="L187:L207" r:id="rId55" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
-    <hyperlink ref="L130" r:id="rId56" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
-    <hyperlink ref="L170" r:id="rId57" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
-    <hyperlink ref="L171" r:id="rId58" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
-    <hyperlink ref="L206" r:id="rId59" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
-    <hyperlink ref="L213" r:id="rId60" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
-    <hyperlink ref="L155" r:id="rId61" xr:uid="{93DCE561-8371-E147-BD7B-60CE70B5B69C}"/>
-    <hyperlink ref="L123" r:id="rId62" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
-    <hyperlink ref="L126" r:id="rId63" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
+    <hyperlink ref="L166" r:id="rId31" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
+    <hyperlink ref="L167" r:id="rId32" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
+    <hyperlink ref="L168" r:id="rId33" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
+    <hyperlink ref="L169" r:id="rId34" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
+    <hyperlink ref="L207" r:id="rId35" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
+    <hyperlink ref="L157" r:id="rId36" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
+    <hyperlink ref="L165" r:id="rId37" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
+    <hyperlink ref="L164" r:id="rId38" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
+    <hyperlink ref="L174" r:id="rId39" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
+    <hyperlink ref="L216" r:id="rId40" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
+    <hyperlink ref="L217" r:id="rId41" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
+    <hyperlink ref="L227" r:id="rId42" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
+    <hyperlink ref="L124:L127" r:id="rId43" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
+    <hyperlink ref="L227:L228" r:id="rId44" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
+    <hyperlink ref="L208" r:id="rId45" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
+    <hyperlink ref="L131" r:id="rId46" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
+    <hyperlink ref="L172" r:id="rId47" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
+    <hyperlink ref="L175" r:id="rId48" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
+    <hyperlink ref="L40" r:id="rId49" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
+    <hyperlink ref="L159:L166" r:id="rId50" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
+    <hyperlink ref="L187:L207" r:id="rId51" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
+    <hyperlink ref="L130" r:id="rId52" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
+    <hyperlink ref="L170" r:id="rId53" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
+    <hyperlink ref="L171" r:id="rId54" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
+    <hyperlink ref="L206" r:id="rId55" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
+    <hyperlink ref="L213" r:id="rId56" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
+    <hyperlink ref="L123" r:id="rId57" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
+    <hyperlink ref="L126" r:id="rId58" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717D0FA-712D-314B-8137-4B7EEC6C4F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D71083E-2DE4-F94B-B1DF-0C4639BEB6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="672">
   <si>
     <t>Isotope</t>
   </si>
@@ -418,9 +418,6 @@
     <t>122Sb</t>
   </si>
   <si>
-    <t>B.V. Zhuravlev et al. PAN 69, 363 (2006)</t>
-  </si>
-  <si>
     <t>Accepted/NLD_51_122_2.csv</t>
   </si>
   <si>
@@ -2066,6 +2063,9 @@
   </si>
   <si>
     <t>Combines results from previous works. Found the average uncertainty to be ~10% for the Oslo method</t>
+  </si>
+  <si>
+    <t>B. V. Zhuravlev, Phys. Atom. Nucl. 69, 363–370 (2006)</t>
   </si>
 </sst>
 </file>
@@ -2524,9 +2524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I162" sqref="I162"/>
+      <selection pane="topRight" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -2561,10 +2561,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -2579,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>7</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2624,19 +2624,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2675,20 +2675,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2721,19 +2721,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2769,19 +2769,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2823,10 +2823,10 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2838,7 +2838,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2863,19 +2863,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2911,20 +2911,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2957,19 +2957,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -3005,19 +3005,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3053,19 +3053,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3101,19 +3101,19 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3152,14 +3152,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3195,14 +3195,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3235,22 +3235,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3283,22 +3283,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3331,22 +3331,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3376,19 +3376,19 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3400,7 +3400,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3422,23 +3422,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3471,22 +3471,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3519,19 +3519,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3570,19 +3570,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s">
         <v>230</v>
-      </c>
-      <c r="N22" t="s">
-        <v>231</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3618,19 +3618,19 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3669,19 +3669,19 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
@@ -3720,16 +3720,16 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
@@ -3741,7 +3741,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3766,20 +3766,20 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3812,19 +3812,19 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N27" t="s">
         <v>27</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3869,10 +3869,10 @@
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3884,7 +3884,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3909,19 +3909,19 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N29" t="s">
         <v>27</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3960,22 +3960,22 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
@@ -4008,25 +4008,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -4056,25 +4056,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4110,13 +4110,13 @@
         <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="N33" t="s">
         <v>61</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4158,13 +4158,13 @@
         <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4206,13 +4206,13 @@
         <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4251,19 +4251,19 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N36" t="s">
         <v>27</v>
@@ -4302,19 +4302,19 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L37" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4353,16 +4353,16 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" t="s">
+        <v>428</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K38" t="s">
-        <v>429</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="N38" t="s">
         <v>61</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4407,14 +4407,14 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L39" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4450,7 +4450,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4495,19 +4495,19 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" t="s">
+        <v>430</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K41" t="s">
-        <v>431</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="M41" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="N41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4543,16 +4543,16 @@
         <v>29</v>
       </c>
       <c r="I42" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" t="s">
+        <v>427</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="K42" t="s">
-        <v>428</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="N42" t="s">
         <v>61</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4591,19 +4591,19 @@
         <v>29</v>
       </c>
       <c r="I43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" t="s">
+        <v>430</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K43" t="s">
-        <v>431</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="M43" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4642,16 +4642,16 @@
         <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4687,20 +4687,20 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4733,19 +4733,19 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4781,19 +4781,19 @@
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L47" t="s">
         <v>106</v>
       </c>
       <c r="M47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N47" t="s">
         <v>27</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4832,20 +4832,20 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4878,20 +4878,20 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4924,19 +4924,19 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
+        <v>254</v>
+      </c>
+      <c r="K50" t="s">
+        <v>430</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K50" t="s">
-        <v>431</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="M50" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4972,19 +4972,19 @@
         <v>29</v>
       </c>
       <c r="I51" t="s">
+        <v>254</v>
+      </c>
+      <c r="K51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K51" t="s">
-        <v>431</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="M51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -5020,19 +5020,19 @@
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -5068,16 +5068,16 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5116,19 +5116,19 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L54" t="s">
         <v>106</v>
       </c>
       <c r="M54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N54" t="s">
         <v>27</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5170,16 +5170,16 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N55" t="s">
         <v>273</v>
-      </c>
-      <c r="N55" t="s">
-        <v>274</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5215,19 +5215,19 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5269,13 +5269,13 @@
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5311,19 +5311,19 @@
         <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5365,13 +5365,13 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5410,13 +5410,13 @@
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5458,16 +5458,16 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L61" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="N61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5509,13 +5509,13 @@
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5551,19 +5551,19 @@
         <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s">
         <v>63</v>
@@ -5602,13 +5602,13 @@
         <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L64" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>39</v>
@@ -5650,19 +5650,19 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -5698,19 +5698,19 @@
         <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L66" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
@@ -5749,16 +5749,16 @@
         <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L67" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
@@ -5773,7 +5773,7 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5795,23 +5795,23 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I68" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L68" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5850,13 +5850,13 @@
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L69" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5898,14 +5898,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5938,20 +5938,20 @@
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J71">
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L71" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5984,19 +5984,19 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L72" t="s">
         <v>47</v>
       </c>
       <c r="M72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N72" t="s">
         <v>292</v>
-      </c>
-      <c r="N72" t="s">
-        <v>293</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -6035,16 +6035,16 @@
         <v>99</v>
       </c>
       <c r="K73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L73" t="s">
+        <v>293</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" t="s">
         <v>295</v>
-      </c>
-      <c r="N73" t="s">
-        <v>296</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -6080,22 +6080,22 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6131,22 +6131,22 @@
         <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L75" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6182,19 +6182,19 @@
         <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N76" t="s">
         <v>61</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6233,22 +6233,22 @@
         <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L77" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6284,19 +6284,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L78" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M78" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="N78" t="s">
         <v>304</v>
-      </c>
-      <c r="N78" t="s">
-        <v>305</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6338,10 +6338,10 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L79" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>48</v>
@@ -6386,10 +6386,10 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L80" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>54</v>
@@ -6434,10 +6434,10 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L81" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>56</v>
@@ -6485,10 +6485,10 @@
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L82" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>59</v>
@@ -6530,16 +6530,16 @@
         <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>60</v>
@@ -6581,19 +6581,19 @@
         <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L84" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N84" t="s">
         <v>51</v>
@@ -6635,14 +6635,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L85" t="s">
         <v>62</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6672,19 +6672,19 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I86" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L86" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6718,19 +6718,19 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I87" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L87" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6742,7 +6742,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6767,19 +6767,19 @@
         <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L88" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6815,22 +6815,22 @@
         <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L89" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6866,22 +6866,22 @@
         <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L90" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O90">
         <v>1.3693978512231944</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -6917,22 +6917,22 @@
         <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L91" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O91">
         <v>0.52638453889420589</v>
@@ -6968,16 +6968,16 @@
         <v>29</v>
       </c>
       <c r="I92" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L92" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" t="s">
@@ -7017,16 +7017,16 @@
         <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L93" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" t="s">
@@ -7041,7 +7041,7 @@
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B94">
         <v>90</v>
@@ -7066,22 +7066,22 @@
         <v>29</v>
       </c>
       <c r="I94" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L94" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="N94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O94">
         <v>2.7920567212932568</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B95">
         <v>91</v>
@@ -7117,22 +7117,22 @@
         <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J95">
         <v>0.23599999999999999</v>
       </c>
       <c r="K95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L95" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" t="s">
         <v>317</v>
-      </c>
-      <c r="N95" t="s">
-        <v>318</v>
       </c>
       <c r="O95">
         <v>1.1060171919770774</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -7168,22 +7168,22 @@
         <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J96">
         <v>0.23599999999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L96" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N96" t="s">
         <v>319</v>
-      </c>
-      <c r="N96" t="s">
-        <v>320</v>
       </c>
       <c r="O96">
         <v>1.1060171919770774</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B97">
         <v>93</v>
@@ -7219,22 +7219,22 @@
         <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J97">
         <v>0.22120000000000001</v>
       </c>
       <c r="K97" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O97">
         <v>0.26752984693920112</v>
@@ -7267,16 +7267,16 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I98" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J98">
         <v>0.24299999999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L98" t="s">
         <v>70</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B99">
         <v>95</v>
@@ -7313,19 +7313,19 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I99" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L99" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="s">
@@ -7337,7 +7337,7 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B100">
         <v>96</v>
@@ -7362,22 +7362,22 @@
         <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J100">
         <v>0.22570000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L100" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M100" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N100" t="s">
         <v>327</v>
-      </c>
-      <c r="N100" t="s">
-        <v>328</v>
       </c>
       <c r="O100">
         <v>0.59937720643963388</v>
@@ -7419,7 +7419,7 @@
         <v>0.2009</v>
       </c>
       <c r="K101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>75</v>
@@ -7470,7 +7470,7 @@
         <v>0.18779999999999999</v>
       </c>
       <c r="K102" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L102" s="9" t="s">
         <v>75</v>
@@ -7515,22 +7515,22 @@
         <v>25</v>
       </c>
       <c r="I103" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L103" t="s">
         <v>72</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N103" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O103">
         <v>-0.64419730298436662</v>
@@ -7566,20 +7566,20 @@
         <v>25</v>
       </c>
       <c r="I104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J104">
         <v>0.2009</v>
       </c>
       <c r="K104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>72</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O104">
         <v>-1.0573149088805707</v>
@@ -7609,19 +7609,19 @@
         <v>3.4</v>
       </c>
       <c r="H105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I105" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J105">
         <v>0.18779999999999999</v>
       </c>
       <c r="K105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" t="s">
@@ -7655,19 +7655,19 @@
         <v>3.5</v>
       </c>
       <c r="H106" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I106" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J106">
         <v>0.18779999999999999</v>
       </c>
       <c r="K106" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L106" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" t="s">
@@ -7679,7 +7679,7 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B107">
         <v>103</v>
@@ -7701,19 +7701,19 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H107" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I107" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L107" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="s">
@@ -7725,7 +7725,7 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B108">
         <v>104</v>
@@ -7750,19 +7750,19 @@
         <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K108" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L108" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O108">
         <v>2.015327114805423</v>
@@ -7804,7 +7804,7 @@
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>83</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B110">
         <v>106</v>
@@ -7844,19 +7844,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H110" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I110" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L110" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M110"/>
       <c r="N110" t="s">
@@ -7868,7 +7868,7 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B111">
         <v>107</v>
@@ -7890,19 +7890,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I111" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
@@ -7936,19 +7936,19 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I112" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" t="s">
@@ -7982,22 +7982,22 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I113" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>86</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N113" t="s">
         <v>27</v>
@@ -8033,25 +8033,25 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J114">
         <v>0.123</v>
       </c>
       <c r="K114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>80</v>
       </c>
       <c r="M114" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="N114" t="s">
         <v>526</v>
-      </c>
-      <c r="N114" t="s">
-        <v>527</v>
       </c>
       <c r="O114">
         <v>-2.7701865939285355</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B115">
         <v>111</v>
@@ -8084,19 +8084,19 @@
         <v>0.10000000000000053</v>
       </c>
       <c r="H115" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I115" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L115" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M115"/>
       <c r="N115" t="s">
@@ -8130,16 +8130,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H116" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I116" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>89</v>
@@ -8176,16 +8176,16 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="H117" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I117" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
       </c>
       <c r="K117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>91</v>
@@ -8222,16 +8222,16 @@
         <v>0.40000000000000036</v>
       </c>
       <c r="H118" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
       </c>
       <c r="K118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>89</v>
@@ -8277,7 +8277,7 @@
         <v>14</v>
       </c>
       <c r="K119" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>83</v>
@@ -8320,19 +8320,19 @@
         <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L120" t="s">
         <v>94</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N120" t="s">
         <v>27</v>
@@ -8371,19 +8371,19 @@
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
       </c>
       <c r="K121" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L121" t="s">
         <v>94</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N121" t="s">
         <v>27</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B122">
         <v>118</v>
@@ -8416,20 +8416,20 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J122">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M122"/>
       <c r="N122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O122">
         <v>0.42406259928736034</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B123">
         <v>119</v>
@@ -8462,22 +8462,22 @@
         <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L123" t="s">
         <v>97</v>
       </c>
       <c r="M123" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N123" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O123">
         <v>2.212388393911624E-2</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B124">
         <v>119</v>
@@ -8510,22 +8510,22 @@
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
       </c>
       <c r="K124" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L124" t="s">
         <v>97</v>
       </c>
       <c r="M124" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N124" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O124">
         <v>2.212388393911624E-2</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -8558,22 +8558,22 @@
         <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J125">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="K125" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L125" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M125" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="N125" t="s">
         <v>336</v>
-      </c>
-      <c r="N125" t="s">
-        <v>337</v>
       </c>
       <c r="O125">
         <v>0.42406259928736034</v>
@@ -8609,22 +8609,22 @@
         <v>25</v>
       </c>
       <c r="I126" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J126">
         <v>0.10100000000000001</v>
       </c>
       <c r="K126" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L126" t="s">
         <v>97</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N126" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O126">
         <v>-0.3791956163117618</v>
@@ -8657,22 +8657,22 @@
         <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J127">
         <v>0.10100000000000001</v>
       </c>
       <c r="K127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L127" t="s">
         <v>97</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O127">
         <v>-0.3791956163117618</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B128">
         <v>122</v>
@@ -8711,13 +8711,13 @@
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N128" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O128">
         <v>1.4240625992873603</v>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B129">
         <v>123</v>
@@ -8750,20 +8750,20 @@
         <v>3.5</v>
       </c>
       <c r="H129" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O129">
         <v>1.4240625992873603</v>
@@ -8799,7 +8799,7 @@
         <v>99</v>
       </c>
       <c r="K130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>100</v>
@@ -8850,13 +8850,13 @@
         <v>14</v>
       </c>
       <c r="K131" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>103</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N131" t="s">
         <v>104</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B132">
         <v>126</v>
@@ -8895,20 +8895,20 @@
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O132">
         <v>1.6208043836882382</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B133">
         <v>127</v>
@@ -8941,19 +8941,19 @@
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L133" t="s">
         <v>108</v>
       </c>
       <c r="M133" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N133" t="s">
         <v>27</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B134">
         <v>128</v>
@@ -8992,19 +8992,19 @@
         <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J134">
         <v>0.15110000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L134" t="s">
         <v>108</v>
       </c>
       <c r="M134" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N134" t="s">
         <v>27</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B135">
         <v>129</v>
@@ -9043,19 +9043,19 @@
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
       </c>
       <c r="K135" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L135" t="s">
         <v>108</v>
       </c>
       <c r="M135" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N135" t="s">
         <v>27</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B136">
         <v>130</v>
@@ -9094,19 +9094,19 @@
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J136">
         <v>0.17150000000000001</v>
       </c>
       <c r="K136" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L136" t="s">
         <v>106</v>
       </c>
       <c r="M136" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N136" t="s">
         <v>27</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -9142,23 +9142,23 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I137" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J137">
         <v>0.17150000000000001</v>
       </c>
       <c r="K137" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L137" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O137">
         <v>2.1642134891465048E-2</v>
@@ -9191,19 +9191,19 @@
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L138" t="s">
         <v>106</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N138" t="s">
         <v>27</v>
@@ -9242,19 +9242,19 @@
         <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J139">
         <v>0.1691</v>
       </c>
       <c r="K139" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L139" t="s">
         <v>108</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N139" t="s">
         <v>27</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B140">
         <v>134</v>
@@ -9293,19 +9293,19 @@
         <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
       </c>
       <c r="K140" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L140" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N140" t="s">
         <v>349</v>
-      </c>
-      <c r="N140" t="s">
-        <v>350</v>
       </c>
       <c r="O140">
         <v>1.021642134891465</v>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B141">
         <v>135</v>
@@ -9338,14 +9338,14 @@
         <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L141" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M141"/>
       <c r="N141" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O141">
         <v>1.021642134891465</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B142">
         <v>136</v>
@@ -9381,19 +9381,19 @@
         <v>25</v>
       </c>
       <c r="I142" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J142" t="s">
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L142" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M142" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N142" t="s">
         <v>27</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B143">
         <v>137</v>
@@ -9432,19 +9432,19 @@
         <v>25</v>
       </c>
       <c r="I143" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J143">
         <v>0.16200000000000001</v>
       </c>
       <c r="K143" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L143" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M143" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N143" t="s">
         <v>27</v>
@@ -9458,7 +9458,7 @@
     </row>
     <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B144">
         <v>138</v>
@@ -9483,22 +9483,22 @@
         <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J144">
         <v>0.20899999999999999</v>
       </c>
       <c r="K144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L144" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M144" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="N144" t="s">
         <v>354</v>
-      </c>
-      <c r="N144" t="s">
-        <v>355</v>
       </c>
       <c r="O144">
         <v>0.85191670549278342</v>
@@ -9534,19 +9534,19 @@
         <v>25</v>
       </c>
       <c r="I145" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J145" t="s">
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L145" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N145" t="s">
         <v>27</v>
@@ -9585,19 +9585,19 @@
         <v>25</v>
       </c>
       <c r="I146" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J146">
         <v>0.24299999999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L146" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N146" t="s">
         <v>27</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="147" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B147">
         <v>141</v>
@@ -9633,19 +9633,19 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I147" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L147" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M147"/>
       <c r="N147" t="s">
@@ -9657,7 +9657,7 @@
     </row>
     <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B148">
         <v>142</v>
@@ -9682,13 +9682,13 @@
         <v>25</v>
       </c>
       <c r="I148" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L148" t="s">
         <v>112</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B149">
         <v>143</v>
@@ -9728,13 +9728,13 @@
         <v>25</v>
       </c>
       <c r="I149" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J149">
         <v>0.16769999999999999</v>
       </c>
       <c r="K149" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L149" t="s">
         <v>112</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B150">
         <v>144</v>
@@ -9774,19 +9774,19 @@
         <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L150" t="s">
         <v>112</v>
       </c>
       <c r="M150" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N150" t="s">
         <v>27</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B151">
         <v>145</v>
@@ -9828,16 +9828,16 @@
         <v>99</v>
       </c>
       <c r="K151" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L151" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M151" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N151" t="s">
         <v>363</v>
-      </c>
-      <c r="N151" t="s">
-        <v>364</v>
       </c>
       <c r="O151">
         <v>1.6728164405532056</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B152">
         <v>146</v>
@@ -9876,16 +9876,16 @@
         <v>99</v>
       </c>
       <c r="K152" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L152" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N152" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O152">
         <v>0.88957202090941223</v>
@@ -9921,19 +9921,19 @@
         <v>25</v>
       </c>
       <c r="I153" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J153">
         <v>0.18179999999999999</v>
       </c>
       <c r="K153" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L153" t="s">
         <v>112</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N153" t="s">
         <v>27</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B154">
         <v>148</v>
@@ -9972,20 +9972,20 @@
         <v>25</v>
       </c>
       <c r="I154" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J154">
         <v>0.11169999999999999</v>
       </c>
       <c r="K154" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M154"/>
       <c r="N154" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O154">
         <v>0.16561280786157795</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B155">
         <v>149</v>
@@ -10018,22 +10018,22 @@
         <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J155">
         <v>0.105</v>
       </c>
       <c r="K155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L155" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N155" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O155">
         <v>0.94116012806383509</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B156">
         <v>150</v>
@@ -10072,16 +10072,16 @@
         <v>99</v>
       </c>
       <c r="K156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L156" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N156" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O156">
         <v>0.55311668627766153</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B157">
         <v>151</v>
@@ -10120,16 +10120,16 @@
         <v>99</v>
       </c>
       <c r="K157" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L157" t="s">
+        <v>371</v>
+      </c>
+      <c r="M157" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M157" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="N157" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O157">
         <v>0.55311668627766153</v>
@@ -10164,17 +10164,20 @@
       <c r="H158" t="s">
         <v>25</v>
       </c>
+      <c r="I158" t="s">
+        <v>491</v>
+      </c>
       <c r="J158" t="s">
         <v>14</v>
       </c>
       <c r="K158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N158" t="s">
         <v>114</v>
@@ -10209,17 +10212,20 @@
       <c r="H159" t="s">
         <v>25</v>
       </c>
+      <c r="I159" t="s">
+        <v>489</v>
+      </c>
       <c r="J159">
         <v>0.1101</v>
       </c>
       <c r="K159" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L159" t="s">
         <v>116</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N159" t="s">
         <v>27</v>
@@ -10254,17 +10260,20 @@
       <c r="H160" t="s">
         <v>25</v>
       </c>
+      <c r="I160" t="s">
+        <v>491</v>
+      </c>
       <c r="J160" t="s">
         <v>14</v>
       </c>
       <c r="K160" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L160" t="s">
         <v>116</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N160" t="s">
         <v>27</v>
@@ -10299,17 +10308,20 @@
       <c r="H161" t="s">
         <v>25</v>
       </c>
+      <c r="I161" t="s">
+        <v>489</v>
+      </c>
       <c r="J161" t="s">
         <v>14</v>
       </c>
       <c r="K161" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L161" t="s">
         <v>119</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N161" t="s">
         <v>27</v>
@@ -10344,11 +10356,14 @@
       <c r="H162" t="s">
         <v>25</v>
       </c>
+      <c r="I162" t="s">
+        <v>491</v>
+      </c>
       <c r="J162">
         <v>0.1028</v>
       </c>
       <c r="K162" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L162" t="s">
         <v>119</v>
@@ -10363,7 +10378,7 @@
     </row>
     <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B163">
         <v>157</v>
@@ -10381,18 +10396,21 @@
       <c r="H163" t="s">
         <v>29</v>
       </c>
+      <c r="I163" t="s">
+        <v>99</v>
+      </c>
       <c r="J163" t="s">
         <v>14</v>
       </c>
       <c r="K163" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L163" t="s">
-        <v>351</v>
+        <v>671</v>
       </c>
       <c r="M163"/>
       <c r="N163" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O163">
         <v>0.39221247611786936</v>
@@ -10403,7 +10421,7 @@
     </row>
     <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B164">
         <v>158</v>
@@ -10434,10 +10452,10 @@
         <v>14</v>
       </c>
       <c r="K164" t="s">
-        <v>428</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>122</v>
+        <v>427</v>
+      </c>
+      <c r="L164" t="s">
+        <v>671</v>
       </c>
       <c r="N164" t="s">
         <v>27</v>
@@ -10448,7 +10466,7 @@
     </row>
     <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -10476,16 +10494,16 @@
         <v>99</v>
       </c>
       <c r="K165" t="s">
-        <v>428</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>122</v>
+        <v>427</v>
+      </c>
+      <c r="L165" t="s">
+        <v>671</v>
       </c>
       <c r="M165" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="N165" t="s">
         <v>376</v>
-      </c>
-      <c r="N165" t="s">
-        <v>377</v>
       </c>
       <c r="O165">
         <v>1.1656128078615779</v>
@@ -10496,7 +10514,7 @@
     </row>
     <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B166">
         <v>160</v>
@@ -10520,17 +10538,20 @@
       <c r="H166" t="s">
         <v>29</v>
       </c>
+      <c r="I166" t="s">
+        <v>99</v>
+      </c>
       <c r="K166" t="s">
-        <v>436</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>103</v>
+        <v>435</v>
+      </c>
+      <c r="L166" t="s">
+        <v>669</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N166" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O166">
         <v>1.1656128078615779</v>
@@ -10541,7 +10562,7 @@
     </row>
     <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B167">
         <v>161</v>
@@ -10565,17 +10586,20 @@
       <c r="H167" t="s">
         <v>29</v>
       </c>
+      <c r="I167" t="s">
+        <v>99</v>
+      </c>
       <c r="K167" t="s">
-        <v>436</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>103</v>
+        <v>435</v>
+      </c>
+      <c r="L167" t="s">
+        <v>669</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O167">
         <v>0.77864566836783666</v>
@@ -10586,7 +10610,7 @@
     </row>
     <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B168">
         <v>162</v>
@@ -10610,17 +10634,20 @@
       <c r="H168" t="s">
         <v>29</v>
       </c>
+      <c r="I168" t="s">
+        <v>99</v>
+      </c>
       <c r="K168" t="s">
-        <v>436</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>103</v>
+        <v>435</v>
+      </c>
+      <c r="L168" t="s">
+        <v>669</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N168" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O168">
         <v>0.39221247611786936</v>
@@ -10631,7 +10658,7 @@
     </row>
     <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B169">
         <v>163</v>
@@ -10655,17 +10682,20 @@
       <c r="H169" t="s">
         <v>29</v>
       </c>
+      <c r="I169" t="s">
+        <v>99</v>
+      </c>
       <c r="K169" t="s">
-        <v>436</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>103</v>
+        <v>435</v>
+      </c>
+      <c r="L169" t="s">
+        <v>669</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O169">
         <v>6.3104715677297918E-3</v>
@@ -10704,16 +10734,16 @@
         <v>99</v>
       </c>
       <c r="K170" t="s">
-        <v>428</v>
-      </c>
-      <c r="L170" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="L170" t="s">
+        <v>671</v>
+      </c>
+      <c r="M170" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="N170" t="s">
         <v>123</v>
-      </c>
-      <c r="N170" t="s">
-        <v>124</v>
       </c>
       <c r="O170">
         <v>-1.1482355421460468</v>
@@ -10724,7 +10754,7 @@
     </row>
     <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B171">
         <v>165</v>
@@ -10752,16 +10782,16 @@
         <v>99</v>
       </c>
       <c r="K171" t="s">
-        <v>428</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>122</v>
+        <v>427</v>
+      </c>
+      <c r="L171" t="s">
+        <v>671</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N171" t="s">
         <v>126</v>
-      </c>
-      <c r="N171" t="s">
-        <v>127</v>
       </c>
       <c r="O171">
         <v>-1.9153261466646825</v>
@@ -10803,13 +10833,13 @@
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>436</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>103</v>
+        <v>435</v>
+      </c>
+      <c r="L172" t="s">
+        <v>669</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N172" t="s">
         <v>104</v>
@@ -10823,7 +10853,7 @@
     </row>
     <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B173">
         <v>167</v>
@@ -10847,18 +10877,21 @@
       <c r="H173" t="s">
         <v>29</v>
       </c>
+      <c r="I173" t="s">
+        <v>171</v>
+      </c>
       <c r="J173" t="s">
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L173" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M173"/>
       <c r="N173" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O173">
         <v>2.5531166862776615</v>
@@ -10869,7 +10902,7 @@
     </row>
     <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B174">
         <v>168</v>
@@ -10894,19 +10927,19 @@
         <v>29</v>
       </c>
       <c r="I174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K174" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M174" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N174" t="s">
         <v>390</v>
-      </c>
-      <c r="N174" t="s">
-        <v>391</v>
       </c>
       <c r="O174">
         <v>1.0063104715677298</v>
@@ -10917,7 +10950,7 @@
     </row>
     <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B175">
         <v>169</v>
@@ -10942,19 +10975,19 @@
         <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K175" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M175" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N175" t="s">
         <v>129</v>
-      </c>
-      <c r="N175" t="s">
-        <v>130</v>
       </c>
       <c r="O175">
         <v>-2.0621038221548531</v>
@@ -10965,7 +10998,7 @@
     </row>
     <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B176">
         <v>170</v>
@@ -10987,16 +11020,16 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="H176" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L176" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M176"/>
       <c r="N176" t="s">
@@ -11008,7 +11041,7 @@
     </row>
     <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -11030,20 +11063,20 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="H177" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L177" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M177" s="4"/>
       <c r="N177" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O177">
         <v>-3.8520611571828951</v>
@@ -11051,7 +11084,7 @@
     </row>
     <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B178">
         <v>172</v>
@@ -11082,10 +11115,10 @@
         <v>14</v>
       </c>
       <c r="K178" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M178" s="4"/>
       <c r="N178" t="s">
@@ -11100,7 +11133,7 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B179">
         <v>173</v>
@@ -11128,10 +11161,10 @@
         <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M179" s="4"/>
       <c r="N179" t="s">
@@ -11143,7 +11176,7 @@
     </row>
     <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B180">
         <v>174</v>
@@ -11171,13 +11204,13 @@
         <v>14</v>
       </c>
       <c r="K180" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N180" t="s">
         <v>27</v>
@@ -11188,7 +11221,7 @@
     </row>
     <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B181">
         <v>175</v>
@@ -11219,10 +11252,10 @@
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M181" s="4"/>
       <c r="N181" t="s">
@@ -11237,7 +11270,7 @@
     </row>
     <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B182">
         <v>176</v>
@@ -11265,10 +11298,10 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="K182" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L182" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M182"/>
       <c r="N182" t="s">
@@ -11280,7 +11313,7 @@
     </row>
     <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B183">
         <v>177</v>
@@ -11308,13 +11341,13 @@
         <v>0.1341</v>
       </c>
       <c r="K183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N183" t="s">
         <v>27</v>
@@ -11328,7 +11361,7 @@
     </row>
     <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B184">
         <v>178</v>
@@ -11356,13 +11389,13 @@
         <v>14</v>
       </c>
       <c r="K184" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N184" t="s">
         <v>27</v>
@@ -11376,7 +11409,7 @@
     </row>
     <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B185">
         <v>179</v>
@@ -11404,13 +11437,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="K185" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N185" t="s">
         <v>27</v>
@@ -11424,7 +11457,7 @@
     </row>
     <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B186">
         <v>180</v>
@@ -11452,13 +11485,13 @@
         <v>14</v>
       </c>
       <c r="K186" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N186" t="s">
         <v>27</v>
@@ -11472,7 +11505,7 @@
     </row>
     <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B187">
         <v>181</v>
@@ -11500,13 +11533,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="K187" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N187" t="s">
         <v>27</v>
@@ -11520,7 +11553,7 @@
     </row>
     <row r="188" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B188">
         <v>182</v>
@@ -11548,13 +11581,13 @@
         <v>14</v>
       </c>
       <c r="K188" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N188" t="s">
         <v>27</v>
@@ -11568,7 +11601,7 @@
     </row>
     <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B189">
         <v>183</v>
@@ -11596,13 +11629,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N189" t="s">
         <v>27</v>
@@ -11616,7 +11649,7 @@
     </row>
     <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B190">
         <v>184</v>
@@ -11644,13 +11677,13 @@
         <v>14</v>
       </c>
       <c r="K190" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N190" t="s">
         <v>27</v>
@@ -11664,7 +11697,7 @@
     </row>
     <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B191">
         <v>185</v>
@@ -11692,13 +11725,13 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K191" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M191" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N191" t="s">
         <v>27</v>
@@ -11712,7 +11745,7 @@
     </row>
     <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192">
         <v>186</v>
@@ -11740,13 +11773,13 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N192" t="s">
         <v>27</v>
@@ -11760,7 +11793,7 @@
     </row>
     <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B193">
         <v>187</v>
@@ -11788,13 +11821,13 @@
         <v>14</v>
       </c>
       <c r="K193" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N193" t="s">
         <v>27</v>
@@ -11808,7 +11841,7 @@
     </row>
     <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -11836,13 +11869,13 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N194" t="s">
         <v>27</v>
@@ -11856,7 +11889,7 @@
     </row>
     <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B195">
         <v>189</v>
@@ -11884,10 +11917,10 @@
         <v>0.33610000000000001</v>
       </c>
       <c r="K195" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M195" s="4"/>
       <c r="N195" t="s">
@@ -11899,7 +11932,7 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B196">
         <v>190</v>
@@ -11927,13 +11960,13 @@
         <v>14</v>
       </c>
       <c r="K196" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N196" t="s">
         <v>27</v>
@@ -11947,7 +11980,7 @@
     </row>
     <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B197">
         <v>191</v>
@@ -11975,14 +12008,14 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="K197" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M197" s="4"/>
       <c r="N197" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O197">
         <v>-1.1196828500900295</v>
@@ -11993,7 +12026,7 @@
     </row>
     <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B198">
         <v>192</v>
@@ -12021,13 +12054,13 @@
         <v>14</v>
       </c>
       <c r="K198" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N198" t="s">
         <v>27</v>
@@ -12041,7 +12074,7 @@
     </row>
     <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B199">
         <v>193</v>
@@ -12069,13 +12102,13 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="K199" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N199" t="s">
         <v>27</v>
@@ -12089,7 +12122,7 @@
     </row>
     <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -12120,10 +12153,10 @@
         <v>14</v>
       </c>
       <c r="K200" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M200" s="4"/>
       <c r="N200" t="s">
@@ -12138,7 +12171,7 @@
     </row>
     <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B201">
         <v>195</v>
@@ -12166,13 +12199,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="K201" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L201" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N201" t="s">
         <v>27</v>
@@ -12183,7 +12216,7 @@
     </row>
     <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B202">
         <v>196</v>
@@ -12211,13 +12244,13 @@
         <v>14</v>
       </c>
       <c r="K202" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L202" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N202" t="s">
         <v>27</v>
@@ -12228,7 +12261,7 @@
     </row>
     <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B203">
         <v>197</v>
@@ -12256,13 +12289,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K203" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L203" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N203" t="s">
         <v>27</v>
@@ -12273,7 +12306,7 @@
     </row>
     <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B204">
         <v>198</v>
@@ -12301,13 +12334,13 @@
         <v>14</v>
       </c>
       <c r="K204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L204" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N204" t="s">
         <v>27</v>
@@ -12318,7 +12351,7 @@
     </row>
     <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B205">
         <v>199</v>
@@ -12346,13 +12379,13 @@
         <v>0.33</v>
       </c>
       <c r="K205" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L205" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N205" t="s">
         <v>27</v>
@@ -12363,7 +12396,7 @@
     </row>
     <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -12394,14 +12427,14 @@
         <v>14</v>
       </c>
       <c r="K206" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M206" s="4"/>
       <c r="N206" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O206">
         <v>-0.97975897813343238</v>
@@ -12412,7 +12445,7 @@
     </row>
     <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B207">
         <v>201</v>
@@ -12437,16 +12470,16 @@
         <v>29</v>
       </c>
       <c r="K207" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N207" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O207">
         <v>2.0241021866567621E-2</v>
@@ -12457,7 +12490,7 @@
     </row>
     <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208">
         <v>202</v>
@@ -12482,20 +12515,20 @@
         <v>29</v>
       </c>
       <c r="I208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
       </c>
       <c r="K208" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M208" s="4"/>
       <c r="N208" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O208">
         <v>-4.9347372767300612E-2</v>
@@ -12506,7 +12539,7 @@
     </row>
     <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B209">
         <v>203</v>
@@ -12534,10 +12567,10 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K209" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M209" s="4"/>
       <c r="N209" t="s">
@@ -12549,7 +12582,7 @@
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B210">
         <v>204</v>
@@ -12574,19 +12607,19 @@
         <v>25</v>
       </c>
       <c r="I210" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
       </c>
       <c r="K210" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L210" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N210" t="s">
         <v>27</v>
@@ -12600,7 +12633,7 @@
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B211">
         <v>205</v>
@@ -12625,19 +12658,19 @@
         <v>25</v>
       </c>
       <c r="I211" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J211">
         <v>0.1295</v>
       </c>
       <c r="K211" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N211" t="s">
         <v>27</v>
@@ -12651,7 +12684,7 @@
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B212">
         <v>206</v>
@@ -12679,13 +12712,13 @@
         <v>14</v>
       </c>
       <c r="K212" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N212" t="s">
         <v>114</v>
@@ -12699,7 +12732,7 @@
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B213">
         <v>207</v>
@@ -12730,14 +12763,14 @@
         <v>14</v>
       </c>
       <c r="K213" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M213" s="4"/>
       <c r="N213" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O213">
         <v>-0.643274748826002</v>
@@ -12748,7 +12781,7 @@
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B214">
         <v>208</v>
@@ -12776,10 +12809,10 @@
         <v>14</v>
       </c>
       <c r="K214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L214" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M214" s="4"/>
       <c r="N214" t="s">
@@ -12791,7 +12824,7 @@
     </row>
     <row r="215" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B215">
         <v>209</v>
@@ -12819,13 +12852,13 @@
         <v>14</v>
       </c>
       <c r="K215" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L215" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N215" t="s">
         <v>27</v>
@@ -12839,7 +12872,7 @@
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B216">
         <v>210</v>
@@ -12870,13 +12903,13 @@
         <v>14</v>
       </c>
       <c r="K216" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N216" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O216">
         <v>0.356725251173998</v>
@@ -12887,7 +12920,7 @@
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B217">
         <v>211</v>
@@ -12912,19 +12945,19 @@
         <v>29</v>
       </c>
       <c r="I217" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
       </c>
       <c r="K217" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N217" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O217">
         <v>0.30582447976929927</v>
@@ -12935,7 +12968,7 @@
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B218">
         <v>212</v>
@@ -12963,13 +12996,13 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L218" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N218" t="s">
         <v>27</v>
@@ -12983,7 +13016,7 @@
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B219">
         <v>213</v>
@@ -13011,13 +13044,13 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="K219" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L219" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N219" t="s">
         <v>27</v>
@@ -13031,7 +13064,7 @@
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B220">
         <v>214</v>
@@ -13059,13 +13092,13 @@
         <v>14</v>
       </c>
       <c r="K220" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L220" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N220" t="s">
         <v>27</v>
@@ -13079,7 +13112,7 @@
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B221">
         <v>215</v>
@@ -13107,13 +13140,13 @@
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L221" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N221" t="s">
         <v>27</v>
@@ -13127,7 +13160,7 @@
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B222">
         <v>216</v>
@@ -13149,20 +13182,20 @@
         <v>3.5</v>
       </c>
       <c r="H222" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J222">
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="K222" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L222" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O222">
         <v>-1.4801181958633407</v>
@@ -13170,7 +13203,7 @@
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B223">
         <v>217</v>
@@ -13198,16 +13231,16 @@
         <v>99</v>
       </c>
       <c r="K223" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M223" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N223" t="s">
         <v>401</v>
-      </c>
-      <c r="N223" t="s">
-        <v>402</v>
       </c>
       <c r="O223">
         <v>0.90988476319826361</v>
@@ -13218,7 +13251,7 @@
     </row>
     <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B224">
         <v>218</v>
@@ -13246,16 +13279,16 @@
         <v>99</v>
       </c>
       <c r="K224" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N224" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O224">
         <v>0.21414630062287188</v>
@@ -13266,7 +13299,7 @@
     </row>
     <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B225">
         <v>219</v>
@@ -13294,16 +13327,16 @@
         <v>99</v>
       </c>
       <c r="K225" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L225" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M225" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="M225" s="4" t="s">
+      <c r="N225" t="s">
         <v>193</v>
-      </c>
-      <c r="N225" t="s">
-        <v>194</v>
       </c>
       <c r="O225">
         <v>-0.1331695621990292</v>
@@ -13314,7 +13347,7 @@
     </row>
     <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B226">
         <v>220</v>
@@ -13342,16 +13375,16 @@
         <v>99</v>
       </c>
       <c r="K226" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N226" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O226">
         <v>-0.4801181958633407</v>
@@ -13362,7 +13395,7 @@
     </row>
     <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B227">
         <v>221</v>
@@ -13393,14 +13426,14 @@
         <v>14</v>
       </c>
       <c r="K227" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O227">
         <v>0.17329914814656888</v>
@@ -13411,7 +13444,7 @@
     </row>
     <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B228">
         <v>222</v>
@@ -13439,16 +13472,16 @@
         <v>99</v>
       </c>
       <c r="K228" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M228" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="N228" t="s">
         <v>406</v>
-      </c>
-      <c r="N228" t="s">
-        <v>407</v>
       </c>
       <c r="O228">
         <v>0.17329914814656888</v>
@@ -13459,7 +13492,7 @@
     </row>
     <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B229">
         <v>223</v>
@@ -13487,13 +13520,13 @@
         <v>14</v>
       </c>
       <c r="K229" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L229" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N229" t="s">
         <v>27</v>
@@ -13507,7 +13540,7 @@
     </row>
     <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B230">
         <v>224</v>
@@ -13535,13 +13568,13 @@
         <v>0.248</v>
       </c>
       <c r="K230" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L230" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N230" t="s">
         <v>27</v>
@@ -13555,7 +13588,7 @@
     </row>
     <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B231">
         <v>225</v>
@@ -13583,13 +13616,13 @@
         <v>14</v>
       </c>
       <c r="K231" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L231" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N231" t="s">
         <v>27</v>
@@ -13603,7 +13636,7 @@
     </row>
     <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B232">
         <v>226</v>
@@ -13631,13 +13664,13 @@
         <v>14</v>
       </c>
       <c r="K232" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L232" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N232" t="s">
         <v>27</v>
@@ -13651,7 +13684,7 @@
     </row>
     <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B233">
         <v>227</v>
@@ -13679,13 +13712,13 @@
         <v>14</v>
       </c>
       <c r="K233" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L233" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N233" t="s">
         <v>27</v>
@@ -13699,7 +13732,7 @@
     </row>
     <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B234">
         <v>228</v>
@@ -13727,13 +13760,13 @@
         <v>14</v>
       </c>
       <c r="K234" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L234" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N234" t="s">
         <v>27</v>
@@ -13747,7 +13780,7 @@
     </row>
     <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B235">
         <v>229</v>
@@ -13775,13 +13808,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="K235" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L235" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N235" t="s">
         <v>27</v>
@@ -13795,7 +13828,7 @@
     </row>
     <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B236">
         <v>230</v>
@@ -13823,13 +13856,13 @@
         <v>14</v>
       </c>
       <c r="K236" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L236" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N236" t="s">
         <v>27</v>
@@ -13843,7 +13876,7 @@
     </row>
     <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B237">
         <v>231</v>
@@ -13871,13 +13904,13 @@
         <v>14</v>
       </c>
       <c r="K237" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L237" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N237" t="s">
         <v>27</v>
@@ -13891,7 +13924,7 @@
     </row>
     <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B238">
         <v>232</v>
@@ -13919,13 +13952,13 @@
         <v>14</v>
       </c>
       <c r="K238" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L238" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N238" t="s">
         <v>27</v>
@@ -13969,38 +14002,28 @@
     <hyperlink ref="L125" r:id="rId28" xr:uid="{EF394F23-509B-4385-A05B-914B120552D2}"/>
     <hyperlink ref="L128" r:id="rId29" xr:uid="{8B38F510-2F66-464F-BB6C-30801C8B2D32}"/>
     <hyperlink ref="L140" r:id="rId30" xr:uid="{A333A0B3-263F-4BDA-906B-C9D0BD25427C}"/>
-    <hyperlink ref="L166" r:id="rId31" xr:uid="{20066DE7-824B-4268-AC01-5409FA1B58D5}"/>
-    <hyperlink ref="L167" r:id="rId32" xr:uid="{C8E042BE-6C03-4C47-8099-25D0085A8871}"/>
-    <hyperlink ref="L168" r:id="rId33" xr:uid="{1A510D41-50F7-4DA6-8E10-32212DA6F57B}"/>
-    <hyperlink ref="L169" r:id="rId34" xr:uid="{C05E7C54-AAE0-4ECD-8EAD-7E88AC3AF9E7}"/>
-    <hyperlink ref="L207" r:id="rId35" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
-    <hyperlink ref="L157" r:id="rId36" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
-    <hyperlink ref="L165" r:id="rId37" xr:uid="{3845239A-C889-4554-928A-F74906567D34}"/>
-    <hyperlink ref="L164" r:id="rId38" xr:uid="{581A7034-6B85-4394-83CC-498F2EB151B5}"/>
-    <hyperlink ref="L174" r:id="rId39" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
-    <hyperlink ref="L216" r:id="rId40" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
-    <hyperlink ref="L217" r:id="rId41" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
-    <hyperlink ref="L227" r:id="rId42" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
-    <hyperlink ref="L124:L127" r:id="rId43" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
-    <hyperlink ref="L227:L228" r:id="rId44" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
-    <hyperlink ref="L208" r:id="rId45" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
-    <hyperlink ref="L131" r:id="rId46" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
-    <hyperlink ref="L172" r:id="rId47" xr:uid="{23A23C8C-957B-B043-A682-B17112CFB3F2}"/>
-    <hyperlink ref="L175" r:id="rId48" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
-    <hyperlink ref="L40" r:id="rId49" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
-    <hyperlink ref="L159:L166" r:id="rId50" display="M. Maruyama. NP A131 145 (1969)" xr:uid="{8F9A7B4A-494C-1941-A7FE-43DCC5376895}"/>
-    <hyperlink ref="L187:L207" r:id="rId51" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
-    <hyperlink ref="L130" r:id="rId52" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
-    <hyperlink ref="L170" r:id="rId53" xr:uid="{927B25BD-47C7-3C47-9EAF-CF1F10954112}"/>
-    <hyperlink ref="L171" r:id="rId54" xr:uid="{56BD19B7-9030-D049-8D8D-21C202E22CFE}"/>
-    <hyperlink ref="L206" r:id="rId55" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
-    <hyperlink ref="L213" r:id="rId56" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
-    <hyperlink ref="L123" r:id="rId57" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
-    <hyperlink ref="L126" r:id="rId58" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
+    <hyperlink ref="L207" r:id="rId31" xr:uid="{3E57E4FB-0AF6-47F3-A55D-251397E76F59}"/>
+    <hyperlink ref="L157" r:id="rId32" xr:uid="{8424CAE4-B44F-47E0-8546-CEBD8C8D63BF}"/>
+    <hyperlink ref="L174" r:id="rId33" display="R. Shil et al. PLB 2022" xr:uid="{CCDFFD21-86F9-47D2-963E-183BA61BE890}"/>
+    <hyperlink ref="L216" r:id="rId34" xr:uid="{0778ECA4-AA17-4273-B3A2-E82ECA59CB19}"/>
+    <hyperlink ref="L217" r:id="rId35" xr:uid="{F5E33485-9E97-4575-B824-76A7951B4E9A}"/>
+    <hyperlink ref="L227" r:id="rId36" xr:uid="{3094BE8B-EE33-4919-A93C-0FBBAB9AEAEA}"/>
+    <hyperlink ref="L124:L127" r:id="rId37" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{77628755-F205-4B14-8135-43559B32EAC1}"/>
+    <hyperlink ref="L227:L228" r:id="rId38" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{E30B08D7-E999-CF4A-A0C5-C0A24599F061}"/>
+    <hyperlink ref="L208" r:id="rId39" xr:uid="{3264E3BB-71DF-8444-9890-4DF19B6BAF33}"/>
+    <hyperlink ref="L131" r:id="rId40" xr:uid="{AFC61211-EC22-EC45-90A5-9F4353A12E4A}"/>
+    <hyperlink ref="L175" r:id="rId41" display="R. Shil et al. PLB 2022" xr:uid="{26223E75-36D0-A343-A0DC-8798C385F715}"/>
+    <hyperlink ref="L40" r:id="rId42" xr:uid="{D4137C2D-667E-F849-9659-2D61DFCD12AF}"/>
+    <hyperlink ref="L187:L207" r:id="rId43" display="M. Maruyama. NP A131 145(1969)" xr:uid="{350D3D7D-EA74-ED4C-8516-56647344F483}"/>
+    <hyperlink ref="L130" r:id="rId44" xr:uid="{D5C35786-44BE-5240-95E4-32BFE2E17898}"/>
+    <hyperlink ref="L206" r:id="rId45" xr:uid="{38C00501-97AC-E649-A2DE-AED7212FB0B0}"/>
+    <hyperlink ref="L213" r:id="rId46" xr:uid="{995D8F8B-C6B0-2A44-B7D3-ADC2A8ACA307}"/>
+    <hyperlink ref="L123" r:id="rId47" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{7A10A6DC-24DB-724C-8AEB-AE36901D0F31}"/>
+    <hyperlink ref="L126" r:id="rId48" display="A. Wallner et al. PRC 51, 614 (1995)" xr:uid="{60837D56-76DD-514F-A2F6-D89E9E347C02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
 </file>

--- a/log_book_new.xlsx
+++ b/log_book_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragrathi/Desktop/NLD_database_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D71083E-2DE4-F94B-B1DF-0C4639BEB6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F86443-E5EF-2645-B374-880239F0C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9DC6FD1D-072D-EA4D-8753-22EDA1FE1D9C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="675">
   <si>
     <t>Isotope</t>
   </si>
@@ -445,9 +445,6 @@
     <t>137Xe</t>
   </si>
   <si>
-    <t>H. Ohm et al. ZPA 296, 23 (1980)</t>
-  </si>
-  <si>
     <t>133Cs</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>138La</t>
   </si>
   <si>
-    <t>B.V. Kheswa et al. PLB 744, 268 (2015)</t>
-  </si>
-  <si>
     <t>139La</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>144Nd</t>
   </si>
   <si>
-    <t>M. Guttormsen et al. PLB 2021</t>
-  </si>
-  <si>
     <t>145Nd</t>
   </si>
   <si>
@@ -496,9 +487,6 @@
     <t>149Sm</t>
   </si>
   <si>
-    <t>S. Siem et al. PRC 65, 044318 (2002)</t>
-  </si>
-  <si>
     <t>151Sm</t>
   </si>
   <si>
@@ -1510,9 +1498,6 @@
     <t>Scattering Wavelet</t>
   </si>
   <si>
-    <t>R. Shil et al. PLB, Volume 831 C (2022)</t>
-  </si>
-  <si>
     <t>p,a</t>
   </si>
   <si>
@@ -2066,6 +2051,30 @@
   </si>
   <si>
     <t>B. V. Zhuravlev, Phys. Atom. Nucl. 69, 363–370 (2006)</t>
+  </si>
+  <si>
+    <t>H. Ohm, Atoms and Nuclei 296, 23-33 (1980)</t>
+  </si>
+  <si>
+    <t>M. Maruyama, Nucl. Phys. A 131 145(1969)</t>
+  </si>
+  <si>
+    <t>B.V. Kheswa et al., EPJ Web of Conferences 93, 04005 (2015)</t>
+  </si>
+  <si>
+    <t>R. Shil et al., Phys. Lett. B Volume 831 C (2022)</t>
+  </si>
+  <si>
+    <t>M Guttormsen, Phys. Lett. B, Volume 816 136206 (2021)</t>
+  </si>
+  <si>
+    <t>3He,a</t>
+  </si>
+  <si>
+    <t>3He,3He'</t>
+  </si>
+  <si>
+    <t>S. Siem et al. Phys. Rev. C 65, 044318 (2002)</t>
   </si>
 </sst>
 </file>
@@ -2524,9 +2533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8AA59-B14F-2247-92C6-86B2A5AEEF23}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I176" sqref="I176"/>
+      <selection pane="topRight" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2552,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -2561,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -2579,7 +2588,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>7</v>
@@ -2599,7 +2608,7 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2624,19 +2633,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -2650,7 +2659,7 @@
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2675,20 +2684,20 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O3">
         <v>0.22586093647368166</v>
@@ -2721,19 +2730,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2769,19 +2778,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2792,7 +2801,7 @@
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2823,10 +2832,10 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -2838,7 +2847,7 @@
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2863,19 +2872,19 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -2886,7 +2895,7 @@
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2911,20 +2920,20 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O8">
         <v>0.3207758832260339</v>
@@ -2932,7 +2941,7 @@
     </row>
     <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2957,19 +2966,19 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L9" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M9" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="N9" t="s">
         <v>16</v>
@@ -3005,19 +3014,19 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -3028,7 +3037,7 @@
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3053,19 +3062,19 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L11" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
@@ -3076,7 +3085,7 @@
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3101,19 +3110,19 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L12" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M12" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
@@ -3124,7 +3133,7 @@
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3152,14 +3161,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O13">
         <v>0.30078054498882523</v>
@@ -3167,7 +3176,7 @@
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3195,14 +3204,14 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O14">
         <v>0.30078054498882523</v>
@@ -3210,7 +3219,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3235,22 +3244,22 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L15" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M15" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="N15" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="O15">
         <v>0.41851194013180049</v>
@@ -3258,7 +3267,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3283,22 +3292,22 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L16" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M16" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="N16" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="O16">
         <v>0.41851194013180049</v>
@@ -3306,7 +3315,7 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -3331,22 +3340,22 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M17" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="N17" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="O17">
         <v>0.41851194013180049</v>
@@ -3354,7 +3363,7 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -3376,19 +3385,19 @@
         <v>0.20000000000000107</v>
       </c>
       <c r="H18" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="I18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J18">
         <v>0.11700000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L18" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
@@ -3400,7 +3409,7 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -3422,23 +3431,23 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I19" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J19">
         <v>0.11700000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L19" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O19">
         <v>1.4185119401318005</v>
@@ -3446,7 +3455,7 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -3471,22 +3480,22 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L20" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M20" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="N20" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="O20">
         <v>0.97881027243522567</v>
@@ -3494,7 +3503,7 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -3519,19 +3528,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N21" t="s">
         <v>27</v>
@@ -3545,7 +3554,7 @@
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -3570,19 +3579,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O22">
         <v>0.66530212507089459</v>
@@ -3593,7 +3602,7 @@
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3618,19 +3627,19 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
@@ -3644,7 +3653,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -3669,19 +3678,19 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
@@ -3720,16 +3729,16 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L25" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s">
@@ -3741,7 +3750,7 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -3766,20 +3775,20 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J26">
         <v>0.26</v>
       </c>
       <c r="K26" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O26">
         <v>1.6653021250708946</v>
@@ -3787,7 +3796,7 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -3812,19 +3821,19 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N27" t="s">
         <v>27</v>
@@ -3838,7 +3847,7 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -3869,10 +3878,10 @@
         <v>0.318</v>
       </c>
       <c r="K28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L28" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
@@ -3884,7 +3893,7 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -3909,19 +3918,19 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J29">
         <v>0.318</v>
       </c>
       <c r="K29" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="N29" t="s">
         <v>27</v>
@@ -3935,7 +3944,7 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -3960,22 +3969,22 @@
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="N30" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O30">
         <v>0.3599709566234246</v>
@@ -4008,25 +4017,25 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I31" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N31" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O31">
         <v>-1.3681988675306158</v>
@@ -4056,25 +4065,25 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I32" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="N32" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="O32">
         <v>-1.3681988675306158</v>
@@ -4082,7 +4091,7 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -4110,13 +4119,13 @@
         <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N33" t="s">
         <v>61</v>
@@ -4130,7 +4139,7 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -4158,13 +4167,13 @@
         <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s">
         <v>61</v>
@@ -4178,7 +4187,7 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B35">
         <v>31</v>
@@ -4206,13 +4215,13 @@
         <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s">
         <v>61</v>
@@ -4226,7 +4235,7 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -4251,19 +4260,19 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N36" t="s">
         <v>27</v>
@@ -4302,19 +4311,19 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L37" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -4328,7 +4337,7 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -4353,16 +4362,16 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N38" t="s">
         <v>61</v>
@@ -4376,7 +4385,7 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B39">
         <v>35</v>
@@ -4407,14 +4416,14 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L39" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O39">
         <v>0.20189076074470336</v>
@@ -4450,7 +4459,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
@@ -4470,7 +4479,7 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4495,19 +4504,19 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K41" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O41">
         <v>1.2018907607447034</v>
@@ -4518,7 +4527,7 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -4543,16 +4552,16 @@
         <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K42" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N42" t="s">
         <v>61</v>
@@ -4566,7 +4575,7 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B43">
         <v>39</v>
@@ -4591,19 +4600,19 @@
         <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K43" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N43" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O43">
         <v>0.34457022419830707</v>
@@ -4614,7 +4623,7 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -4642,16 +4651,16 @@
         <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N44" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O44">
         <v>0.34457022419830707</v>
@@ -4687,20 +4696,20 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L45" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="O45">
         <v>-0.50946917104049305</v>
@@ -4708,7 +4717,7 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -4733,19 +4742,19 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J46">
         <v>0.25</v>
       </c>
       <c r="K46" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O46">
         <v>0.49053082895950695</v>
@@ -4756,7 +4765,7 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -4781,19 +4790,19 @@
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J47">
         <v>0.25</v>
       </c>
       <c r="K47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L47" t="s">
         <v>106</v>
       </c>
       <c r="M47" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N47" t="s">
         <v>27</v>
@@ -4807,7 +4816,7 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B48">
         <v>44</v>
@@ -4832,20 +4841,20 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J48">
         <v>0.25</v>
       </c>
       <c r="K48" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O48">
         <v>6.4722583070196293E-2</v>
@@ -4853,7 +4862,7 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -4878,20 +4887,20 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O49">
         <v>6.4722583070196293E-2</v>
@@ -4899,7 +4908,7 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B50">
         <v>46</v>
@@ -4924,19 +4933,19 @@
         <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K50" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O50">
         <v>0.91714422422645825</v>
@@ -4947,7 +4956,7 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4972,19 +4981,19 @@
         <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K51" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N51" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O51">
         <v>6.4722583070196293E-2</v>
@@ -4995,7 +5004,7 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -5020,19 +5029,19 @@
         <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="O52">
         <v>6.4722583070196293E-2</v>
@@ -5043,7 +5052,7 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B53">
         <v>49</v>
@@ -5068,16 +5077,16 @@
         <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N53" t="s">
         <v>61</v>
@@ -5091,7 +5100,7 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -5116,19 +5125,19 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s">
         <v>106</v>
       </c>
       <c r="M54" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N54" t="s">
         <v>27</v>
@@ -5142,7 +5151,7 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B55">
         <v>51</v>
@@ -5170,16 +5179,16 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O55">
         <v>6.4722583070196293E-2</v>
@@ -5190,7 +5199,7 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B56">
         <v>52</v>
@@ -5215,19 +5224,19 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N56" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O56">
         <v>1.9171442242264582</v>
@@ -5238,7 +5247,7 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B57">
         <v>53</v>
@@ -5269,13 +5278,13 @@
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O57">
         <v>1.4905308289595069</v>
@@ -5286,7 +5295,7 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B58">
         <v>54</v>
@@ -5311,19 +5320,19 @@
         <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O58">
         <v>1.0647225830701963</v>
@@ -5334,7 +5343,7 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B59">
         <v>55</v>
@@ -5365,13 +5374,13 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O59">
         <v>1.0647225830701963</v>
@@ -5379,7 +5388,7 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B60">
         <v>56</v>
@@ -5410,13 +5419,13 @@
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N60" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O60">
         <v>1.0647225830701963</v>
@@ -5427,7 +5436,7 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -5458,16 +5467,16 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N61" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="O61">
         <v>1.0647225830701963</v>
@@ -5478,7 +5487,7 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B62">
         <v>58</v>
@@ -5509,13 +5518,13 @@
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N62" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O62">
         <v>0.21549256905338865</v>
@@ -5526,7 +5535,7 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B63">
         <v>59</v>
@@ -5551,19 +5560,19 @@
         <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N63" t="s">
         <v>63</v>
@@ -5602,13 +5611,13 @@
         <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="K64" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L64" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>39</v>
@@ -5650,19 +5659,19 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -5698,19 +5707,19 @@
         <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L66" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
@@ -5749,16 +5758,16 @@
         <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" t="s">
@@ -5773,7 +5782,7 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B68">
         <v>64</v>
@@ -5795,23 +5804,23 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I68" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="J68">
         <v>0.17899999999999999</v>
       </c>
       <c r="K68" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L68" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O68">
         <v>1.6397122027717934</v>
@@ -5819,7 +5828,7 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B69">
         <v>65</v>
@@ -5850,13 +5859,13 @@
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L69" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="O69">
         <v>1.2154925690533886</v>
@@ -5867,7 +5876,7 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -5898,14 +5907,14 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L70" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O70">
         <v>0.79205672129325677</v>
@@ -5913,7 +5922,7 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B71">
         <v>67</v>
@@ -5938,20 +5947,20 @@
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J71">
         <v>0.20499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L71" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O71">
         <v>0.79205672129325677</v>
@@ -5959,7 +5968,7 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B72">
         <v>68</v>
@@ -5984,19 +5993,19 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="K72" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L72" t="s">
         <v>47</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N72" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O72">
         <v>1.2154925690533886</v>
@@ -6007,7 +6016,7 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B73">
         <v>69</v>
@@ -6035,16 +6044,16 @@
         <v>99</v>
       </c>
       <c r="K73" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L73" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N73" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O73">
         <v>1.2154925690533886</v>
@@ -6055,7 +6064,7 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B74">
         <v>70</v>
@@ -6080,22 +6089,22 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
       <c r="K74" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="N74" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O74">
         <v>0.79205672129325677</v>
@@ -6106,7 +6115,7 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B75">
         <v>71</v>
@@ -6131,22 +6140,22 @@
         <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="J75">
         <v>0.20499999999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L75" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N75" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O75">
         <v>0.79205672129325677</v>
@@ -6157,7 +6166,7 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B76">
         <v>72</v>
@@ -6182,19 +6191,19 @@
         <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J76">
         <v>0.20499999999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L76" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N76" t="s">
         <v>61</v>
@@ -6208,7 +6217,7 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B77">
         <v>73</v>
@@ -6233,22 +6242,22 @@
         <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L77" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N77" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O77">
         <v>0.36939785122319435</v>
@@ -6259,7 +6268,7 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B78">
         <v>74</v>
@@ -6284,19 +6293,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K78" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L78" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N78" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O78">
         <v>0.36939785122319435</v>
@@ -6338,10 +6347,10 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="K79" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L79" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>48</v>
@@ -6386,10 +6395,10 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L80" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>54</v>
@@ -6434,10 +6443,10 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L81" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>56</v>
@@ -6485,10 +6494,10 @@
         <v>0.158</v>
       </c>
       <c r="K82" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L82" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>59</v>
@@ -6530,16 +6539,16 @@
         <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="J83">
         <v>0.158</v>
       </c>
       <c r="K83" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>60</v>
@@ -6581,19 +6590,19 @@
         <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="J84">
         <v>0.19700000000000001</v>
       </c>
       <c r="K84" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="N84" t="s">
         <v>51</v>
@@ -6635,14 +6644,14 @@
         <v>0.158</v>
       </c>
       <c r="K85" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L85" t="s">
         <v>62</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O85">
         <v>-0.89398280802292263</v>
@@ -6672,19 +6681,19 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I86" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L86" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" t="s">
@@ -6718,19 +6727,19 @@
         <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I87" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J87">
         <v>0.17899999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L87" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" t="s">
@@ -6742,7 +6751,7 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -6767,19 +6776,19 @@
         <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L88" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O88">
         <v>0.52638453889420589</v>
@@ -6790,7 +6799,7 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B89">
         <v>85</v>
@@ -6815,22 +6824,22 @@
         <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L89" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="N89" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O89">
         <v>0.10601719197707737</v>
@@ -6841,7 +6850,7 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B90">
         <v>86</v>
@@ -6866,22 +6875,22 @@
         <v>29</v>
       </c>
       <c r="I90" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     